--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="1244">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4607,6 +4607,9 @@
   <si>
     <t xml:space="preserve">VENTAS ZAVALETA DEV. DE PRESTAMO A CENTRAL </t>
   </si>
+  <si>
+    <t xml:space="preserve">DEPOSITAR  A NORMA LEDO PARRA </t>
+  </si>
 </sst>
 </file>
 
@@ -4621,7 +4624,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5221,6 +5224,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -5386,7 +5397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="110">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -6557,32 +6568,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="mediumDashDot">
-        <color auto="1"/>
-      </right>
-      <top style="mediumDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="mediumDashDot">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="mediumDashDot">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashDot">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="mediumDashDot">
         <color auto="1"/>
@@ -6743,12 +6732,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="899">
+  <cellXfs count="905">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7840,19 +7838,19 @@
     </xf>
     <xf numFmtId="44" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="98" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="101" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="99" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8056,7 +8054,7 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8171,11 +8169,11 @@
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8269,6 +8267,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="21" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8341,76 +8372,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8454,6 +8419,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8617,7 +8615,7 @@
     <xf numFmtId="44" fontId="33" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="22" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="22" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="62" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8644,59 +8642,11 @@
     <xf numFmtId="44" fontId="33" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="61" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="61" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="14" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="62" fillId="16" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8716,6 +8666,72 @@
     <xf numFmtId="165" fontId="62" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="14" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="61" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="61" fillId="0" borderId="108" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="24" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8725,9 +8741,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
@@ -13688,8 +13704,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -13697,7 +13713,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13706,8 +13722,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3924300" y="3943350"/>
-          <a:ext cx="2190750" cy="781050"/>
+          <a:off x="3038475" y="3933825"/>
+          <a:ext cx="2600325" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14030,23 +14046,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
-      <c r="C1" s="776" t="s">
+      <c r="B1" s="750"/>
+      <c r="C1" s="752" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="777"/>
-      <c r="E1" s="777"/>
-      <c r="F1" s="777"/>
-      <c r="G1" s="777"/>
-      <c r="H1" s="777"/>
-      <c r="I1" s="777"/>
-      <c r="J1" s="777"/>
-      <c r="K1" s="777"/>
-      <c r="L1" s="777"/>
-      <c r="M1" s="777"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14056,17 +14072,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14080,14 +14096,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14097,10 +14113,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="755" t="s">
+      <c r="P4" s="766" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="756"/>
+      <c r="Q4" s="767"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15541,11 +15557,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="757">
+      <c r="M39" s="768">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="759">
+      <c r="N39" s="770">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15571,8 +15587,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="758"/>
-      <c r="N40" s="760"/>
+      <c r="M40" s="769"/>
+      <c r="N40" s="771"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15787,29 +15803,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="773"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="774">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="764"/>
-      <c r="M52" s="765">
+      <c r="L52" s="775"/>
+      <c r="M52" s="776">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="766"/>
+      <c r="N52" s="777"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="778"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15820,22 +15836,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="767" t="s">
+      <c r="D54" s="778" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="767"/>
+      <c r="E54" s="778"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="780"/>
+      <c r="K54" s="781">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="771"/>
+      <c r="L54" s="782"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15868,11 +15884,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="783">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="784"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15889,22 +15905,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="762"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="763" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="764"/>
+      <c r="K58" s="765">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="765"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16048,12 +16064,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16068,6 +16078,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18926,7 +18942,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
+      <c r="B1" s="750"/>
       <c r="C1" s="816" t="s">
         <v>451</v>
       </c>
@@ -18942,7 +18958,7 @@
       <c r="M1" s="817"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18952,21 +18968,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -18984,14 +19000,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19001,15 +19017,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="815"/>
-      <c r="W4" s="787" t="s">
+      <c r="W4" s="803" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="787"/>
+      <c r="X4" s="803"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19060,8 +19076,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="787"/>
-      <c r="X5" s="787"/>
+      <c r="W5" s="803"/>
+      <c r="X5" s="803"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19824,7 +19840,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="791">
+      <c r="W19" s="807">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19876,7 +19892,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="792"/>
+      <c r="W20" s="808"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19925,8 +19941,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="793"/>
-      <c r="X21" s="793"/>
+      <c r="W21" s="809"/>
+      <c r="X21" s="809"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20026,8 +20042,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="794"/>
-      <c r="X23" s="794"/>
+      <c r="W23" s="810"/>
+      <c r="X23" s="810"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20082,8 +20098,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="794"/>
-      <c r="X24" s="794"/>
+      <c r="W24" s="810"/>
+      <c r="X24" s="810"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20131,8 +20147,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="795"/>
-      <c r="X25" s="795"/>
+      <c r="W25" s="811"/>
+      <c r="X25" s="811"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20181,8 +20197,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="795"/>
-      <c r="X26" s="795"/>
+      <c r="W26" s="811"/>
+      <c r="X26" s="811"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20230,9 +20246,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="788"/>
-      <c r="X27" s="789"/>
-      <c r="Y27" s="790"/>
+      <c r="W27" s="804"/>
+      <c r="X27" s="805"/>
+      <c r="Y27" s="806"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20280,9 +20296,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="789"/>
-      <c r="X28" s="789"/>
-      <c r="Y28" s="790"/>
+      <c r="W28" s="805"/>
+      <c r="X28" s="805"/>
+      <c r="Y28" s="806"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20614,11 +20630,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="806">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="808">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20651,8 +20667,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="807"/>
-      <c r="N37" s="809"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -21339,26 +21355,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="761" t="s">
+      <c r="H68" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="762"/>
+      <c r="I68" s="773"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="763">
+      <c r="K68" s="774">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="796"/>
+      <c r="L68" s="801"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="767" t="s">
+      <c r="D69" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="767"/>
+      <c r="E69" s="778"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21367,22 +21383,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="797" t="s">
+      <c r="D70" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="797"/>
+      <c r="E70" s="802"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="768" t="s">
+      <c r="I70" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="769"/>
-      <c r="K70" s="770">
+      <c r="J70" s="780"/>
+      <c r="K70" s="781">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="770"/>
+      <c r="L70" s="781"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21423,11 +21439,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="772">
+      <c r="K72" s="783">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="773"/>
+      <c r="L72" s="784"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21444,22 +21460,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="750" t="s">
+      <c r="D74" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="751"/>
+      <c r="E74" s="762"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="752" t="s">
+      <c r="I74" s="763" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="753"/>
-      <c r="K74" s="754">
+      <c r="J74" s="764"/>
+      <c r="K74" s="765">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="754"/>
+      <c r="L74" s="765"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21606,21 +21622,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -21636,6 +21637,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24248,7 +24264,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
+      <c r="B1" s="750"/>
       <c r="C1" s="816" t="s">
         <v>620</v>
       </c>
@@ -24264,7 +24280,7 @@
       <c r="M1" s="817"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24274,21 +24290,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -24306,14 +24322,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24323,15 +24339,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="815"/>
-      <c r="W4" s="787" t="s">
+      <c r="W4" s="803" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="787"/>
+      <c r="X4" s="803"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24382,8 +24398,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="787"/>
-      <c r="X5" s="787"/>
+      <c r="W5" s="803"/>
+      <c r="X5" s="803"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25142,7 +25158,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="791">
+      <c r="W19" s="807">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25194,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="792"/>
+      <c r="W20" s="808"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25243,8 +25259,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="793"/>
-      <c r="X21" s="793"/>
+      <c r="W21" s="809"/>
+      <c r="X21" s="809"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25341,8 +25357,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="794"/>
-      <c r="X23" s="794"/>
+      <c r="W23" s="810"/>
+      <c r="X23" s="810"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25397,8 +25413,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="794"/>
-      <c r="X24" s="794"/>
+      <c r="W24" s="810"/>
+      <c r="X24" s="810"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25444,8 +25460,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="795"/>
-      <c r="X25" s="795"/>
+      <c r="W25" s="811"/>
+      <c r="X25" s="811"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25496,8 +25512,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="795"/>
-      <c r="X26" s="795"/>
+      <c r="W26" s="811"/>
+      <c r="X26" s="811"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25548,9 +25564,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="788"/>
-      <c r="X27" s="789"/>
-      <c r="Y27" s="790"/>
+      <c r="W27" s="804"/>
+      <c r="X27" s="805"/>
+      <c r="Y27" s="806"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25600,9 +25616,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="789"/>
-      <c r="X28" s="789"/>
-      <c r="Y28" s="790"/>
+      <c r="W28" s="805"/>
+      <c r="X28" s="805"/>
+      <c r="Y28" s="806"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26206,11 +26222,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="806">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="806">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26248,8 +26264,8 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="807"/>
-      <c r="N42" s="807"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="861"/>
     </row>
@@ -26936,26 +26952,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="761" t="s">
+      <c r="H70" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="762"/>
+      <c r="I70" s="773"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="763">
+      <c r="K70" s="774">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="796"/>
+      <c r="L70" s="801"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="767" t="s">
+      <c r="D71" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="767"/>
+      <c r="E71" s="778"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26965,22 +26981,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="797" t="s">
+      <c r="D72" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="797"/>
+      <c r="E72" s="802"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="768" t="s">
+      <c r="I72" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="769"/>
-      <c r="K72" s="770">
+      <c r="J72" s="780"/>
+      <c r="K72" s="781">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="770"/>
+      <c r="L72" s="781"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27021,11 +27037,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="772">
+      <c r="K74" s="783">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="773"/>
+      <c r="L74" s="784"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27044,22 +27060,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="750" t="s">
+      <c r="D76" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="751"/>
+      <c r="E76" s="762"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="752" t="s">
+      <c r="I76" s="763" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="753"/>
-      <c r="K76" s="754">
+      <c r="J76" s="764"/>
+      <c r="K76" s="765">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="754"/>
+      <c r="L76" s="765"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27219,21 +27235,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27249,6 +27250,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30438,7 +30454,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30452,11 +30468,11 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="893" t="s">
+      <c r="B2" s="877" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="894"/>
-      <c r="D2" s="895"/>
+      <c r="C2" s="878"/>
+      <c r="D2" s="879"/>
       <c r="F2" s="867" t="s">
         <v>1241</v>
       </c>
@@ -30464,9 +30480,9 @@
       <c r="H2" s="869"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="896"/>
-      <c r="C3" s="897"/>
-      <c r="D3" s="898"/>
+      <c r="B3" s="880"/>
+      <c r="C3" s="881"/>
+      <c r="D3" s="882"/>
       <c r="F3" s="870"/>
       <c r="G3" s="871"/>
       <c r="H3" s="872"/>
@@ -30635,17 +30651,27 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="877" t="s">
+      <c r="C15" s="875" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="875">
+      <c r="D15" s="897">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
+      <c r="E15" s="899" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F15" s="900"/>
+      <c r="G15" s="900"/>
+      <c r="H15" s="901"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="878"/>
-      <c r="D16" s="876"/>
+      <c r="C16" s="876"/>
+      <c r="D16" s="898"/>
+      <c r="E16" s="902"/>
+      <c r="F16" s="903"/>
+      <c r="G16" s="903"/>
+      <c r="H16" s="904"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C17" s="866" t="s">
@@ -30654,13 +30680,14 @@
       <c r="D17" s="866"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F2:H3"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E15:H16"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.13" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30709,7 +30736,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
+      <c r="B1" s="750"/>
       <c r="C1" s="816" t="s">
         <v>752</v>
       </c>
@@ -30725,7 +30752,7 @@
       <c r="M1" s="817"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30735,21 +30762,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -30771,14 +30798,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30788,15 +30815,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="815"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="885"/>
-      <c r="X4" s="885"/>
+      <c r="W4" s="883"/>
+      <c r="X4" s="883"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30850,8 +30877,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="885"/>
-      <c r="X5" s="885"/>
+      <c r="W5" s="883"/>
+      <c r="X5" s="883"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31617,7 +31644,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="886"/>
+      <c r="W19" s="884"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31671,7 +31698,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="886"/>
+      <c r="W20" s="884"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31726,8 +31753,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="793"/>
-      <c r="X21" s="793"/>
+      <c r="W21" s="809"/>
+      <c r="X21" s="809"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31838,8 +31865,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="794"/>
-      <c r="X23" s="794"/>
+      <c r="W23" s="810"/>
+      <c r="X23" s="810"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31900,8 +31927,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="794"/>
-      <c r="X24" s="794"/>
+      <c r="W24" s="810"/>
+      <c r="X24" s="810"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31954,8 +31981,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="795"/>
-      <c r="X25" s="795"/>
+      <c r="W25" s="811"/>
+      <c r="X25" s="811"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32010,8 +32037,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="795"/>
-      <c r="X26" s="795"/>
+      <c r="W26" s="811"/>
+      <c r="X26" s="811"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32066,9 +32093,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="788"/>
-      <c r="X27" s="789"/>
-      <c r="Y27" s="790"/>
+      <c r="W27" s="804"/>
+      <c r="X27" s="805"/>
+      <c r="Y27" s="806"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32122,9 +32149,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="789"/>
-      <c r="X28" s="789"/>
-      <c r="Y28" s="790"/>
+      <c r="W28" s="805"/>
+      <c r="X28" s="805"/>
+      <c r="Y28" s="806"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32708,11 +32735,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="806">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="806">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32744,8 +32771,8 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="807"/>
-      <c r="N42" s="807"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="861"/>
     </row>
@@ -33236,26 +33263,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="761" t="s">
+      <c r="H63" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="762"/>
+      <c r="I63" s="773"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="882">
+      <c r="K63" s="889">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="883"/>
+      <c r="L63" s="890"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="767" t="s">
+      <c r="D64" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="767"/>
+      <c r="E64" s="778"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33264,22 +33291,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="797" t="s">
+      <c r="D65" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="797"/>
+      <c r="E65" s="802"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="768" t="s">
+      <c r="I65" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="769"/>
-      <c r="K65" s="770">
+      <c r="J65" s="780"/>
+      <c r="K65" s="781">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="770"/>
+      <c r="L65" s="781"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33320,11 +33347,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="884">
+      <c r="K67" s="885">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="770"/>
+      <c r="L67" s="781"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33341,22 +33368,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="750" t="s">
+      <c r="D69" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="751"/>
+      <c r="E69" s="762"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="879" t="s">
+      <c r="I69" s="886" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="880"/>
-      <c r="K69" s="881">
+      <c r="J69" s="887"/>
+      <c r="K69" s="888">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="881"/>
+      <c r="L69" s="888"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33503,6 +33530,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33518,21 +33560,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35874,11 +35901,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="889" t="s">
+      <c r="A89" s="893" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="890"/>
-      <c r="C89" s="890"/>
+      <c r="B89" s="894"/>
+      <c r="C89" s="894"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -35888,10 +35915,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="891" t="s">
+      <c r="B90" s="895" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="892"/>
+      <c r="C90" s="896"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -35992,7 +36019,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="887">
+      <c r="C97" s="891">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36006,7 +36033,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="888"/>
+      <c r="C98" s="892"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36107,7 +36134,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
+      <c r="B1" s="750"/>
       <c r="C1" s="816" t="s">
         <v>882</v>
       </c>
@@ -36123,7 +36150,7 @@
       <c r="M1" s="817"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36133,21 +36160,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -36165,14 +36192,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36182,7 +36209,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -37954,11 +37981,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="806">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="806">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37996,8 +38023,8 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="807"/>
-      <c r="N42" s="807"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="861"/>
     </row>
@@ -38676,26 +38703,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="761" t="s">
+      <c r="H69" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="762"/>
+      <c r="I69" s="773"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="882">
+      <c r="K69" s="889">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="883"/>
+      <c r="L69" s="890"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="767" t="s">
+      <c r="D70" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="767"/>
+      <c r="E70" s="778"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38704,22 +38731,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="797" t="s">
+      <c r="D71" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="797"/>
+      <c r="E71" s="802"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="768" t="s">
+      <c r="I71" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="769"/>
-      <c r="K71" s="770">
+      <c r="J71" s="780"/>
+      <c r="K71" s="781">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="770"/>
+      <c r="L71" s="781"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38760,11 +38787,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="884">
+      <c r="K73" s="885">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="770"/>
+      <c r="L73" s="781"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38781,22 +38808,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="750" t="s">
+      <c r="D75" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="751"/>
+      <c r="E75" s="762"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="752" t="s">
+      <c r="I75" s="763" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="753"/>
-      <c r="K75" s="754">
+      <c r="J75" s="764"/>
+      <c r="K75" s="765">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="754"/>
+      <c r="L75" s="765"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -38943,17 +38970,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -38965,6 +38981,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44611,7 +44638,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
+      <c r="B1" s="750"/>
       <c r="C1" s="816" t="s">
         <v>1025</v>
       </c>
@@ -44627,7 +44654,7 @@
       <c r="M1" s="817"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44637,21 +44664,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -44669,14 +44696,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44686,7 +44713,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -46424,11 +46451,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="806">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="806">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46466,8 +46493,8 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="807"/>
-      <c r="N42" s="807"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="861"/>
     </row>
@@ -47071,26 +47098,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="761" t="s">
+      <c r="H69" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="762"/>
+      <c r="I69" s="773"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="882">
+      <c r="K69" s="889">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="883"/>
+      <c r="L69" s="890"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="767" t="s">
+      <c r="D70" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="767"/>
+      <c r="E70" s="778"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -47099,22 +47126,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="797" t="s">
+      <c r="D71" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="797"/>
+      <c r="E71" s="802"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="768" t="s">
+      <c r="I71" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="769"/>
-      <c r="K71" s="770">
+      <c r="J71" s="780"/>
+      <c r="K71" s="781">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="770"/>
+      <c r="L71" s="781"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47155,11 +47182,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="884">
+      <c r="K73" s="885">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="770"/>
+      <c r="L73" s="781"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47176,22 +47203,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="750" t="s">
+      <c r="D75" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="751"/>
+      <c r="E75" s="762"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="879" t="s">
+      <c r="I75" s="886" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="880"/>
-      <c r="K75" s="881">
+      <c r="J75" s="887"/>
+      <c r="K75" s="888">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="881"/>
+      <c r="L75" s="888"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47338,6 +47365,12 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47354,12 +47387,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49948,7 +49975,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
+      <c r="B1" s="750"/>
       <c r="C1" s="816" t="s">
         <v>1142</v>
       </c>
@@ -49964,7 +49991,7 @@
       <c r="M1" s="817"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49974,21 +50001,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -50006,14 +50033,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50023,7 +50050,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -51746,11 +51773,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="806">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="806">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -51786,8 +51813,8 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="807"/>
-      <c r="N42" s="807"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="861"/>
       <c r="R42" s="227">
@@ -52359,26 +52386,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="761" t="s">
+      <c r="H69" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="762"/>
+      <c r="I69" s="773"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="882">
+      <c r="K69" s="889">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="883"/>
+      <c r="L69" s="890"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="767" t="s">
+      <c r="D70" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="767"/>
+      <c r="E70" s="778"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -52387,22 +52414,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="797" t="s">
+      <c r="D71" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="797"/>
+      <c r="E71" s="802"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="768" t="s">
+      <c r="I71" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="769"/>
-      <c r="K71" s="770">
+      <c r="J71" s="780"/>
+      <c r="K71" s="781">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="770"/>
+      <c r="L71" s="781"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -52443,11 +52470,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="884">
+      <c r="K73" s="885">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="770"/>
+      <c r="L73" s="781"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -52464,22 +52491,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="750" t="s">
+      <c r="D75" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="751"/>
+      <c r="E75" s="762"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="752" t="s">
+      <c r="I75" s="763" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="753"/>
-      <c r="K75" s="754">
+      <c r="J75" s="764"/>
+      <c r="K75" s="765">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="754"/>
+      <c r="L75" s="765"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -52623,6 +52650,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -52639,12 +52672,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -55074,23 +55101,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
-      <c r="C1" s="776" t="s">
+      <c r="B1" s="750"/>
+      <c r="C1" s="752" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="777"/>
-      <c r="E1" s="777"/>
-      <c r="F1" s="777"/>
-      <c r="G1" s="777"/>
-      <c r="H1" s="777"/>
-      <c r="I1" s="777"/>
-      <c r="J1" s="777"/>
-      <c r="K1" s="777"/>
-      <c r="L1" s="777"/>
-      <c r="M1" s="777"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55100,21 +55127,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
     </row>
@@ -55129,14 +55156,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -55146,14 +55173,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="787" t="s">
+      <c r="W4" s="803" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="787"/>
+      <c r="X4" s="803"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55204,8 +55231,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="787"/>
-      <c r="X5" s="787"/>
+      <c r="W5" s="803"/>
+      <c r="X5" s="803"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55976,7 +56003,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="791">
+      <c r="W19" s="807">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -56028,7 +56055,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="792"/>
+      <c r="W20" s="808"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -56077,8 +56104,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="793"/>
-      <c r="X21" s="793"/>
+      <c r="W21" s="809"/>
+      <c r="X21" s="809"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -56179,8 +56206,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="794"/>
-      <c r="X23" s="794"/>
+      <c r="W23" s="810"/>
+      <c r="X23" s="810"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -56234,8 +56261,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="794"/>
-      <c r="X24" s="794"/>
+      <c r="W24" s="810"/>
+      <c r="X24" s="810"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -56281,8 +56308,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="795"/>
-      <c r="X25" s="795"/>
+      <c r="W25" s="811"/>
+      <c r="X25" s="811"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -56333,8 +56360,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="795"/>
-      <c r="X26" s="795"/>
+      <c r="W26" s="811"/>
+      <c r="X26" s="811"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -56382,9 +56409,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="788"/>
-      <c r="X27" s="789"/>
-      <c r="Y27" s="790"/>
+      <c r="W27" s="804"/>
+      <c r="X27" s="805"/>
+      <c r="Y27" s="806"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56434,9 +56461,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="789"/>
-      <c r="X28" s="789"/>
-      <c r="Y28" s="790"/>
+      <c r="W28" s="805"/>
+      <c r="X28" s="805"/>
+      <c r="Y28" s="806"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56771,11 +56798,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="806">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="808">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -56783,7 +56810,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="810">
+      <c r="Q36" s="799">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -56818,13 +56845,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="807"/>
-      <c r="N37" s="809"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="811"/>
+      <c r="Q37" s="800"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -57114,26 +57141,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="773"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="774">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="796"/>
+      <c r="L52" s="801"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="778"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -57142,29 +57169,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="797" t="s">
+      <c r="D54" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="797"/>
+      <c r="E54" s="802"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="780"/>
+      <c r="K54" s="781">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="770"/>
-      <c r="M54" s="798" t="s">
+      <c r="L54" s="781"/>
+      <c r="M54" s="787" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="799"/>
-      <c r="O54" s="799"/>
-      <c r="P54" s="799"/>
-      <c r="Q54" s="800"/>
+      <c r="N54" s="788"/>
+      <c r="O54" s="788"/>
+      <c r="P54" s="788"/>
+      <c r="Q54" s="789"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -57178,11 +57205,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="801"/>
-      <c r="N55" s="802"/>
-      <c r="O55" s="802"/>
-      <c r="P55" s="802"/>
-      <c r="Q55" s="803"/>
+      <c r="M55" s="790"/>
+      <c r="N55" s="791"/>
+      <c r="O55" s="791"/>
+      <c r="P55" s="791"/>
+      <c r="Q55" s="792"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -57200,11 +57227,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="783">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="784"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -57221,22 +57248,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="762"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="763" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="764"/>
+      <c r="K58" s="765">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="765"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -57380,17 +57407,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -57401,14 +57425,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -60151,23 +60178,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
-      <c r="C1" s="776" t="s">
+      <c r="B1" s="750"/>
+      <c r="C1" s="752" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="777"/>
-      <c r="E1" s="777"/>
-      <c r="F1" s="777"/>
-      <c r="G1" s="777"/>
-      <c r="H1" s="777"/>
-      <c r="I1" s="777"/>
-      <c r="J1" s="777"/>
-      <c r="K1" s="777"/>
-      <c r="L1" s="777"/>
-      <c r="M1" s="777"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -60177,21 +60204,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -60209,14 +60236,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -60226,15 +60253,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="815"/>
-      <c r="W4" s="787" t="s">
+      <c r="W4" s="803" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="787"/>
+      <c r="X4" s="803"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60295,8 +60322,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="787"/>
-      <c r="X5" s="787"/>
+      <c r="W5" s="803"/>
+      <c r="X5" s="803"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61053,7 +61080,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="791">
+      <c r="W19" s="807">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -61105,7 +61132,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="792"/>
+      <c r="W20" s="808"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -61154,8 +61181,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="793"/>
-      <c r="X21" s="793"/>
+      <c r="W21" s="809"/>
+      <c r="X21" s="809"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -61256,8 +61283,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="794"/>
-      <c r="X23" s="794"/>
+      <c r="W23" s="810"/>
+      <c r="X23" s="810"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61308,8 +61335,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="794"/>
-      <c r="X24" s="794"/>
+      <c r="W24" s="810"/>
+      <c r="X24" s="810"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61355,8 +61382,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="795"/>
-      <c r="X25" s="795"/>
+      <c r="W25" s="811"/>
+      <c r="X25" s="811"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61404,8 +61431,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="795"/>
-      <c r="X26" s="795"/>
+      <c r="W26" s="811"/>
+      <c r="X26" s="811"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61465,9 +61492,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="788"/>
-      <c r="X27" s="789"/>
-      <c r="Y27" s="790"/>
+      <c r="W27" s="804"/>
+      <c r="X27" s="805"/>
+      <c r="Y27" s="806"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61521,9 +61548,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="789"/>
-      <c r="X28" s="789"/>
-      <c r="Y28" s="790"/>
+      <c r="W28" s="805"/>
+      <c r="X28" s="805"/>
+      <c r="Y28" s="806"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61839,11 +61866,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="806">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="808">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -61851,7 +61878,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="810">
+      <c r="Q36" s="799">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -61870,13 +61897,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="807"/>
-      <c r="N37" s="809"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="811"/>
+      <c r="Q37" s="800"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -62150,26 +62177,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="773"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="774">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="796"/>
+      <c r="L52" s="801"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="778"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -62178,29 +62205,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="797" t="s">
+      <c r="D54" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="797"/>
+      <c r="E54" s="802"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="780"/>
+      <c r="K54" s="781">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="770"/>
-      <c r="M54" s="798" t="s">
+      <c r="L54" s="781"/>
+      <c r="M54" s="787" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="799"/>
-      <c r="O54" s="799"/>
-      <c r="P54" s="799"/>
-      <c r="Q54" s="800"/>
+      <c r="N54" s="788"/>
+      <c r="O54" s="788"/>
+      <c r="P54" s="788"/>
+      <c r="Q54" s="789"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -62214,11 +62241,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="801"/>
-      <c r="N55" s="802"/>
-      <c r="O55" s="802"/>
-      <c r="P55" s="802"/>
-      <c r="Q55" s="803"/>
+      <c r="M55" s="790"/>
+      <c r="N55" s="791"/>
+      <c r="O55" s="791"/>
+      <c r="P55" s="791"/>
+      <c r="Q55" s="792"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -62236,11 +62263,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="783">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="784"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -62257,22 +62284,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="762"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="763" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="764"/>
+      <c r="K58" s="765">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="765"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -62416,13 +62443,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -62432,20 +62466,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -65140,7 +65167,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
+      <c r="B1" s="750"/>
       <c r="C1" s="816" t="s">
         <v>316</v>
       </c>
@@ -65156,7 +65183,7 @@
       <c r="M1" s="817"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -65166,21 +65193,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -65198,14 +65225,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -65215,15 +65242,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="815"/>
-      <c r="W4" s="787" t="s">
+      <c r="W4" s="803" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="787"/>
+      <c r="X4" s="803"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65274,8 +65301,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="787"/>
-      <c r="X5" s="787"/>
+      <c r="W5" s="803"/>
+      <c r="X5" s="803"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66039,7 +66066,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="791">
+      <c r="W19" s="807">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -66092,7 +66119,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="792"/>
+      <c r="W20" s="808"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -66141,8 +66168,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="793"/>
-      <c r="X21" s="793"/>
+      <c r="W21" s="809"/>
+      <c r="X21" s="809"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -66242,8 +66269,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="794"/>
-      <c r="X23" s="794"/>
+      <c r="W23" s="810"/>
+      <c r="X23" s="810"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -66298,8 +66325,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="794"/>
-      <c r="X24" s="794"/>
+      <c r="W24" s="810"/>
+      <c r="X24" s="810"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66344,8 +66371,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="795"/>
-      <c r="X25" s="795"/>
+      <c r="W25" s="811"/>
+      <c r="X25" s="811"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66393,8 +66420,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="795"/>
-      <c r="X26" s="795"/>
+      <c r="W26" s="811"/>
+      <c r="X26" s="811"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66448,9 +66475,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="788"/>
-      <c r="X27" s="789"/>
-      <c r="Y27" s="790"/>
+      <c r="W27" s="804"/>
+      <c r="X27" s="805"/>
+      <c r="Y27" s="806"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66504,9 +66531,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="789"/>
-      <c r="X28" s="789"/>
-      <c r="Y28" s="790"/>
+      <c r="W28" s="805"/>
+      <c r="X28" s="805"/>
+      <c r="Y28" s="806"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66817,11 +66844,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="806">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="808">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -66829,7 +66856,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="810">
+      <c r="Q36" s="799">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -66854,13 +66881,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="807"/>
-      <c r="N37" s="809"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="811"/>
+      <c r="Q37" s="800"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -67153,26 +67180,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="773"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="774">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="796"/>
+      <c r="L52" s="801"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="778"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -67181,22 +67208,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="797" t="s">
+      <c r="D54" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="797"/>
+      <c r="E54" s="802"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="780"/>
+      <c r="K54" s="781">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="770"/>
+      <c r="L54" s="781"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -67237,11 +67264,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="783">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="784"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -67258,22 +67285,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="762"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="763" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="764"/>
+      <c r="K58" s="765">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="765"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -67417,6 +67444,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -67432,20 +67473,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -70239,7 +70266,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="774"/>
+      <c r="B1" s="750"/>
       <c r="C1" s="816" t="s">
         <v>646</v>
       </c>
@@ -70255,7 +70282,7 @@
       <c r="M1" s="817"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="775"/>
+      <c r="B2" s="751"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -70265,21 +70292,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="778" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="779"/>
+      <c r="B3" s="754" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="755"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="780" t="s">
+      <c r="H3" s="756" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="780"/>
+      <c r="I3" s="756"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="804" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="814" t="s">
@@ -70297,14 +70324,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="781" t="s">
+      <c r="E4" s="757" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="782"/>
-      <c r="H4" s="783" t="s">
+      <c r="F4" s="758"/>
+      <c r="H4" s="759" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="784"/>
+      <c r="I4" s="760"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -70314,15 +70341,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="805"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="815"/>
-      <c r="W4" s="787" t="s">
+      <c r="W4" s="803" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="787"/>
+      <c r="X4" s="803"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70373,8 +70400,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="787"/>
-      <c r="X5" s="787"/>
+      <c r="W5" s="803"/>
+      <c r="X5" s="803"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71135,7 +71162,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="791">
+      <c r="W19" s="807">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -71187,7 +71214,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="792"/>
+      <c r="W20" s="808"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -71236,8 +71263,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="793"/>
-      <c r="X21" s="793"/>
+      <c r="W21" s="809"/>
+      <c r="X21" s="809"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71336,8 +71363,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="794"/>
-      <c r="X23" s="794"/>
+      <c r="W23" s="810"/>
+      <c r="X23" s="810"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71392,8 +71419,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="794"/>
-      <c r="X24" s="794"/>
+      <c r="W24" s="810"/>
+      <c r="X24" s="810"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71441,8 +71468,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="795"/>
-      <c r="X25" s="795"/>
+      <c r="W25" s="811"/>
+      <c r="X25" s="811"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71490,8 +71517,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="795"/>
-      <c r="X26" s="795"/>
+      <c r="W26" s="811"/>
+      <c r="X26" s="811"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71539,9 +71566,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="788"/>
-      <c r="X27" s="789"/>
-      <c r="Y27" s="790"/>
+      <c r="W27" s="804"/>
+      <c r="X27" s="805"/>
+      <c r="Y27" s="806"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71589,9 +71616,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="789"/>
-      <c r="X28" s="789"/>
-      <c r="Y28" s="790"/>
+      <c r="W28" s="805"/>
+      <c r="X28" s="805"/>
+      <c r="Y28" s="806"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71932,11 +71959,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="806">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="808">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -71969,8 +71996,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="807"/>
-      <c r="N37" s="809"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -72277,26 +72304,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="772" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="773"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="774">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="796"/>
+      <c r="L52" s="801"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="778" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="778"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -72305,22 +72332,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="797" t="s">
+      <c r="D54" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="797"/>
+      <c r="E54" s="802"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="779" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="780"/>
+      <c r="K54" s="781">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="770"/>
+      <c r="L54" s="781"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72361,11 +72388,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="783">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="784"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72382,22 +72409,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="761" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="762"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="763" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="764"/>
+      <c r="K58" s="765">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="765"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -72541,20 +72568,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -72571,6 +72584,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="1251">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4672,6 +4672,24 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      SEPTIEMBRE            2 0 2 2</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-PATE-SALCHICHAS</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-SALCHICHONERIA-CREMA-PAPAS</t>
+  </si>
+  <si>
+    <t>Zavaleta</t>
+  </si>
+  <si>
+    <t>POLLO-AL PASTOR-QUESOS-LONGANIZA-MIXIOTES</t>
+  </si>
+  <si>
+    <t>NOMINA # 36</t>
+  </si>
+  <si>
+    <t>NOMINA #36</t>
   </si>
 </sst>
 </file>
@@ -6809,7 +6827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="909">
+  <cellXfs count="910">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8333,6 +8351,42 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8405,76 +8459,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8518,6 +8506,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8756,6 +8777,15 @@
     <xf numFmtId="0" fontId="75" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8770,15 +8800,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8798,9 +8819,9 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8810,8 +8831,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF990033"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
@@ -8819,7 +8841,6 @@
       <color rgb="FF0000FF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FF990033"/>
     </mruColors>
   </colors>
   <extLst>
@@ -14541,23 +14562,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="777" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="756" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="778"/>
-      <c r="E1" s="778"/>
-      <c r="F1" s="778"/>
-      <c r="G1" s="778"/>
-      <c r="H1" s="778"/>
-      <c r="I1" s="778"/>
-      <c r="J1" s="778"/>
-      <c r="K1" s="778"/>
-      <c r="L1" s="778"/>
-      <c r="M1" s="778"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14567,17 +14588,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14591,14 +14612,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14608,10 +14629,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="756" t="s">
+      <c r="P4" s="770" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="757"/>
+      <c r="Q4" s="771"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16052,11 +16073,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="758">
+      <c r="M39" s="772">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="760">
+      <c r="N39" s="774">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16082,8 +16103,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="759"/>
-      <c r="N40" s="761"/>
+      <c r="M40" s="773"/>
+      <c r="N40" s="775"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16298,29 +16319,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="777"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="778">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="765"/>
-      <c r="M52" s="766">
+      <c r="L52" s="779"/>
+      <c r="M52" s="780">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="767"/>
+      <c r="N52" s="781"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="782"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16331,22 +16352,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="768" t="s">
+      <c r="D54" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="768"/>
+      <c r="E54" s="782"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="784"/>
+      <c r="K54" s="785">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="772"/>
+      <c r="L54" s="786"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16379,11 +16400,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="787">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="788"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16400,22 +16421,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="766"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="767" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="768"/>
+      <c r="K58" s="769">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="769"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16559,12 +16580,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16579,6 +16594,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19039,10 +19060,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="847" t="s">
+      <c r="I76" s="850" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="848"/>
+      <c r="J76" s="851"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19061,8 +19082,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="849"/>
-      <c r="J77" s="850"/>
+      <c r="I77" s="852"/>
+      <c r="J77" s="853"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19129,7 +19150,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="813" t="s">
+      <c r="F80" s="816" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19144,7 +19165,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="814"/>
+      <c r="F81" s="817"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19152,10 +19173,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="846" t="s">
+      <c r="B82" s="849" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="846"/>
+      <c r="C82" s="849"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19437,23 +19458,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19463,24 +19484,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19495,14 +19516,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19512,15 +19533,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
-      <c r="W4" s="788" t="s">
+      <c r="R4" s="819"/>
+      <c r="W4" s="807" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="807"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19571,8 +19592,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="807"/>
+      <c r="X5" s="807"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20335,7 +20356,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="811">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20387,7 +20408,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="812"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20436,8 +20457,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="813"/>
+      <c r="X21" s="813"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20537,8 +20558,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="814"/>
+      <c r="X23" s="814"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20593,8 +20614,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="814"/>
+      <c r="X24" s="814"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20642,8 +20663,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="815"/>
+      <c r="X25" s="815"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20692,8 +20713,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="815"/>
+      <c r="X26" s="815"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20741,9 +20762,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="808"/>
+      <c r="X27" s="809"/>
+      <c r="Y27" s="810"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20791,9 +20812,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="809"/>
+      <c r="X28" s="809"/>
+      <c r="Y28" s="810"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21125,11 +21146,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="807">
+      <c r="M36" s="799">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="809">
+      <c r="N36" s="801">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21137,7 +21158,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="842">
+      <c r="Q36" s="845">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21162,13 +21183,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="808"/>
-      <c r="N37" s="810"/>
+      <c r="M37" s="800"/>
+      <c r="N37" s="802"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="843"/>
+      <c r="Q37" s="846"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21218,11 +21239,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="844">
+      <c r="M39" s="847">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="845"/>
+      <c r="N39" s="848"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21850,26 +21871,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="762" t="s">
+      <c r="H68" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="763"/>
+      <c r="I68" s="777"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="764">
+      <c r="K68" s="778">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="797"/>
+      <c r="L68" s="805"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="768" t="s">
+      <c r="D69" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="768"/>
+      <c r="E69" s="782"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21878,22 +21899,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="798" t="s">
+      <c r="D70" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="798"/>
+      <c r="E70" s="806"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="769" t="s">
+      <c r="I70" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="770"/>
-      <c r="K70" s="771">
+      <c r="J70" s="784"/>
+      <c r="K70" s="785">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="771"/>
+      <c r="L70" s="785"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21934,11 +21955,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="773">
+      <c r="K72" s="787">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="774"/>
+      <c r="L72" s="788"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21955,22 +21976,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="751" t="s">
+      <c r="D74" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="752"/>
+      <c r="E74" s="766"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="753" t="s">
+      <c r="I74" s="767" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="754"/>
-      <c r="K74" s="755">
+      <c r="J74" s="768"/>
+      <c r="K74" s="769">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="755"/>
+      <c r="L74" s="769"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22117,21 +22138,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22147,6 +22153,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23708,10 +23729,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="855" t="s">
+      <c r="I44" s="858" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="856"/>
+      <c r="J44" s="859"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23730,8 +23751,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="857"/>
-      <c r="J45" s="858"/>
+      <c r="I45" s="860"/>
+      <c r="J45" s="861"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23750,8 +23771,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="859"/>
-      <c r="J46" s="860"/>
+      <c r="I46" s="862"/>
+      <c r="J46" s="863"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24440,7 +24461,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="813" t="s">
+      <c r="F80" s="816" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24453,7 +24474,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="814"/>
+      <c r="F81" s="817"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24473,10 +24494,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="851" t="s">
+      <c r="I83" s="854" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="852"/>
+      <c r="J83" s="855"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24485,8 +24506,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="853"/>
-      <c r="J84" s="854"/>
+      <c r="I84" s="856"/>
+      <c r="J84" s="857"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24759,23 +24780,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24785,24 +24806,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24817,14 +24838,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24834,15 +24855,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
-      <c r="W4" s="788" t="s">
+      <c r="R4" s="819"/>
+      <c r="W4" s="807" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="807"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24893,8 +24914,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="807"/>
+      <c r="X5" s="807"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25653,7 +25674,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="811">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25705,7 +25726,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="812"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25754,8 +25775,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="813"/>
+      <c r="X21" s="813"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25852,8 +25873,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="814"/>
+      <c r="X23" s="814"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25908,8 +25929,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="814"/>
+      <c r="X24" s="814"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25955,8 +25976,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="815"/>
+      <c r="X25" s="815"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26007,8 +26028,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="815"/>
+      <c r="X26" s="815"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26059,9 +26080,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="808"/>
+      <c r="X27" s="809"/>
+      <c r="Y27" s="810"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26111,9 +26132,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="809"/>
+      <c r="X28" s="809"/>
+      <c r="Y28" s="810"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26717,11 +26738,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="807">
+      <c r="M41" s="799">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="807">
+      <c r="N41" s="799">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26729,7 +26750,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="861">
+      <c r="Q41" s="864">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26759,10 +26780,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="808"/>
-      <c r="N42" s="808"/>
+      <c r="M42" s="800"/>
+      <c r="N42" s="800"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="862"/>
+      <c r="Q42" s="865"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26850,11 +26871,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="863">
+      <c r="M45" s="866">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="864"/>
+      <c r="N45" s="867"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27447,26 +27468,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="762" t="s">
+      <c r="H70" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="763"/>
+      <c r="I70" s="777"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="764">
+      <c r="K70" s="778">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="797"/>
+      <c r="L70" s="805"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="768" t="s">
+      <c r="D71" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="768"/>
+      <c r="E71" s="782"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27476,22 +27497,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="798" t="s">
+      <c r="D72" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="798"/>
+      <c r="E72" s="806"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="769" t="s">
+      <c r="I72" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="770"/>
-      <c r="K72" s="771">
+      <c r="J72" s="784"/>
+      <c r="K72" s="785">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="771"/>
+      <c r="L72" s="785"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27532,11 +27553,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="773">
+      <c r="K74" s="787">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="774"/>
+      <c r="L74" s="788"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27555,22 +27576,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="751" t="s">
+      <c r="D76" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="752"/>
+      <c r="E76" s="766"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="753" t="s">
+      <c r="I76" s="767" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="754"/>
-      <c r="K76" s="755">
+      <c r="J76" s="768"/>
+      <c r="K76" s="769">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="755"/>
+      <c r="L76" s="769"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27730,21 +27751,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27760,6 +27766,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29730,10 +29751,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="855" t="s">
+      <c r="I54" s="858" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="856"/>
+      <c r="J54" s="859"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29749,8 +29770,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="857"/>
-      <c r="J55" s="858"/>
+      <c r="I55" s="860"/>
+      <c r="J55" s="861"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29766,8 +29787,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="859"/>
-      <c r="J56" s="860"/>
+      <c r="I56" s="862"/>
+      <c r="J56" s="863"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30435,7 +30456,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="813" t="s">
+      <c r="F90" s="816" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30448,7 +30469,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="814"/>
+      <c r="F91" s="817"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30467,10 +30488,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="851" t="s">
+      <c r="I93" s="854" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="852"/>
+      <c r="J93" s="855"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30480,8 +30501,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="853"/>
-      <c r="J94" s="854"/>
+      <c r="I94" s="856"/>
+      <c r="J94" s="857"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30922,11 +30943,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="865">
+      <c r="C130" s="868">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="866"/>
+      <c r="D130" s="869"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -30963,24 +30984,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="880" t="s">
+      <c r="B2" s="883" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="881"/>
-      <c r="D2" s="882"/>
-      <c r="F2" s="868" t="s">
+      <c r="C2" s="884"/>
+      <c r="D2" s="885"/>
+      <c r="F2" s="871" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="869"/>
-      <c r="H2" s="870"/>
+      <c r="G2" s="872"/>
+      <c r="H2" s="873"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="883"/>
-      <c r="C3" s="884"/>
-      <c r="D3" s="885"/>
-      <c r="F3" s="871"/>
-      <c r="G3" s="872"/>
-      <c r="H3" s="873"/>
+      <c r="B3" s="886"/>
+      <c r="C3" s="887"/>
+      <c r="D3" s="888"/>
+      <c r="F3" s="874"/>
+      <c r="G3" s="875"/>
+      <c r="H3" s="876"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31125,11 +31146,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="874">
+      <c r="G11" s="877">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="875"/>
+      <c r="H11" s="878"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31146,33 +31167,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="878" t="s">
+      <c r="C15" s="881" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="876">
+      <c r="D15" s="879">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="886" t="s">
+      <c r="E15" s="889" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="887"/>
-      <c r="G15" s="887"/>
-      <c r="H15" s="888"/>
+      <c r="F15" s="890"/>
+      <c r="G15" s="890"/>
+      <c r="H15" s="891"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="879"/>
-      <c r="D16" s="877"/>
-      <c r="E16" s="889"/>
-      <c r="F16" s="890"/>
-      <c r="G16" s="890"/>
-      <c r="H16" s="891"/>
+      <c r="C16" s="882"/>
+      <c r="D16" s="880"/>
+      <c r="E16" s="892"/>
+      <c r="F16" s="893"/>
+      <c r="G16" s="893"/>
+      <c r="H16" s="894"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="867" t="s">
+      <c r="C17" s="870" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="867"/>
+      <c r="D17" s="870"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31231,23 +31252,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31257,24 +31278,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31293,14 +31314,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31310,15 +31331,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
+      <c r="R4" s="819"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="898"/>
-      <c r="X4" s="898"/>
+      <c r="W4" s="895"/>
+      <c r="X4" s="895"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31372,8 +31393,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="898"/>
-      <c r="X5" s="898"/>
+      <c r="W5" s="895"/>
+      <c r="X5" s="895"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32139,7 +32160,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="899"/>
+      <c r="W19" s="896"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32193,7 +32214,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="899"/>
+      <c r="W20" s="896"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32248,8 +32269,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="813"/>
+      <c r="X21" s="813"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32360,8 +32381,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="814"/>
+      <c r="X23" s="814"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32422,8 +32443,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="814"/>
+      <c r="X24" s="814"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32476,8 +32497,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="815"/>
+      <c r="X25" s="815"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32532,8 +32553,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="815"/>
+      <c r="X26" s="815"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32588,9 +32609,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="808"/>
+      <c r="X27" s="809"/>
+      <c r="Y27" s="810"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32644,9 +32665,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="809"/>
+      <c r="X28" s="809"/>
+      <c r="Y28" s="810"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33230,11 +33251,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="807">
+      <c r="M41" s="799">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="807">
+      <c r="N41" s="799">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33242,7 +33263,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="861">
+      <c r="Q41" s="864">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33266,10 +33287,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="808"/>
-      <c r="N42" s="808"/>
+      <c r="M42" s="800"/>
+      <c r="N42" s="800"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="862"/>
+      <c r="Q42" s="865"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33338,11 +33359,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="863">
+      <c r="M45" s="866">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="864"/>
+      <c r="N45" s="867"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33758,26 +33779,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="762" t="s">
+      <c r="H63" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="763"/>
+      <c r="I63" s="777"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="895">
+      <c r="K63" s="901">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="896"/>
+      <c r="L63" s="902"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="768" t="s">
+      <c r="D64" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="768"/>
+      <c r="E64" s="782"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33786,22 +33807,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="798" t="s">
+      <c r="D65" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="798"/>
+      <c r="E65" s="806"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="769" t="s">
+      <c r="I65" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="770"/>
-      <c r="K65" s="771">
+      <c r="J65" s="784"/>
+      <c r="K65" s="785">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="771"/>
+      <c r="L65" s="785"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33846,7 +33867,7 @@
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="771"/>
+      <c r="L67" s="785"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33863,22 +33884,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="751" t="s">
+      <c r="D69" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="752"/>
+      <c r="E69" s="766"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="892" t="s">
+      <c r="I69" s="898" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="893"/>
-      <c r="K69" s="894">
+      <c r="J69" s="899"/>
+      <c r="K69" s="900">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="894"/>
+      <c r="L69" s="900"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34025,6 +34046,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -34040,21 +34076,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35551,10 +35572,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="855" t="s">
+      <c r="I38" s="858" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="856"/>
+      <c r="J38" s="859"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -35573,8 +35594,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="857"/>
-      <c r="J39" s="858"/>
+      <c r="I39" s="860"/>
+      <c r="J39" s="861"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -35593,8 +35614,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="859"/>
-      <c r="J40" s="860"/>
+      <c r="I40" s="862"/>
+      <c r="J40" s="863"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36217,7 +36238,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="813" t="s">
+      <c r="F71" s="816" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36230,7 +36251,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="814"/>
+      <c r="F72" s="817"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36249,10 +36270,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="851" t="s">
+      <c r="I74" s="854" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="852"/>
+      <c r="J74" s="855"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36261,8 +36282,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="853"/>
-      <c r="J75" s="854"/>
+      <c r="I75" s="856"/>
+      <c r="J75" s="857"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36396,11 +36417,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="902" t="s">
+      <c r="A89" s="905" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="903"/>
-      <c r="C89" s="903"/>
+      <c r="B89" s="906"/>
+      <c r="C89" s="906"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36410,10 +36431,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="904" t="s">
+      <c r="B90" s="907" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="905"/>
+      <c r="C90" s="908"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -36514,7 +36535,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="900">
+      <c r="C97" s="903">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36528,7 +36549,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="901"/>
+      <c r="C98" s="904"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36629,23 +36650,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36655,24 +36676,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36687,14 +36708,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36704,11 +36725,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
+      <c r="R4" s="819"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38476,11 +38497,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="807">
+      <c r="M41" s="799">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="807">
+      <c r="N41" s="799">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38488,7 +38509,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="861">
+      <c r="Q41" s="864">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -38518,10 +38539,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="808"/>
-      <c r="N42" s="808"/>
+      <c r="M42" s="800"/>
+      <c r="N42" s="800"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="862"/>
+      <c r="Q42" s="865"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -38608,11 +38629,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="863">
+      <c r="M45" s="866">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="864"/>
+      <c r="N45" s="867"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39198,26 +39219,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="762" t="s">
+      <c r="H69" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="763"/>
+      <c r="I69" s="777"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="895">
+      <c r="K69" s="901">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="896"/>
+      <c r="L69" s="902"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="768" t="s">
+      <c r="D70" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="768"/>
+      <c r="E70" s="782"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39226,22 +39247,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="798" t="s">
+      <c r="D71" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="798"/>
+      <c r="E71" s="806"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="769" t="s">
+      <c r="I71" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="770"/>
-      <c r="K71" s="771">
+      <c r="J71" s="784"/>
+      <c r="K71" s="785">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="771"/>
+      <c r="L71" s="785"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39286,7 +39307,7 @@
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="771"/>
+      <c r="L73" s="785"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39303,22 +39324,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="751" t="s">
+      <c r="D75" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="752"/>
+      <c r="E75" s="766"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="753" t="s">
+      <c r="I75" s="767" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="754"/>
-      <c r="K75" s="755">
+      <c r="J75" s="768"/>
+      <c r="K75" s="769">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="755"/>
+      <c r="L75" s="769"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -39465,17 +39486,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -39487,6 +39497,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41167,10 +41188,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="855" t="s">
+      <c r="H43" s="858" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="856"/>
+      <c r="I43" s="859"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41189,8 +41210,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="857"/>
-      <c r="I44" s="858"/>
+      <c r="H44" s="860"/>
+      <c r="I44" s="861"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41209,8 +41230,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="859"/>
-      <c r="I45" s="860"/>
+      <c r="H45" s="862"/>
+      <c r="I45" s="863"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -41654,10 +41675,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="851" t="s">
+      <c r="H67" s="854" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="852"/>
+      <c r="I67" s="855"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -41677,11 +41698,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="813" t="s">
+      <c r="F68" s="816" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="853"/>
-      <c r="I68" s="854"/>
+      <c r="H68" s="856"/>
+      <c r="I68" s="857"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41692,7 +41713,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="814"/>
+      <c r="F69" s="817"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43507,7 +43528,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="786" t="s">
+      <c r="B41" s="789" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -43539,7 +43560,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="787"/>
+      <c r="B42" s="790"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45133,23 +45154,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45159,24 +45180,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45191,14 +45212,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45208,11 +45229,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
+      <c r="R4" s="819"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -46946,11 +46967,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="807">
+      <c r="M41" s="799">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="807">
+      <c r="N41" s="799">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46958,7 +46979,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="861">
+      <c r="Q41" s="864">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -46988,10 +47009,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="808"/>
-      <c r="N42" s="808"/>
+      <c r="M42" s="800"/>
+      <c r="N42" s="800"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="862"/>
+      <c r="Q42" s="865"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47072,11 +47093,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="863">
+      <c r="M45" s="866">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="864"/>
+      <c r="N45" s="867"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -47593,26 +47614,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="762" t="s">
+      <c r="H69" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="763"/>
+      <c r="I69" s="777"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="895">
+      <c r="K69" s="901">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="896"/>
+      <c r="L69" s="902"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="768" t="s">
+      <c r="D70" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="768"/>
+      <c r="E70" s="782"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -47621,22 +47642,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="798" t="s">
+      <c r="D71" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="798"/>
+      <c r="E71" s="806"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="769" t="s">
+      <c r="I71" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="770"/>
-      <c r="K71" s="771">
+      <c r="J71" s="784"/>
+      <c r="K71" s="785">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="771"/>
+      <c r="L71" s="785"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47681,7 +47702,7 @@
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="771"/>
+      <c r="L73" s="785"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47698,22 +47719,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="751" t="s">
+      <c r="D75" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="752"/>
+      <c r="E75" s="766"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="892" t="s">
+      <c r="I75" s="898" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="893"/>
-      <c r="K75" s="894">
+      <c r="J75" s="899"/>
+      <c r="K75" s="900">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="894"/>
+      <c r="L75" s="900"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47860,6 +47881,12 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47876,12 +47903,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49263,10 +49284,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="855" t="s">
+      <c r="H40" s="858" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="856"/>
+      <c r="I40" s="859"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49285,8 +49306,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="857"/>
-      <c r="I41" s="858"/>
+      <c r="H41" s="860"/>
+      <c r="I41" s="861"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49305,8 +49326,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="859"/>
-      <c r="I42" s="860"/>
+      <c r="H42" s="862"/>
+      <c r="I42" s="863"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49810,10 +49831,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="851" t="s">
+      <c r="H67" s="854" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="852"/>
+      <c r="I67" s="855"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49833,11 +49854,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="813" t="s">
+      <c r="F68" s="816" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="853"/>
-      <c r="I68" s="854"/>
+      <c r="H68" s="856"/>
+      <c r="I68" s="857"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49848,7 +49869,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="814"/>
+      <c r="F69" s="817"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50441,10 +50462,10 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -50470,23 +50491,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50496,24 +50517,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50528,14 +50549,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50545,11 +50566,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
+      <c r="R4" s="819"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52268,11 +52289,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="807">
+      <c r="M41" s="799">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="807">
+      <c r="N41" s="799">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52280,7 +52301,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="861">
+      <c r="Q41" s="864">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52308,10 +52329,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="808"/>
-      <c r="N42" s="808"/>
+      <c r="M42" s="800"/>
+      <c r="N42" s="800"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="862"/>
+      <c r="Q42" s="865"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52384,11 +52405,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="863">
+      <c r="M45" s="866">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="864"/>
+      <c r="N45" s="867"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -52881,26 +52902,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="762" t="s">
+      <c r="H69" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="763"/>
+      <c r="I69" s="777"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="895">
+      <c r="K69" s="901">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="896"/>
+      <c r="L69" s="902"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="768" t="s">
+      <c r="D70" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="768"/>
+      <c r="E70" s="782"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -52909,22 +52930,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="798" t="s">
+      <c r="D71" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="798"/>
+      <c r="E71" s="806"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="769" t="s">
+      <c r="I71" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="770"/>
-      <c r="K71" s="771">
+      <c r="J71" s="784"/>
+      <c r="K71" s="785">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="771"/>
+      <c r="L71" s="785"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -52969,7 +52990,7 @@
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="771"/>
+      <c r="L73" s="785"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -52986,22 +53007,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="751" t="s">
+      <c r="D75" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="752"/>
+      <c r="E75" s="766"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="753" t="s">
+      <c r="I75" s="767" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="754"/>
-      <c r="K75" s="755">
+      <c r="J75" s="768"/>
+      <c r="K75" s="769">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="755"/>
+      <c r="L75" s="769"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53145,6 +53166,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53161,12 +53188,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54368,10 +54389,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="855" t="s">
+      <c r="H40" s="858" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="856"/>
+      <c r="I40" s="859"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54390,8 +54411,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="857"/>
-      <c r="I41" s="858"/>
+      <c r="H41" s="860"/>
+      <c r="I41" s="861"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -54410,8 +54431,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="859"/>
-      <c r="I42" s="860"/>
+      <c r="H42" s="862"/>
+      <c r="I42" s="863"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -54915,10 +54936,10 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="851" t="s">
+      <c r="H67" s="854" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="852"/>
+      <c r="I67" s="855"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -54938,11 +54959,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="813" t="s">
+      <c r="F68" s="816" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="853"/>
-      <c r="I68" s="854"/>
+      <c r="H68" s="856"/>
+      <c r="I68" s="857"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -54953,7 +54974,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="814"/>
+      <c r="F69" s="817"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -55547,7 +55568,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55573,23 +55594,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55599,24 +55620,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -55631,14 +55652,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -55648,11 +55669,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
+      <c r="R4" s="819"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -55661,30 +55682,40 @@
       <c r="B5" s="24">
         <v>44802</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25">
+        <v>7568</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>1245</v>
+      </c>
       <c r="E5" s="27">
         <v>44802</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="28">
+        <v>134268</v>
+      </c>
       <c r="G5" s="572"/>
       <c r="H5" s="29">
         <v>44802</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="30">
+        <v>399</v>
+      </c>
       <c r="J5" s="37"/>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
       <c r="M5" s="32">
-        <v>0</v>
+        <v>70671</v>
       </c>
       <c r="N5" s="33">
-        <v>0</v>
-      </c>
-      <c r="O5" s="730"/>
+        <v>55630</v>
+      </c>
+      <c r="O5" s="730" t="s">
+        <v>937</v>
+      </c>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>134268</v>
       </c>
       <c r="Q5" s="325">
         <f>P5-F5</f>
@@ -55699,29 +55730,41 @@
       <c r="B6" s="24">
         <v>44803</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="25">
+        <v>36043</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>1246</v>
+      </c>
       <c r="E6" s="27">
         <v>44803</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>138387</v>
+      </c>
       <c r="G6" s="572"/>
       <c r="H6" s="29">
         <v>44803</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="30">
+        <v>1604</v>
+      </c>
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
       <c r="M6" s="32">
-        <v>0</v>
+        <f>539+55232+500</f>
+        <v>56271</v>
       </c>
       <c r="N6" s="33">
-        <v>0</v>
+        <v>44469</v>
+      </c>
+      <c r="O6" s="909" t="s">
+        <v>1247</v>
       </c>
       <c r="P6" s="39">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>138387</v>
       </c>
       <c r="Q6" s="325">
         <f t="shared" ref="Q6:Q40" si="0">P6-F6</f>
@@ -55737,29 +55780,41 @@
       <c r="B7" s="24">
         <v>44804</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="25">
+        <v>6372</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="E7" s="27">
         <v>44804</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>112167</v>
+      </c>
       <c r="G7" s="572"/>
       <c r="H7" s="29">
         <v>44804</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30">
+        <v>2875</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
       <c r="M7" s="32">
-        <v>0</v>
+        <f>84627+10937.68</f>
+        <v>95564.68</v>
       </c>
       <c r="N7" s="33">
-        <v>0</v>
+        <v>48294</v>
+      </c>
+      <c r="O7" s="909" t="s">
+        <v>1247</v>
       </c>
       <c r="P7" s="39">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>153105.68</v>
       </c>
       <c r="Q7" s="325">
         <v>0</v>
@@ -55774,29 +55829,40 @@
       <c r="B8" s="24">
         <v>44805</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="25">
+        <v>13500</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>330</v>
+      </c>
       <c r="E8" s="27">
         <v>44805</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>120503</v>
+      </c>
       <c r="G8" s="572"/>
       <c r="H8" s="29">
         <v>44805</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>3866</v>
+      </c>
       <c r="J8" s="43"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <v>62803</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>40334</v>
+      </c>
+      <c r="O8" s="909" t="s">
+        <v>1247</v>
       </c>
       <c r="P8" s="39">
         <f t="shared" ref="P8:P32" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>120503</v>
       </c>
       <c r="Q8" s="325">
         <v>0</v>
@@ -55811,29 +55877,40 @@
       <c r="B9" s="24">
         <v>44806</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="25">
+        <v>7410</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>328</v>
+      </c>
       <c r="E9" s="27">
         <v>44806</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>138326</v>
+      </c>
       <c r="G9" s="572"/>
       <c r="H9" s="29">
         <v>44806</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="30">
+        <v>2441</v>
+      </c>
       <c r="J9" s="37"/>
       <c r="K9" s="223"/>
       <c r="L9" s="39"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <v>72921</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
+        <v>55554</v>
+      </c>
+      <c r="O9" s="909" t="s">
+        <v>1247</v>
       </c>
       <c r="P9" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138326</v>
       </c>
       <c r="Q9" s="325">
         <f t="shared" si="0"/>
@@ -55849,29 +55926,47 @@
       <c r="B10" s="24">
         <v>44807</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="25">
+        <v>21781.5</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>1248</v>
+      </c>
       <c r="E10" s="27">
         <v>44807</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>133295</v>
+      </c>
       <c r="G10" s="572"/>
       <c r="H10" s="29">
         <v>44807</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="30">
+        <v>9779.5</v>
+      </c>
+      <c r="J10" s="37">
+        <v>44807</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L10" s="45">
+        <v>18003</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <f>24567+956</f>
+        <v>25523</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>58208</v>
+      </c>
+      <c r="O10" s="909" t="s">
+        <v>1247</v>
       </c>
       <c r="P10" s="39">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>133295</v>
       </c>
       <c r="Q10" s="325">
         <f t="shared" si="0"/>
@@ -55887,33 +55982,44 @@
       <c r="B11" s="24">
         <v>44808</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="25">
+        <v>32635</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>639</v>
+      </c>
       <c r="E11" s="27">
         <v>44808</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>89343</v>
+      </c>
       <c r="G11" s="572"/>
       <c r="H11" s="29">
         <v>44808</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>120.5</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="168"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>40989</v>
+      </c>
+      <c r="O11" s="909" t="s">
+        <v>1247</v>
       </c>
       <c r="P11" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89344.5</v>
       </c>
       <c r="Q11" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R11" s="319">
         <v>0</v>
@@ -56753,9 +56859,15 @@
       <c r="G34" s="572"/>
       <c r="H34" s="29"/>
       <c r="I34" s="30"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="906"/>
-      <c r="L34" s="39"/>
+      <c r="J34" s="56">
+        <v>44807</v>
+      </c>
+      <c r="K34" s="739" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L34" s="39">
+        <v>19507</v>
+      </c>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -56784,7 +56896,7 @@
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
       <c r="J35" s="698"/>
-      <c r="K35" s="907"/>
+      <c r="K35" s="752"/>
       <c r="L35" s="702"/>
       <c r="M35" s="32">
         <v>0</v>
@@ -56814,7 +56926,7 @@
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="56"/>
-      <c r="K36" s="906"/>
+      <c r="K36" s="751"/>
       <c r="L36" s="39"/>
       <c r="M36" s="32">
         <v>0</v>
@@ -56844,7 +56956,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="30"/>
       <c r="J37" s="56"/>
-      <c r="K37" s="906"/>
+      <c r="K37" s="751"/>
       <c r="L37" s="39"/>
       <c r="M37" s="32">
         <v>0</v>
@@ -56965,21 +57077,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="743"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="807">
+      <c r="M41" s="799">
         <f>SUM(M5:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="807">
+        <v>399353.68</v>
+      </c>
+      <c r="N41" s="799">
         <f>SUM(N5:N40)</f>
-        <v>0</v>
+        <v>343478</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="861">
+        <v>907229.17999999993</v>
+      </c>
+      <c r="Q41" s="864">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R41" s="227">
         <f>SUM(R28:R40)</f>
@@ -56999,10 +57111,10 @@
       <c r="J42" s="698"/>
       <c r="K42" s="701"/>
       <c r="L42" s="702"/>
-      <c r="M42" s="808"/>
-      <c r="N42" s="808"/>
+      <c r="M42" s="800"/>
+      <c r="N42" s="800"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="862"/>
+      <c r="Q42" s="865"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>0</v>
@@ -57057,11 +57169,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="671"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="863">
+      <c r="M45" s="866">
         <f>M41+N41</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="864"/>
+        <v>742831.67999999993</v>
+      </c>
+      <c r="N45" s="867"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -57444,7 +57556,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>0</v>
+        <v>125309.5</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -57452,7 +57564,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>0</v>
+        <v>866289</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -57460,7 +57572,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>0</v>
+        <v>21085</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -57468,7 +57580,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>0</v>
+        <v>37510</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -57486,50 +57598,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="762" t="s">
+      <c r="H69" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="763"/>
+      <c r="I69" s="777"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="895">
+      <c r="K69" s="901">
         <f>I67+L67</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="896"/>
+        <v>58595</v>
+      </c>
+      <c r="L69" s="902"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="768" t="s">
+      <c r="D70" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="768"/>
+      <c r="E70" s="782"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>0</v>
+        <v>682384.5</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="798" t="s">
+      <c r="D71" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="798"/>
+      <c r="E71" s="806"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="769" t="s">
+      <c r="I71" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="770"/>
-      <c r="K71" s="771">
+      <c r="J71" s="784"/>
+      <c r="K71" s="785">
         <f>F73+F74+F75</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="771"/>
+        <v>682384.5</v>
+      </c>
+      <c r="L71" s="785"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -57563,7 +57675,7 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>0</v>
+        <v>682384.5</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
@@ -57574,7 +57686,7 @@
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="771"/>
+      <c r="L73" s="785"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -57589,22 +57701,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="751" t="s">
+      <c r="D75" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="752"/>
+      <c r="E75" s="766"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="753" t="s">
+      <c r="I75" s="767" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="754"/>
-      <c r="K75" s="755">
+      <c r="J75" s="768"/>
+      <c r="K75" s="769">
         <f>K71+K73</f>
-        <v>-2672555.9900000002</v>
-      </c>
-      <c r="L75" s="755"/>
+        <v>-1990171.4900000002</v>
+      </c>
+      <c r="L75" s="769"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -57748,16 +57860,9 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="H69:I69"/>
@@ -57767,13 +57872,21 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -57875,7 +57988,7 @@
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="908"/>
+      <c r="H3" s="753"/>
       <c r="I3" s="347"/>
       <c r="J3" s="349"/>
       <c r="K3" s="732"/>
@@ -57896,7 +58009,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="H4" s="908"/>
+      <c r="H4" s="753"/>
       <c r="I4" s="347"/>
       <c r="J4" s="349"/>
       <c r="K4" s="732"/>
@@ -57916,7 +58029,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="908"/>
+      <c r="H5" s="753"/>
       <c r="I5" s="347"/>
       <c r="J5" s="349"/>
       <c r="K5" s="732"/>
@@ -57936,7 +58049,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="908"/>
+      <c r="H6" s="753"/>
       <c r="I6" s="347"/>
       <c r="J6" s="349"/>
       <c r="K6" s="732"/>
@@ -57956,7 +58069,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="908"/>
+      <c r="H7" s="753"/>
       <c r="I7" s="347"/>
       <c r="J7" s="349"/>
       <c r="K7" s="732"/>
@@ -57976,7 +58089,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="908"/>
+      <c r="H8" s="753"/>
       <c r="I8" s="347"/>
       <c r="J8" s="349"/>
       <c r="K8" s="732"/>
@@ -57996,7 +58109,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="908"/>
+      <c r="H9" s="753"/>
       <c r="I9" s="347"/>
       <c r="J9" s="349"/>
       <c r="K9" s="732"/>
@@ -58017,7 +58130,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="H10" s="908"/>
+      <c r="H10" s="753"/>
       <c r="I10" s="347"/>
       <c r="J10" s="349"/>
       <c r="K10" s="732"/>
@@ -58037,7 +58150,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="908"/>
+      <c r="H11" s="753"/>
       <c r="I11" s="347"/>
       <c r="J11" s="349"/>
       <c r="K11" s="732"/>
@@ -58057,7 +58170,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="908"/>
+      <c r="H12" s="753"/>
       <c r="I12" s="347"/>
       <c r="J12" s="349"/>
       <c r="K12" s="732"/>
@@ -58077,7 +58190,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="908"/>
+      <c r="H13" s="753"/>
       <c r="I13" s="347"/>
       <c r="J13" s="349"/>
       <c r="K13" s="732"/>
@@ -58097,7 +58210,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="908"/>
+      <c r="H14" s="753"/>
       <c r="I14" s="347"/>
       <c r="J14" s="349"/>
       <c r="K14" s="732"/>
@@ -58117,7 +58230,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="908"/>
+      <c r="H15" s="753"/>
       <c r="I15" s="347"/>
       <c r="J15" s="349"/>
       <c r="K15" s="732"/>
@@ -58137,7 +58250,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="908"/>
+      <c r="H16" s="753"/>
       <c r="I16" s="347"/>
       <c r="J16" s="349"/>
       <c r="K16" s="732"/>
@@ -58157,7 +58270,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="908"/>
+      <c r="H17" s="753"/>
       <c r="I17" s="347"/>
       <c r="J17" s="349"/>
       <c r="K17" s="732"/>
@@ -58177,7 +58290,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="908"/>
+      <c r="H18" s="753"/>
       <c r="I18" s="347"/>
       <c r="J18" s="349"/>
       <c r="K18" s="732"/>
@@ -58197,7 +58310,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="908"/>
+      <c r="H19" s="753"/>
       <c r="I19" s="347"/>
       <c r="J19" s="349"/>
       <c r="K19" s="732"/>
@@ -58217,7 +58330,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="908"/>
+      <c r="H20" s="753"/>
       <c r="I20" s="347"/>
       <c r="J20" s="349"/>
       <c r="K20" s="732"/>
@@ -58237,7 +58350,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="908"/>
+      <c r="H21" s="753"/>
       <c r="I21" s="347"/>
       <c r="J21" s="349"/>
       <c r="K21" s="732"/>
@@ -58258,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="644"/>
-      <c r="H22" s="908"/>
+      <c r="H22" s="753"/>
       <c r="I22" s="347"/>
       <c r="J22" s="349"/>
       <c r="K22" s="732"/>
@@ -58279,7 +58392,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="908"/>
+      <c r="H23" s="753"/>
       <c r="I23" s="347"/>
       <c r="J23" s="349"/>
       <c r="K23" s="412"/>
@@ -58300,7 +58413,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="908"/>
+      <c r="H24" s="753"/>
       <c r="I24" s="347"/>
       <c r="J24" s="349"/>
       <c r="K24" s="412"/>
@@ -58321,7 +58434,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="645"/>
-      <c r="H25" s="908"/>
+      <c r="H25" s="753"/>
       <c r="I25" s="347"/>
       <c r="J25" s="349"/>
       <c r="K25" s="412"/>
@@ -58342,7 +58455,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="645"/>
-      <c r="H26" s="908"/>
+      <c r="H26" s="753"/>
       <c r="I26" s="347"/>
       <c r="J26" s="349"/>
       <c r="K26" s="412"/>
@@ -58363,7 +58476,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="645"/>
-      <c r="H27" s="908"/>
+      <c r="H27" s="753"/>
       <c r="I27" s="347"/>
       <c r="J27" s="349"/>
       <c r="K27" s="412"/>
@@ -58384,7 +58497,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="645"/>
-      <c r="H28" s="908"/>
+      <c r="H28" s="753"/>
       <c r="I28" s="347"/>
       <c r="J28" s="349"/>
       <c r="K28" s="412"/>
@@ -58405,7 +58518,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="645"/>
-      <c r="H29" s="908"/>
+      <c r="H29" s="753"/>
       <c r="I29" s="347"/>
       <c r="J29" s="349"/>
       <c r="K29" s="412"/>
@@ -58426,7 +58539,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="645"/>
-      <c r="H30" s="908"/>
+      <c r="H30" s="753"/>
       <c r="I30" s="347"/>
       <c r="J30" s="349"/>
       <c r="K30" s="412"/>
@@ -58447,7 +58560,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="908"/>
+      <c r="H31" s="753"/>
       <c r="I31" s="347"/>
       <c r="J31" s="349"/>
       <c r="K31" s="412"/>
@@ -58468,7 +58581,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="908"/>
+      <c r="H32" s="753"/>
       <c r="I32" s="347"/>
       <c r="J32" s="349"/>
       <c r="K32" s="412"/>
@@ -58488,7 +58601,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="908"/>
+      <c r="H33" s="753"/>
       <c r="I33" s="347"/>
       <c r="J33" s="349"/>
       <c r="K33" s="412"/>
@@ -58508,7 +58621,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="908"/>
+      <c r="H34" s="753"/>
       <c r="I34" s="347"/>
       <c r="J34" s="349"/>
       <c r="K34" s="412"/>
@@ -58628,10 +58741,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="855" t="s">
+      <c r="H40" s="858" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="856"/>
+      <c r="I40" s="859"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -58650,8 +58763,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="857"/>
-      <c r="I41" s="858"/>
+      <c r="H41" s="860"/>
+      <c r="I41" s="861"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -58670,8 +58783,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="859"/>
-      <c r="I42" s="860"/>
+      <c r="H42" s="862"/>
+      <c r="I42" s="863"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -59175,10 +59288,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="851" t="s">
+      <c r="H67" s="854" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="852"/>
+      <c r="I67" s="855"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -59198,11 +59311,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="813" t="s">
+      <c r="F68" s="816" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="853"/>
-      <c r="I68" s="854"/>
+      <c r="H68" s="856"/>
+      <c r="I68" s="857"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -59213,7 +59326,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="814"/>
+      <c r="F69" s="817"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -59857,23 +59970,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="777" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="756" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="778"/>
-      <c r="E1" s="778"/>
-      <c r="F1" s="778"/>
-      <c r="G1" s="778"/>
-      <c r="H1" s="778"/>
-      <c r="I1" s="778"/>
-      <c r="J1" s="778"/>
-      <c r="K1" s="778"/>
-      <c r="L1" s="778"/>
-      <c r="M1" s="778"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59883,21 +59996,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
     </row>
@@ -59912,14 +60025,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59929,14 +60042,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="788" t="s">
+      <c r="W4" s="807" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="807"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59987,8 +60100,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="807"/>
+      <c r="X5" s="807"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60759,7 +60872,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="811">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -60811,7 +60924,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="812"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60860,8 +60973,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="813"/>
+      <c r="X21" s="813"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60962,8 +61075,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="814"/>
+      <c r="X23" s="814"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61017,8 +61130,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="814"/>
+      <c r="X24" s="814"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61064,8 +61177,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="815"/>
+      <c r="X25" s="815"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61116,8 +61229,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="815"/>
+      <c r="X26" s="815"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61165,9 +61278,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="808"/>
+      <c r="X27" s="809"/>
+      <c r="Y27" s="810"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61217,9 +61330,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="809"/>
+      <c r="X28" s="809"/>
+      <c r="Y28" s="810"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61554,11 +61667,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="807">
+      <c r="M36" s="799">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="809">
+      <c r="N36" s="801">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -61566,7 +61679,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="811">
+      <c r="Q36" s="803">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -61601,13 +61714,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="808"/>
-      <c r="N37" s="810"/>
+      <c r="M37" s="800"/>
+      <c r="N37" s="802"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="812"/>
+      <c r="Q37" s="804"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61897,26 +62010,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="777"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="778">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="797"/>
+      <c r="L52" s="805"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="782"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -61925,29 +62038,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="798" t="s">
+      <c r="D54" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="798"/>
+      <c r="E54" s="806"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="784"/>
+      <c r="K54" s="785">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="771"/>
-      <c r="M54" s="799" t="s">
+      <c r="L54" s="785"/>
+      <c r="M54" s="791" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="800"/>
-      <c r="O54" s="800"/>
-      <c r="P54" s="800"/>
-      <c r="Q54" s="801"/>
+      <c r="N54" s="792"/>
+      <c r="O54" s="792"/>
+      <c r="P54" s="792"/>
+      <c r="Q54" s="793"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61961,11 +62074,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="802"/>
-      <c r="N55" s="803"/>
-      <c r="O55" s="803"/>
-      <c r="P55" s="803"/>
-      <c r="Q55" s="804"/>
+      <c r="M55" s="794"/>
+      <c r="N55" s="795"/>
+      <c r="O55" s="795"/>
+      <c r="P55" s="795"/>
+      <c r="Q55" s="796"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61983,11 +62096,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="787">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="788"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -62004,22 +62117,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="766"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="767" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="768"/>
+      <c r="K58" s="769">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="769"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -62163,17 +62276,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -62184,14 +62294,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -64609,7 +64722,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="813" t="s">
+      <c r="F87" s="816" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -64622,7 +64735,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="814"/>
+      <c r="F88" s="817"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -64934,23 +65047,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="777" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="756" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="778"/>
-      <c r="E1" s="778"/>
-      <c r="F1" s="778"/>
-      <c r="G1" s="778"/>
-      <c r="H1" s="778"/>
-      <c r="I1" s="778"/>
-      <c r="J1" s="778"/>
-      <c r="K1" s="778"/>
-      <c r="L1" s="778"/>
-      <c r="M1" s="778"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64960,24 +65073,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -64992,14 +65105,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -65009,15 +65122,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
-      <c r="W4" s="788" t="s">
+      <c r="R4" s="819"/>
+      <c r="W4" s="807" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="807"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65078,8 +65191,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="807"/>
+      <c r="X5" s="807"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65836,7 +65949,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="811">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65888,7 +66001,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="812"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65937,8 +66050,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="813"/>
+      <c r="X21" s="813"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -66039,8 +66152,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="814"/>
+      <c r="X23" s="814"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -66091,8 +66204,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="814"/>
+      <c r="X24" s="814"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66138,8 +66251,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="815"/>
+      <c r="X25" s="815"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66187,8 +66300,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="815"/>
+      <c r="X26" s="815"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66248,9 +66361,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="808"/>
+      <c r="X27" s="809"/>
+      <c r="Y27" s="810"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66304,9 +66417,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="809"/>
+      <c r="X28" s="809"/>
+      <c r="Y28" s="810"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66622,11 +66735,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="807">
+      <c r="M36" s="799">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="809">
+      <c r="N36" s="801">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -66634,7 +66747,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="811">
+      <c r="Q36" s="803">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -66653,13 +66766,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="808"/>
-      <c r="N37" s="810"/>
+      <c r="M37" s="800"/>
+      <c r="N37" s="802"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="812"/>
+      <c r="Q37" s="804"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -66933,26 +67046,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="777"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="778">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="797"/>
+      <c r="L52" s="805"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="782"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -66961,29 +67074,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="798" t="s">
+      <c r="D54" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="798"/>
+      <c r="E54" s="806"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="784"/>
+      <c r="K54" s="785">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="771"/>
-      <c r="M54" s="799" t="s">
+      <c r="L54" s="785"/>
+      <c r="M54" s="791" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="800"/>
-      <c r="O54" s="800"/>
-      <c r="P54" s="800"/>
-      <c r="Q54" s="801"/>
+      <c r="N54" s="792"/>
+      <c r="O54" s="792"/>
+      <c r="P54" s="792"/>
+      <c r="Q54" s="793"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -66997,11 +67110,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="802"/>
-      <c r="N55" s="803"/>
-      <c r="O55" s="803"/>
-      <c r="P55" s="803"/>
-      <c r="Q55" s="804"/>
+      <c r="M55" s="794"/>
+      <c r="N55" s="795"/>
+      <c r="O55" s="795"/>
+      <c r="P55" s="795"/>
+      <c r="Q55" s="796"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -67019,11 +67132,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="787">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="788"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -67040,22 +67153,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="766"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="767" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="768"/>
+      <c r="K58" s="769">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="769"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -67199,13 +67312,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -67215,20 +67335,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -69618,7 +69731,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="813" t="s">
+      <c r="F75" s="816" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -69631,7 +69744,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="814"/>
+      <c r="F76" s="817"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -69923,23 +70036,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69949,24 +70062,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -69981,14 +70094,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69998,15 +70111,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
-      <c r="W4" s="788" t="s">
+      <c r="R4" s="819"/>
+      <c r="W4" s="807" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="807"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70057,8 +70170,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="807"/>
+      <c r="X5" s="807"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70822,7 +70935,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="811">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70875,7 +70988,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="812"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70924,8 +71037,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="813"/>
+      <c r="X21" s="813"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71025,8 +71138,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="814"/>
+      <c r="X23" s="814"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71081,8 +71194,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="814"/>
+      <c r="X24" s="814"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71127,8 +71240,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="815"/>
+      <c r="X25" s="815"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71176,8 +71289,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="815"/>
+      <c r="X26" s="815"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71231,9 +71344,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="808"/>
+      <c r="X27" s="809"/>
+      <c r="Y27" s="810"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71287,9 +71400,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="809"/>
+      <c r="X28" s="809"/>
+      <c r="Y28" s="810"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71600,11 +71713,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="807">
+      <c r="M36" s="799">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="809">
+      <c r="N36" s="801">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -71612,7 +71725,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="811">
+      <c r="Q36" s="803">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -71637,13 +71750,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="808"/>
-      <c r="N37" s="810"/>
+      <c r="M37" s="800"/>
+      <c r="N37" s="802"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="812"/>
+      <c r="Q37" s="804"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -71936,26 +72049,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="777"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="778">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="797"/>
+      <c r="L52" s="805"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="782"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -71964,22 +72077,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="798" t="s">
+      <c r="D54" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="798"/>
+      <c r="E54" s="806"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="784"/>
+      <c r="K54" s="785">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="771"/>
+      <c r="L54" s="785"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72020,11 +72133,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="787">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="788"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72041,22 +72154,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="766"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="767" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="768"/>
+      <c r="K58" s="769">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="769"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -72200,6 +72313,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -72215,20 +72342,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -73925,12 +74038,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="819" t="s">
+      <c r="B43" s="822" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="820"/>
-      <c r="D43" s="820"/>
-      <c r="E43" s="821"/>
+      <c r="C43" s="823"/>
+      <c r="D43" s="823"/>
+      <c r="E43" s="824"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -73958,10 +74071,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="822"/>
-      <c r="C44" s="823"/>
-      <c r="D44" s="823"/>
-      <c r="E44" s="824"/>
+      <c r="B44" s="825"/>
+      <c r="C44" s="826"/>
+      <c r="D44" s="826"/>
+      <c r="E44" s="827"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -73989,10 +74102,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="825"/>
-      <c r="C45" s="826"/>
-      <c r="D45" s="826"/>
-      <c r="E45" s="827"/>
+      <c r="B45" s="828"/>
+      <c r="C45" s="829"/>
+      <c r="D45" s="829"/>
+      <c r="E45" s="830"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74035,10 +74148,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="834" t="s">
+      <c r="B47" s="837" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="835"/>
+      <c r="C47" s="838"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -74060,8 +74173,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="836"/>
-      <c r="C48" s="837"/>
+      <c r="B48" s="839"/>
+      <c r="C48" s="840"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -74069,11 +74182,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="828" t="s">
+      <c r="J48" s="831" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="829"/>
-      <c r="L48" s="830"/>
+      <c r="K48" s="832"/>
+      <c r="L48" s="833"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -74091,9 +74204,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="831"/>
-      <c r="K49" s="832"/>
-      <c r="L49" s="833"/>
+      <c r="J49" s="834"/>
+      <c r="K49" s="835"/>
+      <c r="L49" s="836"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -74110,10 +74223,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="838" t="s">
+      <c r="I50" s="841" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="839"/>
+      <c r="J50" s="842"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -74134,8 +74247,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="838"/>
-      <c r="J51" s="839"/>
+      <c r="I51" s="841"/>
+      <c r="J51" s="842"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -74154,8 +74267,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="838"/>
-      <c r="J52" s="839"/>
+      <c r="I52" s="841"/>
+      <c r="J52" s="842"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -74174,8 +74287,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="838"/>
-      <c r="J53" s="839"/>
+      <c r="I53" s="841"/>
+      <c r="J53" s="842"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -74194,8 +74307,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="838"/>
-      <c r="J54" s="839"/>
+      <c r="I54" s="841"/>
+      <c r="J54" s="842"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -74214,8 +74327,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="838"/>
-      <c r="J55" s="839"/>
+      <c r="I55" s="841"/>
+      <c r="J55" s="842"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -74234,8 +74347,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="838"/>
-      <c r="J56" s="839"/>
+      <c r="I56" s="841"/>
+      <c r="J56" s="842"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -74254,8 +74367,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="838"/>
-      <c r="J57" s="839"/>
+      <c r="I57" s="841"/>
+      <c r="J57" s="842"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -74274,8 +74387,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="838"/>
-      <c r="J58" s="839"/>
+      <c r="I58" s="841"/>
+      <c r="J58" s="842"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -74294,8 +74407,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="838"/>
-      <c r="J59" s="839"/>
+      <c r="I59" s="841"/>
+      <c r="J59" s="842"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -74314,8 +74427,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="838"/>
-      <c r="J60" s="839"/>
+      <c r="I60" s="841"/>
+      <c r="J60" s="842"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -74334,8 +74447,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="838"/>
-      <c r="J61" s="839"/>
+      <c r="I61" s="841"/>
+      <c r="J61" s="842"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -74354,8 +74467,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="838"/>
-      <c r="J62" s="839"/>
+      <c r="I62" s="841"/>
+      <c r="J62" s="842"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -74374,8 +74487,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="838"/>
-      <c r="J63" s="839"/>
+      <c r="I63" s="841"/>
+      <c r="J63" s="842"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -74394,8 +74507,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="838"/>
-      <c r="J64" s="839"/>
+      <c r="I64" s="841"/>
+      <c r="J64" s="842"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -74414,8 +74527,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="838"/>
-      <c r="J65" s="839"/>
+      <c r="I65" s="841"/>
+      <c r="J65" s="842"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -74434,8 +74547,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="838"/>
-      <c r="J66" s="839"/>
+      <c r="I66" s="841"/>
+      <c r="J66" s="842"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -74454,8 +74567,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="838"/>
-      <c r="J67" s="839"/>
+      <c r="I67" s="841"/>
+      <c r="J67" s="842"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -74474,8 +74587,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="838"/>
-      <c r="J68" s="839"/>
+      <c r="I68" s="841"/>
+      <c r="J68" s="842"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -74494,8 +74607,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="838"/>
-      <c r="J69" s="839"/>
+      <c r="I69" s="841"/>
+      <c r="J69" s="842"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -74514,8 +74627,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="838"/>
-      <c r="J70" s="839"/>
+      <c r="I70" s="841"/>
+      <c r="J70" s="842"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -74534,8 +74647,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="838"/>
-      <c r="J71" s="839"/>
+      <c r="I71" s="841"/>
+      <c r="J71" s="842"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -74554,8 +74667,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="838"/>
-      <c r="J72" s="839"/>
+      <c r="I72" s="841"/>
+      <c r="J72" s="842"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -74574,8 +74687,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="838"/>
-      <c r="J73" s="839"/>
+      <c r="I73" s="841"/>
+      <c r="J73" s="842"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -74594,8 +74707,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="838"/>
-      <c r="J74" s="839"/>
+      <c r="I74" s="841"/>
+      <c r="J74" s="842"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -74614,8 +74727,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="838"/>
-      <c r="J75" s="839"/>
+      <c r="I75" s="841"/>
+      <c r="J75" s="842"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -74634,8 +74747,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="838"/>
-      <c r="J76" s="839"/>
+      <c r="I76" s="841"/>
+      <c r="J76" s="842"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -74654,8 +74767,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="838"/>
-      <c r="J77" s="839"/>
+      <c r="I77" s="841"/>
+      <c r="J77" s="842"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -74676,8 +74789,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="840"/>
-      <c r="J78" s="841"/>
+      <c r="I78" s="843"/>
+      <c r="J78" s="844"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -74722,7 +74835,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="813" t="s">
+      <c r="F80" s="816" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -74734,7 +74847,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="814"/>
+      <c r="F81" s="817"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -75022,23 +75135,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="775"/>
-      <c r="C1" s="817" t="s">
+      <c r="B1" s="754"/>
+      <c r="C1" s="820" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="818"/>
-      <c r="E1" s="818"/>
-      <c r="F1" s="818"/>
-      <c r="G1" s="818"/>
-      <c r="H1" s="818"/>
-      <c r="I1" s="818"/>
-      <c r="J1" s="818"/>
-      <c r="K1" s="818"/>
-      <c r="L1" s="818"/>
-      <c r="M1" s="818"/>
+      <c r="D1" s="821"/>
+      <c r="E1" s="821"/>
+      <c r="F1" s="821"/>
+      <c r="G1" s="821"/>
+      <c r="H1" s="821"/>
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="821"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="776"/>
+      <c r="B2" s="755"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -75048,24 +75161,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="779" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="780"/>
+      <c r="B3" s="758" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="759"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="781" t="s">
+      <c r="H3" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="781"/>
+      <c r="I3" s="760"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="805" t="s">
+      <c r="P3" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="815" t="s">
+      <c r="R3" s="818" t="s">
         <v>216</v>
       </c>
     </row>
@@ -75080,14 +75193,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="782" t="s">
+      <c r="E4" s="761" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="783"/>
-      <c r="H4" s="784" t="s">
+      <c r="F4" s="762"/>
+      <c r="H4" s="763" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="785"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -75097,15 +75210,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="806"/>
+      <c r="P4" s="798"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="816"/>
-      <c r="W4" s="788" t="s">
+      <c r="R4" s="819"/>
+      <c r="W4" s="807" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="807"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -75156,8 +75269,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="807"/>
+      <c r="X5" s="807"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -75918,7 +76031,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="811">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -75970,7 +76083,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="812"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -76019,8 +76132,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="813"/>
+      <c r="X21" s="813"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -76119,8 +76232,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="814"/>
+      <c r="X23" s="814"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -76175,8 +76288,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="814"/>
+      <c r="X24" s="814"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -76224,8 +76337,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="815"/>
+      <c r="X25" s="815"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -76273,8 +76386,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="815"/>
+      <c r="X26" s="815"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -76322,9 +76435,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="808"/>
+      <c r="X27" s="809"/>
+      <c r="Y27" s="810"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76372,9 +76485,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="809"/>
+      <c r="X28" s="809"/>
+      <c r="Y28" s="810"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76715,11 +76828,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="807">
+      <c r="M36" s="799">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="809">
+      <c r="N36" s="801">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -76727,7 +76840,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="842">
+      <c r="Q36" s="845">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -76752,13 +76865,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="808"/>
-      <c r="N37" s="810"/>
+      <c r="M37" s="800"/>
+      <c r="N37" s="802"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="843"/>
+      <c r="Q37" s="846"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -76808,11 +76921,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="844">
+      <c r="M39" s="847">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="845"/>
+      <c r="N39" s="848"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -77060,26 +77173,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="776" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="777"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="778">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="797"/>
+      <c r="L52" s="805"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="782" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="782"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -77088,22 +77201,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="798" t="s">
+      <c r="D54" s="806" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="798"/>
+      <c r="E54" s="806"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="783" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="784"/>
+      <c r="K54" s="785">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="771"/>
+      <c r="L54" s="785"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -77144,11 +77257,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="787">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="788"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -77165,22 +77278,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="765" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="766"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="767" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="768"/>
+      <c r="K58" s="769">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="769"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -77324,20 +77437,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -77354,6 +77453,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="1255">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4690,6 +4690,18 @@
   </si>
   <si>
     <t>NOMINA #36</t>
+  </si>
+  <si>
+    <t>CREMA-JAMON-POLLO-CHISTORRA-QUESOS-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>CHORIZO-ALPASTOR-POLLO-QUESOS-PAPA-SALCHICA</t>
+  </si>
+  <si>
+    <t>DEBE</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-AL PASTOR-CHORIZO</t>
   </si>
 </sst>
 </file>
@@ -6827,7 +6839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="910">
+  <cellXfs count="933">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8354,37 +8366,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8459,10 +8441,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8506,39 +8554,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8777,15 +8792,6 @@
     <xf numFmtId="0" fontId="75" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8800,6 +8806,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8819,7 +8834,33 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8831,14 +8872,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF990033"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF990033"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FFCCFF66"/>
     </mruColors>
@@ -14562,23 +14603,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="781" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="782"/>
+      <c r="E1" s="782"/>
+      <c r="F1" s="782"/>
+      <c r="G1" s="782"/>
+      <c r="H1" s="782"/>
+      <c r="I1" s="782"/>
+      <c r="J1" s="782"/>
+      <c r="K1" s="782"/>
+      <c r="L1" s="782"/>
+      <c r="M1" s="782"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14588,17 +14629,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14612,14 +14653,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14629,10 +14670,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="770" t="s">
+      <c r="P4" s="760" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="771"/>
+      <c r="Q4" s="761"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16073,11 +16114,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="772">
+      <c r="M39" s="762">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="774">
+      <c r="N39" s="764">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16103,8 +16144,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="773"/>
-      <c r="N40" s="775"/>
+      <c r="M40" s="763"/>
+      <c r="N40" s="765"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16319,29 +16360,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="776" t="s">
+      <c r="H52" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="777"/>
+      <c r="I52" s="767"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="778">
+      <c r="K52" s="768">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="779"/>
-      <c r="M52" s="780">
+      <c r="L52" s="769"/>
+      <c r="M52" s="770">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="781"/>
+      <c r="N52" s="771"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="782" t="s">
+      <c r="D53" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="782"/>
+      <c r="E53" s="772"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16352,22 +16393,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="782" t="s">
+      <c r="D54" s="772" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="782"/>
+      <c r="E54" s="772"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="783" t="s">
+      <c r="I54" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="784"/>
-      <c r="K54" s="785">
+      <c r="J54" s="774"/>
+      <c r="K54" s="775">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="786"/>
+      <c r="L54" s="776"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16400,11 +16441,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="787">
+      <c r="K56" s="777">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="788"/>
+      <c r="L56" s="778"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16421,22 +16462,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="765" t="s">
+      <c r="D58" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="766"/>
+      <c r="E58" s="756"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="767" t="s">
+      <c r="I58" s="757" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="768"/>
-      <c r="K58" s="769">
+      <c r="J58" s="758"/>
+      <c r="K58" s="759">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="769"/>
+      <c r="L58" s="759"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16580,6 +16621,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16594,12 +16641,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19060,10 +19101,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="850" t="s">
+      <c r="I76" s="851" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="851"/>
+      <c r="J76" s="852"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19082,8 +19123,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="852"/>
-      <c r="J77" s="853"/>
+      <c r="I77" s="853"/>
+      <c r="J77" s="854"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19150,7 +19191,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="816" t="s">
+      <c r="F80" s="817" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19165,7 +19206,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="817"/>
+      <c r="F81" s="818"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19173,10 +19214,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="849" t="s">
+      <c r="B82" s="850" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="849"/>
+      <c r="C82" s="850"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19458,23 +19499,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19484,24 +19525,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19516,14 +19557,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19533,15 +19574,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
-      <c r="W4" s="807" t="s">
+      <c r="R4" s="820"/>
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="807"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19592,8 +19633,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="807"/>
-      <c r="X5" s="807"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20356,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="811">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20408,7 +20449,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="812"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20457,8 +20498,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="813"/>
-      <c r="X21" s="813"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20558,8 +20599,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="814"/>
-      <c r="X23" s="814"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20614,8 +20655,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="814"/>
-      <c r="X24" s="814"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20663,8 +20704,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="815"/>
-      <c r="X25" s="815"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20713,8 +20754,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="815"/>
-      <c r="X26" s="815"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20762,9 +20803,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="808"/>
-      <c r="X27" s="809"/>
-      <c r="Y27" s="810"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20812,9 +20853,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="809"/>
-      <c r="X28" s="809"/>
-      <c r="Y28" s="810"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21146,11 +21187,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="799">
+      <c r="M36" s="811">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="801">
+      <c r="N36" s="813">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21158,7 +21199,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="845">
+      <c r="Q36" s="846">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21183,13 +21224,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="800"/>
-      <c r="N37" s="802"/>
+      <c r="M37" s="812"/>
+      <c r="N37" s="814"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="846"/>
+      <c r="Q37" s="847"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21239,11 +21280,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="847">
+      <c r="M39" s="848">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="848"/>
+      <c r="N39" s="849"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21871,26 +21912,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="776" t="s">
+      <c r="H68" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="777"/>
+      <c r="I68" s="767"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="778">
+      <c r="K68" s="768">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="805"/>
+      <c r="L68" s="801"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="782" t="s">
+      <c r="D69" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="782"/>
+      <c r="E69" s="772"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21899,22 +21940,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="806" t="s">
+      <c r="D70" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="806"/>
+      <c r="E70" s="802"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="783" t="s">
+      <c r="I70" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="784"/>
-      <c r="K70" s="785">
+      <c r="J70" s="774"/>
+      <c r="K70" s="775">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="785"/>
+      <c r="L70" s="775"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21955,11 +21996,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="787">
+      <c r="K72" s="777">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="788"/>
+      <c r="L72" s="778"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21976,22 +22017,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="765" t="s">
+      <c r="D74" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="766"/>
+      <c r="E74" s="756"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="767" t="s">
+      <c r="I74" s="757" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="768"/>
-      <c r="K74" s="769">
+      <c r="J74" s="758"/>
+      <c r="K74" s="759">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="769"/>
+      <c r="L74" s="759"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22138,6 +22179,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22153,21 +22209,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23729,10 +23770,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="858" t="s">
+      <c r="I44" s="859" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="859"/>
+      <c r="J44" s="860"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23751,8 +23792,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="860"/>
-      <c r="J45" s="861"/>
+      <c r="I45" s="861"/>
+      <c r="J45" s="862"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23771,8 +23812,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="862"/>
-      <c r="J46" s="863"/>
+      <c r="I46" s="863"/>
+      <c r="J46" s="864"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24461,7 +24502,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="816" t="s">
+      <c r="F80" s="817" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24474,7 +24515,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="817"/>
+      <c r="F81" s="818"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24494,10 +24535,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="854" t="s">
+      <c r="I83" s="855" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="855"/>
+      <c r="J83" s="856"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24506,8 +24547,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="856"/>
-      <c r="J84" s="857"/>
+      <c r="I84" s="857"/>
+      <c r="J84" s="858"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24780,23 +24821,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24806,24 +24847,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24838,14 +24879,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24855,15 +24896,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
-      <c r="W4" s="807" t="s">
+      <c r="R4" s="820"/>
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="807"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24914,8 +24955,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="807"/>
-      <c r="X5" s="807"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25674,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="811">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25726,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="812"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25775,8 +25816,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="813"/>
-      <c r="X21" s="813"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25873,8 +25914,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="814"/>
-      <c r="X23" s="814"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25929,8 +25970,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="814"/>
-      <c r="X24" s="814"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25976,8 +26017,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="815"/>
-      <c r="X25" s="815"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26028,8 +26069,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="815"/>
-      <c r="X26" s="815"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26080,9 +26121,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="808"/>
-      <c r="X27" s="809"/>
-      <c r="Y27" s="810"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26132,9 +26173,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="809"/>
-      <c r="X28" s="809"/>
-      <c r="Y28" s="810"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26738,11 +26779,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="799">
+      <c r="M41" s="811">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="799">
+      <c r="N41" s="811">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26750,7 +26791,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="864">
+      <c r="Q41" s="865">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26780,10 +26821,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="800"/>
-      <c r="N42" s="800"/>
+      <c r="M42" s="812"/>
+      <c r="N42" s="812"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="865"/>
+      <c r="Q42" s="866"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26871,11 +26912,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="866">
+      <c r="M45" s="867">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="867"/>
+      <c r="N45" s="868"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27468,26 +27509,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="776" t="s">
+      <c r="H70" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="777"/>
+      <c r="I70" s="767"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="778">
+      <c r="K70" s="768">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="805"/>
+      <c r="L70" s="801"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="782" t="s">
+      <c r="D71" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="782"/>
+      <c r="E71" s="772"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27497,22 +27538,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="806" t="s">
+      <c r="D72" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="806"/>
+      <c r="E72" s="802"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="783" t="s">
+      <c r="I72" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="784"/>
-      <c r="K72" s="785">
+      <c r="J72" s="774"/>
+      <c r="K72" s="775">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="785"/>
+      <c r="L72" s="775"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27553,11 +27594,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="787">
+      <c r="K74" s="777">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="788"/>
+      <c r="L74" s="778"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27576,22 +27617,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="765" t="s">
+      <c r="D76" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="766"/>
+      <c r="E76" s="756"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="767" t="s">
+      <c r="I76" s="757" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="768"/>
-      <c r="K76" s="769">
+      <c r="J76" s="758"/>
+      <c r="K76" s="759">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="769"/>
+      <c r="L76" s="759"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27751,6 +27792,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27766,21 +27822,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29751,10 +29792,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="858" t="s">
+      <c r="I54" s="859" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="859"/>
+      <c r="J54" s="860"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29770,8 +29811,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="860"/>
-      <c r="J55" s="861"/>
+      <c r="I55" s="861"/>
+      <c r="J55" s="862"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29787,8 +29828,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="862"/>
-      <c r="J56" s="863"/>
+      <c r="I56" s="863"/>
+      <c r="J56" s="864"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30456,7 +30497,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="816" t="s">
+      <c r="F90" s="817" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30469,7 +30510,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="817"/>
+      <c r="F91" s="818"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30488,10 +30529,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="854" t="s">
+      <c r="I93" s="855" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="855"/>
+      <c r="J93" s="856"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30501,8 +30542,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="856"/>
-      <c r="J94" s="857"/>
+      <c r="I94" s="857"/>
+      <c r="J94" s="858"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30943,11 +30984,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="868">
+      <c r="C130" s="869">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="869"/>
+      <c r="D130" s="870"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -30984,24 +31025,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="883" t="s">
+      <c r="B2" s="884" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="884"/>
-      <c r="D2" s="885"/>
-      <c r="F2" s="871" t="s">
+      <c r="C2" s="885"/>
+      <c r="D2" s="886"/>
+      <c r="F2" s="872" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="872"/>
-      <c r="H2" s="873"/>
+      <c r="G2" s="873"/>
+      <c r="H2" s="874"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="886"/>
-      <c r="C3" s="887"/>
-      <c r="D3" s="888"/>
-      <c r="F3" s="874"/>
-      <c r="G3" s="875"/>
-      <c r="H3" s="876"/>
+      <c r="B3" s="887"/>
+      <c r="C3" s="888"/>
+      <c r="D3" s="889"/>
+      <c r="F3" s="875"/>
+      <c r="G3" s="876"/>
+      <c r="H3" s="877"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31146,11 +31187,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="877">
+      <c r="G11" s="878">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="878"/>
+      <c r="H11" s="879"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31167,33 +31208,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="881" t="s">
+      <c r="C15" s="882" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="879">
+      <c r="D15" s="880">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="889" t="s">
+      <c r="E15" s="890" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="890"/>
-      <c r="G15" s="890"/>
-      <c r="H15" s="891"/>
+      <c r="F15" s="891"/>
+      <c r="G15" s="891"/>
+      <c r="H15" s="892"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="882"/>
-      <c r="D16" s="880"/>
-      <c r="E16" s="892"/>
-      <c r="F16" s="893"/>
-      <c r="G16" s="893"/>
-      <c r="H16" s="894"/>
+      <c r="C16" s="883"/>
+      <c r="D16" s="881"/>
+      <c r="E16" s="893"/>
+      <c r="F16" s="894"/>
+      <c r="G16" s="894"/>
+      <c r="H16" s="895"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="870" t="s">
+      <c r="C17" s="871" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="870"/>
+      <c r="D17" s="871"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31252,23 +31293,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31278,24 +31319,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31314,14 +31355,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31331,15 +31372,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
+      <c r="R4" s="820"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="895"/>
-      <c r="X4" s="895"/>
+      <c r="W4" s="902"/>
+      <c r="X4" s="902"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31393,8 +31434,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="895"/>
-      <c r="X5" s="895"/>
+      <c r="W5" s="902"/>
+      <c r="X5" s="902"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32160,7 +32201,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="896"/>
+      <c r="W19" s="903"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32214,7 +32255,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="896"/>
+      <c r="W20" s="903"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32269,8 +32310,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="813"/>
-      <c r="X21" s="813"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32381,8 +32422,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="814"/>
-      <c r="X23" s="814"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32443,8 +32484,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="814"/>
-      <c r="X24" s="814"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32497,8 +32538,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="815"/>
-      <c r="X25" s="815"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32553,8 +32594,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="815"/>
-      <c r="X26" s="815"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32609,9 +32650,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="808"/>
-      <c r="X27" s="809"/>
-      <c r="Y27" s="810"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32665,9 +32706,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="809"/>
-      <c r="X28" s="809"/>
-      <c r="Y28" s="810"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33251,11 +33292,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="799">
+      <c r="M41" s="811">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="799">
+      <c r="N41" s="811">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33263,7 +33304,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="864">
+      <c r="Q41" s="865">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33287,10 +33328,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="800"/>
-      <c r="N42" s="800"/>
+      <c r="M42" s="812"/>
+      <c r="N42" s="812"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="865"/>
+      <c r="Q42" s="866"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33359,11 +33400,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="866">
+      <c r="M45" s="867">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="867"/>
+      <c r="N45" s="868"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33779,26 +33820,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="776" t="s">
+      <c r="H63" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="777"/>
+      <c r="I63" s="767"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="901">
+      <c r="K63" s="899">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="902"/>
+      <c r="L63" s="900"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="782" t="s">
+      <c r="D64" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="782"/>
+      <c r="E64" s="772"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33807,22 +33848,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="806" t="s">
+      <c r="D65" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="806"/>
+      <c r="E65" s="802"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="783" t="s">
+      <c r="I65" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="784"/>
-      <c r="K65" s="785">
+      <c r="J65" s="774"/>
+      <c r="K65" s="775">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="785"/>
+      <c r="L65" s="775"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33863,11 +33904,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="897">
+      <c r="K67" s="901">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="785"/>
+      <c r="L67" s="775"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33884,22 +33925,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="765" t="s">
+      <c r="D69" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="766"/>
+      <c r="E69" s="756"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="898" t="s">
+      <c r="I69" s="896" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="899"/>
-      <c r="K69" s="900">
+      <c r="J69" s="897"/>
+      <c r="K69" s="898">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="900"/>
+      <c r="L69" s="898"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34046,21 +34087,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -34076,6 +34102,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35572,10 +35613,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="858" t="s">
+      <c r="I38" s="859" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="859"/>
+      <c r="J38" s="860"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -35594,8 +35635,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="860"/>
-      <c r="J39" s="861"/>
+      <c r="I39" s="861"/>
+      <c r="J39" s="862"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -35614,8 +35655,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="862"/>
-      <c r="J40" s="863"/>
+      <c r="I40" s="863"/>
+      <c r="J40" s="864"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36238,7 +36279,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="816" t="s">
+      <c r="F71" s="817" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36251,7 +36292,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="817"/>
+      <c r="F72" s="818"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36270,10 +36311,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="854" t="s">
+      <c r="I74" s="855" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="855"/>
+      <c r="J74" s="856"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36282,8 +36323,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="856"/>
-      <c r="J75" s="857"/>
+      <c r="I75" s="857"/>
+      <c r="J75" s="858"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36417,11 +36458,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="905" t="s">
+      <c r="A89" s="906" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="906"/>
-      <c r="C89" s="906"/>
+      <c r="B89" s="907"/>
+      <c r="C89" s="907"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36431,10 +36472,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="907" t="s">
+      <c r="B90" s="908" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="908"/>
+      <c r="C90" s="909"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -36535,7 +36576,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="903">
+      <c r="C97" s="904">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36549,7 +36590,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="904"/>
+      <c r="C98" s="905"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36650,23 +36691,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36676,24 +36717,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36708,14 +36749,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36725,11 +36766,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
+      <c r="R4" s="820"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38497,11 +38538,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="799">
+      <c r="M41" s="811">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="799">
+      <c r="N41" s="811">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38509,7 +38550,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="864">
+      <c r="Q41" s="865">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -38539,10 +38580,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="800"/>
-      <c r="N42" s="800"/>
+      <c r="M42" s="812"/>
+      <c r="N42" s="812"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="865"/>
+      <c r="Q42" s="866"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -38629,11 +38670,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="866">
+      <c r="M45" s="867">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="867"/>
+      <c r="N45" s="868"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39219,26 +39260,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="776" t="s">
+      <c r="H69" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="777"/>
+      <c r="I69" s="767"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="901">
+      <c r="K69" s="899">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="902"/>
+      <c r="L69" s="900"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="782" t="s">
+      <c r="D70" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="782"/>
+      <c r="E70" s="772"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39247,22 +39288,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="806" t="s">
+      <c r="D71" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="806"/>
+      <c r="E71" s="802"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="783" t="s">
+      <c r="I71" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="784"/>
-      <c r="K71" s="785">
+      <c r="J71" s="774"/>
+      <c r="K71" s="775">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="785"/>
+      <c r="L71" s="775"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39303,11 +39344,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="897">
+      <c r="K73" s="901">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="785"/>
+      <c r="L73" s="775"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39324,22 +39365,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="765" t="s">
+      <c r="D75" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="766"/>
+      <c r="E75" s="756"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="767" t="s">
+      <c r="I75" s="757" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="768"/>
-      <c r="K75" s="769">
+      <c r="J75" s="758"/>
+      <c r="K75" s="759">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="769"/>
+      <c r="L75" s="759"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -39486,6 +39527,17 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -39497,17 +39549,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41188,10 +41229,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="858" t="s">
+      <c r="H43" s="859" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="859"/>
+      <c r="I43" s="860"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41210,8 +41251,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="860"/>
-      <c r="I44" s="861"/>
+      <c r="H44" s="861"/>
+      <c r="I44" s="862"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41230,8 +41271,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="862"/>
-      <c r="I45" s="863"/>
+      <c r="H45" s="863"/>
+      <c r="I45" s="864"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -41675,10 +41716,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="854" t="s">
+      <c r="H67" s="855" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="855"/>
+      <c r="I67" s="856"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -41698,11 +41739,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="816" t="s">
+      <c r="F68" s="817" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="856"/>
-      <c r="I68" s="857"/>
+      <c r="H68" s="857"/>
+      <c r="I68" s="858"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41713,7 +41754,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="817"/>
+      <c r="F69" s="818"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43528,7 +43569,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="789" t="s">
+      <c r="B41" s="790" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -43560,7 +43601,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="790"/>
+      <c r="B42" s="791"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45154,23 +45195,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45180,24 +45221,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45212,14 +45253,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45229,11 +45270,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
+      <c r="R4" s="820"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -46967,11 +47008,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="799">
+      <c r="M41" s="811">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="799">
+      <c r="N41" s="811">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46979,7 +47020,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="864">
+      <c r="Q41" s="865">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47009,10 +47050,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="800"/>
-      <c r="N42" s="800"/>
+      <c r="M42" s="812"/>
+      <c r="N42" s="812"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="865"/>
+      <c r="Q42" s="866"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47093,11 +47134,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="866">
+      <c r="M45" s="867">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="867"/>
+      <c r="N45" s="868"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -47614,26 +47655,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="776" t="s">
+      <c r="H69" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="777"/>
+      <c r="I69" s="767"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="901">
+      <c r="K69" s="899">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="902"/>
+      <c r="L69" s="900"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="782" t="s">
+      <c r="D70" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="782"/>
+      <c r="E70" s="772"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -47642,22 +47683,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="806" t="s">
+      <c r="D71" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="806"/>
+      <c r="E71" s="802"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="783" t="s">
+      <c r="I71" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="784"/>
-      <c r="K71" s="785">
+      <c r="J71" s="774"/>
+      <c r="K71" s="775">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="785"/>
+      <c r="L71" s="775"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47698,11 +47739,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="897">
+      <c r="K73" s="901">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="785"/>
+      <c r="L73" s="775"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47719,22 +47760,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="765" t="s">
+      <c r="D75" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="766"/>
+      <c r="E75" s="756"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="898" t="s">
+      <c r="I75" s="896" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="899"/>
-      <c r="K75" s="900">
+      <c r="J75" s="897"/>
+      <c r="K75" s="898">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="900"/>
+      <c r="L75" s="898"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47881,12 +47922,6 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47903,6 +47938,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49284,10 +49325,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="858" t="s">
+      <c r="H40" s="859" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="859"/>
+      <c r="I40" s="860"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49306,8 +49347,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="860"/>
-      <c r="I41" s="861"/>
+      <c r="H41" s="861"/>
+      <c r="I41" s="862"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49326,8 +49367,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="862"/>
-      <c r="I42" s="863"/>
+      <c r="H42" s="863"/>
+      <c r="I42" s="864"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49831,10 +49872,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="854" t="s">
+      <c r="H67" s="855" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="855"/>
+      <c r="I67" s="856"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49854,11 +49895,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="816" t="s">
+      <c r="F68" s="817" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="856"/>
-      <c r="I68" s="857"/>
+      <c r="H68" s="857"/>
+      <c r="I68" s="858"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49869,7 +49910,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="817"/>
+      <c r="F69" s="818"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50491,23 +50532,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50517,24 +50558,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50549,14 +50590,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50566,11 +50607,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
+      <c r="R4" s="820"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52289,11 +52330,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="799">
+      <c r="M41" s="811">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="799">
+      <c r="N41" s="811">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52301,7 +52342,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="864">
+      <c r="Q41" s="865">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52329,10 +52370,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="800"/>
-      <c r="N42" s="800"/>
+      <c r="M42" s="812"/>
+      <c r="N42" s="812"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="865"/>
+      <c r="Q42" s="866"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52405,11 +52446,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="866">
+      <c r="M45" s="867">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="867"/>
+      <c r="N45" s="868"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -52902,26 +52943,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="776" t="s">
+      <c r="H69" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="777"/>
+      <c r="I69" s="767"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="901">
+      <c r="K69" s="899">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="902"/>
+      <c r="L69" s="900"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="782" t="s">
+      <c r="D70" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="782"/>
+      <c r="E70" s="772"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -52930,22 +52971,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="806" t="s">
+      <c r="D71" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="806"/>
+      <c r="E71" s="802"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="783" t="s">
+      <c r="I71" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="784"/>
-      <c r="K71" s="785">
+      <c r="J71" s="774"/>
+      <c r="K71" s="775">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="785"/>
+      <c r="L71" s="775"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -52986,11 +53027,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="897">
+      <c r="K73" s="901">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="785"/>
+      <c r="L73" s="775"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53007,22 +53048,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="765" t="s">
+      <c r="D75" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="766"/>
+      <c r="E75" s="756"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="767" t="s">
+      <c r="I75" s="757" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="768"/>
-      <c r="K75" s="769">
+      <c r="J75" s="758"/>
+      <c r="K75" s="759">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="769"/>
+      <c r="L75" s="759"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53166,12 +53207,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53188,6 +53223,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54389,10 +54430,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="858" t="s">
+      <c r="H40" s="859" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="859"/>
+      <c r="I40" s="860"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54411,8 +54452,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="860"/>
-      <c r="I41" s="861"/>
+      <c r="H41" s="861"/>
+      <c r="I41" s="862"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -54431,8 +54472,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="862"/>
-      <c r="I42" s="863"/>
+      <c r="H42" s="863"/>
+      <c r="I42" s="864"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -54936,10 +54977,10 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="854" t="s">
+      <c r="H67" s="855" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="855"/>
+      <c r="I67" s="856"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -54959,11 +55000,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="816" t="s">
+      <c r="F68" s="817" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="856"/>
-      <c r="I68" s="857"/>
+      <c r="H68" s="857"/>
+      <c r="I68" s="858"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -54974,7 +55015,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="817"/>
+      <c r="F69" s="818"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -55562,13 +55603,13 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55591,26 +55632,28 @@
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
     <col min="17" max="17" width="21.28515625" style="225" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" style="227" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="98"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+    <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55619,29 +55662,29 @@
       <c r="M2" s="6"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+    <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -55652,14 +55695,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -55669,13 +55712,13 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="820"/>
+    </row>
+    <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
@@ -55725,7 +55768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="24">
         <v>44803</v>
@@ -55759,7 +55802,7 @@
       <c r="N6" s="33">
         <v>44469</v>
       </c>
-      <c r="O6" s="909" t="s">
+      <c r="O6" s="754" t="s">
         <v>1247</v>
       </c>
       <c r="P6" s="39">
@@ -55773,9 +55816,9 @@
       <c r="R6" s="319">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S6" s="426"/>
+    </row>
+    <row r="7" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="24">
         <v>44804</v>
@@ -55809,7 +55852,7 @@
       <c r="N7" s="33">
         <v>48294</v>
       </c>
-      <c r="O7" s="909" t="s">
+      <c r="O7" s="754" t="s">
         <v>1247</v>
       </c>
       <c r="P7" s="39">
@@ -55822,9 +55865,9 @@
       <c r="R7" s="319">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S7" s="426"/>
+    </row>
+    <row r="8" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="24">
         <v>44805</v>
@@ -55857,7 +55900,7 @@
       <c r="N8" s="33">
         <v>40334</v>
       </c>
-      <c r="O8" s="909" t="s">
+      <c r="O8" s="754" t="s">
         <v>1247</v>
       </c>
       <c r="P8" s="39">
@@ -55870,9 +55913,9 @@
       <c r="R8" s="319">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S8" s="426"/>
+    </row>
+    <row r="9" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="24">
         <v>44806</v>
@@ -55905,7 +55948,7 @@
       <c r="N9" s="33">
         <v>55554</v>
       </c>
-      <c r="O9" s="909" t="s">
+      <c r="O9" s="754" t="s">
         <v>1247</v>
       </c>
       <c r="P9" s="39">
@@ -55919,9 +55962,9 @@
       <c r="R9" s="319">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S9" s="426"/>
+    </row>
+    <row r="10" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="24">
         <v>44807</v>
@@ -55961,7 +56004,7 @@
       <c r="N10" s="33">
         <v>58208</v>
       </c>
-      <c r="O10" s="909" t="s">
+      <c r="O10" s="754" t="s">
         <v>1247</v>
       </c>
       <c r="P10" s="39">
@@ -55975,9 +56018,9 @@
       <c r="R10" s="319">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S10" s="426"/>
+    </row>
+    <row r="11" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="24">
         <v>44808</v>
@@ -56010,7 +56053,7 @@
       <c r="N11" s="33">
         <v>40989</v>
       </c>
-      <c r="O11" s="909" t="s">
+      <c r="O11" s="754" t="s">
         <v>1247</v>
       </c>
       <c r="P11" s="39">
@@ -56024,139 +56067,203 @@
       <c r="R11" s="319">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="426"/>
+    </row>
+    <row r="12" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="24">
         <v>44809</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="25">
+        <v>16302.5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>1251</v>
+      </c>
       <c r="E12" s="27">
         <v>44809</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>127329</v>
+      </c>
       <c r="G12" s="572"/>
       <c r="H12" s="29">
         <v>44809</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>1971</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>55650+1400</f>
+        <v>57050</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>52008</v>
+      </c>
+      <c r="O12" s="910" t="s">
+        <v>1247</v>
       </c>
       <c r="P12" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>127331.5</v>
       </c>
       <c r="Q12" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R12" s="319">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="924"/>
+      <c r="T12" s="912"/>
+      <c r="U12" s="913"/>
+      <c r="V12" s="914"/>
+    </row>
+    <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="24">
         <v>44810</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="25">
+        <v>33734</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>1252</v>
+      </c>
       <c r="E13" s="27">
         <v>44810</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>106867</v>
+      </c>
       <c r="G13" s="572"/>
       <c r="H13" s="29">
         <v>44810</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>15936</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <f>42400+10000+121050+650</f>
+        <v>174100</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>42079</v>
+      </c>
+      <c r="O13" s="754" t="s">
+        <v>1247</v>
       </c>
       <c r="P13" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="319">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>265849</v>
+      </c>
+      <c r="Q13" s="931">
+        <f t="shared" si="0"/>
+        <v>158982</v>
+      </c>
+      <c r="R13" s="542">
+        <v>0</v>
+      </c>
+      <c r="S13" s="370">
+        <v>44810</v>
+      </c>
+      <c r="T13" s="327">
+        <v>42400</v>
+      </c>
+      <c r="U13" s="929" t="s">
+        <v>597</v>
+      </c>
+      <c r="V13" s="916"/>
+    </row>
+    <row r="14" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="24">
         <v>44811</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="25">
+        <v>10101</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>328</v>
+      </c>
       <c r="E14" s="27">
         <v>44811</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>116050</v>
+      </c>
       <c r="G14" s="572"/>
       <c r="H14" s="29">
         <v>44811</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>229</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <f>10336+10272+29415</f>
+        <v>50023</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="731"/>
+        <v>35415</v>
+      </c>
+      <c r="O14" s="577" t="s">
+        <v>597</v>
+      </c>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="319">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95768</v>
+      </c>
+      <c r="Q14" s="317">
+        <f>P14-F14-29415-3</f>
+        <v>-49700</v>
+      </c>
+      <c r="R14" s="932">
+        <v>29415</v>
+      </c>
+      <c r="S14" s="370">
+        <v>44810</v>
+      </c>
+      <c r="T14" s="327">
+        <v>10000</v>
+      </c>
+      <c r="U14" s="929" t="s">
+        <v>597</v>
+      </c>
+      <c r="V14" s="916"/>
+    </row>
+    <row r="15" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="24">
         <v>44812</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="25">
+        <v>4064</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>1147</v>
+      </c>
       <c r="E15" s="27">
         <v>44812</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>101436</v>
+      </c>
       <c r="G15" s="572"/>
       <c r="H15" s="29">
         <v>44812</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>4919</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
@@ -56164,60 +56271,89 @@
         <v>0</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>42575</v>
+      </c>
+      <c r="O15" s="577" t="s">
+        <v>597</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="319">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51558</v>
+      </c>
+      <c r="Q15" s="317">
+        <f t="shared" si="0"/>
+        <v>-49878</v>
+      </c>
+      <c r="R15" s="542">
+        <v>0</v>
+      </c>
+      <c r="S15" s="370">
+        <v>44810</v>
+      </c>
+      <c r="T15" s="930">
+        <v>121050</v>
+      </c>
+      <c r="U15" s="929" t="s">
+        <v>597</v>
+      </c>
+      <c r="V15" s="916"/>
+    </row>
+    <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="24">
         <v>44813</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="25">
+        <v>17740</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>1254</v>
+      </c>
       <c r="E16" s="27">
         <v>44813</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>114211</v>
+      </c>
       <c r="G16" s="572"/>
       <c r="H16" s="29">
         <v>44813</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>2780.5</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <v>9891.5</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>49188</v>
+      </c>
+      <c r="O16" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="319" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79600</v>
+      </c>
+      <c r="Q16" s="317">
+        <f t="shared" si="0"/>
+        <v>-34611</v>
+      </c>
+      <c r="R16" s="319">
+        <v>0</v>
+      </c>
+      <c r="S16" s="927"/>
+      <c r="T16" s="917">
+        <f>SUM(T13:T15)</f>
+        <v>173450</v>
+      </c>
+      <c r="U16" s="915"/>
+      <c r="V16" s="916"/>
+    </row>
+    <row r="17" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="24">
         <v>44814</v>
@@ -56250,12 +56386,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="319">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R17" s="542">
+        <v>0</v>
+      </c>
+      <c r="S17" s="370">
+        <v>44810</v>
+      </c>
+      <c r="T17" s="327">
+        <v>-28811</v>
+      </c>
+      <c r="U17" s="928" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="916"/>
+    </row>
+    <row r="18" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="24">
         <v>44815</v>
@@ -56288,12 +56433,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="319">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R18" s="542">
+        <v>0</v>
+      </c>
+      <c r="S18" s="370">
+        <v>44811</v>
+      </c>
+      <c r="T18" s="327">
+        <v>-49700</v>
+      </c>
+      <c r="U18" s="928" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="916"/>
+    </row>
+    <row r="19" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="24">
         <v>44816</v>
@@ -56326,12 +56480,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="319">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R19" s="542">
+        <v>0</v>
+      </c>
+      <c r="S19" s="370">
+        <v>44812</v>
+      </c>
+      <c r="T19" s="327">
+        <v>-49878</v>
+      </c>
+      <c r="U19" s="928" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="916"/>
+    </row>
+    <row r="20" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="24">
         <v>44817</v>
@@ -56366,9 +56529,18 @@
       <c r="R20" s="319">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S20" s="927">
+        <v>44813</v>
+      </c>
+      <c r="T20" s="911">
+        <v>-34611</v>
+      </c>
+      <c r="U20" s="918" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="916"/>
+    </row>
+    <row r="21" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="24">
         <v>44818</v>
@@ -56404,9 +56576,17 @@
       <c r="R21" s="319">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S21" s="927"/>
+      <c r="T21" s="919">
+        <f>SUM(T16:T20)</f>
+        <v>10450</v>
+      </c>
+      <c r="U21" s="920" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V21" s="916"/>
+    </row>
+    <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="24">
         <v>44819</v>
@@ -56442,9 +56622,12 @@
       <c r="R22" s="319">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S22" s="927"/>
+      <c r="T22" s="921"/>
+      <c r="U22" s="921"/>
+      <c r="V22" s="916"/>
+    </row>
+    <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="24">
         <v>44820</v>
@@ -56479,9 +56662,12 @@
       <c r="R23" s="319">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S23" s="927"/>
+      <c r="T23" s="921"/>
+      <c r="U23" s="921"/>
+      <c r="V23" s="916"/>
+    </row>
+    <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
       <c r="B24" s="24">
         <v>44821</v>
@@ -56516,9 +56702,12 @@
       <c r="R24" s="319">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S24" s="927"/>
+      <c r="T24" s="921"/>
+      <c r="U24" s="921"/>
+      <c r="V24" s="916"/>
+    </row>
+    <row r="25" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="24">
         <v>44822</v>
@@ -56554,9 +56743,12 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S25" s="925"/>
+      <c r="T25" s="921"/>
+      <c r="U25" s="921"/>
+      <c r="V25" s="916"/>
+    </row>
+    <row r="26" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="24">
         <v>44823</v>
@@ -56592,9 +56784,12 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="926"/>
+      <c r="T26" s="922"/>
+      <c r="U26" s="922"/>
+      <c r="V26" s="923"/>
+    </row>
+    <row r="27" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="24">
         <v>44824</v>
@@ -56630,9 +56825,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S27" s="426"/>
+    </row>
+    <row r="28" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="24">
         <v>44825</v>
@@ -56669,7 +56864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="24">
         <v>44826</v>
@@ -56706,7 +56901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="24">
         <v>44827</v>
@@ -56743,7 +56938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="24">
         <v>44828</v>
@@ -56780,7 +56975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="24">
         <v>44829</v>
@@ -56816,7 +57011,7 @@
       <c r="R32" s="319">
         <v>0</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="98" t="s">
         <v>7</v>
       </c>
     </row>
@@ -57077,21 +57272,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="743"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="799">
+      <c r="M41" s="811">
         <f>SUM(M5:M40)</f>
-        <v>399353.68</v>
-      </c>
-      <c r="N41" s="799">
+        <v>690418.17999999993</v>
+      </c>
+      <c r="N41" s="811">
         <f>SUM(N5:N40)</f>
-        <v>343478</v>
+        <v>564743</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>907229.17999999993</v>
-      </c>
-      <c r="Q41" s="864">
+        <v>1527335.68</v>
+      </c>
+      <c r="Q41" s="865">
         <f>SUM(Q5:Q40)</f>
-        <v>1.5</v>
+        <v>24797</v>
       </c>
       <c r="R41" s="227">
         <f>SUM(R28:R40)</f>
@@ -57111,13 +57306,13 @@
       <c r="J42" s="698"/>
       <c r="K42" s="701"/>
       <c r="L42" s="702"/>
-      <c r="M42" s="800"/>
-      <c r="N42" s="800"/>
+      <c r="M42" s="812"/>
+      <c r="N42" s="812"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="865"/>
+      <c r="Q42" s="866"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
-        <v>0</v>
+        <v>29415</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57169,11 +57364,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="671"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="866">
+      <c r="M45" s="867">
         <f>M41+N41</f>
-        <v>742831.67999999993</v>
-      </c>
-      <c r="N45" s="867"/>
+        <v>1255161.18</v>
+      </c>
+      <c r="N45" s="868"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -57556,7 +57751,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>125309.5</v>
+        <v>207251</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -57564,7 +57759,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>866289</v>
+        <v>1432182</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -57572,7 +57767,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>21085</v>
+        <v>46920.5</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -57598,50 +57793,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="776" t="s">
+      <c r="H69" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="777"/>
+      <c r="I69" s="767"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="901">
+      <c r="K69" s="899">
         <f>I67+L67</f>
-        <v>58595</v>
-      </c>
-      <c r="L69" s="902"/>
+        <v>84430.5</v>
+      </c>
+      <c r="L69" s="900"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="782" t="s">
+      <c r="D70" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="782"/>
+      <c r="E70" s="772"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>682384.5</v>
+        <v>1140500.5</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="806" t="s">
+      <c r="D71" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="806"/>
+      <c r="E71" s="802"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="783" t="s">
+      <c r="I71" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="784"/>
-      <c r="K71" s="785">
+      <c r="J71" s="774"/>
+      <c r="K71" s="775">
         <f>F73+F74+F75</f>
-        <v>682384.5</v>
-      </c>
-      <c r="L71" s="785"/>
+        <v>1140500.5</v>
+      </c>
+      <c r="L71" s="775"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -57675,18 +57870,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>682384.5</v>
+        <v>1140500.5</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="897">
+      <c r="K73" s="901">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="785"/>
+      <c r="L73" s="775"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -57701,22 +57896,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="765" t="s">
+      <c r="D75" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="766"/>
+      <c r="E75" s="756"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="767" t="s">
+      <c r="I75" s="757" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="768"/>
-      <c r="K75" s="769">
+      <c r="J75" s="758"/>
+      <c r="K75" s="759">
         <f>K71+K73</f>
-        <v>-1990171.4900000002</v>
-      </c>
-      <c r="L75" s="769"/>
+        <v>-1532055.4900000002</v>
+      </c>
+      <c r="L75" s="759"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -57860,18 +58055,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
@@ -57882,6 +58065,18 @@
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="K73:L73"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -58741,10 +58936,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="858" t="s">
+      <c r="H40" s="859" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="859"/>
+      <c r="I40" s="860"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -58763,8 +58958,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="860"/>
-      <c r="I41" s="861"/>
+      <c r="H41" s="861"/>
+      <c r="I41" s="862"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -58783,8 +58978,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="862"/>
-      <c r="I42" s="863"/>
+      <c r="H42" s="863"/>
+      <c r="I42" s="864"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -59288,10 +59483,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="854" t="s">
+      <c r="H67" s="855" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="855"/>
+      <c r="I67" s="856"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -59311,11 +59506,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="816" t="s">
+      <c r="F68" s="817" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="856"/>
-      <c r="I68" s="857"/>
+      <c r="H68" s="857"/>
+      <c r="I68" s="858"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -59326,7 +59521,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="817"/>
+      <c r="F69" s="818"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -59970,23 +60165,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="781" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="782"/>
+      <c r="E1" s="782"/>
+      <c r="F1" s="782"/>
+      <c r="G1" s="782"/>
+      <c r="H1" s="782"/>
+      <c r="I1" s="782"/>
+      <c r="J1" s="782"/>
+      <c r="K1" s="782"/>
+      <c r="L1" s="782"/>
+      <c r="M1" s="782"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59996,21 +60191,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
     </row>
@@ -60025,14 +60220,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -60042,14 +60237,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="807" t="s">
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="807"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60100,8 +60295,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="807"/>
-      <c r="X5" s="807"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60872,7 +61067,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="811">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -60924,7 +61119,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="812"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60973,8 +61168,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="813"/>
-      <c r="X21" s="813"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -61075,8 +61270,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="814"/>
-      <c r="X23" s="814"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61130,8 +61325,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="814"/>
-      <c r="X24" s="814"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61177,8 +61372,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="815"/>
-      <c r="X25" s="815"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61229,8 +61424,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="815"/>
-      <c r="X26" s="815"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61278,9 +61473,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="808"/>
-      <c r="X27" s="809"/>
-      <c r="Y27" s="810"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61330,9 +61525,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="809"/>
-      <c r="X28" s="809"/>
-      <c r="Y28" s="810"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61667,11 +61862,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="799">
+      <c r="M36" s="811">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="801">
+      <c r="N36" s="813">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -61679,7 +61874,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="803">
+      <c r="Q36" s="815">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -61714,13 +61909,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="800"/>
-      <c r="N37" s="802"/>
+      <c r="M37" s="812"/>
+      <c r="N37" s="814"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="804"/>
+      <c r="Q37" s="816"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -62010,26 +62205,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="776" t="s">
+      <c r="H52" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="777"/>
+      <c r="I52" s="767"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="778">
+      <c r="K52" s="768">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="805"/>
+      <c r="L52" s="801"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="782" t="s">
+      <c r="D53" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="782"/>
+      <c r="E53" s="772"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -62038,29 +62233,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="806" t="s">
+      <c r="D54" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="806"/>
+      <c r="E54" s="802"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="783" t="s">
+      <c r="I54" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="784"/>
-      <c r="K54" s="785">
+      <c r="J54" s="774"/>
+      <c r="K54" s="775">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="785"/>
-      <c r="M54" s="791" t="s">
+      <c r="L54" s="775"/>
+      <c r="M54" s="803" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="792"/>
-      <c r="O54" s="792"/>
-      <c r="P54" s="792"/>
-      <c r="Q54" s="793"/>
+      <c r="N54" s="804"/>
+      <c r="O54" s="804"/>
+      <c r="P54" s="804"/>
+      <c r="Q54" s="805"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -62074,11 +62269,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="794"/>
-      <c r="N55" s="795"/>
-      <c r="O55" s="795"/>
-      <c r="P55" s="795"/>
-      <c r="Q55" s="796"/>
+      <c r="M55" s="806"/>
+      <c r="N55" s="807"/>
+      <c r="O55" s="807"/>
+      <c r="P55" s="807"/>
+      <c r="Q55" s="808"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -62096,11 +62291,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="787">
+      <c r="K56" s="777">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="788"/>
+      <c r="L56" s="778"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -62117,22 +62312,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="765" t="s">
+      <c r="D58" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="766"/>
+      <c r="E58" s="756"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="767" t="s">
+      <c r="I58" s="757" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="768"/>
-      <c r="K58" s="769">
+      <c r="J58" s="758"/>
+      <c r="K58" s="759">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="769"/>
+      <c r="L58" s="759"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -62276,14 +62471,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -62294,17 +62492,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -64722,7 +64917,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="816" t="s">
+      <c r="F87" s="817" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -64735,7 +64930,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="817"/>
+      <c r="F88" s="818"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -65047,23 +65242,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="781" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="782"/>
+      <c r="E1" s="782"/>
+      <c r="F1" s="782"/>
+      <c r="G1" s="782"/>
+      <c r="H1" s="782"/>
+      <c r="I1" s="782"/>
+      <c r="J1" s="782"/>
+      <c r="K1" s="782"/>
+      <c r="L1" s="782"/>
+      <c r="M1" s="782"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -65073,24 +65268,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
@@ -65105,14 +65300,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -65122,15 +65317,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
-      <c r="W4" s="807" t="s">
+      <c r="R4" s="820"/>
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="807"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65191,8 +65386,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="807"/>
-      <c r="X5" s="807"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65949,7 +66144,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="811">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -66001,7 +66196,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="812"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -66050,8 +66245,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="813"/>
-      <c r="X21" s="813"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -66152,8 +66347,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="814"/>
-      <c r="X23" s="814"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -66204,8 +66399,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="814"/>
-      <c r="X24" s="814"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66251,8 +66446,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="815"/>
-      <c r="X25" s="815"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66300,8 +66495,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="815"/>
-      <c r="X26" s="815"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66361,9 +66556,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="808"/>
-      <c r="X27" s="809"/>
-      <c r="Y27" s="810"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66417,9 +66612,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="809"/>
-      <c r="X28" s="809"/>
-      <c r="Y28" s="810"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66735,11 +66930,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="799">
+      <c r="M36" s="811">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="801">
+      <c r="N36" s="813">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -66747,7 +66942,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="803">
+      <c r="Q36" s="815">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -66766,13 +66961,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="800"/>
-      <c r="N37" s="802"/>
+      <c r="M37" s="812"/>
+      <c r="N37" s="814"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="804"/>
+      <c r="Q37" s="816"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -67046,26 +67241,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="776" t="s">
+      <c r="H52" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="777"/>
+      <c r="I52" s="767"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="778">
+      <c r="K52" s="768">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="805"/>
+      <c r="L52" s="801"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="782" t="s">
+      <c r="D53" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="782"/>
+      <c r="E53" s="772"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -67074,29 +67269,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="806" t="s">
+      <c r="D54" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="806"/>
+      <c r="E54" s="802"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="783" t="s">
+      <c r="I54" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="784"/>
-      <c r="K54" s="785">
+      <c r="J54" s="774"/>
+      <c r="K54" s="775">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="785"/>
-      <c r="M54" s="791" t="s">
+      <c r="L54" s="775"/>
+      <c r="M54" s="803" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="792"/>
-      <c r="O54" s="792"/>
-      <c r="P54" s="792"/>
-      <c r="Q54" s="793"/>
+      <c r="N54" s="804"/>
+      <c r="O54" s="804"/>
+      <c r="P54" s="804"/>
+      <c r="Q54" s="805"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -67110,11 +67305,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="794"/>
-      <c r="N55" s="795"/>
-      <c r="O55" s="795"/>
-      <c r="P55" s="795"/>
-      <c r="Q55" s="796"/>
+      <c r="M55" s="806"/>
+      <c r="N55" s="807"/>
+      <c r="O55" s="807"/>
+      <c r="P55" s="807"/>
+      <c r="Q55" s="808"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -67132,11 +67327,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="787">
+      <c r="K56" s="777">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="788"/>
+      <c r="L56" s="778"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -67153,22 +67348,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="765" t="s">
+      <c r="D58" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="766"/>
+      <c r="E58" s="756"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="767" t="s">
+      <c r="I58" s="757" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="768"/>
-      <c r="K58" s="769">
+      <c r="J58" s="758"/>
+      <c r="K58" s="759">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="769"/>
+      <c r="L58" s="759"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -67312,20 +67507,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -67335,13 +67523,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -69731,7 +69926,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="816" t="s">
+      <c r="F75" s="817" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -69744,7 +69939,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="817"/>
+      <c r="F76" s="818"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -70036,23 +70231,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -70062,24 +70257,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
@@ -70094,14 +70289,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -70111,15 +70306,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
-      <c r="W4" s="807" t="s">
+      <c r="R4" s="820"/>
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="807"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70170,8 +70365,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="807"/>
-      <c r="X5" s="807"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70935,7 +71130,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="811">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70988,7 +71183,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="812"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -71037,8 +71232,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="813"/>
-      <c r="X21" s="813"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71138,8 +71333,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="814"/>
-      <c r="X23" s="814"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71194,8 +71389,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="814"/>
-      <c r="X24" s="814"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71240,8 +71435,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="815"/>
-      <c r="X25" s="815"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71289,8 +71484,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="815"/>
-      <c r="X26" s="815"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71344,9 +71539,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="808"/>
-      <c r="X27" s="809"/>
-      <c r="Y27" s="810"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71400,9 +71595,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="809"/>
-      <c r="X28" s="809"/>
-      <c r="Y28" s="810"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71713,11 +71908,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="799">
+      <c r="M36" s="811">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="801">
+      <c r="N36" s="813">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -71725,7 +71920,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="803">
+      <c r="Q36" s="815">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -71750,13 +71945,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="800"/>
-      <c r="N37" s="802"/>
+      <c r="M37" s="812"/>
+      <c r="N37" s="814"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="804"/>
+      <c r="Q37" s="816"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -72049,26 +72244,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="776" t="s">
+      <c r="H52" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="777"/>
+      <c r="I52" s="767"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="778">
+      <c r="K52" s="768">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="805"/>
+      <c r="L52" s="801"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="782" t="s">
+      <c r="D53" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="782"/>
+      <c r="E53" s="772"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -72077,22 +72272,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="806" t="s">
+      <c r="D54" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="806"/>
+      <c r="E54" s="802"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="783" t="s">
+      <c r="I54" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="784"/>
-      <c r="K54" s="785">
+      <c r="J54" s="774"/>
+      <c r="K54" s="775">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="785"/>
+      <c r="L54" s="775"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72133,11 +72328,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="787">
+      <c r="K56" s="777">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="788"/>
+      <c r="L56" s="778"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72154,22 +72349,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="765" t="s">
+      <c r="D58" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="766"/>
+      <c r="E58" s="756"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="767" t="s">
+      <c r="I58" s="757" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="768"/>
-      <c r="K58" s="769">
+      <c r="J58" s="758"/>
+      <c r="K58" s="759">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="769"/>
+      <c r="L58" s="759"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -72313,20 +72508,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -72342,6 +72523,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -74038,12 +74233,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="822" t="s">
+      <c r="B43" s="823" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="823"/>
-      <c r="D43" s="823"/>
-      <c r="E43" s="824"/>
+      <c r="C43" s="824"/>
+      <c r="D43" s="824"/>
+      <c r="E43" s="825"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74071,10 +74266,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="825"/>
-      <c r="C44" s="826"/>
-      <c r="D44" s="826"/>
-      <c r="E44" s="827"/>
+      <c r="B44" s="826"/>
+      <c r="C44" s="827"/>
+      <c r="D44" s="827"/>
+      <c r="E44" s="828"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74102,10 +74297,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="828"/>
-      <c r="C45" s="829"/>
-      <c r="D45" s="829"/>
-      <c r="E45" s="830"/>
+      <c r="B45" s="829"/>
+      <c r="C45" s="830"/>
+      <c r="D45" s="830"/>
+      <c r="E45" s="831"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74148,10 +74343,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="837" t="s">
+      <c r="B47" s="838" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="838"/>
+      <c r="C47" s="839"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -74173,8 +74368,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="839"/>
-      <c r="C48" s="840"/>
+      <c r="B48" s="840"/>
+      <c r="C48" s="841"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -74182,11 +74377,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="831" t="s">
+      <c r="J48" s="832" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="832"/>
-      <c r="L48" s="833"/>
+      <c r="K48" s="833"/>
+      <c r="L48" s="834"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -74204,9 +74399,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="834"/>
-      <c r="K49" s="835"/>
-      <c r="L49" s="836"/>
+      <c r="J49" s="835"/>
+      <c r="K49" s="836"/>
+      <c r="L49" s="837"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -74223,10 +74418,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="841" t="s">
+      <c r="I50" s="842" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="842"/>
+      <c r="J50" s="843"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -74247,8 +74442,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="841"/>
-      <c r="J51" s="842"/>
+      <c r="I51" s="842"/>
+      <c r="J51" s="843"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -74267,8 +74462,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="841"/>
-      <c r="J52" s="842"/>
+      <c r="I52" s="842"/>
+      <c r="J52" s="843"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -74287,8 +74482,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="841"/>
-      <c r="J53" s="842"/>
+      <c r="I53" s="842"/>
+      <c r="J53" s="843"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -74307,8 +74502,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="841"/>
-      <c r="J54" s="842"/>
+      <c r="I54" s="842"/>
+      <c r="J54" s="843"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -74327,8 +74522,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="841"/>
-      <c r="J55" s="842"/>
+      <c r="I55" s="842"/>
+      <c r="J55" s="843"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -74347,8 +74542,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="841"/>
-      <c r="J56" s="842"/>
+      <c r="I56" s="842"/>
+      <c r="J56" s="843"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -74367,8 +74562,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="841"/>
-      <c r="J57" s="842"/>
+      <c r="I57" s="842"/>
+      <c r="J57" s="843"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -74387,8 +74582,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="841"/>
-      <c r="J58" s="842"/>
+      <c r="I58" s="842"/>
+      <c r="J58" s="843"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -74407,8 +74602,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="841"/>
-      <c r="J59" s="842"/>
+      <c r="I59" s="842"/>
+      <c r="J59" s="843"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -74427,8 +74622,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="841"/>
-      <c r="J60" s="842"/>
+      <c r="I60" s="842"/>
+      <c r="J60" s="843"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -74447,8 +74642,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="841"/>
-      <c r="J61" s="842"/>
+      <c r="I61" s="842"/>
+      <c r="J61" s="843"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -74467,8 +74662,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="841"/>
-      <c r="J62" s="842"/>
+      <c r="I62" s="842"/>
+      <c r="J62" s="843"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -74487,8 +74682,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="841"/>
-      <c r="J63" s="842"/>
+      <c r="I63" s="842"/>
+      <c r="J63" s="843"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -74507,8 +74702,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="841"/>
-      <c r="J64" s="842"/>
+      <c r="I64" s="842"/>
+      <c r="J64" s="843"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -74527,8 +74722,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="841"/>
-      <c r="J65" s="842"/>
+      <c r="I65" s="842"/>
+      <c r="J65" s="843"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -74547,8 +74742,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="841"/>
-      <c r="J66" s="842"/>
+      <c r="I66" s="842"/>
+      <c r="J66" s="843"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -74567,8 +74762,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="841"/>
-      <c r="J67" s="842"/>
+      <c r="I67" s="842"/>
+      <c r="J67" s="843"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -74587,8 +74782,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="841"/>
-      <c r="J68" s="842"/>
+      <c r="I68" s="842"/>
+      <c r="J68" s="843"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -74607,8 +74802,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="841"/>
-      <c r="J69" s="842"/>
+      <c r="I69" s="842"/>
+      <c r="J69" s="843"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -74627,8 +74822,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="841"/>
-      <c r="J70" s="842"/>
+      <c r="I70" s="842"/>
+      <c r="J70" s="843"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -74647,8 +74842,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="841"/>
-      <c r="J71" s="842"/>
+      <c r="I71" s="842"/>
+      <c r="J71" s="843"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -74667,8 +74862,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="841"/>
-      <c r="J72" s="842"/>
+      <c r="I72" s="842"/>
+      <c r="J72" s="843"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -74687,8 +74882,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="841"/>
-      <c r="J73" s="842"/>
+      <c r="I73" s="842"/>
+      <c r="J73" s="843"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -74707,8 +74902,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="841"/>
-      <c r="J74" s="842"/>
+      <c r="I74" s="842"/>
+      <c r="J74" s="843"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -74727,8 +74922,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="841"/>
-      <c r="J75" s="842"/>
+      <c r="I75" s="842"/>
+      <c r="J75" s="843"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -74747,8 +74942,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="841"/>
-      <c r="J76" s="842"/>
+      <c r="I76" s="842"/>
+      <c r="J76" s="843"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -74767,8 +74962,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="841"/>
-      <c r="J77" s="842"/>
+      <c r="I77" s="842"/>
+      <c r="J77" s="843"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -74789,8 +74984,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="843"/>
-      <c r="J78" s="844"/>
+      <c r="I78" s="844"/>
+      <c r="J78" s="845"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -74835,7 +75030,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="816" t="s">
+      <c r="F80" s="817" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -74847,7 +75042,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="817"/>
+      <c r="F81" s="818"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -75135,23 +75330,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="754"/>
-      <c r="C1" s="820" t="s">
+      <c r="B1" s="779"/>
+      <c r="C1" s="821" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="821"/>
-      <c r="E1" s="821"/>
-      <c r="F1" s="821"/>
-      <c r="G1" s="821"/>
-      <c r="H1" s="821"/>
-      <c r="I1" s="821"/>
-      <c r="J1" s="821"/>
-      <c r="K1" s="821"/>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="D1" s="822"/>
+      <c r="E1" s="822"/>
+      <c r="F1" s="822"/>
+      <c r="G1" s="822"/>
+      <c r="H1" s="822"/>
+      <c r="I1" s="822"/>
+      <c r="J1" s="822"/>
+      <c r="K1" s="822"/>
+      <c r="L1" s="822"/>
+      <c r="M1" s="822"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="755"/>
+      <c r="B2" s="780"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -75161,24 +75356,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="759"/>
+      <c r="B3" s="783" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="784"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="760" t="s">
+      <c r="H3" s="785" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="760"/>
+      <c r="I3" s="785"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="797" t="s">
+      <c r="P3" s="809" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="818" t="s">
+      <c r="R3" s="819" t="s">
         <v>216</v>
       </c>
     </row>
@@ -75193,14 +75388,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="761" t="s">
+      <c r="E4" s="786" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="762"/>
-      <c r="H4" s="763" t="s">
+      <c r="F4" s="787"/>
+      <c r="H4" s="788" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="764"/>
+      <c r="I4" s="789"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -75210,15 +75405,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798"/>
+      <c r="P4" s="810"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="819"/>
-      <c r="W4" s="807" t="s">
+      <c r="R4" s="820"/>
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="807"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -75269,8 +75464,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="807"/>
-      <c r="X5" s="807"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76031,7 +76226,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="811">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -76083,7 +76278,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="812"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -76132,8 +76327,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="813"/>
-      <c r="X21" s="813"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -76232,8 +76427,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="814"/>
-      <c r="X23" s="814"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -76288,8 +76483,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="814"/>
-      <c r="X24" s="814"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -76337,8 +76532,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="815"/>
-      <c r="X25" s="815"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -76386,8 +76581,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="815"/>
-      <c r="X26" s="815"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -76435,9 +76630,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="808"/>
-      <c r="X27" s="809"/>
-      <c r="Y27" s="810"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76485,9 +76680,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="809"/>
-      <c r="X28" s="809"/>
-      <c r="Y28" s="810"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76828,11 +77023,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="799">
+      <c r="M36" s="811">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="801">
+      <c r="N36" s="813">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -76840,7 +77035,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="845">
+      <c r="Q36" s="846">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -76865,13 +77060,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="800"/>
-      <c r="N37" s="802"/>
+      <c r="M37" s="812"/>
+      <c r="N37" s="814"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="846"/>
+      <c r="Q37" s="847"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -76921,11 +77116,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="847">
+      <c r="M39" s="848">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="848"/>
+      <c r="N39" s="849"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -77173,26 +77368,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="776" t="s">
+      <c r="H52" s="766" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="777"/>
+      <c r="I52" s="767"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="778">
+      <c r="K52" s="768">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="805"/>
+      <c r="L52" s="801"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="782" t="s">
+      <c r="D53" s="772" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="782"/>
+      <c r="E53" s="772"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -77201,22 +77396,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="806" t="s">
+      <c r="D54" s="802" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="806"/>
+      <c r="E54" s="802"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="783" t="s">
+      <c r="I54" s="773" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="784"/>
-      <c r="K54" s="785">
+      <c r="J54" s="774"/>
+      <c r="K54" s="775">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="785"/>
+      <c r="L54" s="775"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -77257,11 +77452,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="787">
+      <c r="K56" s="777">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="788"/>
+      <c r="L56" s="778"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -77278,22 +77473,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="765" t="s">
+      <c r="D58" s="755" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="766"/>
+      <c r="E58" s="756"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="767" t="s">
+      <c r="I58" s="757" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="768"/>
-      <c r="K58" s="769">
+      <c r="J58" s="758"/>
+      <c r="K58" s="759">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="769"/>
+      <c r="L58" s="759"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -77437,6 +77632,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -77453,20 +77662,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1263">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4702,6 +4702,30 @@
   </si>
   <si>
     <t>QUESOS-POLLO-AL PASTOR-CHORIZO</t>
+  </si>
+  <si>
+    <t>JAMON-QUESOS-´POLLO-CHORIZO</t>
+  </si>
+  <si>
+    <t>NOMINA #37</t>
+  </si>
+  <si>
+    <t>NOMINA # 37</t>
+  </si>
+  <si>
+    <t>QUESOS-CHISTORRA-POLLO-JAMON</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-SALCHIICHONERIA-ARABE-PASTOR</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-MOLE-POLLO-LONGANIZA-CHISTORRA-QUESOS</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS--ARABE-PASTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                 </t>
   </si>
 </sst>
 </file>
@@ -6839,7 +6863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="933">
+  <cellXfs count="936">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8369,6 +8393,38 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8834,35 +8890,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8872,11 +8899,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF990033"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
@@ -14603,23 +14630,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="781" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="807" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="782"/>
-      <c r="E1" s="782"/>
-      <c r="F1" s="782"/>
-      <c r="G1" s="782"/>
-      <c r="H1" s="782"/>
-      <c r="I1" s="782"/>
-      <c r="J1" s="782"/>
-      <c r="K1" s="782"/>
-      <c r="L1" s="782"/>
-      <c r="M1" s="782"/>
+      <c r="D1" s="808"/>
+      <c r="E1" s="808"/>
+      <c r="F1" s="808"/>
+      <c r="G1" s="808"/>
+      <c r="H1" s="808"/>
+      <c r="I1" s="808"/>
+      <c r="J1" s="808"/>
+      <c r="K1" s="808"/>
+      <c r="L1" s="808"/>
+      <c r="M1" s="808"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14629,17 +14656,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14653,14 +14680,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14670,10 +14697,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="760" t="s">
+      <c r="P4" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="761"/>
+      <c r="Q4" s="787"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16114,11 +16141,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="762">
+      <c r="M39" s="788">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="764">
+      <c r="N39" s="790">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16144,8 +16171,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="763"/>
-      <c r="N40" s="765"/>
+      <c r="M40" s="789"/>
+      <c r="N40" s="791"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16360,29 +16387,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="766" t="s">
+      <c r="H52" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="767"/>
+      <c r="I52" s="793"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="768">
+      <c r="K52" s="794">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="769"/>
-      <c r="M52" s="770">
+      <c r="L52" s="795"/>
+      <c r="M52" s="796">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="771"/>
+      <c r="N52" s="797"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="772" t="s">
+      <c r="D53" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="772"/>
+      <c r="E53" s="798"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16393,22 +16420,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="772" t="s">
+      <c r="D54" s="798" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="772"/>
+      <c r="E54" s="798"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="773" t="s">
+      <c r="I54" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="774"/>
-      <c r="K54" s="775">
+      <c r="J54" s="800"/>
+      <c r="K54" s="801">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="776"/>
+      <c r="L54" s="802"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16441,11 +16468,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="777">
+      <c r="K56" s="803">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="778"/>
+      <c r="L56" s="804"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16462,22 +16489,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="755" t="s">
+      <c r="D58" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="756"/>
+      <c r="E58" s="782"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="757" t="s">
+      <c r="I58" s="783" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="758"/>
-      <c r="K58" s="759">
+      <c r="J58" s="784"/>
+      <c r="K58" s="785">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="759"/>
+      <c r="L58" s="785"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -19101,10 +19128,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="851" t="s">
+      <c r="I76" s="877" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="852"/>
+      <c r="J76" s="878"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19123,8 +19150,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="853"/>
-      <c r="J77" s="854"/>
+      <c r="I77" s="879"/>
+      <c r="J77" s="880"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19191,7 +19218,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="817" t="s">
+      <c r="F80" s="843" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19206,7 +19233,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="818"/>
+      <c r="F81" s="844"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19214,10 +19241,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="850" t="s">
+      <c r="B82" s="876" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="850"/>
+      <c r="C82" s="876"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19499,23 +19526,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19525,24 +19552,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19557,14 +19584,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19574,15 +19601,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="846"/>
+      <c r="W4" s="818" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="818"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19633,8 +19660,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="818"/>
+      <c r="X5" s="818"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20397,7 +20424,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="822">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20449,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="823"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20498,8 +20525,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="824"/>
+      <c r="X21" s="824"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20599,8 +20626,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="825"/>
+      <c r="X23" s="825"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20655,8 +20682,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="825"/>
+      <c r="X24" s="825"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20704,8 +20731,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="826"/>
+      <c r="X25" s="826"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20754,8 +20781,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="826"/>
+      <c r="X26" s="826"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20803,9 +20830,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="819"/>
+      <c r="X27" s="820"/>
+      <c r="Y27" s="821"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20853,9 +20880,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="820"/>
+      <c r="X28" s="820"/>
+      <c r="Y28" s="821"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21187,11 +21214,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="811">
+      <c r="M36" s="837">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="813">
+      <c r="N36" s="839">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21199,7 +21226,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="846">
+      <c r="Q36" s="872">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21224,13 +21251,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="812"/>
-      <c r="N37" s="814"/>
+      <c r="M37" s="838"/>
+      <c r="N37" s="840"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="847"/>
+      <c r="Q37" s="873"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21280,11 +21307,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="848">
+      <c r="M39" s="874">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="849"/>
+      <c r="N39" s="875"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21912,26 +21939,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="766" t="s">
+      <c r="H68" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="767"/>
+      <c r="I68" s="793"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="768">
+      <c r="K68" s="794">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="801"/>
+      <c r="L68" s="827"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="772" t="s">
+      <c r="D69" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="772"/>
+      <c r="E69" s="798"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21940,22 +21967,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="802" t="s">
+      <c r="D70" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="802"/>
+      <c r="E70" s="828"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="773" t="s">
+      <c r="I70" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="774"/>
-      <c r="K70" s="775">
+      <c r="J70" s="800"/>
+      <c r="K70" s="801">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="775"/>
+      <c r="L70" s="801"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21996,11 +22023,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="777">
+      <c r="K72" s="803">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="778"/>
+      <c r="L72" s="804"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -22017,22 +22044,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="755" t="s">
+      <c r="D74" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="756"/>
+      <c r="E74" s="782"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="757" t="s">
+      <c r="I74" s="783" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="758"/>
-      <c r="K74" s="759">
+      <c r="J74" s="784"/>
+      <c r="K74" s="785">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="759"/>
+      <c r="L74" s="785"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -23770,10 +23797,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="859" t="s">
+      <c r="I44" s="885" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="860"/>
+      <c r="J44" s="886"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23792,8 +23819,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="861"/>
-      <c r="J45" s="862"/>
+      <c r="I45" s="887"/>
+      <c r="J45" s="888"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23812,8 +23839,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="863"/>
-      <c r="J46" s="864"/>
+      <c r="I46" s="889"/>
+      <c r="J46" s="890"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24502,7 +24529,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="817" t="s">
+      <c r="F80" s="843" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24515,7 +24542,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="818"/>
+      <c r="F81" s="844"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24535,10 +24562,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="855" t="s">
+      <c r="I83" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="856"/>
+      <c r="J83" s="882"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24547,8 +24574,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="857"/>
-      <c r="J84" s="858"/>
+      <c r="I84" s="883"/>
+      <c r="J84" s="884"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24821,23 +24848,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24847,24 +24874,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24879,14 +24906,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24896,15 +24923,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="846"/>
+      <c r="W4" s="818" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="818"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24955,8 +24982,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="818"/>
+      <c r="X5" s="818"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25715,7 +25742,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="822">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25767,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="823"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25816,8 +25843,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="824"/>
+      <c r="X21" s="824"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25914,8 +25941,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="825"/>
+      <c r="X23" s="825"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25970,8 +25997,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="825"/>
+      <c r="X24" s="825"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26017,8 +26044,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="826"/>
+      <c r="X25" s="826"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26069,8 +26096,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="826"/>
+      <c r="X26" s="826"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26121,9 +26148,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="819"/>
+      <c r="X27" s="820"/>
+      <c r="Y27" s="821"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26173,9 +26200,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="820"/>
+      <c r="X28" s="820"/>
+      <c r="Y28" s="821"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26779,11 +26806,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="811">
+      <c r="M41" s="837">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="811">
+      <c r="N41" s="837">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26791,7 +26818,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="865">
+      <c r="Q41" s="891">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26821,10 +26848,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="812"/>
-      <c r="N42" s="812"/>
+      <c r="M42" s="838"/>
+      <c r="N42" s="838"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="866"/>
+      <c r="Q42" s="892"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26912,11 +26939,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="867">
+      <c r="M45" s="893">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="868"/>
+      <c r="N45" s="894"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27509,26 +27536,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="766" t="s">
+      <c r="H70" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="767"/>
+      <c r="I70" s="793"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="768">
+      <c r="K70" s="794">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="801"/>
+      <c r="L70" s="827"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="772" t="s">
+      <c r="D71" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="772"/>
+      <c r="E71" s="798"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27538,22 +27565,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="802" t="s">
+      <c r="D72" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="802"/>
+      <c r="E72" s="828"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="773" t="s">
+      <c r="I72" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="774"/>
-      <c r="K72" s="775">
+      <c r="J72" s="800"/>
+      <c r="K72" s="801">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="775"/>
+      <c r="L72" s="801"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27594,11 +27621,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="777">
+      <c r="K74" s="803">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="778"/>
+      <c r="L74" s="804"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27617,22 +27644,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="755" t="s">
+      <c r="D76" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="756"/>
+      <c r="E76" s="782"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="757" t="s">
+      <c r="I76" s="783" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="758"/>
-      <c r="K76" s="759">
+      <c r="J76" s="784"/>
+      <c r="K76" s="785">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="759"/>
+      <c r="L76" s="785"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -29792,10 +29819,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="859" t="s">
+      <c r="I54" s="885" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="860"/>
+      <c r="J54" s="886"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29811,8 +29838,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="861"/>
-      <c r="J55" s="862"/>
+      <c r="I55" s="887"/>
+      <c r="J55" s="888"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29828,8 +29855,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="863"/>
-      <c r="J56" s="864"/>
+      <c r="I56" s="889"/>
+      <c r="J56" s="890"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30497,7 +30524,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="817" t="s">
+      <c r="F90" s="843" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30510,7 +30537,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="818"/>
+      <c r="F91" s="844"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30529,10 +30556,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="855" t="s">
+      <c r="I93" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="856"/>
+      <c r="J93" s="882"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30542,8 +30569,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="857"/>
-      <c r="J94" s="858"/>
+      <c r="I94" s="883"/>
+      <c r="J94" s="884"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30984,11 +31011,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="869">
+      <c r="C130" s="895">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="870"/>
+      <c r="D130" s="896"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -31025,24 +31052,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="884" t="s">
+      <c r="B2" s="910" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="885"/>
-      <c r="D2" s="886"/>
-      <c r="F2" s="872" t="s">
+      <c r="C2" s="911"/>
+      <c r="D2" s="912"/>
+      <c r="F2" s="898" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="873"/>
-      <c r="H2" s="874"/>
+      <c r="G2" s="899"/>
+      <c r="H2" s="900"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="887"/>
-      <c r="C3" s="888"/>
-      <c r="D3" s="889"/>
-      <c r="F3" s="875"/>
-      <c r="G3" s="876"/>
-      <c r="H3" s="877"/>
+      <c r="B3" s="913"/>
+      <c r="C3" s="914"/>
+      <c r="D3" s="915"/>
+      <c r="F3" s="901"/>
+      <c r="G3" s="902"/>
+      <c r="H3" s="903"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31187,11 +31214,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="878">
+      <c r="G11" s="904">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="879"/>
+      <c r="H11" s="905"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31208,33 +31235,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="882" t="s">
+      <c r="C15" s="908" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="880">
+      <c r="D15" s="906">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="890" t="s">
+      <c r="E15" s="916" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="891"/>
-      <c r="G15" s="891"/>
-      <c r="H15" s="892"/>
+      <c r="F15" s="917"/>
+      <c r="G15" s="917"/>
+      <c r="H15" s="918"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="883"/>
-      <c r="D16" s="881"/>
-      <c r="E16" s="893"/>
-      <c r="F16" s="894"/>
-      <c r="G16" s="894"/>
-      <c r="H16" s="895"/>
+      <c r="C16" s="909"/>
+      <c r="D16" s="907"/>
+      <c r="E16" s="919"/>
+      <c r="F16" s="920"/>
+      <c r="G16" s="920"/>
+      <c r="H16" s="921"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="871" t="s">
+      <c r="C17" s="897" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="871"/>
+      <c r="D17" s="897"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31293,23 +31320,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31319,24 +31346,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31355,14 +31382,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31372,15 +31399,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
+      <c r="R4" s="846"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="902"/>
-      <c r="X4" s="902"/>
+      <c r="W4" s="928"/>
+      <c r="X4" s="928"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31434,8 +31461,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="902"/>
-      <c r="X5" s="902"/>
+      <c r="W5" s="928"/>
+      <c r="X5" s="928"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32201,7 +32228,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="903"/>
+      <c r="W19" s="929"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32255,7 +32282,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="903"/>
+      <c r="W20" s="929"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32310,8 +32337,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="824"/>
+      <c r="X21" s="824"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32422,8 +32449,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="825"/>
+      <c r="X23" s="825"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32484,8 +32511,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="825"/>
+      <c r="X24" s="825"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32538,8 +32565,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="826"/>
+      <c r="X25" s="826"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32594,8 +32621,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="826"/>
+      <c r="X26" s="826"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32650,9 +32677,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="819"/>
+      <c r="X27" s="820"/>
+      <c r="Y27" s="821"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32706,9 +32733,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="820"/>
+      <c r="X28" s="820"/>
+      <c r="Y28" s="821"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33292,11 +33319,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="811">
+      <c r="M41" s="837">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="811">
+      <c r="N41" s="837">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33304,7 +33331,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="865">
+      <c r="Q41" s="891">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33328,10 +33355,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="812"/>
-      <c r="N42" s="812"/>
+      <c r="M42" s="838"/>
+      <c r="N42" s="838"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="866"/>
+      <c r="Q42" s="892"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33400,11 +33427,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="867">
+      <c r="M45" s="893">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="868"/>
+      <c r="N45" s="894"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33820,26 +33847,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="766" t="s">
+      <c r="H63" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="767"/>
+      <c r="I63" s="793"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="899">
+      <c r="K63" s="925">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="900"/>
+      <c r="L63" s="926"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="772" t="s">
+      <c r="D64" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="772"/>
+      <c r="E64" s="798"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33848,22 +33875,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="802" t="s">
+      <c r="D65" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="802"/>
+      <c r="E65" s="828"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="773" t="s">
+      <c r="I65" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="774"/>
-      <c r="K65" s="775">
+      <c r="J65" s="800"/>
+      <c r="K65" s="801">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="775"/>
+      <c r="L65" s="801"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33904,11 +33931,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="901">
+      <c r="K67" s="927">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="775"/>
+      <c r="L67" s="801"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33925,22 +33952,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="755" t="s">
+      <c r="D69" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="756"/>
+      <c r="E69" s="782"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="896" t="s">
+      <c r="I69" s="922" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="897"/>
-      <c r="K69" s="898">
+      <c r="J69" s="923"/>
+      <c r="K69" s="924">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="898"/>
+      <c r="L69" s="924"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -35613,10 +35640,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="859" t="s">
+      <c r="I38" s="885" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="860"/>
+      <c r="J38" s="886"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -35635,8 +35662,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="861"/>
-      <c r="J39" s="862"/>
+      <c r="I39" s="887"/>
+      <c r="J39" s="888"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -35655,8 +35682,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="863"/>
-      <c r="J40" s="864"/>
+      <c r="I40" s="889"/>
+      <c r="J40" s="890"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36279,7 +36306,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="817" t="s">
+      <c r="F71" s="843" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36292,7 +36319,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="818"/>
+      <c r="F72" s="844"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36311,10 +36338,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="855" t="s">
+      <c r="I74" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="856"/>
+      <c r="J74" s="882"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36323,8 +36350,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="857"/>
-      <c r="J75" s="858"/>
+      <c r="I75" s="883"/>
+      <c r="J75" s="884"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36458,11 +36485,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="906" t="s">
+      <c r="A89" s="932" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="907"/>
-      <c r="C89" s="907"/>
+      <c r="B89" s="933"/>
+      <c r="C89" s="933"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36472,10 +36499,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="908" t="s">
+      <c r="B90" s="934" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="909"/>
+      <c r="C90" s="935"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -36576,7 +36603,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="904">
+      <c r="C97" s="930">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36590,7 +36617,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="905"/>
+      <c r="C98" s="931"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36691,23 +36718,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36717,24 +36744,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36749,14 +36776,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36766,11 +36793,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
+      <c r="R4" s="846"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38538,11 +38565,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="811">
+      <c r="M41" s="837">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="811">
+      <c r="N41" s="837">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38550,7 +38577,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="865">
+      <c r="Q41" s="891">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -38580,10 +38607,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="812"/>
-      <c r="N42" s="812"/>
+      <c r="M42" s="838"/>
+      <c r="N42" s="838"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="866"/>
+      <c r="Q42" s="892"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -38670,11 +38697,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="867">
+      <c r="M45" s="893">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="868"/>
+      <c r="N45" s="894"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39260,26 +39287,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="766" t="s">
+      <c r="H69" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="767"/>
+      <c r="I69" s="793"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="899">
+      <c r="K69" s="925">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="900"/>
+      <c r="L69" s="926"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="772" t="s">
+      <c r="D70" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="772"/>
+      <c r="E70" s="798"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39288,22 +39315,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="802" t="s">
+      <c r="D71" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="802"/>
+      <c r="E71" s="828"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="773" t="s">
+      <c r="I71" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="774"/>
-      <c r="K71" s="775">
+      <c r="J71" s="800"/>
+      <c r="K71" s="801">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="775"/>
+      <c r="L71" s="801"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39344,11 +39371,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="901">
+      <c r="K73" s="927">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="775"/>
+      <c r="L73" s="801"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39365,22 +39392,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="755" t="s">
+      <c r="D75" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="756"/>
+      <c r="E75" s="782"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="757" t="s">
+      <c r="I75" s="783" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="758"/>
-      <c r="K75" s="759">
+      <c r="J75" s="784"/>
+      <c r="K75" s="785">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="759"/>
+      <c r="L75" s="785"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -41229,10 +41256,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="859" t="s">
+      <c r="H43" s="885" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="860"/>
+      <c r="I43" s="886"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41251,8 +41278,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="861"/>
-      <c r="I44" s="862"/>
+      <c r="H44" s="887"/>
+      <c r="I44" s="888"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41271,8 +41298,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="863"/>
-      <c r="I45" s="864"/>
+      <c r="H45" s="889"/>
+      <c r="I45" s="890"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -41716,10 +41743,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="855" t="s">
+      <c r="H67" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="856"/>
+      <c r="I67" s="882"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -41739,11 +41766,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="817" t="s">
+      <c r="F68" s="843" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="857"/>
-      <c r="I68" s="858"/>
+      <c r="H68" s="883"/>
+      <c r="I68" s="884"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41754,7 +41781,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="818"/>
+      <c r="F69" s="844"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43569,7 +43596,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="790" t="s">
+      <c r="B41" s="816" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -43601,7 +43628,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="791"/>
+      <c r="B42" s="817"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45195,23 +45222,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45221,24 +45248,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45253,14 +45280,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45270,11 +45297,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
+      <c r="R4" s="846"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -47008,11 +47035,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="811">
+      <c r="M41" s="837">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="811">
+      <c r="N41" s="837">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -47020,7 +47047,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="865">
+      <c r="Q41" s="891">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47050,10 +47077,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="812"/>
-      <c r="N42" s="812"/>
+      <c r="M42" s="838"/>
+      <c r="N42" s="838"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="866"/>
+      <c r="Q42" s="892"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47134,11 +47161,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="867">
+      <c r="M45" s="893">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="868"/>
+      <c r="N45" s="894"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -47655,26 +47682,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="766" t="s">
+      <c r="H69" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="767"/>
+      <c r="I69" s="793"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="899">
+      <c r="K69" s="925">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="900"/>
+      <c r="L69" s="926"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="772" t="s">
+      <c r="D70" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="772"/>
+      <c r="E70" s="798"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -47683,22 +47710,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="802" t="s">
+      <c r="D71" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="802"/>
+      <c r="E71" s="828"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="773" t="s">
+      <c r="I71" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="774"/>
-      <c r="K71" s="775">
+      <c r="J71" s="800"/>
+      <c r="K71" s="801">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="775"/>
+      <c r="L71" s="801"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47739,11 +47766,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="901">
+      <c r="K73" s="927">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="775"/>
+      <c r="L73" s="801"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47760,22 +47787,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="755" t="s">
+      <c r="D75" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="756"/>
+      <c r="E75" s="782"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="896" t="s">
+      <c r="I75" s="922" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="897"/>
-      <c r="K75" s="898">
+      <c r="J75" s="923"/>
+      <c r="K75" s="924">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="898"/>
+      <c r="L75" s="924"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -49325,10 +49352,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="859" t="s">
+      <c r="H40" s="885" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="860"/>
+      <c r="I40" s="886"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49347,8 +49374,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="861"/>
-      <c r="I41" s="862"/>
+      <c r="H41" s="887"/>
+      <c r="I41" s="888"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49367,8 +49394,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="863"/>
-      <c r="I42" s="864"/>
+      <c r="H42" s="889"/>
+      <c r="I42" s="890"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49872,10 +49899,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="855" t="s">
+      <c r="H67" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="856"/>
+      <c r="I67" s="882"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49895,11 +49922,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="817" t="s">
+      <c r="F68" s="843" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="857"/>
-      <c r="I68" s="858"/>
+      <c r="H68" s="883"/>
+      <c r="I68" s="884"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49910,7 +49937,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="818"/>
+      <c r="F69" s="844"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50532,23 +50559,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50558,24 +50585,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50590,14 +50617,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50607,11 +50634,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
+      <c r="R4" s="846"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52330,11 +52357,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="811">
+      <c r="M41" s="837">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="811">
+      <c r="N41" s="837">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52342,7 +52369,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="865">
+      <c r="Q41" s="891">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52370,10 +52397,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="812"/>
-      <c r="N42" s="812"/>
+      <c r="M42" s="838"/>
+      <c r="N42" s="838"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="866"/>
+      <c r="Q42" s="892"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52446,11 +52473,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="867">
+      <c r="M45" s="893">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="868"/>
+      <c r="N45" s="894"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -52943,26 +52970,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="766" t="s">
+      <c r="H69" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="767"/>
+      <c r="I69" s="793"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="899">
+      <c r="K69" s="925">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="900"/>
+      <c r="L69" s="926"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="772" t="s">
+      <c r="D70" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="772"/>
+      <c r="E70" s="798"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -52971,22 +52998,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="802" t="s">
+      <c r="D71" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="802"/>
+      <c r="E71" s="828"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="773" t="s">
+      <c r="I71" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="774"/>
-      <c r="K71" s="775">
+      <c r="J71" s="800"/>
+      <c r="K71" s="801">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="775"/>
+      <c r="L71" s="801"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -53027,11 +53054,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="901">
+      <c r="K73" s="927">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="775"/>
+      <c r="L73" s="801"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53048,22 +53075,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="755" t="s">
+      <c r="D75" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="756"/>
+      <c r="E75" s="782"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="757" t="s">
+      <c r="I75" s="783" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="758"/>
-      <c r="K75" s="759">
+      <c r="J75" s="784"/>
+      <c r="K75" s="785">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="759"/>
+      <c r="L75" s="785"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -54430,10 +54457,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="859" t="s">
+      <c r="H40" s="885" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="860"/>
+      <c r="I40" s="886"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54452,8 +54479,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="861"/>
-      <c r="I41" s="862"/>
+      <c r="H41" s="887"/>
+      <c r="I41" s="888"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -54472,8 +54499,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="863"/>
-      <c r="I42" s="864"/>
+      <c r="H42" s="889"/>
+      <c r="I42" s="890"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -54977,10 +55004,10 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="855" t="s">
+      <c r="H67" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="856"/>
+      <c r="I67" s="882"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -55000,11 +55027,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="817" t="s">
+      <c r="F68" s="843" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="857"/>
-      <c r="I68" s="858"/>
+      <c r="H68" s="883"/>
+      <c r="I68" s="884"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -55015,7 +55042,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="818"/>
+      <c r="F69" s="844"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -55606,10 +55633,10 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55637,23 +55664,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55663,24 +55690,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -55695,14 +55722,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -55712,11 +55739,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
+      <c r="R4" s="846"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -56103,7 +56130,7 @@
       <c r="N12" s="33">
         <v>52008</v>
       </c>
-      <c r="O12" s="910" t="s">
+      <c r="O12" s="755" t="s">
         <v>1247</v>
       </c>
       <c r="P12" s="39">
@@ -56117,10 +56144,10 @@
       <c r="R12" s="319">
         <v>0</v>
       </c>
-      <c r="S12" s="924"/>
-      <c r="T12" s="912"/>
-      <c r="U12" s="913"/>
-      <c r="V12" s="914"/>
+      <c r="S12" s="768"/>
+      <c r="T12" s="757"/>
+      <c r="U12" s="758"/>
+      <c r="V12" s="759"/>
     </row>
     <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
@@ -56136,20 +56163,20 @@
       <c r="E13" s="27">
         <v>44810</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="779">
         <v>106867</v>
       </c>
-      <c r="G13" s="572"/>
+      <c r="G13" s="778"/>
       <c r="H13" s="29">
         <v>44810</v>
       </c>
       <c r="I13" s="30">
-        <v>15936</v>
+        <v>1593</v>
       </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="32">
+      <c r="M13" s="777">
         <f>42400+10000+121050+650</f>
         <v>174100</v>
       </c>
@@ -56160,12 +56187,12 @@
         <v>1247</v>
       </c>
       <c r="P13" s="39">
-        <f t="shared" si="1"/>
-        <v>265849</v>
-      </c>
-      <c r="Q13" s="931">
-        <f t="shared" si="0"/>
-        <v>158982</v>
+        <f>N13+M13+L13+I13+C13</f>
+        <v>251506</v>
+      </c>
+      <c r="Q13" s="775">
+        <f t="shared" si="0"/>
+        <v>144639</v>
       </c>
       <c r="R13" s="542">
         <v>0</v>
@@ -56176,10 +56203,10 @@
       <c r="T13" s="327">
         <v>42400</v>
       </c>
-      <c r="U13" s="929" t="s">
+      <c r="U13" s="773" t="s">
         <v>597</v>
       </c>
-      <c r="V13" s="916"/>
+      <c r="V13" s="761"/>
     </row>
     <row r="14" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
@@ -56226,7 +56253,7 @@
         <f>P14-F14-29415-3</f>
         <v>-49700</v>
       </c>
-      <c r="R14" s="932">
+      <c r="R14" s="776">
         <v>29415</v>
       </c>
       <c r="S14" s="370">
@@ -56235,10 +56262,10 @@
       <c r="T14" s="327">
         <v>10000</v>
       </c>
-      <c r="U14" s="929" t="s">
+      <c r="U14" s="773" t="s">
         <v>597</v>
       </c>
-      <c r="V14" s="916"/>
+      <c r="V14" s="761"/>
     </row>
     <row r="15" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
@@ -56290,13 +56317,13 @@
       <c r="S15" s="370">
         <v>44810</v>
       </c>
-      <c r="T15" s="930">
+      <c r="T15" s="774">
         <v>121050</v>
       </c>
-      <c r="U15" s="929" t="s">
+      <c r="U15" s="773" t="s">
         <v>597</v>
       </c>
-      <c r="V15" s="916"/>
+      <c r="V15" s="761"/>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
@@ -56345,42 +56372,59 @@
       <c r="R16" s="319">
         <v>0</v>
       </c>
-      <c r="S16" s="927"/>
-      <c r="T16" s="917">
+      <c r="S16" s="771"/>
+      <c r="T16" s="780">
         <f>SUM(T13:T15)</f>
         <v>173450</v>
       </c>
-      <c r="U16" s="915"/>
-      <c r="V16" s="916"/>
+      <c r="U16" s="760"/>
+      <c r="V16" s="761"/>
     </row>
     <row r="17" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="24">
         <v>44814</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="25">
+        <v>19816.5</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>1255</v>
+      </c>
       <c r="E17" s="27">
         <v>44814</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>117839</v>
+      </c>
       <c r="G17" s="572"/>
       <c r="H17" s="29">
         <v>44814</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="30">
+        <v>6254</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44814</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L17" s="45">
+        <v>18565</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <v>19854.5</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>53349</v>
+      </c>
+      <c r="O17" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117839</v>
       </c>
       <c r="Q17" s="325">
         <f t="shared" si="0"/>
@@ -56395,39 +56439,51 @@
       <c r="T17" s="327">
         <v>-28811</v>
       </c>
-      <c r="U17" s="928" t="s">
+      <c r="U17" s="772" t="s">
         <v>27</v>
       </c>
-      <c r="V17" s="916"/>
+      <c r="V17" s="761"/>
     </row>
     <row r="18" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="24">
         <v>44815</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="25">
+        <v>31662</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>1258</v>
+      </c>
       <c r="E18" s="27">
         <v>44815</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>114813</v>
+      </c>
       <c r="G18" s="572"/>
       <c r="H18" s="29">
         <v>44815</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>2526.5</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="564"/>
       <c r="L18" s="39"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>20000+23616.5</f>
+        <v>43616.5</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>37008</v>
+      </c>
+      <c r="O18" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>114813</v>
       </c>
       <c r="Q18" s="325">
         <f t="shared" si="0"/>
@@ -56442,39 +56498,51 @@
       <c r="T18" s="327">
         <v>-49700</v>
       </c>
-      <c r="U18" s="928" t="s">
+      <c r="U18" s="772" t="s">
         <v>27</v>
       </c>
-      <c r="V18" s="916"/>
+      <c r="V18" s="761"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="24">
         <v>44816</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="25">
+        <v>27351.5</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>1259</v>
+      </c>
       <c r="E19" s="27">
         <v>44816</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>152177</v>
+      </c>
       <c r="G19" s="572"/>
       <c r="H19" s="29">
         <v>44816</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>2087</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>6406+44408.5+19602</f>
+        <v>70416.5</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>52322</v>
+      </c>
+      <c r="O19" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>152177</v>
       </c>
       <c r="Q19" s="325">
         <f t="shared" si="0"/>
@@ -56489,102 +56557,126 @@
       <c r="T19" s="327">
         <v>-49878</v>
       </c>
-      <c r="U19" s="928" t="s">
+      <c r="U19" s="772" t="s">
         <v>27</v>
       </c>
-      <c r="V19" s="916"/>
+      <c r="V19" s="761"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="24">
         <v>44817</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>33084</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>1260</v>
+      </c>
       <c r="E20" s="27">
         <v>44817</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>164240</v>
+      </c>
       <c r="G20" s="572"/>
       <c r="H20" s="29">
         <v>44817</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>2587</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>17086+20000+49877</f>
+        <v>86963</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>93084</v>
+      </c>
+      <c r="O20" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>215718</v>
       </c>
       <c r="Q20" s="325">
         <v>0</v>
       </c>
-      <c r="R20" s="319">
-        <v>0</v>
-      </c>
-      <c r="S20" s="927">
+      <c r="R20" s="319" t="s">
+        <v>1062</v>
+      </c>
+      <c r="S20" s="771">
         <v>44813</v>
       </c>
-      <c r="T20" s="911">
+      <c r="T20" s="756">
         <v>-34611</v>
       </c>
-      <c r="U20" s="918" t="s">
+      <c r="U20" s="762" t="s">
         <v>27</v>
       </c>
-      <c r="V20" s="916"/>
+      <c r="V20" s="761"/>
     </row>
     <row r="21" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="24">
         <v>44818</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>13474</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>1261</v>
+      </c>
       <c r="E21" s="27">
         <v>44818</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>193300</v>
+      </c>
       <c r="G21" s="572"/>
       <c r="H21" s="29">
         <v>44818</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>2387</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="565"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>26000+71145+13500</f>
+        <v>110645</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>66794</v>
+      </c>
+      <c r="O21" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>193300</v>
       </c>
       <c r="Q21" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R21" s="319">
-        <v>0</v>
-      </c>
-      <c r="S21" s="927"/>
-      <c r="T21" s="919">
+      <c r="R21" s="319" t="s">
+        <v>1262</v>
+      </c>
+      <c r="S21" s="771"/>
+      <c r="T21" s="763">
         <f>SUM(T16:T20)</f>
         <v>10450</v>
       </c>
-      <c r="U21" s="920" t="s">
+      <c r="U21" s="764" t="s">
         <v>1253</v>
       </c>
-      <c r="V21" s="916"/>
+      <c r="V21" s="761"/>
     </row>
     <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
@@ -56622,10 +56714,10 @@
       <c r="R22" s="319">
         <v>0</v>
       </c>
-      <c r="S22" s="927"/>
-      <c r="T22" s="921"/>
-      <c r="U22" s="921"/>
-      <c r="V22" s="916"/>
+      <c r="S22" s="771"/>
+      <c r="T22" s="765"/>
+      <c r="U22" s="765"/>
+      <c r="V22" s="761"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
@@ -56662,10 +56754,10 @@
       <c r="R23" s="319">
         <v>0</v>
       </c>
-      <c r="S23" s="927"/>
-      <c r="T23" s="921"/>
-      <c r="U23" s="921"/>
-      <c r="V23" s="916"/>
+      <c r="S23" s="771"/>
+      <c r="T23" s="765"/>
+      <c r="U23" s="765"/>
+      <c r="V23" s="761"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
@@ -56702,10 +56794,10 @@
       <c r="R24" s="319">
         <v>0</v>
       </c>
-      <c r="S24" s="927"/>
-      <c r="T24" s="921"/>
-      <c r="U24" s="921"/>
-      <c r="V24" s="916"/>
+      <c r="S24" s="771"/>
+      <c r="T24" s="765"/>
+      <c r="U24" s="765"/>
+      <c r="V24" s="761"/>
     </row>
     <row r="25" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
@@ -56743,10 +56835,10 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="S25" s="925"/>
-      <c r="T25" s="921"/>
-      <c r="U25" s="921"/>
-      <c r="V25" s="916"/>
+      <c r="S25" s="769"/>
+      <c r="T25" s="765"/>
+      <c r="U25" s="765"/>
+      <c r="V25" s="761"/>
     </row>
     <row r="26" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
@@ -56784,10 +56876,10 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="S26" s="926"/>
-      <c r="T26" s="922"/>
-      <c r="U26" s="922"/>
-      <c r="V26" s="923"/>
+      <c r="S26" s="770"/>
+      <c r="T26" s="766"/>
+      <c r="U26" s="766"/>
+      <c r="V26" s="767"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
@@ -57090,9 +57182,15 @@
       <c r="G35" s="572"/>
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
-      <c r="J35" s="698"/>
-      <c r="K35" s="752"/>
-      <c r="L35" s="702"/>
+      <c r="J35" s="698">
+        <v>44814</v>
+      </c>
+      <c r="K35" s="752" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L35" s="702">
+        <v>19250</v>
+      </c>
       <c r="M35" s="32">
         <v>0</v>
       </c>
@@ -57272,21 +57370,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="743"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="811">
+      <c r="M41" s="837">
         <f>SUM(M5:M40)</f>
-        <v>690418.17999999993</v>
-      </c>
-      <c r="N41" s="811">
+        <v>1021913.6799999999</v>
+      </c>
+      <c r="N41" s="837">
         <f>SUM(N5:N40)</f>
-        <v>564743</v>
+        <v>867300</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>1527335.68</v>
-      </c>
-      <c r="Q41" s="865">
+        <v>2306839.6799999997</v>
+      </c>
+      <c r="Q41" s="891">
         <f>SUM(Q5:Q40)</f>
-        <v>24797</v>
+        <v>10454</v>
       </c>
       <c r="R41" s="227">
         <f>SUM(R28:R40)</f>
@@ -57306,10 +57404,10 @@
       <c r="J42" s="698"/>
       <c r="K42" s="701"/>
       <c r="L42" s="702"/>
-      <c r="M42" s="812"/>
-      <c r="N42" s="812"/>
+      <c r="M42" s="838"/>
+      <c r="N42" s="838"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="866"/>
+      <c r="Q42" s="892"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>29415</v>
@@ -57364,11 +57462,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="671"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="867">
+      <c r="M45" s="893">
         <f>M41+N41</f>
-        <v>1255161.18</v>
-      </c>
-      <c r="N45" s="868"/>
+        <v>1889213.68</v>
+      </c>
+      <c r="N45" s="894"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -57751,7 +57849,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>207251</v>
+        <v>332639</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -57759,7 +57857,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>1432182</v>
+        <v>2174551</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -57767,7 +57865,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>46920.5</v>
+        <v>48419</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -57775,7 +57873,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>37510</v>
+        <v>75325</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -57793,50 +57891,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="766" t="s">
+      <c r="H69" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="767"/>
+      <c r="I69" s="793"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="899">
+      <c r="K69" s="925">
         <f>I67+L67</f>
-        <v>84430.5</v>
-      </c>
-      <c r="L69" s="900"/>
+        <v>123744</v>
+      </c>
+      <c r="L69" s="926"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="772" t="s">
+      <c r="D70" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="772"/>
+      <c r="E70" s="798"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>1140500.5</v>
+        <v>1718168</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="802" t="s">
+      <c r="D71" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="802"/>
+      <c r="E71" s="828"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="773" t="s">
+      <c r="I71" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="774"/>
-      <c r="K71" s="775">
+      <c r="J71" s="800"/>
+      <c r="K71" s="801">
         <f>F73+F74+F75</f>
-        <v>1140500.5</v>
-      </c>
-      <c r="L71" s="775"/>
+        <v>1718168</v>
+      </c>
+      <c r="L71" s="801"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -57870,18 +57968,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>1140500.5</v>
+        <v>1718168</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="901">
+      <c r="K73" s="927">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="775"/>
+      <c r="L73" s="801"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -57896,22 +57994,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="755" t="s">
+      <c r="D75" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="756"/>
+      <c r="E75" s="782"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="757" t="s">
+      <c r="I75" s="783" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="758"/>
-      <c r="K75" s="759">
+      <c r="J75" s="784"/>
+      <c r="K75" s="785">
         <f>K71+K73</f>
-        <v>-1532055.4900000002</v>
-      </c>
-      <c r="L75" s="759"/>
+        <v>-954387.99000000022</v>
+      </c>
+      <c r="L75" s="785"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -58055,6 +58153,9 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
@@ -58067,16 +58168,13 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -58936,10 +59034,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="859" t="s">
+      <c r="H40" s="885" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="860"/>
+      <c r="I40" s="886"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -58958,8 +59056,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="861"/>
-      <c r="I41" s="862"/>
+      <c r="H41" s="887"/>
+      <c r="I41" s="888"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -58978,8 +59076,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="863"/>
-      <c r="I42" s="864"/>
+      <c r="H42" s="889"/>
+      <c r="I42" s="890"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -59483,10 +59581,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="855" t="s">
+      <c r="H67" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="856"/>
+      <c r="I67" s="882"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -59506,11 +59604,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="817" t="s">
+      <c r="F68" s="843" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="857"/>
-      <c r="I68" s="858"/>
+      <c r="H68" s="883"/>
+      <c r="I68" s="884"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -59521,7 +59619,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="818"/>
+      <c r="F69" s="844"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -60165,23 +60263,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="781" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="807" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="782"/>
-      <c r="E1" s="782"/>
-      <c r="F1" s="782"/>
-      <c r="G1" s="782"/>
-      <c r="H1" s="782"/>
-      <c r="I1" s="782"/>
-      <c r="J1" s="782"/>
-      <c r="K1" s="782"/>
-      <c r="L1" s="782"/>
-      <c r="M1" s="782"/>
+      <c r="D1" s="808"/>
+      <c r="E1" s="808"/>
+      <c r="F1" s="808"/>
+      <c r="G1" s="808"/>
+      <c r="H1" s="808"/>
+      <c r="I1" s="808"/>
+      <c r="J1" s="808"/>
+      <c r="K1" s="808"/>
+      <c r="L1" s="808"/>
+      <c r="M1" s="808"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -60191,21 +60289,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
     </row>
@@ -60220,14 +60318,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -60237,14 +60335,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="792" t="s">
+      <c r="W4" s="818" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="818"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60295,8 +60393,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="818"/>
+      <c r="X5" s="818"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61067,7 +61165,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="822">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -61119,7 +61217,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="823"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -61168,8 +61266,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="824"/>
+      <c r="X21" s="824"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -61270,8 +61368,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="825"/>
+      <c r="X23" s="825"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61325,8 +61423,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="825"/>
+      <c r="X24" s="825"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61372,8 +61470,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="826"/>
+      <c r="X25" s="826"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61424,8 +61522,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="826"/>
+      <c r="X26" s="826"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61473,9 +61571,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="819"/>
+      <c r="X27" s="820"/>
+      <c r="Y27" s="821"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61525,9 +61623,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="820"/>
+      <c r="X28" s="820"/>
+      <c r="Y28" s="821"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61862,11 +61960,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="811">
+      <c r="M36" s="837">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="813">
+      <c r="N36" s="839">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -61874,7 +61972,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="815">
+      <c r="Q36" s="841">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -61909,13 +62007,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="812"/>
-      <c r="N37" s="814"/>
+      <c r="M37" s="838"/>
+      <c r="N37" s="840"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="816"/>
+      <c r="Q37" s="842"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -62205,26 +62303,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="766" t="s">
+      <c r="H52" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="767"/>
+      <c r="I52" s="793"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="768">
+      <c r="K52" s="794">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="801"/>
+      <c r="L52" s="827"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="772" t="s">
+      <c r="D53" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="772"/>
+      <c r="E53" s="798"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -62233,29 +62331,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="802" t="s">
+      <c r="D54" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="802"/>
+      <c r="E54" s="828"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="773" t="s">
+      <c r="I54" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="774"/>
-      <c r="K54" s="775">
+      <c r="J54" s="800"/>
+      <c r="K54" s="801">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="775"/>
-      <c r="M54" s="803" t="s">
+      <c r="L54" s="801"/>
+      <c r="M54" s="829" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="804"/>
-      <c r="O54" s="804"/>
-      <c r="P54" s="804"/>
-      <c r="Q54" s="805"/>
+      <c r="N54" s="830"/>
+      <c r="O54" s="830"/>
+      <c r="P54" s="830"/>
+      <c r="Q54" s="831"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -62269,11 +62367,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="806"/>
-      <c r="N55" s="807"/>
-      <c r="O55" s="807"/>
-      <c r="P55" s="807"/>
-      <c r="Q55" s="808"/>
+      <c r="M55" s="832"/>
+      <c r="N55" s="833"/>
+      <c r="O55" s="833"/>
+      <c r="P55" s="833"/>
+      <c r="Q55" s="834"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -62291,11 +62389,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="777">
+      <c r="K56" s="803">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="778"/>
+      <c r="L56" s="804"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -62312,22 +62410,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="755" t="s">
+      <c r="D58" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="756"/>
+      <c r="E58" s="782"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="757" t="s">
+      <c r="I58" s="783" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="758"/>
-      <c r="K58" s="759">
+      <c r="J58" s="784"/>
+      <c r="K58" s="785">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="759"/>
+      <c r="L58" s="785"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -64917,7 +65015,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="817" t="s">
+      <c r="F87" s="843" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -64930,7 +65028,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="818"/>
+      <c r="F88" s="844"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -65242,23 +65340,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="781" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="807" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="782"/>
-      <c r="E1" s="782"/>
-      <c r="F1" s="782"/>
-      <c r="G1" s="782"/>
-      <c r="H1" s="782"/>
-      <c r="I1" s="782"/>
-      <c r="J1" s="782"/>
-      <c r="K1" s="782"/>
-      <c r="L1" s="782"/>
-      <c r="M1" s="782"/>
+      <c r="D1" s="808"/>
+      <c r="E1" s="808"/>
+      <c r="F1" s="808"/>
+      <c r="G1" s="808"/>
+      <c r="H1" s="808"/>
+      <c r="I1" s="808"/>
+      <c r="J1" s="808"/>
+      <c r="K1" s="808"/>
+      <c r="L1" s="808"/>
+      <c r="M1" s="808"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -65268,24 +65366,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -65300,14 +65398,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -65317,15 +65415,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="846"/>
+      <c r="W4" s="818" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="818"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65386,8 +65484,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="818"/>
+      <c r="X5" s="818"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66144,7 +66242,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="822">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -66196,7 +66294,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="823"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -66245,8 +66343,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="824"/>
+      <c r="X21" s="824"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -66347,8 +66445,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="825"/>
+      <c r="X23" s="825"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -66399,8 +66497,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="825"/>
+      <c r="X24" s="825"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66446,8 +66544,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="826"/>
+      <c r="X25" s="826"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66495,8 +66593,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="826"/>
+      <c r="X26" s="826"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66556,9 +66654,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="819"/>
+      <c r="X27" s="820"/>
+      <c r="Y27" s="821"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66612,9 +66710,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="820"/>
+      <c r="X28" s="820"/>
+      <c r="Y28" s="821"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66930,11 +67028,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="811">
+      <c r="M36" s="837">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="813">
+      <c r="N36" s="839">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -66942,7 +67040,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="815">
+      <c r="Q36" s="841">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -66961,13 +67059,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="812"/>
-      <c r="N37" s="814"/>
+      <c r="M37" s="838"/>
+      <c r="N37" s="840"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="816"/>
+      <c r="Q37" s="842"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -67241,26 +67339,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="766" t="s">
+      <c r="H52" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="767"/>
+      <c r="I52" s="793"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="768">
+      <c r="K52" s="794">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="801"/>
+      <c r="L52" s="827"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="772" t="s">
+      <c r="D53" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="772"/>
+      <c r="E53" s="798"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -67269,29 +67367,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="802" t="s">
+      <c r="D54" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="802"/>
+      <c r="E54" s="828"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="773" t="s">
+      <c r="I54" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="774"/>
-      <c r="K54" s="775">
+      <c r="J54" s="800"/>
+      <c r="K54" s="801">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="775"/>
-      <c r="M54" s="803" t="s">
+      <c r="L54" s="801"/>
+      <c r="M54" s="829" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="804"/>
-      <c r="O54" s="804"/>
-      <c r="P54" s="804"/>
-      <c r="Q54" s="805"/>
+      <c r="N54" s="830"/>
+      <c r="O54" s="830"/>
+      <c r="P54" s="830"/>
+      <c r="Q54" s="831"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -67305,11 +67403,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="806"/>
-      <c r="N55" s="807"/>
-      <c r="O55" s="807"/>
-      <c r="P55" s="807"/>
-      <c r="Q55" s="808"/>
+      <c r="M55" s="832"/>
+      <c r="N55" s="833"/>
+      <c r="O55" s="833"/>
+      <c r="P55" s="833"/>
+      <c r="Q55" s="834"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -67327,11 +67425,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="777">
+      <c r="K56" s="803">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="778"/>
+      <c r="L56" s="804"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -67348,22 +67446,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="755" t="s">
+      <c r="D58" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="756"/>
+      <c r="E58" s="782"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="757" t="s">
+      <c r="I58" s="783" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="758"/>
-      <c r="K58" s="759">
+      <c r="J58" s="784"/>
+      <c r="K58" s="785">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="759"/>
+      <c r="L58" s="785"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -69926,7 +70024,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="817" t="s">
+      <c r="F75" s="843" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -69939,7 +70037,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="818"/>
+      <c r="F76" s="844"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -70231,23 +70329,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -70257,24 +70355,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -70289,14 +70387,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -70306,15 +70404,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="846"/>
+      <c r="W4" s="818" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="818"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70365,8 +70463,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="818"/>
+      <c r="X5" s="818"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71130,7 +71228,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="822">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -71183,7 +71281,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="823"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -71232,8 +71330,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="824"/>
+      <c r="X21" s="824"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71333,8 +71431,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="825"/>
+      <c r="X23" s="825"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71389,8 +71487,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="825"/>
+      <c r="X24" s="825"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71435,8 +71533,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="826"/>
+      <c r="X25" s="826"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71484,8 +71582,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="826"/>
+      <c r="X26" s="826"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71539,9 +71637,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="819"/>
+      <c r="X27" s="820"/>
+      <c r="Y27" s="821"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71595,9 +71693,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="820"/>
+      <c r="X28" s="820"/>
+      <c r="Y28" s="821"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71908,11 +72006,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="811">
+      <c r="M36" s="837">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="813">
+      <c r="N36" s="839">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -71920,7 +72018,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="815">
+      <c r="Q36" s="841">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -71945,13 +72043,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="812"/>
-      <c r="N37" s="814"/>
+      <c r="M37" s="838"/>
+      <c r="N37" s="840"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="816"/>
+      <c r="Q37" s="842"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -72244,26 +72342,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="766" t="s">
+      <c r="H52" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="767"/>
+      <c r="I52" s="793"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="768">
+      <c r="K52" s="794">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="801"/>
+      <c r="L52" s="827"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="772" t="s">
+      <c r="D53" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="772"/>
+      <c r="E53" s="798"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -72272,22 +72370,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="802" t="s">
+      <c r="D54" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="802"/>
+      <c r="E54" s="828"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="773" t="s">
+      <c r="I54" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="774"/>
-      <c r="K54" s="775">
+      <c r="J54" s="800"/>
+      <c r="K54" s="801">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="775"/>
+      <c r="L54" s="801"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72328,11 +72426,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="777">
+      <c r="K56" s="803">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="778"/>
+      <c r="L56" s="804"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72349,22 +72447,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="755" t="s">
+      <c r="D58" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="756"/>
+      <c r="E58" s="782"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="757" t="s">
+      <c r="I58" s="783" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="758"/>
-      <c r="K58" s="759">
+      <c r="J58" s="784"/>
+      <c r="K58" s="785">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="759"/>
+      <c r="L58" s="785"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -74233,12 +74331,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="823" t="s">
+      <c r="B43" s="849" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="824"/>
-      <c r="D43" s="824"/>
-      <c r="E43" s="825"/>
+      <c r="C43" s="850"/>
+      <c r="D43" s="850"/>
+      <c r="E43" s="851"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74266,10 +74364,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="826"/>
-      <c r="C44" s="827"/>
-      <c r="D44" s="827"/>
-      <c r="E44" s="828"/>
+      <c r="B44" s="852"/>
+      <c r="C44" s="853"/>
+      <c r="D44" s="853"/>
+      <c r="E44" s="854"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74297,10 +74395,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="829"/>
-      <c r="C45" s="830"/>
-      <c r="D45" s="830"/>
-      <c r="E45" s="831"/>
+      <c r="B45" s="855"/>
+      <c r="C45" s="856"/>
+      <c r="D45" s="856"/>
+      <c r="E45" s="857"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74343,10 +74441,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="838" t="s">
+      <c r="B47" s="864" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="839"/>
+      <c r="C47" s="865"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -74368,8 +74466,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="840"/>
-      <c r="C48" s="841"/>
+      <c r="B48" s="866"/>
+      <c r="C48" s="867"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -74377,11 +74475,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="832" t="s">
+      <c r="J48" s="858" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="833"/>
-      <c r="L48" s="834"/>
+      <c r="K48" s="859"/>
+      <c r="L48" s="860"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -74399,9 +74497,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="835"/>
-      <c r="K49" s="836"/>
-      <c r="L49" s="837"/>
+      <c r="J49" s="861"/>
+      <c r="K49" s="862"/>
+      <c r="L49" s="863"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -74418,10 +74516,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="842" t="s">
+      <c r="I50" s="868" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="843"/>
+      <c r="J50" s="869"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -74442,8 +74540,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="842"/>
-      <c r="J51" s="843"/>
+      <c r="I51" s="868"/>
+      <c r="J51" s="869"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -74462,8 +74560,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="842"/>
-      <c r="J52" s="843"/>
+      <c r="I52" s="868"/>
+      <c r="J52" s="869"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -74482,8 +74580,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="842"/>
-      <c r="J53" s="843"/>
+      <c r="I53" s="868"/>
+      <c r="J53" s="869"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -74502,8 +74600,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="842"/>
-      <c r="J54" s="843"/>
+      <c r="I54" s="868"/>
+      <c r="J54" s="869"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -74522,8 +74620,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="842"/>
-      <c r="J55" s="843"/>
+      <c r="I55" s="868"/>
+      <c r="J55" s="869"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -74542,8 +74640,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="842"/>
-      <c r="J56" s="843"/>
+      <c r="I56" s="868"/>
+      <c r="J56" s="869"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -74562,8 +74660,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="842"/>
-      <c r="J57" s="843"/>
+      <c r="I57" s="868"/>
+      <c r="J57" s="869"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -74582,8 +74680,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="842"/>
-      <c r="J58" s="843"/>
+      <c r="I58" s="868"/>
+      <c r="J58" s="869"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -74602,8 +74700,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="842"/>
-      <c r="J59" s="843"/>
+      <c r="I59" s="868"/>
+      <c r="J59" s="869"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -74622,8 +74720,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="842"/>
-      <c r="J60" s="843"/>
+      <c r="I60" s="868"/>
+      <c r="J60" s="869"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -74642,8 +74740,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="842"/>
-      <c r="J61" s="843"/>
+      <c r="I61" s="868"/>
+      <c r="J61" s="869"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -74662,8 +74760,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="842"/>
-      <c r="J62" s="843"/>
+      <c r="I62" s="868"/>
+      <c r="J62" s="869"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -74682,8 +74780,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="842"/>
-      <c r="J63" s="843"/>
+      <c r="I63" s="868"/>
+      <c r="J63" s="869"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -74702,8 +74800,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="842"/>
-      <c r="J64" s="843"/>
+      <c r="I64" s="868"/>
+      <c r="J64" s="869"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -74722,8 +74820,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="842"/>
-      <c r="J65" s="843"/>
+      <c r="I65" s="868"/>
+      <c r="J65" s="869"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -74742,8 +74840,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="842"/>
-      <c r="J66" s="843"/>
+      <c r="I66" s="868"/>
+      <c r="J66" s="869"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -74762,8 +74860,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="842"/>
-      <c r="J67" s="843"/>
+      <c r="I67" s="868"/>
+      <c r="J67" s="869"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -74782,8 +74880,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="842"/>
-      <c r="J68" s="843"/>
+      <c r="I68" s="868"/>
+      <c r="J68" s="869"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -74802,8 +74900,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="842"/>
-      <c r="J69" s="843"/>
+      <c r="I69" s="868"/>
+      <c r="J69" s="869"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -74822,8 +74920,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="842"/>
-      <c r="J70" s="843"/>
+      <c r="I70" s="868"/>
+      <c r="J70" s="869"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -74842,8 +74940,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="842"/>
-      <c r="J71" s="843"/>
+      <c r="I71" s="868"/>
+      <c r="J71" s="869"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -74862,8 +74960,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="842"/>
-      <c r="J72" s="843"/>
+      <c r="I72" s="868"/>
+      <c r="J72" s="869"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -74882,8 +74980,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="842"/>
-      <c r="J73" s="843"/>
+      <c r="I73" s="868"/>
+      <c r="J73" s="869"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -74902,8 +75000,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="842"/>
-      <c r="J74" s="843"/>
+      <c r="I74" s="868"/>
+      <c r="J74" s="869"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -74922,8 +75020,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="842"/>
-      <c r="J75" s="843"/>
+      <c r="I75" s="868"/>
+      <c r="J75" s="869"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -74942,8 +75040,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="842"/>
-      <c r="J76" s="843"/>
+      <c r="I76" s="868"/>
+      <c r="J76" s="869"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -74962,8 +75060,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="842"/>
-      <c r="J77" s="843"/>
+      <c r="I77" s="868"/>
+      <c r="J77" s="869"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -74984,8 +75082,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="844"/>
-      <c r="J78" s="845"/>
+      <c r="I78" s="870"/>
+      <c r="J78" s="871"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -75030,7 +75128,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="817" t="s">
+      <c r="F80" s="843" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -75042,7 +75140,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="818"/>
+      <c r="F81" s="844"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -75330,23 +75428,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="779"/>
-      <c r="C1" s="821" t="s">
+      <c r="B1" s="805"/>
+      <c r="C1" s="847" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="822"/>
-      <c r="M1" s="822"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
+      <c r="L1" s="848"/>
+      <c r="M1" s="848"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="780"/>
+      <c r="B2" s="806"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -75356,24 +75454,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="783" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="784"/>
+      <c r="B3" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="810"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="785" t="s">
+      <c r="H3" s="811" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="785"/>
+      <c r="I3" s="811"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="809" t="s">
+      <c r="P3" s="835" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="819" t="s">
+      <c r="R3" s="845" t="s">
         <v>216</v>
       </c>
     </row>
@@ -75388,14 +75486,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="786" t="s">
+      <c r="E4" s="812" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="H4" s="788" t="s">
+      <c r="F4" s="813"/>
+      <c r="H4" s="814" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="789"/>
+      <c r="I4" s="815"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -75405,15 +75503,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="810"/>
+      <c r="P4" s="836"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="820"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="846"/>
+      <c r="W4" s="818" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="818"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -75464,8 +75562,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="818"/>
+      <c r="X5" s="818"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76226,7 +76324,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="822">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -76278,7 +76376,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="823"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -76327,8 +76425,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="824"/>
+      <c r="X21" s="824"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -76427,8 +76525,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="825"/>
+      <c r="X23" s="825"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -76483,8 +76581,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="825"/>
+      <c r="X24" s="825"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -76532,8 +76630,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="826"/>
+      <c r="X25" s="826"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -76581,8 +76679,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="826"/>
+      <c r="X26" s="826"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -76630,9 +76728,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="819"/>
+      <c r="X27" s="820"/>
+      <c r="Y27" s="821"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76680,9 +76778,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="820"/>
+      <c r="X28" s="820"/>
+      <c r="Y28" s="821"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77023,11 +77121,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="811">
+      <c r="M36" s="837">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="813">
+      <c r="N36" s="839">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -77035,7 +77133,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="846">
+      <c r="Q36" s="872">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -77060,13 +77158,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="812"/>
-      <c r="N37" s="814"/>
+      <c r="M37" s="838"/>
+      <c r="N37" s="840"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="847"/>
+      <c r="Q37" s="873"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -77116,11 +77214,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="848">
+      <c r="M39" s="874">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="849"/>
+      <c r="N39" s="875"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -77368,26 +77466,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="766" t="s">
+      <c r="H52" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="767"/>
+      <c r="I52" s="793"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="768">
+      <c r="K52" s="794">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="801"/>
+      <c r="L52" s="827"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="772" t="s">
+      <c r="D53" s="798" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="772"/>
+      <c r="E53" s="798"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -77396,22 +77494,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="802" t="s">
+      <c r="D54" s="828" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="802"/>
+      <c r="E54" s="828"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="773" t="s">
+      <c r="I54" s="799" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="774"/>
-      <c r="K54" s="775">
+      <c r="J54" s="800"/>
+      <c r="K54" s="801">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="775"/>
+      <c r="L54" s="801"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -77452,11 +77550,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="777">
+      <c r="K56" s="803">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="778"/>
+      <c r="L56" s="804"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -77473,22 +77571,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="755" t="s">
+      <c r="D58" s="781" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="756"/>
+      <c r="E58" s="782"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="757" t="s">
+      <c r="I58" s="783" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="758"/>
-      <c r="K58" s="759">
+      <c r="J58" s="784"/>
+      <c r="K58" s="785">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="759"/>
+      <c r="L58" s="785"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1268">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4726,6 +4726,21 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>PROTECCION CIVIL</t>
+  </si>
+  <si>
+    <t>LONGANIZA-CHORIZO</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMON-CREMA-COSTCO</t>
+  </si>
+  <si>
+    <t>17--9</t>
+  </si>
+  <si>
+    <t>NOMINA # 38</t>
   </si>
 </sst>
 </file>
@@ -6863,7 +6878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="936">
+  <cellXfs count="938">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8425,6 +8440,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14630,23 +14649,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="807" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="809" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="808"/>
-      <c r="E1" s="808"/>
-      <c r="F1" s="808"/>
-      <c r="G1" s="808"/>
-      <c r="H1" s="808"/>
-      <c r="I1" s="808"/>
-      <c r="J1" s="808"/>
-      <c r="K1" s="808"/>
-      <c r="L1" s="808"/>
-      <c r="M1" s="808"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14656,17 +14675,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14680,14 +14699,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14697,10 +14716,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="786" t="s">
+      <c r="P4" s="788" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="787"/>
+      <c r="Q4" s="789"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16141,11 +16160,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="788">
+      <c r="M39" s="790">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="790">
+      <c r="N39" s="792">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16171,8 +16190,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="789"/>
-      <c r="N40" s="791"/>
+      <c r="M40" s="791"/>
+      <c r="N40" s="793"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16387,29 +16406,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="792" t="s">
+      <c r="H52" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="793"/>
+      <c r="I52" s="795"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="794">
+      <c r="K52" s="796">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="795"/>
-      <c r="M52" s="796">
+      <c r="L52" s="797"/>
+      <c r="M52" s="798">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="797"/>
+      <c r="N52" s="799"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="798" t="s">
+      <c r="D53" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="798"/>
+      <c r="E53" s="800"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16420,22 +16439,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="798" t="s">
+      <c r="D54" s="800" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="798"/>
+      <c r="E54" s="800"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="799" t="s">
+      <c r="I54" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="800"/>
-      <c r="K54" s="801">
+      <c r="J54" s="802"/>
+      <c r="K54" s="803">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="802"/>
+      <c r="L54" s="804"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16468,11 +16487,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="803">
+      <c r="K56" s="805">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="804"/>
+      <c r="L56" s="806"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16489,22 +16508,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="781" t="s">
+      <c r="D58" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="782"/>
+      <c r="E58" s="784"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="783" t="s">
+      <c r="I58" s="785" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="784"/>
-      <c r="K58" s="785">
+      <c r="J58" s="786"/>
+      <c r="K58" s="787">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="785"/>
+      <c r="L58" s="787"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -19128,10 +19147,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="877" t="s">
+      <c r="I76" s="879" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="878"/>
+      <c r="J76" s="880"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19150,8 +19169,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="879"/>
-      <c r="J77" s="880"/>
+      <c r="I77" s="881"/>
+      <c r="J77" s="882"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19218,7 +19237,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="843" t="s">
+      <c r="F80" s="845" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19233,7 +19252,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="844"/>
+      <c r="F81" s="846"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19241,10 +19260,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="876" t="s">
+      <c r="B82" s="878" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="876"/>
+      <c r="C82" s="878"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19526,23 +19545,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19552,24 +19571,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19584,14 +19603,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19601,15 +19620,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
-      <c r="W4" s="818" t="s">
+      <c r="R4" s="848"/>
+      <c r="W4" s="820" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="818"/>
+      <c r="X4" s="820"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19660,8 +19679,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="818"/>
-      <c r="X5" s="818"/>
+      <c r="W5" s="820"/>
+      <c r="X5" s="820"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20424,7 +20443,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="822">
+      <c r="W19" s="824">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20476,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="823"/>
+      <c r="W20" s="825"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20525,8 +20544,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="824"/>
-      <c r="X21" s="824"/>
+      <c r="W21" s="826"/>
+      <c r="X21" s="826"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20626,8 +20645,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="825"/>
-      <c r="X23" s="825"/>
+      <c r="W23" s="827"/>
+      <c r="X23" s="827"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20682,8 +20701,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="825"/>
-      <c r="X24" s="825"/>
+      <c r="W24" s="827"/>
+      <c r="X24" s="827"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20731,8 +20750,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="826"/>
-      <c r="X25" s="826"/>
+      <c r="W25" s="828"/>
+      <c r="X25" s="828"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20781,8 +20800,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="826"/>
-      <c r="X26" s="826"/>
+      <c r="W26" s="828"/>
+      <c r="X26" s="828"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20830,9 +20849,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="819"/>
-      <c r="X27" s="820"/>
-      <c r="Y27" s="821"/>
+      <c r="W27" s="821"/>
+      <c r="X27" s="822"/>
+      <c r="Y27" s="823"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20880,9 +20899,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="820"/>
-      <c r="X28" s="820"/>
-      <c r="Y28" s="821"/>
+      <c r="W28" s="822"/>
+      <c r="X28" s="822"/>
+      <c r="Y28" s="823"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21214,11 +21233,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="837">
+      <c r="M36" s="839">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="839">
+      <c r="N36" s="841">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21226,7 +21245,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="872">
+      <c r="Q36" s="874">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21251,13 +21270,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="838"/>
-      <c r="N37" s="840"/>
+      <c r="M37" s="840"/>
+      <c r="N37" s="842"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="873"/>
+      <c r="Q37" s="875"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21307,11 +21326,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="874">
+      <c r="M39" s="876">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="875"/>
+      <c r="N39" s="877"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21939,26 +21958,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="792" t="s">
+      <c r="H68" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="793"/>
+      <c r="I68" s="795"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="794">
+      <c r="K68" s="796">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="827"/>
+      <c r="L68" s="829"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="798" t="s">
+      <c r="D69" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="798"/>
+      <c r="E69" s="800"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21967,22 +21986,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="828" t="s">
+      <c r="D70" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="828"/>
+      <c r="E70" s="830"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="799" t="s">
+      <c r="I70" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="800"/>
-      <c r="K70" s="801">
+      <c r="J70" s="802"/>
+      <c r="K70" s="803">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="801"/>
+      <c r="L70" s="803"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -22023,11 +22042,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="803">
+      <c r="K72" s="805">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="804"/>
+      <c r="L72" s="806"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -22044,22 +22063,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="781" t="s">
+      <c r="D74" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="782"/>
+      <c r="E74" s="784"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="783" t="s">
+      <c r="I74" s="785" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="784"/>
-      <c r="K74" s="785">
+      <c r="J74" s="786"/>
+      <c r="K74" s="787">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="785"/>
+      <c r="L74" s="787"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -23797,10 +23816,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="885" t="s">
+      <c r="I44" s="887" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="886"/>
+      <c r="J44" s="888"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23819,8 +23838,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="887"/>
-      <c r="J45" s="888"/>
+      <c r="I45" s="889"/>
+      <c r="J45" s="890"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23839,8 +23858,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="889"/>
-      <c r="J46" s="890"/>
+      <c r="I46" s="891"/>
+      <c r="J46" s="892"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24529,7 +24548,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="843" t="s">
+      <c r="F80" s="845" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24542,7 +24561,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="844"/>
+      <c r="F81" s="846"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24562,10 +24581,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="881" t="s">
+      <c r="I83" s="883" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="882"/>
+      <c r="J83" s="884"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24574,8 +24593,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="883"/>
-      <c r="J84" s="884"/>
+      <c r="I84" s="885"/>
+      <c r="J84" s="886"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24848,23 +24867,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24874,24 +24893,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24906,14 +24925,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24923,15 +24942,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
-      <c r="W4" s="818" t="s">
+      <c r="R4" s="848"/>
+      <c r="W4" s="820" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="818"/>
+      <c r="X4" s="820"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24982,8 +25001,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="818"/>
-      <c r="X5" s="818"/>
+      <c r="W5" s="820"/>
+      <c r="X5" s="820"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25742,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="822">
+      <c r="W19" s="824">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25794,7 +25813,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="823"/>
+      <c r="W20" s="825"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25843,8 +25862,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="824"/>
-      <c r="X21" s="824"/>
+      <c r="W21" s="826"/>
+      <c r="X21" s="826"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25941,8 +25960,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="825"/>
-      <c r="X23" s="825"/>
+      <c r="W23" s="827"/>
+      <c r="X23" s="827"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25997,8 +26016,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="825"/>
-      <c r="X24" s="825"/>
+      <c r="W24" s="827"/>
+      <c r="X24" s="827"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26044,8 +26063,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="826"/>
-      <c r="X25" s="826"/>
+      <c r="W25" s="828"/>
+      <c r="X25" s="828"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26096,8 +26115,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="826"/>
-      <c r="X26" s="826"/>
+      <c r="W26" s="828"/>
+      <c r="X26" s="828"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26148,9 +26167,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="819"/>
-      <c r="X27" s="820"/>
-      <c r="Y27" s="821"/>
+      <c r="W27" s="821"/>
+      <c r="X27" s="822"/>
+      <c r="Y27" s="823"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26200,9 +26219,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="820"/>
-      <c r="X28" s="820"/>
-      <c r="Y28" s="821"/>
+      <c r="W28" s="822"/>
+      <c r="X28" s="822"/>
+      <c r="Y28" s="823"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26806,11 +26825,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="837">
+      <c r="M41" s="839">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="837">
+      <c r="N41" s="839">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26818,7 +26837,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="891">
+      <c r="Q41" s="893">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26848,10 +26867,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="838"/>
-      <c r="N42" s="838"/>
+      <c r="M42" s="840"/>
+      <c r="N42" s="840"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="892"/>
+      <c r="Q42" s="894"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26939,11 +26958,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="893">
+      <c r="M45" s="895">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="894"/>
+      <c r="N45" s="896"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27536,26 +27555,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="792" t="s">
+      <c r="H70" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="793"/>
+      <c r="I70" s="795"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="794">
+      <c r="K70" s="796">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="827"/>
+      <c r="L70" s="829"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="798" t="s">
+      <c r="D71" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="798"/>
+      <c r="E71" s="800"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27565,22 +27584,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="828" t="s">
+      <c r="D72" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="828"/>
+      <c r="E72" s="830"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="799" t="s">
+      <c r="I72" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="800"/>
-      <c r="K72" s="801">
+      <c r="J72" s="802"/>
+      <c r="K72" s="803">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="801"/>
+      <c r="L72" s="803"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27621,11 +27640,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="803">
+      <c r="K74" s="805">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="804"/>
+      <c r="L74" s="806"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27644,22 +27663,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="781" t="s">
+      <c r="D76" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="782"/>
+      <c r="E76" s="784"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="783" t="s">
+      <c r="I76" s="785" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="784"/>
-      <c r="K76" s="785">
+      <c r="J76" s="786"/>
+      <c r="K76" s="787">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="785"/>
+      <c r="L76" s="787"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -29819,10 +29838,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="885" t="s">
+      <c r="I54" s="887" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="886"/>
+      <c r="J54" s="888"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29838,8 +29857,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="887"/>
-      <c r="J55" s="888"/>
+      <c r="I55" s="889"/>
+      <c r="J55" s="890"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29855,8 +29874,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="889"/>
-      <c r="J56" s="890"/>
+      <c r="I56" s="891"/>
+      <c r="J56" s="892"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30524,7 +30543,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="843" t="s">
+      <c r="F90" s="845" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30537,7 +30556,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="844"/>
+      <c r="F91" s="846"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30556,10 +30575,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="881" t="s">
+      <c r="I93" s="883" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="882"/>
+      <c r="J93" s="884"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30569,8 +30588,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="883"/>
-      <c r="J94" s="884"/>
+      <c r="I94" s="885"/>
+      <c r="J94" s="886"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -31011,11 +31030,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="895">
+      <c r="C130" s="897">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="896"/>
+      <c r="D130" s="898"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -31052,24 +31071,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="910" t="s">
+      <c r="B2" s="912" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="911"/>
-      <c r="D2" s="912"/>
-      <c r="F2" s="898" t="s">
+      <c r="C2" s="913"/>
+      <c r="D2" s="914"/>
+      <c r="F2" s="900" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="899"/>
-      <c r="H2" s="900"/>
+      <c r="G2" s="901"/>
+      <c r="H2" s="902"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="913"/>
-      <c r="C3" s="914"/>
-      <c r="D3" s="915"/>
-      <c r="F3" s="901"/>
-      <c r="G3" s="902"/>
-      <c r="H3" s="903"/>
+      <c r="B3" s="915"/>
+      <c r="C3" s="916"/>
+      <c r="D3" s="917"/>
+      <c r="F3" s="903"/>
+      <c r="G3" s="904"/>
+      <c r="H3" s="905"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31214,11 +31233,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="904">
+      <c r="G11" s="906">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="905"/>
+      <c r="H11" s="907"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31235,33 +31254,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="908" t="s">
+      <c r="C15" s="910" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="906">
+      <c r="D15" s="908">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="916" t="s">
+      <c r="E15" s="918" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="917"/>
-      <c r="G15" s="917"/>
-      <c r="H15" s="918"/>
+      <c r="F15" s="919"/>
+      <c r="G15" s="919"/>
+      <c r="H15" s="920"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="909"/>
-      <c r="D16" s="907"/>
-      <c r="E16" s="919"/>
-      <c r="F16" s="920"/>
-      <c r="G16" s="920"/>
-      <c r="H16" s="921"/>
+      <c r="C16" s="911"/>
+      <c r="D16" s="909"/>
+      <c r="E16" s="921"/>
+      <c r="F16" s="922"/>
+      <c r="G16" s="922"/>
+      <c r="H16" s="923"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="897" t="s">
+      <c r="C17" s="899" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="897"/>
+      <c r="D17" s="899"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31320,23 +31339,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31346,24 +31365,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31382,14 +31401,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31399,15 +31418,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
+      <c r="R4" s="848"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="928"/>
-      <c r="X4" s="928"/>
+      <c r="W4" s="930"/>
+      <c r="X4" s="930"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31461,8 +31480,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="928"/>
-      <c r="X5" s="928"/>
+      <c r="W5" s="930"/>
+      <c r="X5" s="930"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32228,7 +32247,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="929"/>
+      <c r="W19" s="931"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32282,7 +32301,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="929"/>
+      <c r="W20" s="931"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32337,8 +32356,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="824"/>
-      <c r="X21" s="824"/>
+      <c r="W21" s="826"/>
+      <c r="X21" s="826"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32449,8 +32468,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="825"/>
-      <c r="X23" s="825"/>
+      <c r="W23" s="827"/>
+      <c r="X23" s="827"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32511,8 +32530,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="825"/>
-      <c r="X24" s="825"/>
+      <c r="W24" s="827"/>
+      <c r="X24" s="827"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32565,8 +32584,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="826"/>
-      <c r="X25" s="826"/>
+      <c r="W25" s="828"/>
+      <c r="X25" s="828"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32621,8 +32640,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="826"/>
-      <c r="X26" s="826"/>
+      <c r="W26" s="828"/>
+      <c r="X26" s="828"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32677,9 +32696,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="819"/>
-      <c r="X27" s="820"/>
-      <c r="Y27" s="821"/>
+      <c r="W27" s="821"/>
+      <c r="X27" s="822"/>
+      <c r="Y27" s="823"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32733,9 +32752,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="820"/>
-      <c r="X28" s="820"/>
-      <c r="Y28" s="821"/>
+      <c r="W28" s="822"/>
+      <c r="X28" s="822"/>
+      <c r="Y28" s="823"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33319,11 +33338,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="837">
+      <c r="M41" s="839">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="837">
+      <c r="N41" s="839">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33331,7 +33350,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="891">
+      <c r="Q41" s="893">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33355,10 +33374,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="838"/>
-      <c r="N42" s="838"/>
+      <c r="M42" s="840"/>
+      <c r="N42" s="840"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="892"/>
+      <c r="Q42" s="894"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33427,11 +33446,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="893">
+      <c r="M45" s="895">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="894"/>
+      <c r="N45" s="896"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33847,26 +33866,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="792" t="s">
+      <c r="H63" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="793"/>
+      <c r="I63" s="795"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="925">
+      <c r="K63" s="927">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="926"/>
+      <c r="L63" s="928"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="798" t="s">
+      <c r="D64" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="798"/>
+      <c r="E64" s="800"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33875,22 +33894,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="828" t="s">
+      <c r="D65" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="828"/>
+      <c r="E65" s="830"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="799" t="s">
+      <c r="I65" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="800"/>
-      <c r="K65" s="801">
+      <c r="J65" s="802"/>
+      <c r="K65" s="803">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="801"/>
+      <c r="L65" s="803"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33931,11 +33950,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="927">
+      <c r="K67" s="929">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="801"/>
+      <c r="L67" s="803"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33952,22 +33971,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="781" t="s">
+      <c r="D69" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="782"/>
+      <c r="E69" s="784"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="922" t="s">
+      <c r="I69" s="924" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="923"/>
-      <c r="K69" s="924">
+      <c r="J69" s="925"/>
+      <c r="K69" s="926">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="924"/>
+      <c r="L69" s="926"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -35640,10 +35659,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="885" t="s">
+      <c r="I38" s="887" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="886"/>
+      <c r="J38" s="888"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -35662,8 +35681,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="887"/>
-      <c r="J39" s="888"/>
+      <c r="I39" s="889"/>
+      <c r="J39" s="890"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -35682,8 +35701,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="889"/>
-      <c r="J40" s="890"/>
+      <c r="I40" s="891"/>
+      <c r="J40" s="892"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36306,7 +36325,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="843" t="s">
+      <c r="F71" s="845" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36319,7 +36338,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="844"/>
+      <c r="F72" s="846"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36338,10 +36357,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="881" t="s">
+      <c r="I74" s="883" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="882"/>
+      <c r="J74" s="884"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36350,8 +36369,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="883"/>
-      <c r="J75" s="884"/>
+      <c r="I75" s="885"/>
+      <c r="J75" s="886"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36485,11 +36504,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="932" t="s">
+      <c r="A89" s="934" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="933"/>
-      <c r="C89" s="933"/>
+      <c r="B89" s="935"/>
+      <c r="C89" s="935"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36499,10 +36518,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="934" t="s">
+      <c r="B90" s="936" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="935"/>
+      <c r="C90" s="937"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -36603,7 +36622,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="930">
+      <c r="C97" s="932">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36617,7 +36636,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="931"/>
+      <c r="C98" s="933"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36718,23 +36737,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36744,24 +36763,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36776,14 +36795,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36793,11 +36812,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
+      <c r="R4" s="848"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38565,11 +38584,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="837">
+      <c r="M41" s="839">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="837">
+      <c r="N41" s="839">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38577,7 +38596,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="891">
+      <c r="Q41" s="893">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -38607,10 +38626,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="838"/>
-      <c r="N42" s="838"/>
+      <c r="M42" s="840"/>
+      <c r="N42" s="840"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="892"/>
+      <c r="Q42" s="894"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -38697,11 +38716,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="893">
+      <c r="M45" s="895">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="894"/>
+      <c r="N45" s="896"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39287,26 +39306,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="792" t="s">
+      <c r="H69" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="793"/>
+      <c r="I69" s="795"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="925">
+      <c r="K69" s="927">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="926"/>
+      <c r="L69" s="928"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="798" t="s">
+      <c r="D70" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="798"/>
+      <c r="E70" s="800"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39315,22 +39334,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="828" t="s">
+      <c r="D71" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="828"/>
+      <c r="E71" s="830"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="799" t="s">
+      <c r="I71" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="800"/>
-      <c r="K71" s="801">
+      <c r="J71" s="802"/>
+      <c r="K71" s="803">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="801"/>
+      <c r="L71" s="803"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39371,11 +39390,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="927">
+      <c r="K73" s="929">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="801"/>
+      <c r="L73" s="803"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39392,22 +39411,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="781" t="s">
+      <c r="D75" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="782"/>
+      <c r="E75" s="784"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="783" t="s">
+      <c r="I75" s="785" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="784"/>
-      <c r="K75" s="785">
+      <c r="J75" s="786"/>
+      <c r="K75" s="787">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="785"/>
+      <c r="L75" s="787"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -41256,10 +41275,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="885" t="s">
+      <c r="H43" s="887" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="886"/>
+      <c r="I43" s="888"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41278,8 +41297,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="887"/>
-      <c r="I44" s="888"/>
+      <c r="H44" s="889"/>
+      <c r="I44" s="890"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41298,8 +41317,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="889"/>
-      <c r="I45" s="890"/>
+      <c r="H45" s="891"/>
+      <c r="I45" s="892"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -41743,10 +41762,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="881" t="s">
+      <c r="H67" s="883" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="882"/>
+      <c r="I67" s="884"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -41766,11 +41785,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="843" t="s">
+      <c r="F68" s="845" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="883"/>
-      <c r="I68" s="884"/>
+      <c r="H68" s="885"/>
+      <c r="I68" s="886"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41781,7 +41800,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="844"/>
+      <c r="F69" s="846"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43596,7 +43615,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="816" t="s">
+      <c r="B41" s="818" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -43628,7 +43647,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="817"/>
+      <c r="B42" s="819"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45222,23 +45241,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45248,24 +45267,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45280,14 +45299,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45297,11 +45316,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
+      <c r="R4" s="848"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -47035,11 +47054,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="837">
+      <c r="M41" s="839">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="837">
+      <c r="N41" s="839">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -47047,7 +47066,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="891">
+      <c r="Q41" s="893">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47077,10 +47096,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="838"/>
-      <c r="N42" s="838"/>
+      <c r="M42" s="840"/>
+      <c r="N42" s="840"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="892"/>
+      <c r="Q42" s="894"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47161,11 +47180,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="893">
+      <c r="M45" s="895">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="894"/>
+      <c r="N45" s="896"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -47682,26 +47701,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="792" t="s">
+      <c r="H69" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="793"/>
+      <c r="I69" s="795"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="925">
+      <c r="K69" s="927">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="926"/>
+      <c r="L69" s="928"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="798" t="s">
+      <c r="D70" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="798"/>
+      <c r="E70" s="800"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -47710,22 +47729,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="828" t="s">
+      <c r="D71" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="828"/>
+      <c r="E71" s="830"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="799" t="s">
+      <c r="I71" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="800"/>
-      <c r="K71" s="801">
+      <c r="J71" s="802"/>
+      <c r="K71" s="803">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="801"/>
+      <c r="L71" s="803"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47766,11 +47785,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="927">
+      <c r="K73" s="929">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="801"/>
+      <c r="L73" s="803"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47787,22 +47806,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="781" t="s">
+      <c r="D75" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="782"/>
+      <c r="E75" s="784"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="922" t="s">
+      <c r="I75" s="924" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="923"/>
-      <c r="K75" s="924">
+      <c r="J75" s="925"/>
+      <c r="K75" s="926">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="924"/>
+      <c r="L75" s="926"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -49352,10 +49371,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="885" t="s">
+      <c r="H40" s="887" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="886"/>
+      <c r="I40" s="888"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49374,8 +49393,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="887"/>
-      <c r="I41" s="888"/>
+      <c r="H41" s="889"/>
+      <c r="I41" s="890"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49394,8 +49413,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="889"/>
-      <c r="I42" s="890"/>
+      <c r="H42" s="891"/>
+      <c r="I42" s="892"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49899,10 +49918,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="881" t="s">
+      <c r="H67" s="883" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="882"/>
+      <c r="I67" s="884"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49922,11 +49941,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="843" t="s">
+      <c r="F68" s="845" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="883"/>
-      <c r="I68" s="884"/>
+      <c r="H68" s="885"/>
+      <c r="I68" s="886"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49937,7 +49956,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="844"/>
+      <c r="F69" s="846"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50559,23 +50578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50585,24 +50604,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50617,14 +50636,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50634,11 +50653,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
+      <c r="R4" s="848"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52357,11 +52376,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="837">
+      <c r="M41" s="839">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="837">
+      <c r="N41" s="839">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52369,7 +52388,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="891">
+      <c r="Q41" s="893">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52397,10 +52416,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="838"/>
-      <c r="N42" s="838"/>
+      <c r="M42" s="840"/>
+      <c r="N42" s="840"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="892"/>
+      <c r="Q42" s="894"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52473,11 +52492,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="893">
+      <c r="M45" s="895">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="894"/>
+      <c r="N45" s="896"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -52970,26 +52989,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="792" t="s">
+      <c r="H69" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="793"/>
+      <c r="I69" s="795"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="925">
+      <c r="K69" s="927">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="926"/>
+      <c r="L69" s="928"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="798" t="s">
+      <c r="D70" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="798"/>
+      <c r="E70" s="800"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -52998,22 +53017,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="828" t="s">
+      <c r="D71" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="828"/>
+      <c r="E71" s="830"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="799" t="s">
+      <c r="I71" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="800"/>
-      <c r="K71" s="801">
+      <c r="J71" s="802"/>
+      <c r="K71" s="803">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="801"/>
+      <c r="L71" s="803"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -53054,11 +53073,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="927">
+      <c r="K73" s="929">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="801"/>
+      <c r="L73" s="803"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53075,22 +53094,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="781" t="s">
+      <c r="D75" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="782"/>
+      <c r="E75" s="784"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="783" t="s">
+      <c r="I75" s="785" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="784"/>
-      <c r="K75" s="785">
+      <c r="J75" s="786"/>
+      <c r="K75" s="787">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="785"/>
+      <c r="L75" s="787"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -54457,10 +54476,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="885" t="s">
+      <c r="H40" s="887" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="886"/>
+      <c r="I40" s="888"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54479,8 +54498,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="887"/>
-      <c r="I41" s="888"/>
+      <c r="H41" s="889"/>
+      <c r="I41" s="890"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -54499,8 +54518,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="889"/>
-      <c r="I42" s="890"/>
+      <c r="H42" s="891"/>
+      <c r="I42" s="892"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -55004,10 +55023,10 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="881" t="s">
+      <c r="H67" s="883" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="882"/>
+      <c r="I67" s="884"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -55027,11 +55046,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="843" t="s">
+      <c r="F68" s="845" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="883"/>
-      <c r="I68" s="884"/>
+      <c r="H68" s="885"/>
+      <c r="I68" s="886"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -55042,7 +55061,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="844"/>
+      <c r="F69" s="846"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -55633,10 +55652,10 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55664,23 +55683,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55690,24 +55709,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -55722,14 +55741,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -55739,11 +55758,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
+      <c r="R4" s="848"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -56678,38 +56697,53 @@
       </c>
       <c r="V21" s="761"/>
     </row>
-    <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="24">
         <v>44819</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="25">
+        <v>4999</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>112</v>
+      </c>
       <c r="E22" s="27">
         <v>44819</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>190016</v>
+      </c>
       <c r="G22" s="572"/>
       <c r="H22" s="29">
         <v>44819</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="49"/>
+      <c r="I22" s="30">
+        <v>3539</v>
+      </c>
+      <c r="J22" s="37">
+        <v>44819</v>
+      </c>
+      <c r="K22" s="781" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L22" s="49">
+        <v>15000</v>
+      </c>
       <c r="M22" s="32">
-        <v>0</v>
+        <f>24500+61550</f>
+        <v>86050</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>80429</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190017</v>
       </c>
       <c r="Q22" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="319">
         <v>0</v>
@@ -56724,32 +56758,42 @@
       <c r="B23" s="24">
         <v>44820</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="25">
+        <v>10700</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>1264</v>
+      </c>
       <c r="E23" s="27">
         <v>44820</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>72012</v>
+      </c>
       <c r="G23" s="572"/>
       <c r="H23" s="29">
         <v>44820</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>291</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <f>23109+721</f>
+        <v>23830</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>23191</v>
       </c>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="325">
-        <v>0</v>
+        <v>58012</v>
+      </c>
+      <c r="Q23" s="782">
+        <f t="shared" si="0"/>
+        <v>-14000</v>
       </c>
       <c r="R23" s="319">
         <v>0</v>
@@ -56764,32 +56808,47 @@
       <c r="B24" s="24">
         <v>44821</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="25">
+        <v>17481</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>1265</v>
+      </c>
       <c r="E24" s="27">
         <v>44821</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>112511</v>
+      </c>
       <c r="G24" s="572"/>
       <c r="H24" s="29">
         <v>44821</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="30">
+        <v>2004</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L24" s="52">
+        <v>22708</v>
+      </c>
       <c r="M24" s="32">
         <v>0</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>52661</v>
       </c>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="325">
-        <v>0</v>
+        <v>94854</v>
+      </c>
+      <c r="Q24" s="782">
+        <f t="shared" si="0"/>
+        <v>-17657</v>
       </c>
       <c r="R24" s="319">
         <v>0</v>
@@ -56804,17 +56863,23 @@
       <c r="B25" s="24">
         <v>44822</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
       <c r="D25" s="35"/>
       <c r="E25" s="27">
         <v>44822</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>90619</v>
+      </c>
       <c r="G25" s="572"/>
       <c r="H25" s="29">
         <v>44822</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>979</v>
+      </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
@@ -56822,15 +56887,15 @@
         <v>0</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>29524</v>
       </c>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30503</v>
+      </c>
+      <c r="Q25" s="782">
+        <f t="shared" si="0"/>
+        <v>-60116</v>
       </c>
       <c r="R25" s="319">
         <v>0</v>
@@ -57218,9 +57283,15 @@
       <c r="G36" s="662"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="751"/>
-      <c r="L36" s="39"/>
+      <c r="J36" s="56">
+        <v>44821</v>
+      </c>
+      <c r="K36" s="751" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L36" s="39">
+        <v>22764</v>
+      </c>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -57370,21 +57441,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="743"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="837">
+      <c r="M41" s="839">
         <f>SUM(M5:M40)</f>
-        <v>1021913.6799999999</v>
-      </c>
-      <c r="N41" s="837">
+        <v>1131793.68</v>
+      </c>
+      <c r="N41" s="839">
         <f>SUM(N5:N40)</f>
-        <v>867300</v>
+        <v>1053105</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>2306839.6799999997</v>
-      </c>
-      <c r="Q41" s="891">
+        <v>2680225.6799999997</v>
+      </c>
+      <c r="Q41" s="893">
         <f>SUM(Q5:Q40)</f>
-        <v>10454</v>
+        <v>-81318</v>
       </c>
       <c r="R41" s="227">
         <f>SUM(R28:R40)</f>
@@ -57404,10 +57475,10 @@
       <c r="J42" s="698"/>
       <c r="K42" s="701"/>
       <c r="L42" s="702"/>
-      <c r="M42" s="838"/>
-      <c r="N42" s="838"/>
+      <c r="M42" s="840"/>
+      <c r="N42" s="840"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="892"/>
+      <c r="Q42" s="894"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>29415</v>
@@ -57462,11 +57533,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="671"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="893">
+      <c r="M45" s="895">
         <f>M41+N41</f>
-        <v>1889213.68</v>
-      </c>
-      <c r="N45" s="894"/>
+        <v>2184898.6799999997</v>
+      </c>
+      <c r="N45" s="896"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -57849,7 +57920,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>332639</v>
+        <v>365819</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -57857,7 +57928,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>2174551</v>
+        <v>2639709</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -57865,7 +57936,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>48419</v>
+        <v>55232</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -57873,7 +57944,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>75325</v>
+        <v>135797</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -57891,50 +57962,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="792" t="s">
+      <c r="H69" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="793"/>
+      <c r="I69" s="795"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="925">
+      <c r="K69" s="927">
         <f>I67+L67</f>
-        <v>123744</v>
-      </c>
-      <c r="L69" s="926"/>
+        <v>191029</v>
+      </c>
+      <c r="L69" s="928"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="798" t="s">
+      <c r="D70" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="798"/>
+      <c r="E70" s="800"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>1718168</v>
+        <v>2082861</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="828" t="s">
+      <c r="D71" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="828"/>
+      <c r="E71" s="830"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="799" t="s">
+      <c r="I71" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="800"/>
-      <c r="K71" s="801">
+      <c r="J71" s="802"/>
+      <c r="K71" s="803">
         <f>F73+F74+F75</f>
-        <v>1718168</v>
-      </c>
-      <c r="L71" s="801"/>
+        <v>2082861</v>
+      </c>
+      <c r="L71" s="803"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -57968,18 +58039,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>1718168</v>
+        <v>2082861</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="927">
+      <c r="K73" s="929">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="801"/>
+      <c r="L73" s="803"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -57994,22 +58065,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="781" t="s">
+      <c r="D75" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="782"/>
+      <c r="E75" s="784"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="783" t="s">
+      <c r="I75" s="785" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="784"/>
-      <c r="K75" s="785">
+      <c r="J75" s="786"/>
+      <c r="K75" s="787">
         <f>K71+K73</f>
-        <v>-954387.99000000022</v>
-      </c>
-      <c r="L75" s="785"/>
+        <v>-589694.99000000022</v>
+      </c>
+      <c r="L75" s="787"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -59034,10 +59105,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="885" t="s">
+      <c r="H40" s="887" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="886"/>
+      <c r="I40" s="888"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -59056,8 +59127,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="887"/>
-      <c r="I41" s="888"/>
+      <c r="H41" s="889"/>
+      <c r="I41" s="890"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -59076,8 +59147,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="889"/>
-      <c r="I42" s="890"/>
+      <c r="H42" s="891"/>
+      <c r="I42" s="892"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -59581,10 +59652,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="881" t="s">
+      <c r="H67" s="883" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="882"/>
+      <c r="I67" s="884"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -59604,11 +59675,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="843" t="s">
+      <c r="F68" s="845" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="883"/>
-      <c r="I68" s="884"/>
+      <c r="H68" s="885"/>
+      <c r="I68" s="886"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -59619,7 +59690,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="844"/>
+      <c r="F69" s="846"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -60263,23 +60334,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="807" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="809" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="808"/>
-      <c r="E1" s="808"/>
-      <c r="F1" s="808"/>
-      <c r="G1" s="808"/>
-      <c r="H1" s="808"/>
-      <c r="I1" s="808"/>
-      <c r="J1" s="808"/>
-      <c r="K1" s="808"/>
-      <c r="L1" s="808"/>
-      <c r="M1" s="808"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -60289,21 +60360,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
     </row>
@@ -60318,14 +60389,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -60335,14 +60406,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="818" t="s">
+      <c r="W4" s="820" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="818"/>
+      <c r="X4" s="820"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60393,8 +60464,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="818"/>
-      <c r="X5" s="818"/>
+      <c r="W5" s="820"/>
+      <c r="X5" s="820"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61165,7 +61236,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="822">
+      <c r="W19" s="824">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -61217,7 +61288,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="823"/>
+      <c r="W20" s="825"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -61266,8 +61337,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="824"/>
-      <c r="X21" s="824"/>
+      <c r="W21" s="826"/>
+      <c r="X21" s="826"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -61368,8 +61439,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="825"/>
-      <c r="X23" s="825"/>
+      <c r="W23" s="827"/>
+      <c r="X23" s="827"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61423,8 +61494,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="825"/>
-      <c r="X24" s="825"/>
+      <c r="W24" s="827"/>
+      <c r="X24" s="827"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61470,8 +61541,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="826"/>
-      <c r="X25" s="826"/>
+      <c r="W25" s="828"/>
+      <c r="X25" s="828"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61522,8 +61593,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="826"/>
-      <c r="X26" s="826"/>
+      <c r="W26" s="828"/>
+      <c r="X26" s="828"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61571,9 +61642,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="819"/>
-      <c r="X27" s="820"/>
-      <c r="Y27" s="821"/>
+      <c r="W27" s="821"/>
+      <c r="X27" s="822"/>
+      <c r="Y27" s="823"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61623,9 +61694,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="820"/>
-      <c r="X28" s="820"/>
-      <c r="Y28" s="821"/>
+      <c r="W28" s="822"/>
+      <c r="X28" s="822"/>
+      <c r="Y28" s="823"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61960,11 +62031,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="837">
+      <c r="M36" s="839">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="839">
+      <c r="N36" s="841">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -61972,7 +62043,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="841">
+      <c r="Q36" s="843">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -62007,13 +62078,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="838"/>
-      <c r="N37" s="840"/>
+      <c r="M37" s="840"/>
+      <c r="N37" s="842"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="842"/>
+      <c r="Q37" s="844"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -62303,26 +62374,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="792" t="s">
+      <c r="H52" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="793"/>
+      <c r="I52" s="795"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="794">
+      <c r="K52" s="796">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="827"/>
+      <c r="L52" s="829"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="798" t="s">
+      <c r="D53" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="798"/>
+      <c r="E53" s="800"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -62331,29 +62402,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="828" t="s">
+      <c r="D54" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="828"/>
+      <c r="E54" s="830"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="799" t="s">
+      <c r="I54" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="800"/>
-      <c r="K54" s="801">
+      <c r="J54" s="802"/>
+      <c r="K54" s="803">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="801"/>
-      <c r="M54" s="829" t="s">
+      <c r="L54" s="803"/>
+      <c r="M54" s="831" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="830"/>
-      <c r="O54" s="830"/>
-      <c r="P54" s="830"/>
-      <c r="Q54" s="831"/>
+      <c r="N54" s="832"/>
+      <c r="O54" s="832"/>
+      <c r="P54" s="832"/>
+      <c r="Q54" s="833"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -62367,11 +62438,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="832"/>
-      <c r="N55" s="833"/>
-      <c r="O55" s="833"/>
-      <c r="P55" s="833"/>
-      <c r="Q55" s="834"/>
+      <c r="M55" s="834"/>
+      <c r="N55" s="835"/>
+      <c r="O55" s="835"/>
+      <c r="P55" s="835"/>
+      <c r="Q55" s="836"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -62389,11 +62460,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="803">
+      <c r="K56" s="805">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="804"/>
+      <c r="L56" s="806"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -62410,22 +62481,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="781" t="s">
+      <c r="D58" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="782"/>
+      <c r="E58" s="784"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="783" t="s">
+      <c r="I58" s="785" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="784"/>
-      <c r="K58" s="785">
+      <c r="J58" s="786"/>
+      <c r="K58" s="787">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="785"/>
+      <c r="L58" s="787"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -65015,7 +65086,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="843" t="s">
+      <c r="F87" s="845" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -65028,7 +65099,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="844"/>
+      <c r="F88" s="846"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -65340,23 +65411,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="807" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="809" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="808"/>
-      <c r="E1" s="808"/>
-      <c r="F1" s="808"/>
-      <c r="G1" s="808"/>
-      <c r="H1" s="808"/>
-      <c r="I1" s="808"/>
-      <c r="J1" s="808"/>
-      <c r="K1" s="808"/>
-      <c r="L1" s="808"/>
-      <c r="M1" s="808"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -65366,24 +65437,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -65398,14 +65469,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -65415,15 +65486,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
-      <c r="W4" s="818" t="s">
+      <c r="R4" s="848"/>
+      <c r="W4" s="820" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="818"/>
+      <c r="X4" s="820"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65484,8 +65555,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="818"/>
-      <c r="X5" s="818"/>
+      <c r="W5" s="820"/>
+      <c r="X5" s="820"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66242,7 +66313,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="822">
+      <c r="W19" s="824">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -66294,7 +66365,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="823"/>
+      <c r="W20" s="825"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -66343,8 +66414,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="824"/>
-      <c r="X21" s="824"/>
+      <c r="W21" s="826"/>
+      <c r="X21" s="826"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -66445,8 +66516,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="825"/>
-      <c r="X23" s="825"/>
+      <c r="W23" s="827"/>
+      <c r="X23" s="827"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -66497,8 +66568,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="825"/>
-      <c r="X24" s="825"/>
+      <c r="W24" s="827"/>
+      <c r="X24" s="827"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66544,8 +66615,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="826"/>
-      <c r="X25" s="826"/>
+      <c r="W25" s="828"/>
+      <c r="X25" s="828"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66593,8 +66664,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="826"/>
-      <c r="X26" s="826"/>
+      <c r="W26" s="828"/>
+      <c r="X26" s="828"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66654,9 +66725,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="819"/>
-      <c r="X27" s="820"/>
-      <c r="Y27" s="821"/>
+      <c r="W27" s="821"/>
+      <c r="X27" s="822"/>
+      <c r="Y27" s="823"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66710,9 +66781,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="820"/>
-      <c r="X28" s="820"/>
-      <c r="Y28" s="821"/>
+      <c r="W28" s="822"/>
+      <c r="X28" s="822"/>
+      <c r="Y28" s="823"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -67028,11 +67099,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="837">
+      <c r="M36" s="839">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="839">
+      <c r="N36" s="841">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -67040,7 +67111,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="841">
+      <c r="Q36" s="843">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -67059,13 +67130,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="838"/>
-      <c r="N37" s="840"/>
+      <c r="M37" s="840"/>
+      <c r="N37" s="842"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="842"/>
+      <c r="Q37" s="844"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -67339,26 +67410,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="792" t="s">
+      <c r="H52" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="793"/>
+      <c r="I52" s="795"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="794">
+      <c r="K52" s="796">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="827"/>
+      <c r="L52" s="829"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="798" t="s">
+      <c r="D53" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="798"/>
+      <c r="E53" s="800"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -67367,29 +67438,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="828" t="s">
+      <c r="D54" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="828"/>
+      <c r="E54" s="830"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="799" t="s">
+      <c r="I54" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="800"/>
-      <c r="K54" s="801">
+      <c r="J54" s="802"/>
+      <c r="K54" s="803">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="801"/>
-      <c r="M54" s="829" t="s">
+      <c r="L54" s="803"/>
+      <c r="M54" s="831" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="830"/>
-      <c r="O54" s="830"/>
-      <c r="P54" s="830"/>
-      <c r="Q54" s="831"/>
+      <c r="N54" s="832"/>
+      <c r="O54" s="832"/>
+      <c r="P54" s="832"/>
+      <c r="Q54" s="833"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -67403,11 +67474,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="832"/>
-      <c r="N55" s="833"/>
-      <c r="O55" s="833"/>
-      <c r="P55" s="833"/>
-      <c r="Q55" s="834"/>
+      <c r="M55" s="834"/>
+      <c r="N55" s="835"/>
+      <c r="O55" s="835"/>
+      <c r="P55" s="835"/>
+      <c r="Q55" s="836"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -67425,11 +67496,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="803">
+      <c r="K56" s="805">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="804"/>
+      <c r="L56" s="806"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -67446,22 +67517,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="781" t="s">
+      <c r="D58" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="782"/>
+      <c r="E58" s="784"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="783" t="s">
+      <c r="I58" s="785" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="784"/>
-      <c r="K58" s="785">
+      <c r="J58" s="786"/>
+      <c r="K58" s="787">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="785"/>
+      <c r="L58" s="787"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -70024,7 +70095,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="843" t="s">
+      <c r="F75" s="845" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -70037,7 +70108,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="844"/>
+      <c r="F76" s="846"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -70329,23 +70400,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -70355,24 +70426,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -70387,14 +70458,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -70404,15 +70475,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
-      <c r="W4" s="818" t="s">
+      <c r="R4" s="848"/>
+      <c r="W4" s="820" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="818"/>
+      <c r="X4" s="820"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70463,8 +70534,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="818"/>
-      <c r="X5" s="818"/>
+      <c r="W5" s="820"/>
+      <c r="X5" s="820"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71228,7 +71299,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="822">
+      <c r="W19" s="824">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -71281,7 +71352,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="823"/>
+      <c r="W20" s="825"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -71330,8 +71401,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="824"/>
-      <c r="X21" s="824"/>
+      <c r="W21" s="826"/>
+      <c r="X21" s="826"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71431,8 +71502,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="825"/>
-      <c r="X23" s="825"/>
+      <c r="W23" s="827"/>
+      <c r="X23" s="827"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71487,8 +71558,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="825"/>
-      <c r="X24" s="825"/>
+      <c r="W24" s="827"/>
+      <c r="X24" s="827"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71533,8 +71604,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="826"/>
-      <c r="X25" s="826"/>
+      <c r="W25" s="828"/>
+      <c r="X25" s="828"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71582,8 +71653,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="826"/>
-      <c r="X26" s="826"/>
+      <c r="W26" s="828"/>
+      <c r="X26" s="828"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71637,9 +71708,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="819"/>
-      <c r="X27" s="820"/>
-      <c r="Y27" s="821"/>
+      <c r="W27" s="821"/>
+      <c r="X27" s="822"/>
+      <c r="Y27" s="823"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71693,9 +71764,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="820"/>
-      <c r="X28" s="820"/>
-      <c r="Y28" s="821"/>
+      <c r="W28" s="822"/>
+      <c r="X28" s="822"/>
+      <c r="Y28" s="823"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -72006,11 +72077,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="837">
+      <c r="M36" s="839">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="839">
+      <c r="N36" s="841">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -72018,7 +72089,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="841">
+      <c r="Q36" s="843">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -72043,13 +72114,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="838"/>
-      <c r="N37" s="840"/>
+      <c r="M37" s="840"/>
+      <c r="N37" s="842"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="842"/>
+      <c r="Q37" s="844"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -72342,26 +72413,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="792" t="s">
+      <c r="H52" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="793"/>
+      <c r="I52" s="795"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="794">
+      <c r="K52" s="796">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="827"/>
+      <c r="L52" s="829"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="798" t="s">
+      <c r="D53" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="798"/>
+      <c r="E53" s="800"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -72370,22 +72441,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="828" t="s">
+      <c r="D54" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="828"/>
+      <c r="E54" s="830"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="799" t="s">
+      <c r="I54" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="800"/>
-      <c r="K54" s="801">
+      <c r="J54" s="802"/>
+      <c r="K54" s="803">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="801"/>
+      <c r="L54" s="803"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72426,11 +72497,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="803">
+      <c r="K56" s="805">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="804"/>
+      <c r="L56" s="806"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72447,22 +72518,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="781" t="s">
+      <c r="D58" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="782"/>
+      <c r="E58" s="784"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="783" t="s">
+      <c r="I58" s="785" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="784"/>
-      <c r="K58" s="785">
+      <c r="J58" s="786"/>
+      <c r="K58" s="787">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="785"/>
+      <c r="L58" s="787"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -74331,12 +74402,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="849" t="s">
+      <c r="B43" s="851" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="850"/>
-      <c r="D43" s="850"/>
-      <c r="E43" s="851"/>
+      <c r="C43" s="852"/>
+      <c r="D43" s="852"/>
+      <c r="E43" s="853"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74364,10 +74435,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="852"/>
-      <c r="C44" s="853"/>
-      <c r="D44" s="853"/>
-      <c r="E44" s="854"/>
+      <c r="B44" s="854"/>
+      <c r="C44" s="855"/>
+      <c r="D44" s="855"/>
+      <c r="E44" s="856"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74395,10 +74466,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="855"/>
-      <c r="C45" s="856"/>
-      <c r="D45" s="856"/>
-      <c r="E45" s="857"/>
+      <c r="B45" s="857"/>
+      <c r="C45" s="858"/>
+      <c r="D45" s="858"/>
+      <c r="E45" s="859"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74441,10 +74512,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="864" t="s">
+      <c r="B47" s="866" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="865"/>
+      <c r="C47" s="867"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -74466,8 +74537,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="866"/>
-      <c r="C48" s="867"/>
+      <c r="B48" s="868"/>
+      <c r="C48" s="869"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -74475,11 +74546,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="858" t="s">
+      <c r="J48" s="860" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="859"/>
-      <c r="L48" s="860"/>
+      <c r="K48" s="861"/>
+      <c r="L48" s="862"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -74497,9 +74568,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="861"/>
-      <c r="K49" s="862"/>
-      <c r="L49" s="863"/>
+      <c r="J49" s="863"/>
+      <c r="K49" s="864"/>
+      <c r="L49" s="865"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -74516,10 +74587,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="868" t="s">
+      <c r="I50" s="870" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="869"/>
+      <c r="J50" s="871"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -74540,8 +74611,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="868"/>
-      <c r="J51" s="869"/>
+      <c r="I51" s="870"/>
+      <c r="J51" s="871"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -74560,8 +74631,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="868"/>
-      <c r="J52" s="869"/>
+      <c r="I52" s="870"/>
+      <c r="J52" s="871"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -74580,8 +74651,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="868"/>
-      <c r="J53" s="869"/>
+      <c r="I53" s="870"/>
+      <c r="J53" s="871"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -74600,8 +74671,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="868"/>
-      <c r="J54" s="869"/>
+      <c r="I54" s="870"/>
+      <c r="J54" s="871"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -74620,8 +74691,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="868"/>
-      <c r="J55" s="869"/>
+      <c r="I55" s="870"/>
+      <c r="J55" s="871"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -74640,8 +74711,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="868"/>
-      <c r="J56" s="869"/>
+      <c r="I56" s="870"/>
+      <c r="J56" s="871"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -74660,8 +74731,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="868"/>
-      <c r="J57" s="869"/>
+      <c r="I57" s="870"/>
+      <c r="J57" s="871"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -74680,8 +74751,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="868"/>
-      <c r="J58" s="869"/>
+      <c r="I58" s="870"/>
+      <c r="J58" s="871"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -74700,8 +74771,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="868"/>
-      <c r="J59" s="869"/>
+      <c r="I59" s="870"/>
+      <c r="J59" s="871"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -74720,8 +74791,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="868"/>
-      <c r="J60" s="869"/>
+      <c r="I60" s="870"/>
+      <c r="J60" s="871"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -74740,8 +74811,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="868"/>
-      <c r="J61" s="869"/>
+      <c r="I61" s="870"/>
+      <c r="J61" s="871"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -74760,8 +74831,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="868"/>
-      <c r="J62" s="869"/>
+      <c r="I62" s="870"/>
+      <c r="J62" s="871"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -74780,8 +74851,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="868"/>
-      <c r="J63" s="869"/>
+      <c r="I63" s="870"/>
+      <c r="J63" s="871"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -74800,8 +74871,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="868"/>
-      <c r="J64" s="869"/>
+      <c r="I64" s="870"/>
+      <c r="J64" s="871"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -74820,8 +74891,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="868"/>
-      <c r="J65" s="869"/>
+      <c r="I65" s="870"/>
+      <c r="J65" s="871"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -74840,8 +74911,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="868"/>
-      <c r="J66" s="869"/>
+      <c r="I66" s="870"/>
+      <c r="J66" s="871"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -74860,8 +74931,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="868"/>
-      <c r="J67" s="869"/>
+      <c r="I67" s="870"/>
+      <c r="J67" s="871"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -74880,8 +74951,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="868"/>
-      <c r="J68" s="869"/>
+      <c r="I68" s="870"/>
+      <c r="J68" s="871"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -74900,8 +74971,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="868"/>
-      <c r="J69" s="869"/>
+      <c r="I69" s="870"/>
+      <c r="J69" s="871"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -74920,8 +74991,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="868"/>
-      <c r="J70" s="869"/>
+      <c r="I70" s="870"/>
+      <c r="J70" s="871"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -74940,8 +75011,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="868"/>
-      <c r="J71" s="869"/>
+      <c r="I71" s="870"/>
+      <c r="J71" s="871"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -74960,8 +75031,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="868"/>
-      <c r="J72" s="869"/>
+      <c r="I72" s="870"/>
+      <c r="J72" s="871"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -74980,8 +75051,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="868"/>
-      <c r="J73" s="869"/>
+      <c r="I73" s="870"/>
+      <c r="J73" s="871"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -75000,8 +75071,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="868"/>
-      <c r="J74" s="869"/>
+      <c r="I74" s="870"/>
+      <c r="J74" s="871"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -75020,8 +75091,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="868"/>
-      <c r="J75" s="869"/>
+      <c r="I75" s="870"/>
+      <c r="J75" s="871"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -75040,8 +75111,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="868"/>
-      <c r="J76" s="869"/>
+      <c r="I76" s="870"/>
+      <c r="J76" s="871"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -75060,8 +75131,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="868"/>
-      <c r="J77" s="869"/>
+      <c r="I77" s="870"/>
+      <c r="J77" s="871"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -75082,8 +75153,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="870"/>
-      <c r="J78" s="871"/>
+      <c r="I78" s="872"/>
+      <c r="J78" s="873"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -75128,7 +75199,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="843" t="s">
+      <c r="F80" s="845" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -75140,7 +75211,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="844"/>
+      <c r="F81" s="846"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -75428,23 +75499,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="805"/>
-      <c r="C1" s="847" t="s">
+      <c r="B1" s="807"/>
+      <c r="C1" s="849" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="848"/>
-      <c r="E1" s="848"/>
-      <c r="F1" s="848"/>
-      <c r="G1" s="848"/>
-      <c r="H1" s="848"/>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="848"/>
+      <c r="D1" s="850"/>
+      <c r="E1" s="850"/>
+      <c r="F1" s="850"/>
+      <c r="G1" s="850"/>
+      <c r="H1" s="850"/>
+      <c r="I1" s="850"/>
+      <c r="J1" s="850"/>
+      <c r="K1" s="850"/>
+      <c r="L1" s="850"/>
+      <c r="M1" s="850"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="806"/>
+      <c r="B2" s="808"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -75454,24 +75525,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="810"/>
+      <c r="B3" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="812"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="811" t="s">
+      <c r="H3" s="813" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="811"/>
+      <c r="I3" s="813"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="835" t="s">
+      <c r="P3" s="837" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="845" t="s">
+      <c r="R3" s="847" t="s">
         <v>216</v>
       </c>
     </row>
@@ -75486,14 +75557,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="812" t="s">
+      <c r="E4" s="814" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="813"/>
-      <c r="H4" s="814" t="s">
+      <c r="F4" s="815"/>
+      <c r="H4" s="816" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="815"/>
+      <c r="I4" s="817"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -75503,15 +75574,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="836"/>
+      <c r="P4" s="838"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="846"/>
-      <c r="W4" s="818" t="s">
+      <c r="R4" s="848"/>
+      <c r="W4" s="820" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="818"/>
+      <c r="X4" s="820"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -75562,8 +75633,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="818"/>
-      <c r="X5" s="818"/>
+      <c r="W5" s="820"/>
+      <c r="X5" s="820"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76324,7 +76395,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="822">
+      <c r="W19" s="824">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -76376,7 +76447,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="823"/>
+      <c r="W20" s="825"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -76425,8 +76496,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="824"/>
-      <c r="X21" s="824"/>
+      <c r="W21" s="826"/>
+      <c r="X21" s="826"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -76525,8 +76596,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="825"/>
-      <c r="X23" s="825"/>
+      <c r="W23" s="827"/>
+      <c r="X23" s="827"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -76581,8 +76652,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="825"/>
-      <c r="X24" s="825"/>
+      <c r="W24" s="827"/>
+      <c r="X24" s="827"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -76630,8 +76701,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="826"/>
-      <c r="X25" s="826"/>
+      <c r="W25" s="828"/>
+      <c r="X25" s="828"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -76679,8 +76750,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="826"/>
-      <c r="X26" s="826"/>
+      <c r="W26" s="828"/>
+      <c r="X26" s="828"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -76728,9 +76799,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="819"/>
-      <c r="X27" s="820"/>
-      <c r="Y27" s="821"/>
+      <c r="W27" s="821"/>
+      <c r="X27" s="822"/>
+      <c r="Y27" s="823"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76778,9 +76849,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="820"/>
-      <c r="X28" s="820"/>
-      <c r="Y28" s="821"/>
+      <c r="W28" s="822"/>
+      <c r="X28" s="822"/>
+      <c r="Y28" s="823"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77121,11 +77192,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="837">
+      <c r="M36" s="839">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="839">
+      <c r="N36" s="841">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -77133,7 +77204,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="872">
+      <c r="Q36" s="874">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -77158,13 +77229,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="838"/>
-      <c r="N37" s="840"/>
+      <c r="M37" s="840"/>
+      <c r="N37" s="842"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="873"/>
+      <c r="Q37" s="875"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -77214,11 +77285,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="874">
+      <c r="M39" s="876">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="875"/>
+      <c r="N39" s="877"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -77466,26 +77537,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="792" t="s">
+      <c r="H52" s="794" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="793"/>
+      <c r="I52" s="795"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="794">
+      <c r="K52" s="796">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="827"/>
+      <c r="L52" s="829"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="798" t="s">
+      <c r="D53" s="800" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="798"/>
+      <c r="E53" s="800"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -77494,22 +77565,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="828" t="s">
+      <c r="D54" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="828"/>
+      <c r="E54" s="830"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="799" t="s">
+      <c r="I54" s="801" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="800"/>
-      <c r="K54" s="801">
+      <c r="J54" s="802"/>
+      <c r="K54" s="803">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="801"/>
+      <c r="L54" s="803"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -77550,11 +77621,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="803">
+      <c r="K56" s="805">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="804"/>
+      <c r="L56" s="806"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -77571,22 +77642,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="781" t="s">
+      <c r="D58" s="783" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="782"/>
+      <c r="E58" s="784"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="783" t="s">
+      <c r="I58" s="785" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="784"/>
-      <c r="K58" s="785">
+      <c r="J58" s="786"/>
+      <c r="K58" s="787">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="785"/>
+      <c r="L58" s="787"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1273">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4737,10 +4737,25 @@
     <t>QUESOS-JAMON-CREMA-COSTCO</t>
   </si>
   <si>
-    <t>17--9</t>
-  </si>
-  <si>
     <t>NOMINA # 38</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-QUESOS-MIXIOTE-POLLO-PASTOR-LONGANIZAS</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-JAMON-SALCHICHA-TOSTADAS</t>
+  </si>
+  <si>
+    <t>POLLO-SALSAS-QUESO-ENCHILADA-SALCHICHA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-FLETE BOTANAS-YGURT-NATA</t>
+  </si>
+  <si>
+    <t>USO DE SUELO</t>
+  </si>
+  <si>
+    <t>POLLO-PASTOR--ARABE</t>
   </si>
 </sst>
 </file>
@@ -6878,7 +6893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="938">
+  <cellXfs count="937">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8443,7 +8458,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8516,76 +8563,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8629,6 +8610,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8867,6 +8881,15 @@
     <xf numFmtId="0" fontId="75" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8881,15 +8904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14649,23 +14663,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="784" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="785"/>
+      <c r="E1" s="785"/>
+      <c r="F1" s="785"/>
+      <c r="G1" s="785"/>
+      <c r="H1" s="785"/>
+      <c r="I1" s="785"/>
+      <c r="J1" s="785"/>
+      <c r="K1" s="785"/>
+      <c r="L1" s="785"/>
+      <c r="M1" s="785"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14675,17 +14689,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14699,14 +14713,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14716,10 +14730,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="788" t="s">
+      <c r="P4" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="789"/>
+      <c r="Q4" s="799"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16160,11 +16174,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="790">
+      <c r="M39" s="800">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="792">
+      <c r="N39" s="802">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16190,8 +16204,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="791"/>
-      <c r="N40" s="793"/>
+      <c r="M40" s="801"/>
+      <c r="N40" s="803"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16406,29 +16420,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="794" t="s">
+      <c r="H52" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="795"/>
+      <c r="I52" s="805"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="796">
+      <c r="K52" s="806">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="797"/>
-      <c r="M52" s="798">
+      <c r="L52" s="807"/>
+      <c r="M52" s="808">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="799"/>
+      <c r="N52" s="809"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="800" t="s">
+      <c r="D53" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="800"/>
+      <c r="E53" s="810"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16439,22 +16453,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="800" t="s">
+      <c r="D54" s="810" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="800"/>
+      <c r="E54" s="810"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="801" t="s">
+      <c r="I54" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="802"/>
-      <c r="K54" s="803">
+      <c r="J54" s="812"/>
+      <c r="K54" s="813">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="804"/>
+      <c r="L54" s="814"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16487,11 +16501,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="805">
+      <c r="K56" s="815">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="806"/>
+      <c r="L56" s="816"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16508,22 +16522,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="783" t="s">
+      <c r="D58" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="784"/>
+      <c r="E58" s="794"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="785" t="s">
+      <c r="I58" s="795" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="786"/>
-      <c r="K58" s="787">
+      <c r="J58" s="796"/>
+      <c r="K58" s="797">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="787"/>
+      <c r="L58" s="797"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16667,12 +16681,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16687,6 +16695,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19147,10 +19161,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="879" t="s">
+      <c r="I76" s="878" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="880"/>
+      <c r="J76" s="879"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19169,8 +19183,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="881"/>
-      <c r="J77" s="882"/>
+      <c r="I77" s="880"/>
+      <c r="J77" s="881"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19237,7 +19251,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="845" t="s">
+      <c r="F80" s="844" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19252,7 +19266,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="846"/>
+      <c r="F81" s="845"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19260,10 +19274,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="878" t="s">
+      <c r="B82" s="877" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="878"/>
+      <c r="C82" s="877"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19545,23 +19559,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19571,24 +19585,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19603,14 +19617,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19620,15 +19634,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
-      <c r="W4" s="820" t="s">
+      <c r="R4" s="847"/>
+      <c r="W4" s="835" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="820"/>
+      <c r="X4" s="835"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19679,8 +19693,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="820"/>
-      <c r="X5" s="820"/>
+      <c r="W5" s="835"/>
+      <c r="X5" s="835"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20443,7 +20457,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="824">
+      <c r="W19" s="839">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20495,7 +20509,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="825"/>
+      <c r="W20" s="840"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20544,8 +20558,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="826"/>
-      <c r="X21" s="826"/>
+      <c r="W21" s="841"/>
+      <c r="X21" s="841"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20645,8 +20659,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="827"/>
-      <c r="X23" s="827"/>
+      <c r="W23" s="842"/>
+      <c r="X23" s="842"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20701,8 +20715,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="827"/>
-      <c r="X24" s="827"/>
+      <c r="W24" s="842"/>
+      <c r="X24" s="842"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20750,8 +20764,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="828"/>
-      <c r="X25" s="828"/>
+      <c r="W25" s="843"/>
+      <c r="X25" s="843"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20800,8 +20814,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="828"/>
-      <c r="X26" s="828"/>
+      <c r="W26" s="843"/>
+      <c r="X26" s="843"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20849,9 +20863,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="821"/>
-      <c r="X27" s="822"/>
-      <c r="Y27" s="823"/>
+      <c r="W27" s="836"/>
+      <c r="X27" s="837"/>
+      <c r="Y27" s="838"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20899,9 +20913,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="822"/>
-      <c r="X28" s="822"/>
-      <c r="Y28" s="823"/>
+      <c r="W28" s="837"/>
+      <c r="X28" s="837"/>
+      <c r="Y28" s="838"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21233,11 +21247,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="839">
+      <c r="M36" s="827">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="841">
+      <c r="N36" s="829">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21245,7 +21259,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="874">
+      <c r="Q36" s="873">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21270,13 +21284,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="840"/>
-      <c r="N37" s="842"/>
+      <c r="M37" s="828"/>
+      <c r="N37" s="830"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="875"/>
+      <c r="Q37" s="874"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21326,11 +21340,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="876">
+      <c r="M39" s="875">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="877"/>
+      <c r="N39" s="876"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21958,26 +21972,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="794" t="s">
+      <c r="H68" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="795"/>
+      <c r="I68" s="805"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="796">
+      <c r="K68" s="806">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="829"/>
+      <c r="L68" s="833"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="800" t="s">
+      <c r="D69" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="800"/>
+      <c r="E69" s="810"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21986,22 +22000,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="830" t="s">
+      <c r="D70" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="830"/>
+      <c r="E70" s="834"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="801" t="s">
+      <c r="I70" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="802"/>
-      <c r="K70" s="803">
+      <c r="J70" s="812"/>
+      <c r="K70" s="813">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="803"/>
+      <c r="L70" s="813"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -22042,11 +22056,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="805">
+      <c r="K72" s="815">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="806"/>
+      <c r="L72" s="816"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -22063,22 +22077,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="783" t="s">
+      <c r="D74" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="784"/>
+      <c r="E74" s="794"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="785" t="s">
+      <c r="I74" s="795" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="786"/>
-      <c r="K74" s="787">
+      <c r="J74" s="796"/>
+      <c r="K74" s="797">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="787"/>
+      <c r="L74" s="797"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22225,21 +22239,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22255,6 +22254,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23816,10 +23830,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="887" t="s">
+      <c r="I44" s="886" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="888"/>
+      <c r="J44" s="887"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23838,8 +23852,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="889"/>
-      <c r="J45" s="890"/>
+      <c r="I45" s="888"/>
+      <c r="J45" s="889"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23858,8 +23872,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="891"/>
-      <c r="J46" s="892"/>
+      <c r="I46" s="890"/>
+      <c r="J46" s="891"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24548,7 +24562,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="845" t="s">
+      <c r="F80" s="844" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24561,7 +24575,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="846"/>
+      <c r="F81" s="845"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24581,10 +24595,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="883" t="s">
+      <c r="I83" s="882" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="884"/>
+      <c r="J83" s="883"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24593,8 +24607,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="885"/>
-      <c r="J84" s="886"/>
+      <c r="I84" s="884"/>
+      <c r="J84" s="885"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24867,23 +24881,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24893,24 +24907,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24925,14 +24939,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24942,15 +24956,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
-      <c r="W4" s="820" t="s">
+      <c r="R4" s="847"/>
+      <c r="W4" s="835" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="820"/>
+      <c r="X4" s="835"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25001,8 +25015,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="820"/>
-      <c r="X5" s="820"/>
+      <c r="W5" s="835"/>
+      <c r="X5" s="835"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25761,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="824">
+      <c r="W19" s="839">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25813,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="825"/>
+      <c r="W20" s="840"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25862,8 +25876,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="826"/>
-      <c r="X21" s="826"/>
+      <c r="W21" s="841"/>
+      <c r="X21" s="841"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25960,8 +25974,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="827"/>
-      <c r="X23" s="827"/>
+      <c r="W23" s="842"/>
+      <c r="X23" s="842"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26016,8 +26030,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="827"/>
-      <c r="X24" s="827"/>
+      <c r="W24" s="842"/>
+      <c r="X24" s="842"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26063,8 +26077,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="828"/>
-      <c r="X25" s="828"/>
+      <c r="W25" s="843"/>
+      <c r="X25" s="843"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26115,8 +26129,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="828"/>
-      <c r="X26" s="828"/>
+      <c r="W26" s="843"/>
+      <c r="X26" s="843"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26167,9 +26181,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="821"/>
-      <c r="X27" s="822"/>
-      <c r="Y27" s="823"/>
+      <c r="W27" s="836"/>
+      <c r="X27" s="837"/>
+      <c r="Y27" s="838"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26219,9 +26233,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="822"/>
-      <c r="X28" s="822"/>
-      <c r="Y28" s="823"/>
+      <c r="W28" s="837"/>
+      <c r="X28" s="837"/>
+      <c r="Y28" s="838"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26825,11 +26839,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="839">
+      <c r="M41" s="827">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="839">
+      <c r="N41" s="827">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26837,7 +26851,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="893">
+      <c r="Q41" s="892">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26867,10 +26881,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="840"/>
-      <c r="N42" s="840"/>
+      <c r="M42" s="828"/>
+      <c r="N42" s="828"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="894"/>
+      <c r="Q42" s="893"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26958,11 +26972,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="895">
+      <c r="M45" s="894">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="896"/>
+      <c r="N45" s="895"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27555,26 +27569,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="794" t="s">
+      <c r="H70" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="795"/>
+      <c r="I70" s="805"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="796">
+      <c r="K70" s="806">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="829"/>
+      <c r="L70" s="833"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="800" t="s">
+      <c r="D71" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="800"/>
+      <c r="E71" s="810"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27584,22 +27598,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="830" t="s">
+      <c r="D72" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="830"/>
+      <c r="E72" s="834"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="801" t="s">
+      <c r="I72" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="802"/>
-      <c r="K72" s="803">
+      <c r="J72" s="812"/>
+      <c r="K72" s="813">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="803"/>
+      <c r="L72" s="813"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27640,11 +27654,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="805">
+      <c r="K74" s="815">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="806"/>
+      <c r="L74" s="816"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27663,22 +27677,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="783" t="s">
+      <c r="D76" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="784"/>
+      <c r="E76" s="794"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="785" t="s">
+      <c r="I76" s="795" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="786"/>
-      <c r="K76" s="787">
+      <c r="J76" s="796"/>
+      <c r="K76" s="797">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="787"/>
+      <c r="L76" s="797"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27838,21 +27852,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27868,6 +27867,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29838,10 +29852,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="887" t="s">
+      <c r="I54" s="886" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="888"/>
+      <c r="J54" s="887"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29857,8 +29871,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="889"/>
-      <c r="J55" s="890"/>
+      <c r="I55" s="888"/>
+      <c r="J55" s="889"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29874,8 +29888,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="891"/>
-      <c r="J56" s="892"/>
+      <c r="I56" s="890"/>
+      <c r="J56" s="891"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30543,7 +30557,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="845" t="s">
+      <c r="F90" s="844" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30556,7 +30570,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="846"/>
+      <c r="F91" s="845"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30575,10 +30589,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="883" t="s">
+      <c r="I93" s="882" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="884"/>
+      <c r="J93" s="883"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30588,8 +30602,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="885"/>
-      <c r="J94" s="886"/>
+      <c r="I94" s="884"/>
+      <c r="J94" s="885"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -31030,11 +31044,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="897">
+      <c r="C130" s="896">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="898"/>
+      <c r="D130" s="897"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -31071,24 +31085,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="912" t="s">
+      <c r="B2" s="911" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="913"/>
-      <c r="D2" s="914"/>
-      <c r="F2" s="900" t="s">
+      <c r="C2" s="912"/>
+      <c r="D2" s="913"/>
+      <c r="F2" s="899" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="901"/>
-      <c r="H2" s="902"/>
+      <c r="G2" s="900"/>
+      <c r="H2" s="901"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="915"/>
-      <c r="C3" s="916"/>
-      <c r="D3" s="917"/>
-      <c r="F3" s="903"/>
-      <c r="G3" s="904"/>
-      <c r="H3" s="905"/>
+      <c r="B3" s="914"/>
+      <c r="C3" s="915"/>
+      <c r="D3" s="916"/>
+      <c r="F3" s="902"/>
+      <c r="G3" s="903"/>
+      <c r="H3" s="904"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31233,11 +31247,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="906">
+      <c r="G11" s="905">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="907"/>
+      <c r="H11" s="906"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31254,33 +31268,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="910" t="s">
+      <c r="C15" s="909" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="908">
+      <c r="D15" s="907">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="918" t="s">
+      <c r="E15" s="917" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="919"/>
-      <c r="G15" s="919"/>
-      <c r="H15" s="920"/>
+      <c r="F15" s="918"/>
+      <c r="G15" s="918"/>
+      <c r="H15" s="919"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="911"/>
-      <c r="D16" s="909"/>
-      <c r="E16" s="921"/>
-      <c r="F16" s="922"/>
-      <c r="G16" s="922"/>
-      <c r="H16" s="923"/>
+      <c r="C16" s="910"/>
+      <c r="D16" s="908"/>
+      <c r="E16" s="920"/>
+      <c r="F16" s="921"/>
+      <c r="G16" s="921"/>
+      <c r="H16" s="922"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="899" t="s">
+      <c r="C17" s="898" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="899"/>
+      <c r="D17" s="898"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31339,23 +31353,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31365,24 +31379,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31401,14 +31415,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31418,15 +31432,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
+      <c r="R4" s="847"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="930"/>
-      <c r="X4" s="930"/>
+      <c r="W4" s="923"/>
+      <c r="X4" s="923"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31480,8 +31494,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="930"/>
-      <c r="X5" s="930"/>
+      <c r="W5" s="923"/>
+      <c r="X5" s="923"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32247,7 +32261,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="931"/>
+      <c r="W19" s="924"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32301,7 +32315,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="931"/>
+      <c r="W20" s="924"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32356,8 +32370,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="826"/>
-      <c r="X21" s="826"/>
+      <c r="W21" s="841"/>
+      <c r="X21" s="841"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32468,8 +32482,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="827"/>
-      <c r="X23" s="827"/>
+      <c r="W23" s="842"/>
+      <c r="X23" s="842"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32530,8 +32544,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="827"/>
-      <c r="X24" s="827"/>
+      <c r="W24" s="842"/>
+      <c r="X24" s="842"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32584,8 +32598,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="828"/>
-      <c r="X25" s="828"/>
+      <c r="W25" s="843"/>
+      <c r="X25" s="843"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32640,8 +32654,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="828"/>
-      <c r="X26" s="828"/>
+      <c r="W26" s="843"/>
+      <c r="X26" s="843"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32696,9 +32710,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="821"/>
-      <c r="X27" s="822"/>
-      <c r="Y27" s="823"/>
+      <c r="W27" s="836"/>
+      <c r="X27" s="837"/>
+      <c r="Y27" s="838"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32752,9 +32766,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="822"/>
-      <c r="X28" s="822"/>
-      <c r="Y28" s="823"/>
+      <c r="W28" s="837"/>
+      <c r="X28" s="837"/>
+      <c r="Y28" s="838"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33338,11 +33352,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="839">
+      <c r="M41" s="827">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="839">
+      <c r="N41" s="827">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33350,7 +33364,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="893">
+      <c r="Q41" s="892">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33374,10 +33388,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="840"/>
-      <c r="N42" s="840"/>
+      <c r="M42" s="828"/>
+      <c r="N42" s="828"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="894"/>
+      <c r="Q42" s="893"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33446,11 +33460,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="895">
+      <c r="M45" s="894">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="896"/>
+      <c r="N45" s="895"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33866,26 +33880,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="794" t="s">
+      <c r="H63" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="795"/>
+      <c r="I63" s="805"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="927">
+      <c r="K63" s="929">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="928"/>
+      <c r="L63" s="930"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="800" t="s">
+      <c r="D64" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="800"/>
+      <c r="E64" s="810"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33894,22 +33908,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="830" t="s">
+      <c r="D65" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="830"/>
+      <c r="E65" s="834"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="801" t="s">
+      <c r="I65" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="802"/>
-      <c r="K65" s="803">
+      <c r="J65" s="812"/>
+      <c r="K65" s="813">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="803"/>
+      <c r="L65" s="813"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33950,11 +33964,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="929">
+      <c r="K67" s="925">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="803"/>
+      <c r="L67" s="813"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33971,22 +33985,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="783" t="s">
+      <c r="D69" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="784"/>
+      <c r="E69" s="794"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="924" t="s">
+      <c r="I69" s="926" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="925"/>
-      <c r="K69" s="926">
+      <c r="J69" s="927"/>
+      <c r="K69" s="928">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="926"/>
+      <c r="L69" s="928"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34133,6 +34147,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -34148,21 +34177,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35659,10 +35673,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="887" t="s">
+      <c r="I38" s="886" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="888"/>
+      <c r="J38" s="887"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -35681,8 +35695,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="889"/>
-      <c r="J39" s="890"/>
+      <c r="I39" s="888"/>
+      <c r="J39" s="889"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -35701,8 +35715,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="891"/>
-      <c r="J40" s="892"/>
+      <c r="I40" s="890"/>
+      <c r="J40" s="891"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36325,7 +36339,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="845" t="s">
+      <c r="F71" s="844" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36338,7 +36352,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="846"/>
+      <c r="F72" s="845"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36357,10 +36371,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="883" t="s">
+      <c r="I74" s="882" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="884"/>
+      <c r="J74" s="883"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36369,8 +36383,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="885"/>
-      <c r="J75" s="886"/>
+      <c r="I75" s="884"/>
+      <c r="J75" s="885"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36504,11 +36518,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="934" t="s">
+      <c r="A89" s="933" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="935"/>
-      <c r="C89" s="935"/>
+      <c r="B89" s="934"/>
+      <c r="C89" s="934"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36518,10 +36532,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="936" t="s">
+      <c r="B90" s="935" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="937"/>
+      <c r="C90" s="936"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -36622,7 +36636,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="932">
+      <c r="C97" s="931">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36636,7 +36650,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="933"/>
+      <c r="C98" s="932"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36737,23 +36751,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36763,24 +36777,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36795,14 +36809,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36812,11 +36826,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
+      <c r="R4" s="847"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38584,11 +38598,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="839">
+      <c r="M41" s="827">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="839">
+      <c r="N41" s="827">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38596,7 +38610,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="893">
+      <c r="Q41" s="892">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -38626,10 +38640,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="840"/>
-      <c r="N42" s="840"/>
+      <c r="M42" s="828"/>
+      <c r="N42" s="828"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="894"/>
+      <c r="Q42" s="893"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -38716,11 +38730,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="895">
+      <c r="M45" s="894">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="896"/>
+      <c r="N45" s="895"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39306,26 +39320,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="794" t="s">
+      <c r="H69" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="795"/>
+      <c r="I69" s="805"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="927">
+      <c r="K69" s="929">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="928"/>
+      <c r="L69" s="930"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="800" t="s">
+      <c r="D70" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="800"/>
+      <c r="E70" s="810"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39334,22 +39348,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="830" t="s">
+      <c r="D71" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="830"/>
+      <c r="E71" s="834"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="801" t="s">
+      <c r="I71" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="802"/>
-      <c r="K71" s="803">
+      <c r="J71" s="812"/>
+      <c r="K71" s="813">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="803"/>
+      <c r="L71" s="813"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39390,11 +39404,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="929">
+      <c r="K73" s="925">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="803"/>
+      <c r="L73" s="813"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39411,22 +39425,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="783" t="s">
+      <c r="D75" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="784"/>
+      <c r="E75" s="794"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="785" t="s">
+      <c r="I75" s="795" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="786"/>
-      <c r="K75" s="787">
+      <c r="J75" s="796"/>
+      <c r="K75" s="797">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="787"/>
+      <c r="L75" s="797"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -39573,17 +39587,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -39595,6 +39598,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41275,10 +41289,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="887" t="s">
+      <c r="H43" s="886" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="888"/>
+      <c r="I43" s="887"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41297,8 +41311,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="889"/>
-      <c r="I44" s="890"/>
+      <c r="H44" s="888"/>
+      <c r="I44" s="889"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41317,8 +41331,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="891"/>
-      <c r="I45" s="892"/>
+      <c r="H45" s="890"/>
+      <c r="I45" s="891"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -41762,10 +41776,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="883" t="s">
+      <c r="H67" s="882" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="884"/>
+      <c r="I67" s="883"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -41785,11 +41799,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="845" t="s">
+      <c r="F68" s="844" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="885"/>
-      <c r="I68" s="886"/>
+      <c r="H68" s="884"/>
+      <c r="I68" s="885"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41800,7 +41814,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="846"/>
+      <c r="F69" s="845"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43615,7 +43629,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="818" t="s">
+      <c r="B41" s="817" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -43647,7 +43661,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="819"/>
+      <c r="B42" s="818"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45241,23 +45255,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45267,24 +45281,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45299,14 +45313,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45316,11 +45330,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
+      <c r="R4" s="847"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -47054,11 +47068,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="839">
+      <c r="M41" s="827">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="839">
+      <c r="N41" s="827">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -47066,7 +47080,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="893">
+      <c r="Q41" s="892">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47096,10 +47110,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="840"/>
-      <c r="N42" s="840"/>
+      <c r="M42" s="828"/>
+      <c r="N42" s="828"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="894"/>
+      <c r="Q42" s="893"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47180,11 +47194,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="895">
+      <c r="M45" s="894">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="896"/>
+      <c r="N45" s="895"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -47701,26 +47715,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="794" t="s">
+      <c r="H69" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="795"/>
+      <c r="I69" s="805"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="927">
+      <c r="K69" s="929">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="928"/>
+      <c r="L69" s="930"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="800" t="s">
+      <c r="D70" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="800"/>
+      <c r="E70" s="810"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -47729,22 +47743,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="830" t="s">
+      <c r="D71" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="830"/>
+      <c r="E71" s="834"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="801" t="s">
+      <c r="I71" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="802"/>
-      <c r="K71" s="803">
+      <c r="J71" s="812"/>
+      <c r="K71" s="813">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="803"/>
+      <c r="L71" s="813"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47785,11 +47799,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="929">
+      <c r="K73" s="925">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="803"/>
+      <c r="L73" s="813"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47806,22 +47820,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="783" t="s">
+      <c r="D75" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="784"/>
+      <c r="E75" s="794"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="924" t="s">
+      <c r="I75" s="926" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="925"/>
-      <c r="K75" s="926">
+      <c r="J75" s="927"/>
+      <c r="K75" s="928">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="926"/>
+      <c r="L75" s="928"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47968,6 +47982,12 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47984,12 +48004,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49371,10 +49385,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="887" t="s">
+      <c r="H40" s="886" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="888"/>
+      <c r="I40" s="887"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49393,8 +49407,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="889"/>
-      <c r="I41" s="890"/>
+      <c r="H41" s="888"/>
+      <c r="I41" s="889"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49413,8 +49427,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="891"/>
-      <c r="I42" s="892"/>
+      <c r="H42" s="890"/>
+      <c r="I42" s="891"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49918,10 +49932,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="883" t="s">
+      <c r="H67" s="882" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="884"/>
+      <c r="I67" s="883"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49941,11 +49955,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="845" t="s">
+      <c r="F68" s="844" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="885"/>
-      <c r="I68" s="886"/>
+      <c r="H68" s="884"/>
+      <c r="I68" s="885"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49956,7 +49970,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="846"/>
+      <c r="F69" s="845"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50578,23 +50592,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50604,24 +50618,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50636,14 +50650,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50653,11 +50667,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
+      <c r="R4" s="847"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52376,11 +52390,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="839">
+      <c r="M41" s="827">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="839">
+      <c r="N41" s="827">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52388,7 +52402,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="893">
+      <c r="Q41" s="892">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52416,10 +52430,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="840"/>
-      <c r="N42" s="840"/>
+      <c r="M42" s="828"/>
+      <c r="N42" s="828"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="894"/>
+      <c r="Q42" s="893"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52492,11 +52506,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="895">
+      <c r="M45" s="894">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="896"/>
+      <c r="N45" s="895"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -52989,26 +53003,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="794" t="s">
+      <c r="H69" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="795"/>
+      <c r="I69" s="805"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="927">
+      <c r="K69" s="929">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="928"/>
+      <c r="L69" s="930"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="800" t="s">
+      <c r="D70" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="800"/>
+      <c r="E70" s="810"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -53017,22 +53031,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="830" t="s">
+      <c r="D71" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="830"/>
+      <c r="E71" s="834"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="801" t="s">
+      <c r="I71" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="802"/>
-      <c r="K71" s="803">
+      <c r="J71" s="812"/>
+      <c r="K71" s="813">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="803"/>
+      <c r="L71" s="813"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -53073,11 +53087,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="929">
+      <c r="K73" s="925">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="803"/>
+      <c r="L73" s="813"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53094,22 +53108,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="783" t="s">
+      <c r="D75" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="784"/>
+      <c r="E75" s="794"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="785" t="s">
+      <c r="I75" s="795" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="786"/>
-      <c r="K75" s="787">
+      <c r="J75" s="796"/>
+      <c r="K75" s="797">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="787"/>
+      <c r="L75" s="797"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53253,6 +53267,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53269,12 +53289,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54476,10 +54490,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="887" t="s">
+      <c r="H40" s="886" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="888"/>
+      <c r="I40" s="887"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54498,8 +54512,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="889"/>
-      <c r="I41" s="890"/>
+      <c r="H41" s="888"/>
+      <c r="I41" s="889"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -54518,8 +54532,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="891"/>
-      <c r="I42" s="892"/>
+      <c r="H42" s="890"/>
+      <c r="I42" s="891"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -55023,10 +55037,10 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="883" t="s">
+      <c r="H67" s="882" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="884"/>
+      <c r="I67" s="883"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -55046,11 +55060,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="845" t="s">
+      <c r="F68" s="844" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="885"/>
-      <c r="I68" s="886"/>
+      <c r="H68" s="884"/>
+      <c r="I68" s="885"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -55061,7 +55075,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="846"/>
+      <c r="F69" s="845"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -55652,10 +55666,10 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55683,23 +55697,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55709,24 +55723,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -55741,14 +55755,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -55758,11 +55772,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
+      <c r="R4" s="847"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -56737,6 +56751,9 @@
       <c r="N22" s="33">
         <v>80429</v>
       </c>
+      <c r="O22" s="577" t="s">
+        <v>937</v>
+      </c>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
         <v>190017</v>
@@ -56781,19 +56798,22 @@
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
-        <f>23109+721</f>
-        <v>23830</v>
+        <f>23109+721+14000</f>
+        <v>37830</v>
       </c>
       <c r="N23" s="33">
         <v>23191</v>
       </c>
+      <c r="O23" s="577" t="s">
+        <v>937</v>
+      </c>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
-        <v>58012</v>
-      </c>
-      <c r="Q23" s="782">
-        <f t="shared" si="0"/>
-        <v>-14000</v>
+        <v>72012</v>
+      </c>
+      <c r="Q23" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R23" s="319">
         <v>0</v>
@@ -56827,28 +56847,32 @@
       <c r="I24" s="30">
         <v>2004</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="51">
+        <v>44821</v>
+      </c>
+      <c r="K24" s="173" t="s">
         <v>1266</v>
-      </c>
-      <c r="K24" s="173" t="s">
-        <v>1267</v>
       </c>
       <c r="L24" s="52">
         <v>22708</v>
       </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>16617+1040</f>
+        <v>17657</v>
       </c>
       <c r="N24" s="33">
         <v>52661</v>
       </c>
+      <c r="O24" s="577" t="s">
+        <v>937</v>
+      </c>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
-        <v>94854</v>
-      </c>
-      <c r="Q24" s="782">
-        <f t="shared" si="0"/>
-        <v>-17657</v>
+        <v>112511</v>
+      </c>
+      <c r="Q24" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R24" s="319">
         <v>0</v>
@@ -56884,18 +56908,21 @@
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <v>60116</v>
       </c>
       <c r="N25" s="33">
         <v>29524</v>
       </c>
+      <c r="O25" s="577" t="s">
+        <v>937</v>
+      </c>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
-        <v>30503</v>
-      </c>
-      <c r="Q25" s="782">
-        <f t="shared" si="0"/>
-        <v>-60116</v>
+        <v>90619</v>
+      </c>
+      <c r="Q25" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R25" s="319">
         <v>0</v>
@@ -56910,29 +56937,40 @@
       <c r="B26" s="24">
         <v>44823</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>32880</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>1267</v>
+      </c>
       <c r="E26" s="27">
         <v>44823</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>120050</v>
+      </c>
       <c r="G26" s="572"/>
       <c r="H26" s="29">
         <v>44823</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30">
+        <v>1998</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="728"/>
       <c r="L26" s="729"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <v>53164</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>32008</v>
+      </c>
+      <c r="O26" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P26" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120050</v>
       </c>
       <c r="Q26" s="325">
         <f t="shared" si="0"/>
@@ -56951,29 +56989,40 @@
       <c r="B27" s="24">
         <v>44824</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>16862</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>1268</v>
+      </c>
       <c r="E27" s="27">
         <v>44824</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>97544</v>
+      </c>
       <c r="G27" s="572"/>
       <c r="H27" s="29">
         <v>44824</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>1814</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <v>41910</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>36958</v>
+      </c>
+      <c r="O27" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P27" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>97544</v>
       </c>
       <c r="Q27" s="325">
         <f t="shared" si="0"/>
@@ -56989,33 +57038,45 @@
       <c r="B28" s="24">
         <v>44825</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>16722</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>1269</v>
+      </c>
       <c r="E28" s="27">
         <v>44825</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>173231</v>
+      </c>
       <c r="G28" s="572"/>
       <c r="H28" s="29">
         <v>44825</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>4223</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>6597+430+7326+5692+21000+60450</f>
+        <v>101495</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>50792</v>
+      </c>
+      <c r="O28" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P28" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>173232</v>
       </c>
       <c r="Q28" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="319">
         <v>0</v>
@@ -57026,29 +57087,47 @@
       <c r="B29" s="24">
         <v>44826</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>11366</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>1270</v>
+      </c>
       <c r="E29" s="27">
         <v>44826</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>90346</v>
+      </c>
       <c r="G29" s="572"/>
       <c r="H29" s="29">
         <v>44826</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="54"/>
+      <c r="I29" s="30">
+        <v>1642</v>
+      </c>
+      <c r="J29" s="59">
+        <v>44826</v>
+      </c>
+      <c r="K29" s="175" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L29" s="54">
+        <v>5000</v>
+      </c>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>33783+10450</f>
+        <v>44233</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>28105</v>
+      </c>
+      <c r="O29" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P29" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90346</v>
       </c>
       <c r="Q29" s="325">
         <f t="shared" si="0"/>
@@ -57063,29 +57142,40 @@
       <c r="B30" s="24">
         <v>44827</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="25">
+        <v>1581</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>1272</v>
+      </c>
       <c r="E30" s="27">
         <v>44827</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>129338</v>
+      </c>
       <c r="G30" s="572"/>
       <c r="H30" s="29">
         <v>44827</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <v>3549</v>
+      </c>
       <c r="J30" s="56"/>
       <c r="K30" s="38"/>
       <c r="L30" s="39"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <v>79814</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>44394</v>
+      </c>
+      <c r="O30" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P30" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129338</v>
       </c>
       <c r="Q30" s="325">
         <f t="shared" si="0"/>
@@ -57111,7 +57201,9 @@
         <v>44828</v>
       </c>
       <c r="I31" s="30"/>
-      <c r="J31" s="56"/>
+      <c r="J31" s="56" t="s">
+        <v>7</v>
+      </c>
       <c r="K31" s="566"/>
       <c r="L31" s="54"/>
       <c r="M31" s="32">
@@ -57287,7 +57379,7 @@
         <v>44821</v>
       </c>
       <c r="K36" s="751" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L36" s="39">
         <v>22764</v>
@@ -57441,21 +57533,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="743"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="839">
+      <c r="M41" s="827">
         <f>SUM(M5:M40)</f>
-        <v>1131793.68</v>
-      </c>
-      <c r="N41" s="839">
+        <v>1544182.68</v>
+      </c>
+      <c r="N41" s="827">
         <f>SUM(N5:N40)</f>
-        <v>1053105</v>
+        <v>1245362</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>2680225.6799999997</v>
-      </c>
-      <c r="Q41" s="893">
+        <v>3382508.6799999997</v>
+      </c>
+      <c r="Q41" s="892">
         <f>SUM(Q5:Q40)</f>
-        <v>-81318</v>
+        <v>10456</v>
       </c>
       <c r="R41" s="227">
         <f>SUM(R28:R40)</f>
@@ -57475,10 +57567,10 @@
       <c r="J42" s="698"/>
       <c r="K42" s="701"/>
       <c r="L42" s="702"/>
-      <c r="M42" s="840"/>
-      <c r="N42" s="840"/>
+      <c r="M42" s="828"/>
+      <c r="N42" s="828"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="894"/>
+      <c r="Q42" s="893"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>29415</v>
@@ -57533,11 +57625,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="671"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="895">
+      <c r="M45" s="894">
         <f>M41+N41</f>
-        <v>2184898.6799999997</v>
-      </c>
-      <c r="N45" s="896"/>
+        <v>2789544.6799999997</v>
+      </c>
+      <c r="N45" s="895"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -57920,7 +58012,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>365819</v>
+        <v>445230</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -57928,7 +58020,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>2639709</v>
+        <v>3250218</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -57936,7 +58028,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>55232</v>
+        <v>68458</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -57944,7 +58036,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>135797</v>
+        <v>140797</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -57962,50 +58054,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="794" t="s">
+      <c r="H69" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="795"/>
+      <c r="I69" s="805"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="927">
+      <c r="K69" s="929">
         <f>I67+L67</f>
-        <v>191029</v>
-      </c>
-      <c r="L69" s="928"/>
+        <v>209255</v>
+      </c>
+      <c r="L69" s="930"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="800" t="s">
+      <c r="D70" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="800"/>
+      <c r="E70" s="810"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>2082861</v>
+        <v>2595733</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="830" t="s">
+      <c r="D71" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="830"/>
+      <c r="E71" s="834"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="801" t="s">
+      <c r="I71" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="802"/>
-      <c r="K71" s="803">
+      <c r="J71" s="812"/>
+      <c r="K71" s="813">
         <f>F73+F74+F75</f>
-        <v>2082861</v>
-      </c>
-      <c r="L71" s="803"/>
+        <v>2595733</v>
+      </c>
+      <c r="L71" s="813"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -58039,18 +58131,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>2082861</v>
+        <v>2595733</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="929">
+      <c r="K73" s="925">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="803"/>
+      <c r="L73" s="813"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -58065,22 +58157,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="783" t="s">
+      <c r="D75" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="784"/>
+      <c r="E75" s="794"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="785" t="s">
+      <c r="I75" s="795" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="786"/>
-      <c r="K75" s="787">
+      <c r="J75" s="796"/>
+      <c r="K75" s="797">
         <f>K71+K73</f>
-        <v>-589694.99000000022</v>
-      </c>
-      <c r="L75" s="787"/>
+        <v>-76822.990000000224</v>
+      </c>
+      <c r="L75" s="797"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -58224,6 +58316,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -58240,12 +58338,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59105,10 +59197,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="887" t="s">
+      <c r="H40" s="886" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="888"/>
+      <c r="I40" s="887"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -59127,8 +59219,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="889"/>
-      <c r="I41" s="890"/>
+      <c r="H41" s="888"/>
+      <c r="I41" s="889"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -59147,8 +59239,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="891"/>
-      <c r="I42" s="892"/>
+      <c r="H42" s="890"/>
+      <c r="I42" s="891"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -59652,10 +59744,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="883" t="s">
+      <c r="H67" s="882" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="884"/>
+      <c r="I67" s="883"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -59675,11 +59767,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="845" t="s">
+      <c r="F68" s="844" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="885"/>
-      <c r="I68" s="886"/>
+      <c r="H68" s="884"/>
+      <c r="I68" s="885"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -59690,7 +59782,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="846"/>
+      <c r="F69" s="845"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -60334,23 +60426,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="784" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="785"/>
+      <c r="E1" s="785"/>
+      <c r="F1" s="785"/>
+      <c r="G1" s="785"/>
+      <c r="H1" s="785"/>
+      <c r="I1" s="785"/>
+      <c r="J1" s="785"/>
+      <c r="K1" s="785"/>
+      <c r="L1" s="785"/>
+      <c r="M1" s="785"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -60360,21 +60452,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
     </row>
@@ -60389,14 +60481,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -60406,14 +60498,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="820" t="s">
+      <c r="W4" s="835" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="820"/>
+      <c r="X4" s="835"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60464,8 +60556,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="820"/>
-      <c r="X5" s="820"/>
+      <c r="W5" s="835"/>
+      <c r="X5" s="835"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61236,7 +61328,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="824">
+      <c r="W19" s="839">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -61288,7 +61380,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="825"/>
+      <c r="W20" s="840"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -61337,8 +61429,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="826"/>
-      <c r="X21" s="826"/>
+      <c r="W21" s="841"/>
+      <c r="X21" s="841"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -61439,8 +61531,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="827"/>
-      <c r="X23" s="827"/>
+      <c r="W23" s="842"/>
+      <c r="X23" s="842"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61494,8 +61586,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="827"/>
-      <c r="X24" s="827"/>
+      <c r="W24" s="842"/>
+      <c r="X24" s="842"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61541,8 +61633,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="828"/>
-      <c r="X25" s="828"/>
+      <c r="W25" s="843"/>
+      <c r="X25" s="843"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61593,8 +61685,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="828"/>
-      <c r="X26" s="828"/>
+      <c r="W26" s="843"/>
+      <c r="X26" s="843"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61642,9 +61734,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="821"/>
-      <c r="X27" s="822"/>
-      <c r="Y27" s="823"/>
+      <c r="W27" s="836"/>
+      <c r="X27" s="837"/>
+      <c r="Y27" s="838"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61694,9 +61786,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="822"/>
-      <c r="X28" s="822"/>
-      <c r="Y28" s="823"/>
+      <c r="W28" s="837"/>
+      <c r="X28" s="837"/>
+      <c r="Y28" s="838"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62031,11 +62123,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="839">
+      <c r="M36" s="827">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="841">
+      <c r="N36" s="829">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -62043,7 +62135,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="843">
+      <c r="Q36" s="831">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -62078,13 +62170,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="840"/>
-      <c r="N37" s="842"/>
+      <c r="M37" s="828"/>
+      <c r="N37" s="830"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="844"/>
+      <c r="Q37" s="832"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -62374,26 +62466,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="794" t="s">
+      <c r="H52" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="795"/>
+      <c r="I52" s="805"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="796">
+      <c r="K52" s="806">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="829"/>
+      <c r="L52" s="833"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="800" t="s">
+      <c r="D53" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="800"/>
+      <c r="E53" s="810"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -62402,29 +62494,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="830" t="s">
+      <c r="D54" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="830"/>
+      <c r="E54" s="834"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="801" t="s">
+      <c r="I54" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="802"/>
-      <c r="K54" s="803">
+      <c r="J54" s="812"/>
+      <c r="K54" s="813">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="803"/>
-      <c r="M54" s="831" t="s">
+      <c r="L54" s="813"/>
+      <c r="M54" s="819" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="832"/>
-      <c r="O54" s="832"/>
-      <c r="P54" s="832"/>
-      <c r="Q54" s="833"/>
+      <c r="N54" s="820"/>
+      <c r="O54" s="820"/>
+      <c r="P54" s="820"/>
+      <c r="Q54" s="821"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -62438,11 +62530,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="834"/>
-      <c r="N55" s="835"/>
-      <c r="O55" s="835"/>
-      <c r="P55" s="835"/>
-      <c r="Q55" s="836"/>
+      <c r="M55" s="822"/>
+      <c r="N55" s="823"/>
+      <c r="O55" s="823"/>
+      <c r="P55" s="823"/>
+      <c r="Q55" s="824"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -62460,11 +62552,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="805">
+      <c r="K56" s="815">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="806"/>
+      <c r="L56" s="816"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -62481,22 +62573,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="783" t="s">
+      <c r="D58" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="784"/>
+      <c r="E58" s="794"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="785" t="s">
+      <c r="I58" s="795" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="786"/>
-      <c r="K58" s="787">
+      <c r="J58" s="796"/>
+      <c r="K58" s="797">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="787"/>
+      <c r="L58" s="797"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -62640,17 +62732,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -62661,14 +62750,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -65086,7 +65178,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="845" t="s">
+      <c r="F87" s="844" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -65099,7 +65191,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="846"/>
+      <c r="F88" s="845"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -65411,23 +65503,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="784" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="785"/>
+      <c r="E1" s="785"/>
+      <c r="F1" s="785"/>
+      <c r="G1" s="785"/>
+      <c r="H1" s="785"/>
+      <c r="I1" s="785"/>
+      <c r="J1" s="785"/>
+      <c r="K1" s="785"/>
+      <c r="L1" s="785"/>
+      <c r="M1" s="785"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -65437,24 +65529,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -65469,14 +65561,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -65486,15 +65578,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
-      <c r="W4" s="820" t="s">
+      <c r="R4" s="847"/>
+      <c r="W4" s="835" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="820"/>
+      <c r="X4" s="835"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65555,8 +65647,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="820"/>
-      <c r="X5" s="820"/>
+      <c r="W5" s="835"/>
+      <c r="X5" s="835"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66313,7 +66405,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="824">
+      <c r="W19" s="839">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -66365,7 +66457,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="825"/>
+      <c r="W20" s="840"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -66414,8 +66506,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="826"/>
-      <c r="X21" s="826"/>
+      <c r="W21" s="841"/>
+      <c r="X21" s="841"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -66516,8 +66608,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="827"/>
-      <c r="X23" s="827"/>
+      <c r="W23" s="842"/>
+      <c r="X23" s="842"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -66568,8 +66660,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="827"/>
-      <c r="X24" s="827"/>
+      <c r="W24" s="842"/>
+      <c r="X24" s="842"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66615,8 +66707,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="828"/>
-      <c r="X25" s="828"/>
+      <c r="W25" s="843"/>
+      <c r="X25" s="843"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66664,8 +66756,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="828"/>
-      <c r="X26" s="828"/>
+      <c r="W26" s="843"/>
+      <c r="X26" s="843"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66725,9 +66817,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="821"/>
-      <c r="X27" s="822"/>
-      <c r="Y27" s="823"/>
+      <c r="W27" s="836"/>
+      <c r="X27" s="837"/>
+      <c r="Y27" s="838"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66781,9 +66873,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="822"/>
-      <c r="X28" s="822"/>
-      <c r="Y28" s="823"/>
+      <c r="W28" s="837"/>
+      <c r="X28" s="837"/>
+      <c r="Y28" s="838"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -67099,11 +67191,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="839">
+      <c r="M36" s="827">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="841">
+      <c r="N36" s="829">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -67111,7 +67203,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="843">
+      <c r="Q36" s="831">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -67130,13 +67222,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="840"/>
-      <c r="N37" s="842"/>
+      <c r="M37" s="828"/>
+      <c r="N37" s="830"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="844"/>
+      <c r="Q37" s="832"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -67410,26 +67502,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="794" t="s">
+      <c r="H52" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="795"/>
+      <c r="I52" s="805"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="796">
+      <c r="K52" s="806">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="829"/>
+      <c r="L52" s="833"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="800" t="s">
+      <c r="D53" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="800"/>
+      <c r="E53" s="810"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -67438,29 +67530,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="830" t="s">
+      <c r="D54" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="830"/>
+      <c r="E54" s="834"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="801" t="s">
+      <c r="I54" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="802"/>
-      <c r="K54" s="803">
+      <c r="J54" s="812"/>
+      <c r="K54" s="813">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="803"/>
-      <c r="M54" s="831" t="s">
+      <c r="L54" s="813"/>
+      <c r="M54" s="819" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="832"/>
-      <c r="O54" s="832"/>
-      <c r="P54" s="832"/>
-      <c r="Q54" s="833"/>
+      <c r="N54" s="820"/>
+      <c r="O54" s="820"/>
+      <c r="P54" s="820"/>
+      <c r="Q54" s="821"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -67474,11 +67566,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="834"/>
-      <c r="N55" s="835"/>
-      <c r="O55" s="835"/>
-      <c r="P55" s="835"/>
-      <c r="Q55" s="836"/>
+      <c r="M55" s="822"/>
+      <c r="N55" s="823"/>
+      <c r="O55" s="823"/>
+      <c r="P55" s="823"/>
+      <c r="Q55" s="824"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -67496,11 +67588,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="805">
+      <c r="K56" s="815">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="806"/>
+      <c r="L56" s="816"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -67517,22 +67609,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="783" t="s">
+      <c r="D58" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="784"/>
+      <c r="E58" s="794"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="785" t="s">
+      <c r="I58" s="795" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="786"/>
-      <c r="K58" s="787">
+      <c r="J58" s="796"/>
+      <c r="K58" s="797">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="787"/>
+      <c r="L58" s="797"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -67676,13 +67768,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -67692,20 +67791,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -70095,7 +70187,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="845" t="s">
+      <c r="F75" s="844" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -70108,7 +70200,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="846"/>
+      <c r="F76" s="845"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -70400,23 +70492,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -70426,24 +70518,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -70458,14 +70550,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -70475,15 +70567,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
-      <c r="W4" s="820" t="s">
+      <c r="R4" s="847"/>
+      <c r="W4" s="835" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="820"/>
+      <c r="X4" s="835"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70534,8 +70626,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="820"/>
-      <c r="X5" s="820"/>
+      <c r="W5" s="835"/>
+      <c r="X5" s="835"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71299,7 +71391,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="824">
+      <c r="W19" s="839">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -71352,7 +71444,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="825"/>
+      <c r="W20" s="840"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -71401,8 +71493,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="826"/>
-      <c r="X21" s="826"/>
+      <c r="W21" s="841"/>
+      <c r="X21" s="841"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71502,8 +71594,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="827"/>
-      <c r="X23" s="827"/>
+      <c r="W23" s="842"/>
+      <c r="X23" s="842"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71558,8 +71650,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="827"/>
-      <c r="X24" s="827"/>
+      <c r="W24" s="842"/>
+      <c r="X24" s="842"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71604,8 +71696,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="828"/>
-      <c r="X25" s="828"/>
+      <c r="W25" s="843"/>
+      <c r="X25" s="843"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71653,8 +71745,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="828"/>
-      <c r="X26" s="828"/>
+      <c r="W26" s="843"/>
+      <c r="X26" s="843"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71708,9 +71800,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="821"/>
-      <c r="X27" s="822"/>
-      <c r="Y27" s="823"/>
+      <c r="W27" s="836"/>
+      <c r="X27" s="837"/>
+      <c r="Y27" s="838"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71764,9 +71856,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="822"/>
-      <c r="X28" s="822"/>
-      <c r="Y28" s="823"/>
+      <c r="W28" s="837"/>
+      <c r="X28" s="837"/>
+      <c r="Y28" s="838"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -72077,11 +72169,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="839">
+      <c r="M36" s="827">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="841">
+      <c r="N36" s="829">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -72089,7 +72181,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="843">
+      <c r="Q36" s="831">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -72114,13 +72206,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="840"/>
-      <c r="N37" s="842"/>
+      <c r="M37" s="828"/>
+      <c r="N37" s="830"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="844"/>
+      <c r="Q37" s="832"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -72413,26 +72505,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="794" t="s">
+      <c r="H52" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="795"/>
+      <c r="I52" s="805"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="796">
+      <c r="K52" s="806">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="829"/>
+      <c r="L52" s="833"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="800" t="s">
+      <c r="D53" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="800"/>
+      <c r="E53" s="810"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -72441,22 +72533,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="830" t="s">
+      <c r="D54" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="830"/>
+      <c r="E54" s="834"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="801" t="s">
+      <c r="I54" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="802"/>
-      <c r="K54" s="803">
+      <c r="J54" s="812"/>
+      <c r="K54" s="813">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="803"/>
+      <c r="L54" s="813"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72497,11 +72589,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="805">
+      <c r="K56" s="815">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="806"/>
+      <c r="L56" s="816"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72518,22 +72610,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="783" t="s">
+      <c r="D58" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="784"/>
+      <c r="E58" s="794"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="785" t="s">
+      <c r="I58" s="795" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="786"/>
-      <c r="K58" s="787">
+      <c r="J58" s="796"/>
+      <c r="K58" s="797">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="787"/>
+      <c r="L58" s="797"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -72677,6 +72769,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -72692,20 +72798,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -74402,12 +74494,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="851" t="s">
+      <c r="B43" s="850" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="852"/>
-      <c r="D43" s="852"/>
-      <c r="E43" s="853"/>
+      <c r="C43" s="851"/>
+      <c r="D43" s="851"/>
+      <c r="E43" s="852"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74435,10 +74527,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="854"/>
-      <c r="C44" s="855"/>
-      <c r="D44" s="855"/>
-      <c r="E44" s="856"/>
+      <c r="B44" s="853"/>
+      <c r="C44" s="854"/>
+      <c r="D44" s="854"/>
+      <c r="E44" s="855"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74466,10 +74558,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="857"/>
-      <c r="C45" s="858"/>
-      <c r="D45" s="858"/>
-      <c r="E45" s="859"/>
+      <c r="B45" s="856"/>
+      <c r="C45" s="857"/>
+      <c r="D45" s="857"/>
+      <c r="E45" s="858"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74512,10 +74604,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="866" t="s">
+      <c r="B47" s="865" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="867"/>
+      <c r="C47" s="866"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -74537,8 +74629,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="868"/>
-      <c r="C48" s="869"/>
+      <c r="B48" s="867"/>
+      <c r="C48" s="868"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -74546,11 +74638,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="860" t="s">
+      <c r="J48" s="859" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="861"/>
-      <c r="L48" s="862"/>
+      <c r="K48" s="860"/>
+      <c r="L48" s="861"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -74568,9 +74660,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="863"/>
-      <c r="K49" s="864"/>
-      <c r="L49" s="865"/>
+      <c r="J49" s="862"/>
+      <c r="K49" s="863"/>
+      <c r="L49" s="864"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -74587,10 +74679,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="870" t="s">
+      <c r="I50" s="869" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="871"/>
+      <c r="J50" s="870"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -74611,8 +74703,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="870"/>
-      <c r="J51" s="871"/>
+      <c r="I51" s="869"/>
+      <c r="J51" s="870"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -74631,8 +74723,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="870"/>
-      <c r="J52" s="871"/>
+      <c r="I52" s="869"/>
+      <c r="J52" s="870"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -74651,8 +74743,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="870"/>
-      <c r="J53" s="871"/>
+      <c r="I53" s="869"/>
+      <c r="J53" s="870"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -74671,8 +74763,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="870"/>
-      <c r="J54" s="871"/>
+      <c r="I54" s="869"/>
+      <c r="J54" s="870"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -74691,8 +74783,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="870"/>
-      <c r="J55" s="871"/>
+      <c r="I55" s="869"/>
+      <c r="J55" s="870"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -74711,8 +74803,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="870"/>
-      <c r="J56" s="871"/>
+      <c r="I56" s="869"/>
+      <c r="J56" s="870"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -74731,8 +74823,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="870"/>
-      <c r="J57" s="871"/>
+      <c r="I57" s="869"/>
+      <c r="J57" s="870"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -74751,8 +74843,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="870"/>
-      <c r="J58" s="871"/>
+      <c r="I58" s="869"/>
+      <c r="J58" s="870"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -74771,8 +74863,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="870"/>
-      <c r="J59" s="871"/>
+      <c r="I59" s="869"/>
+      <c r="J59" s="870"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -74791,8 +74883,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="870"/>
-      <c r="J60" s="871"/>
+      <c r="I60" s="869"/>
+      <c r="J60" s="870"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -74811,8 +74903,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="870"/>
-      <c r="J61" s="871"/>
+      <c r="I61" s="869"/>
+      <c r="J61" s="870"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -74831,8 +74923,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="870"/>
-      <c r="J62" s="871"/>
+      <c r="I62" s="869"/>
+      <c r="J62" s="870"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -74851,8 +74943,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="870"/>
-      <c r="J63" s="871"/>
+      <c r="I63" s="869"/>
+      <c r="J63" s="870"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -74871,8 +74963,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="870"/>
-      <c r="J64" s="871"/>
+      <c r="I64" s="869"/>
+      <c r="J64" s="870"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -74891,8 +74983,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="870"/>
-      <c r="J65" s="871"/>
+      <c r="I65" s="869"/>
+      <c r="J65" s="870"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -74911,8 +75003,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="870"/>
-      <c r="J66" s="871"/>
+      <c r="I66" s="869"/>
+      <c r="J66" s="870"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -74931,8 +75023,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="870"/>
-      <c r="J67" s="871"/>
+      <c r="I67" s="869"/>
+      <c r="J67" s="870"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -74951,8 +75043,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="870"/>
-      <c r="J68" s="871"/>
+      <c r="I68" s="869"/>
+      <c r="J68" s="870"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -74971,8 +75063,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="870"/>
-      <c r="J69" s="871"/>
+      <c r="I69" s="869"/>
+      <c r="J69" s="870"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -74991,8 +75083,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="870"/>
-      <c r="J70" s="871"/>
+      <c r="I70" s="869"/>
+      <c r="J70" s="870"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -75011,8 +75103,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="870"/>
-      <c r="J71" s="871"/>
+      <c r="I71" s="869"/>
+      <c r="J71" s="870"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -75031,8 +75123,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="870"/>
-      <c r="J72" s="871"/>
+      <c r="I72" s="869"/>
+      <c r="J72" s="870"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -75051,8 +75143,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="870"/>
-      <c r="J73" s="871"/>
+      <c r="I73" s="869"/>
+      <c r="J73" s="870"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -75071,8 +75163,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="870"/>
-      <c r="J74" s="871"/>
+      <c r="I74" s="869"/>
+      <c r="J74" s="870"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -75091,8 +75183,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="870"/>
-      <c r="J75" s="871"/>
+      <c r="I75" s="869"/>
+      <c r="J75" s="870"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -75111,8 +75203,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="870"/>
-      <c r="J76" s="871"/>
+      <c r="I76" s="869"/>
+      <c r="J76" s="870"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -75131,8 +75223,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="870"/>
-      <c r="J77" s="871"/>
+      <c r="I77" s="869"/>
+      <c r="J77" s="870"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -75153,8 +75245,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="872"/>
-      <c r="J78" s="873"/>
+      <c r="I78" s="871"/>
+      <c r="J78" s="872"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -75199,7 +75291,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="845" t="s">
+      <c r="F80" s="844" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -75211,7 +75303,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="846"/>
+      <c r="F81" s="845"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -75499,23 +75591,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="807"/>
-      <c r="C1" s="849" t="s">
+      <c r="B1" s="782"/>
+      <c r="C1" s="848" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="850"/>
-      <c r="E1" s="850"/>
-      <c r="F1" s="850"/>
-      <c r="G1" s="850"/>
-      <c r="H1" s="850"/>
-      <c r="I1" s="850"/>
-      <c r="J1" s="850"/>
-      <c r="K1" s="850"/>
-      <c r="L1" s="850"/>
-      <c r="M1" s="850"/>
+      <c r="D1" s="849"/>
+      <c r="E1" s="849"/>
+      <c r="F1" s="849"/>
+      <c r="G1" s="849"/>
+      <c r="H1" s="849"/>
+      <c r="I1" s="849"/>
+      <c r="J1" s="849"/>
+      <c r="K1" s="849"/>
+      <c r="L1" s="849"/>
+      <c r="M1" s="849"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="808"/>
+      <c r="B2" s="783"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -75525,24 +75617,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="811" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="812"/>
+      <c r="B3" s="786" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="787"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="813" t="s">
+      <c r="H3" s="788" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="813"/>
+      <c r="I3" s="788"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="837" t="s">
+      <c r="P3" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="847" t="s">
+      <c r="R3" s="846" t="s">
         <v>216</v>
       </c>
     </row>
@@ -75557,14 +75649,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="814" t="s">
+      <c r="E4" s="789" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="815"/>
-      <c r="H4" s="816" t="s">
+      <c r="F4" s="790"/>
+      <c r="H4" s="791" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="817"/>
+      <c r="I4" s="792"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -75574,15 +75666,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="838"/>
+      <c r="P4" s="826"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="848"/>
-      <c r="W4" s="820" t="s">
+      <c r="R4" s="847"/>
+      <c r="W4" s="835" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="820"/>
+      <c r="X4" s="835"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -75633,8 +75725,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="820"/>
-      <c r="X5" s="820"/>
+      <c r="W5" s="835"/>
+      <c r="X5" s="835"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76395,7 +76487,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="824">
+      <c r="W19" s="839">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -76447,7 +76539,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="825"/>
+      <c r="W20" s="840"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -76496,8 +76588,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="826"/>
-      <c r="X21" s="826"/>
+      <c r="W21" s="841"/>
+      <c r="X21" s="841"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -76596,8 +76688,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="827"/>
-      <c r="X23" s="827"/>
+      <c r="W23" s="842"/>
+      <c r="X23" s="842"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -76652,8 +76744,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="827"/>
-      <c r="X24" s="827"/>
+      <c r="W24" s="842"/>
+      <c r="X24" s="842"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -76701,8 +76793,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="828"/>
-      <c r="X25" s="828"/>
+      <c r="W25" s="843"/>
+      <c r="X25" s="843"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -76750,8 +76842,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="828"/>
-      <c r="X26" s="828"/>
+      <c r="W26" s="843"/>
+      <c r="X26" s="843"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -76799,9 +76891,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="821"/>
-      <c r="X27" s="822"/>
-      <c r="Y27" s="823"/>
+      <c r="W27" s="836"/>
+      <c r="X27" s="837"/>
+      <c r="Y27" s="838"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76849,9 +76941,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="822"/>
-      <c r="X28" s="822"/>
-      <c r="Y28" s="823"/>
+      <c r="W28" s="837"/>
+      <c r="X28" s="837"/>
+      <c r="Y28" s="838"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77192,11 +77284,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="839">
+      <c r="M36" s="827">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="841">
+      <c r="N36" s="829">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -77204,7 +77296,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="874">
+      <c r="Q36" s="873">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -77229,13 +77321,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="840"/>
-      <c r="N37" s="842"/>
+      <c r="M37" s="828"/>
+      <c r="N37" s="830"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="875"/>
+      <c r="Q37" s="874"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -77285,11 +77377,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="876">
+      <c r="M39" s="875">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="877"/>
+      <c r="N39" s="876"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -77537,26 +77629,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="794" t="s">
+      <c r="H52" s="804" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="795"/>
+      <c r="I52" s="805"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="796">
+      <c r="K52" s="806">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="829"/>
+      <c r="L52" s="833"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="800" t="s">
+      <c r="D53" s="810" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="800"/>
+      <c r="E53" s="810"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -77565,22 +77657,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="830" t="s">
+      <c r="D54" s="834" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="830"/>
+      <c r="E54" s="834"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="801" t="s">
+      <c r="I54" s="811" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="802"/>
-      <c r="K54" s="803">
+      <c r="J54" s="812"/>
+      <c r="K54" s="813">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="803"/>
+      <c r="L54" s="813"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -77621,11 +77713,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="805">
+      <c r="K56" s="815">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="806"/>
+      <c r="L56" s="816"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -77642,22 +77734,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="783" t="s">
+      <c r="D58" s="793" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="784"/>
+      <c r="E58" s="794"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="785" t="s">
+      <c r="I58" s="795" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="786"/>
-      <c r="K58" s="787">
+      <c r="J58" s="796"/>
+      <c r="K58" s="797">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="787"/>
+      <c r="L58" s="797"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -77801,20 +77893,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -77831,6 +77909,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="1273">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4698,9 +4698,6 @@
     <t>CHORIZO-ALPASTOR-POLLO-QUESOS-PAPA-SALCHICA</t>
   </si>
   <si>
-    <t>DEBE</t>
-  </si>
-  <si>
     <t>QUESOS-POLLO-AL PASTOR-CHORIZO</t>
   </si>
   <si>
@@ -4756,6 +4753,9 @@
   </si>
   <si>
     <t>POLLO-PASTOR--ARABE</t>
+  </si>
+  <si>
+    <t>Pagado</t>
   </si>
 </sst>
 </file>
@@ -6893,7 +6893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="937">
+  <cellXfs count="941">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8426,21 +8426,14 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8457,39 +8450,6 @@
     <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8563,10 +8523,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8610,39 +8636,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8881,15 +8874,6 @@
     <xf numFmtId="0" fontId="75" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8904,6 +8888,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8923,6 +8916,17 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8932,10 +8936,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF990033"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF990033"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
@@ -14663,23 +14667,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="784" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="803" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="785"/>
-      <c r="E1" s="785"/>
-      <c r="F1" s="785"/>
-      <c r="G1" s="785"/>
-      <c r="H1" s="785"/>
-      <c r="I1" s="785"/>
-      <c r="J1" s="785"/>
-      <c r="K1" s="785"/>
-      <c r="L1" s="785"/>
-      <c r="M1" s="785"/>
+      <c r="D1" s="804"/>
+      <c r="E1" s="804"/>
+      <c r="F1" s="804"/>
+      <c r="G1" s="804"/>
+      <c r="H1" s="804"/>
+      <c r="I1" s="804"/>
+      <c r="J1" s="804"/>
+      <c r="K1" s="804"/>
+      <c r="L1" s="804"/>
+      <c r="M1" s="804"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14689,17 +14693,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14713,14 +14717,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14730,10 +14734,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="798" t="s">
+      <c r="P4" s="782" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="799"/>
+      <c r="Q4" s="783"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16174,11 +16178,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="800">
+      <c r="M39" s="784">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="802">
+      <c r="N39" s="786">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16204,8 +16208,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="801"/>
-      <c r="N40" s="803"/>
+      <c r="M40" s="785"/>
+      <c r="N40" s="787"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16420,29 +16424,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="804" t="s">
+      <c r="H52" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="805"/>
+      <c r="I52" s="789"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="806">
+      <c r="K52" s="790">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="807"/>
-      <c r="M52" s="808">
+      <c r="L52" s="791"/>
+      <c r="M52" s="792">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="809"/>
+      <c r="N52" s="793"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="810" t="s">
+      <c r="D53" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="810"/>
+      <c r="E53" s="794"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16453,22 +16457,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="810" t="s">
+      <c r="D54" s="794" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="810"/>
+      <c r="E54" s="794"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="811" t="s">
+      <c r="I54" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="812"/>
-      <c r="K54" s="813">
+      <c r="J54" s="796"/>
+      <c r="K54" s="797">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="814"/>
+      <c r="L54" s="798"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16501,11 +16505,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="815">
+      <c r="K56" s="799">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="816"/>
+      <c r="L56" s="800"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16522,22 +16526,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="793" t="s">
+      <c r="D58" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="794"/>
+      <c r="E58" s="778"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="795" t="s">
+      <c r="I58" s="779" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="796"/>
-      <c r="K58" s="797">
+      <c r="J58" s="780"/>
+      <c r="K58" s="781">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="797"/>
+      <c r="L58" s="781"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16681,6 +16685,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16695,12 +16705,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19161,10 +19165,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="878" t="s">
+      <c r="I76" s="873" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="879"/>
+      <c r="J76" s="874"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19183,8 +19187,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="880"/>
-      <c r="J77" s="881"/>
+      <c r="I77" s="875"/>
+      <c r="J77" s="876"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19251,7 +19255,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="844" t="s">
+      <c r="F80" s="839" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19266,7 +19270,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="845"/>
+      <c r="F81" s="840"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19274,10 +19278,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="877" t="s">
+      <c r="B82" s="872" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="877"/>
+      <c r="C82" s="872"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19559,23 +19563,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19585,24 +19589,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19617,14 +19621,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19634,15 +19638,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
-      <c r="W4" s="835" t="s">
+      <c r="R4" s="842"/>
+      <c r="W4" s="814" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="835"/>
+      <c r="X4" s="814"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19693,8 +19697,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="835"/>
-      <c r="X5" s="835"/>
+      <c r="W5" s="814"/>
+      <c r="X5" s="814"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20457,7 +20461,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="839">
+      <c r="W19" s="818">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20509,7 +20513,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="840"/>
+      <c r="W20" s="819"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20558,8 +20562,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="841"/>
+      <c r="W21" s="820"/>
+      <c r="X21" s="820"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20659,8 +20663,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="842"/>
-      <c r="X23" s="842"/>
+      <c r="W23" s="821"/>
+      <c r="X23" s="821"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20715,8 +20719,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="842"/>
-      <c r="X24" s="842"/>
+      <c r="W24" s="821"/>
+      <c r="X24" s="821"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20764,8 +20768,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="843"/>
-      <c r="X25" s="843"/>
+      <c r="W25" s="822"/>
+      <c r="X25" s="822"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20814,8 +20818,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="843"/>
-      <c r="X26" s="843"/>
+      <c r="W26" s="822"/>
+      <c r="X26" s="822"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20863,9 +20867,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="836"/>
-      <c r="X27" s="837"/>
-      <c r="Y27" s="838"/>
+      <c r="W27" s="815"/>
+      <c r="X27" s="816"/>
+      <c r="Y27" s="817"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20913,9 +20917,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="837"/>
-      <c r="X28" s="837"/>
-      <c r="Y28" s="838"/>
+      <c r="W28" s="816"/>
+      <c r="X28" s="816"/>
+      <c r="Y28" s="817"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21247,11 +21251,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="827">
+      <c r="M36" s="833">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="829">
+      <c r="N36" s="835">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21259,7 +21263,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="873">
+      <c r="Q36" s="868">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21284,13 +21288,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="828"/>
-      <c r="N37" s="830"/>
+      <c r="M37" s="834"/>
+      <c r="N37" s="836"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="874"/>
+      <c r="Q37" s="869"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21340,11 +21344,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="875">
+      <c r="M39" s="870">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="876"/>
+      <c r="N39" s="871"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21972,26 +21976,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="804" t="s">
+      <c r="H68" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="805"/>
+      <c r="I68" s="789"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="806">
+      <c r="K68" s="790">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="833"/>
+      <c r="L68" s="823"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="810" t="s">
+      <c r="D69" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="810"/>
+      <c r="E69" s="794"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -22000,22 +22004,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="834" t="s">
+      <c r="D70" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="834"/>
+      <c r="E70" s="824"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="811" t="s">
+      <c r="I70" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="812"/>
-      <c r="K70" s="813">
+      <c r="J70" s="796"/>
+      <c r="K70" s="797">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="813"/>
+      <c r="L70" s="797"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -22056,11 +22060,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="815">
+      <c r="K72" s="799">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="816"/>
+      <c r="L72" s="800"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -22077,22 +22081,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="793" t="s">
+      <c r="D74" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="794"/>
+      <c r="E74" s="778"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="795" t="s">
+      <c r="I74" s="779" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="796"/>
-      <c r="K74" s="797">
+      <c r="J74" s="780"/>
+      <c r="K74" s="781">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="797"/>
+      <c r="L74" s="781"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22239,6 +22243,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22254,21 +22273,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23830,10 +23834,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="886" t="s">
+      <c r="I44" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="887"/>
+      <c r="J44" s="882"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23852,8 +23856,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="888"/>
-      <c r="J45" s="889"/>
+      <c r="I45" s="883"/>
+      <c r="J45" s="884"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23872,8 +23876,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="890"/>
-      <c r="J46" s="891"/>
+      <c r="I46" s="885"/>
+      <c r="J46" s="886"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24562,7 +24566,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="844" t="s">
+      <c r="F80" s="839" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24575,7 +24579,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="845"/>
+      <c r="F81" s="840"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24595,10 +24599,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="882" t="s">
+      <c r="I83" s="877" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="883"/>
+      <c r="J83" s="878"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24607,8 +24611,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="884"/>
-      <c r="J84" s="885"/>
+      <c r="I84" s="879"/>
+      <c r="J84" s="880"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24881,23 +24885,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24907,24 +24911,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24939,14 +24943,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24956,15 +24960,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
-      <c r="W4" s="835" t="s">
+      <c r="R4" s="842"/>
+      <c r="W4" s="814" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="835"/>
+      <c r="X4" s="814"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25015,8 +25019,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="835"/>
-      <c r="X5" s="835"/>
+      <c r="W5" s="814"/>
+      <c r="X5" s="814"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25775,7 +25779,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="839">
+      <c r="W19" s="818">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25827,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="840"/>
+      <c r="W20" s="819"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25876,8 +25880,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="841"/>
+      <c r="W21" s="820"/>
+      <c r="X21" s="820"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25974,8 +25978,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="842"/>
-      <c r="X23" s="842"/>
+      <c r="W23" s="821"/>
+      <c r="X23" s="821"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26030,8 +26034,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="842"/>
-      <c r="X24" s="842"/>
+      <c r="W24" s="821"/>
+      <c r="X24" s="821"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26077,8 +26081,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="843"/>
-      <c r="X25" s="843"/>
+      <c r="W25" s="822"/>
+      <c r="X25" s="822"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26129,8 +26133,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="843"/>
-      <c r="X26" s="843"/>
+      <c r="W26" s="822"/>
+      <c r="X26" s="822"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26181,9 +26185,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="836"/>
-      <c r="X27" s="837"/>
-      <c r="Y27" s="838"/>
+      <c r="W27" s="815"/>
+      <c r="X27" s="816"/>
+      <c r="Y27" s="817"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26233,9 +26237,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="837"/>
-      <c r="X28" s="837"/>
-      <c r="Y28" s="838"/>
+      <c r="W28" s="816"/>
+      <c r="X28" s="816"/>
+      <c r="Y28" s="817"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26839,11 +26843,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="827">
+      <c r="M41" s="833">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="827">
+      <c r="N41" s="833">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26851,7 +26855,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="892">
+      <c r="Q41" s="887">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26881,10 +26885,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="828"/>
-      <c r="N42" s="828"/>
+      <c r="M42" s="834"/>
+      <c r="N42" s="834"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="893"/>
+      <c r="Q42" s="888"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26972,11 +26976,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="894">
+      <c r="M45" s="889">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="895"/>
+      <c r="N45" s="890"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27569,26 +27573,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="804" t="s">
+      <c r="H70" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="805"/>
+      <c r="I70" s="789"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="806">
+      <c r="K70" s="790">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="833"/>
+      <c r="L70" s="823"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="810" t="s">
+      <c r="D71" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="810"/>
+      <c r="E71" s="794"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27598,22 +27602,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="834" t="s">
+      <c r="D72" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="834"/>
+      <c r="E72" s="824"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="811" t="s">
+      <c r="I72" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="812"/>
-      <c r="K72" s="813">
+      <c r="J72" s="796"/>
+      <c r="K72" s="797">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="813"/>
+      <c r="L72" s="797"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27654,11 +27658,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="815">
+      <c r="K74" s="799">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="816"/>
+      <c r="L74" s="800"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27677,22 +27681,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="793" t="s">
+      <c r="D76" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="794"/>
+      <c r="E76" s="778"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="795" t="s">
+      <c r="I76" s="779" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="796"/>
-      <c r="K76" s="797">
+      <c r="J76" s="780"/>
+      <c r="K76" s="781">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="797"/>
+      <c r="L76" s="781"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27852,6 +27856,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27867,21 +27886,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29852,10 +29856,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="886" t="s">
+      <c r="I54" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="887"/>
+      <c r="J54" s="882"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29871,8 +29875,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="888"/>
-      <c r="J55" s="889"/>
+      <c r="I55" s="883"/>
+      <c r="J55" s="884"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29888,8 +29892,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="890"/>
-      <c r="J56" s="891"/>
+      <c r="I56" s="885"/>
+      <c r="J56" s="886"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30557,7 +30561,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="844" t="s">
+      <c r="F90" s="839" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30570,7 +30574,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="845"/>
+      <c r="F91" s="840"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30589,10 +30593,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="882" t="s">
+      <c r="I93" s="877" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="883"/>
+      <c r="J93" s="878"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30602,8 +30606,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="884"/>
-      <c r="J94" s="885"/>
+      <c r="I94" s="879"/>
+      <c r="J94" s="880"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -31044,11 +31048,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="896">
+      <c r="C130" s="891">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="897"/>
+      <c r="D130" s="892"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -31085,24 +31089,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="911" t="s">
+      <c r="B2" s="906" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="912"/>
-      <c r="D2" s="913"/>
-      <c r="F2" s="899" t="s">
+      <c r="C2" s="907"/>
+      <c r="D2" s="908"/>
+      <c r="F2" s="894" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="900"/>
-      <c r="H2" s="901"/>
+      <c r="G2" s="895"/>
+      <c r="H2" s="896"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="914"/>
-      <c r="C3" s="915"/>
-      <c r="D3" s="916"/>
-      <c r="F3" s="902"/>
-      <c r="G3" s="903"/>
-      <c r="H3" s="904"/>
+      <c r="B3" s="909"/>
+      <c r="C3" s="910"/>
+      <c r="D3" s="911"/>
+      <c r="F3" s="897"/>
+      <c r="G3" s="898"/>
+      <c r="H3" s="899"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31247,11 +31251,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="905">
+      <c r="G11" s="900">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="906"/>
+      <c r="H11" s="901"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31268,33 +31272,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="909" t="s">
+      <c r="C15" s="904" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="907">
+      <c r="D15" s="902">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="917" t="s">
+      <c r="E15" s="912" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="918"/>
-      <c r="G15" s="918"/>
-      <c r="H15" s="919"/>
+      <c r="F15" s="913"/>
+      <c r="G15" s="913"/>
+      <c r="H15" s="914"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="910"/>
-      <c r="D16" s="908"/>
-      <c r="E16" s="920"/>
-      <c r="F16" s="921"/>
-      <c r="G16" s="921"/>
-      <c r="H16" s="922"/>
+      <c r="C16" s="905"/>
+      <c r="D16" s="903"/>
+      <c r="E16" s="915"/>
+      <c r="F16" s="916"/>
+      <c r="G16" s="916"/>
+      <c r="H16" s="917"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="898" t="s">
+      <c r="C17" s="893" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="898"/>
+      <c r="D17" s="893"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31353,23 +31357,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31379,24 +31383,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31415,14 +31419,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31432,15 +31436,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
+      <c r="R4" s="842"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="923"/>
-      <c r="X4" s="923"/>
+      <c r="W4" s="924"/>
+      <c r="X4" s="924"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31494,8 +31498,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="923"/>
-      <c r="X5" s="923"/>
+      <c r="W5" s="924"/>
+      <c r="X5" s="924"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32261,7 +32265,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="924"/>
+      <c r="W19" s="925"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32315,7 +32319,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="924"/>
+      <c r="W20" s="925"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32370,8 +32374,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="841"/>
+      <c r="W21" s="820"/>
+      <c r="X21" s="820"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32482,8 +32486,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="842"/>
-      <c r="X23" s="842"/>
+      <c r="W23" s="821"/>
+      <c r="X23" s="821"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32544,8 +32548,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="842"/>
-      <c r="X24" s="842"/>
+      <c r="W24" s="821"/>
+      <c r="X24" s="821"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32598,8 +32602,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="843"/>
-      <c r="X25" s="843"/>
+      <c r="W25" s="822"/>
+      <c r="X25" s="822"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32654,8 +32658,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="843"/>
-      <c r="X26" s="843"/>
+      <c r="W26" s="822"/>
+      <c r="X26" s="822"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32710,9 +32714,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="836"/>
-      <c r="X27" s="837"/>
-      <c r="Y27" s="838"/>
+      <c r="W27" s="815"/>
+      <c r="X27" s="816"/>
+      <c r="Y27" s="817"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32766,9 +32770,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="837"/>
-      <c r="X28" s="837"/>
-      <c r="Y28" s="838"/>
+      <c r="W28" s="816"/>
+      <c r="X28" s="816"/>
+      <c r="Y28" s="817"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33352,11 +33356,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="827">
+      <c r="M41" s="833">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="827">
+      <c r="N41" s="833">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33364,7 +33368,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="892">
+      <c r="Q41" s="887">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33388,10 +33392,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="828"/>
-      <c r="N42" s="828"/>
+      <c r="M42" s="834"/>
+      <c r="N42" s="834"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="893"/>
+      <c r="Q42" s="888"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33460,11 +33464,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="894">
+      <c r="M45" s="889">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="895"/>
+      <c r="N45" s="890"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33880,26 +33884,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="804" t="s">
+      <c r="H63" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="805"/>
+      <c r="I63" s="789"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="929">
+      <c r="K63" s="921">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="930"/>
+      <c r="L63" s="922"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="810" t="s">
+      <c r="D64" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="810"/>
+      <c r="E64" s="794"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33908,22 +33912,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="834" t="s">
+      <c r="D65" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="834"/>
+      <c r="E65" s="824"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="811" t="s">
+      <c r="I65" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="812"/>
-      <c r="K65" s="813">
+      <c r="J65" s="796"/>
+      <c r="K65" s="797">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="813"/>
+      <c r="L65" s="797"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33964,11 +33968,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="925">
+      <c r="K67" s="923">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="813"/>
+      <c r="L67" s="797"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33985,22 +33989,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="793" t="s">
+      <c r="D69" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="794"/>
+      <c r="E69" s="778"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="926" t="s">
+      <c r="I69" s="918" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="927"/>
-      <c r="K69" s="928">
+      <c r="J69" s="919"/>
+      <c r="K69" s="920">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="928"/>
+      <c r="L69" s="920"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34147,21 +34151,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -34177,6 +34166,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35673,10 +35677,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="886" t="s">
+      <c r="I38" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="887"/>
+      <c r="J38" s="882"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -35695,8 +35699,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="888"/>
-      <c r="J39" s="889"/>
+      <c r="I39" s="883"/>
+      <c r="J39" s="884"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -35715,8 +35719,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="890"/>
-      <c r="J40" s="891"/>
+      <c r="I40" s="885"/>
+      <c r="J40" s="886"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36339,7 +36343,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="844" t="s">
+      <c r="F71" s="839" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36352,7 +36356,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="845"/>
+      <c r="F72" s="840"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36371,10 +36375,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="882" t="s">
+      <c r="I74" s="877" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="883"/>
+      <c r="J74" s="878"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36383,8 +36387,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="884"/>
-      <c r="J75" s="885"/>
+      <c r="I75" s="879"/>
+      <c r="J75" s="880"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36518,11 +36522,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="933" t="s">
+      <c r="A89" s="928" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="934"/>
-      <c r="C89" s="934"/>
+      <c r="B89" s="929"/>
+      <c r="C89" s="929"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36532,10 +36536,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="935" t="s">
+      <c r="B90" s="930" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="936"/>
+      <c r="C90" s="931"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -36636,7 +36640,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="931">
+      <c r="C97" s="926">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36650,7 +36654,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="932"/>
+      <c r="C98" s="927"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36751,23 +36755,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36777,24 +36781,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36809,14 +36813,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36826,11 +36830,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
+      <c r="R4" s="842"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38598,11 +38602,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="827">
+      <c r="M41" s="833">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="827">
+      <c r="N41" s="833">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38610,7 +38614,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="892">
+      <c r="Q41" s="887">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -38640,10 +38644,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="828"/>
-      <c r="N42" s="828"/>
+      <c r="M42" s="834"/>
+      <c r="N42" s="834"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="893"/>
+      <c r="Q42" s="888"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -38730,11 +38734,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="894">
+      <c r="M45" s="889">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="895"/>
+      <c r="N45" s="890"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39320,26 +39324,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="804" t="s">
+      <c r="H69" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="805"/>
+      <c r="I69" s="789"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="929">
+      <c r="K69" s="921">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="930"/>
+      <c r="L69" s="922"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="810" t="s">
+      <c r="D70" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="810"/>
+      <c r="E70" s="794"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39348,22 +39352,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="834" t="s">
+      <c r="D71" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="834"/>
+      <c r="E71" s="824"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="811" t="s">
+      <c r="I71" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="812"/>
-      <c r="K71" s="813">
+      <c r="J71" s="796"/>
+      <c r="K71" s="797">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="813"/>
+      <c r="L71" s="797"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39404,11 +39408,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="925">
+      <c r="K73" s="923">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="813"/>
+      <c r="L73" s="797"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39425,22 +39429,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="793" t="s">
+      <c r="D75" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="794"/>
+      <c r="E75" s="778"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="795" t="s">
+      <c r="I75" s="779" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="796"/>
-      <c r="K75" s="797">
+      <c r="J75" s="780"/>
+      <c r="K75" s="781">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="797"/>
+      <c r="L75" s="781"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -39587,6 +39591,17 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -39598,17 +39613,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41289,10 +41293,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="886" t="s">
+      <c r="H43" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="887"/>
+      <c r="I43" s="882"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41311,8 +41315,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="888"/>
-      <c r="I44" s="889"/>
+      <c r="H44" s="883"/>
+      <c r="I44" s="884"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41331,8 +41335,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="890"/>
-      <c r="I45" s="891"/>
+      <c r="H45" s="885"/>
+      <c r="I45" s="886"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -41776,10 +41780,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="882" t="s">
+      <c r="H67" s="877" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="883"/>
+      <c r="I67" s="878"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -41799,11 +41803,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="844" t="s">
+      <c r="F68" s="839" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="884"/>
-      <c r="I68" s="885"/>
+      <c r="H68" s="879"/>
+      <c r="I68" s="880"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41814,7 +41818,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="845"/>
+      <c r="F69" s="840"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43629,7 +43633,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="817" t="s">
+      <c r="B41" s="812" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -43661,7 +43665,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="818"/>
+      <c r="B42" s="813"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45255,23 +45259,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45281,24 +45285,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45313,14 +45317,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45330,11 +45334,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
+      <c r="R4" s="842"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -47068,11 +47072,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="827">
+      <c r="M41" s="833">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="827">
+      <c r="N41" s="833">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -47080,7 +47084,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="892">
+      <c r="Q41" s="887">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47110,10 +47114,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="828"/>
-      <c r="N42" s="828"/>
+      <c r="M42" s="834"/>
+      <c r="N42" s="834"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="893"/>
+      <c r="Q42" s="888"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47194,11 +47198,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="894">
+      <c r="M45" s="889">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="895"/>
+      <c r="N45" s="890"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -47715,26 +47719,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="804" t="s">
+      <c r="H69" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="805"/>
+      <c r="I69" s="789"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="929">
+      <c r="K69" s="921">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="930"/>
+      <c r="L69" s="922"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="810" t="s">
+      <c r="D70" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="810"/>
+      <c r="E70" s="794"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -47743,22 +47747,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="834" t="s">
+      <c r="D71" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="834"/>
+      <c r="E71" s="824"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="811" t="s">
+      <c r="I71" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="812"/>
-      <c r="K71" s="813">
+      <c r="J71" s="796"/>
+      <c r="K71" s="797">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="813"/>
+      <c r="L71" s="797"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47799,11 +47803,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="925">
+      <c r="K73" s="923">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="813"/>
+      <c r="L73" s="797"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47820,22 +47824,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="793" t="s">
+      <c r="D75" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="794"/>
+      <c r="E75" s="778"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="926" t="s">
+      <c r="I75" s="918" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="927"/>
-      <c r="K75" s="928">
+      <c r="J75" s="919"/>
+      <c r="K75" s="920">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="928"/>
+      <c r="L75" s="920"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47982,12 +47986,6 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -48004,6 +48002,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49385,10 +49389,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="886" t="s">
+      <c r="H40" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="887"/>
+      <c r="I40" s="882"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49407,8 +49411,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="888"/>
-      <c r="I41" s="889"/>
+      <c r="H41" s="883"/>
+      <c r="I41" s="884"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49427,8 +49431,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="890"/>
-      <c r="I42" s="891"/>
+      <c r="H42" s="885"/>
+      <c r="I42" s="886"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49932,10 +49936,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="882" t="s">
+      <c r="H67" s="877" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="883"/>
+      <c r="I67" s="878"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49955,11 +49959,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="844" t="s">
+      <c r="F68" s="839" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="884"/>
-      <c r="I68" s="885"/>
+      <c r="H68" s="879"/>
+      <c r="I68" s="880"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49970,7 +49974,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="845"/>
+      <c r="F69" s="840"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50592,23 +50596,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50618,24 +50622,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50650,14 +50654,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50667,11 +50671,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
+      <c r="R4" s="842"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52390,11 +52394,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="827">
+      <c r="M41" s="833">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="827">
+      <c r="N41" s="833">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52402,7 +52406,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="892">
+      <c r="Q41" s="887">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52430,10 +52434,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="828"/>
-      <c r="N42" s="828"/>
+      <c r="M42" s="834"/>
+      <c r="N42" s="834"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="893"/>
+      <c r="Q42" s="888"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52506,11 +52510,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="894">
+      <c r="M45" s="889">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="895"/>
+      <c r="N45" s="890"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -53003,26 +53007,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="804" t="s">
+      <c r="H69" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="805"/>
+      <c r="I69" s="789"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="929">
+      <c r="K69" s="921">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="930"/>
+      <c r="L69" s="922"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="810" t="s">
+      <c r="D70" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="810"/>
+      <c r="E70" s="794"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -53031,22 +53035,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="834" t="s">
+      <c r="D71" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="834"/>
+      <c r="E71" s="824"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="811" t="s">
+      <c r="I71" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="812"/>
-      <c r="K71" s="813">
+      <c r="J71" s="796"/>
+      <c r="K71" s="797">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="813"/>
+      <c r="L71" s="797"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -53087,11 +53091,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="925">
+      <c r="K73" s="923">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="813"/>
+      <c r="L73" s="797"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53108,22 +53112,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="793" t="s">
+      <c r="D75" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="794"/>
+      <c r="E75" s="778"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="795" t="s">
+      <c r="I75" s="779" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="796"/>
-      <c r="K75" s="797">
+      <c r="J75" s="780"/>
+      <c r="K75" s="781">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="797"/>
+      <c r="L75" s="781"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53267,12 +53271,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53289,6 +53287,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54490,10 +54494,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="886" t="s">
+      <c r="H40" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="887"/>
+      <c r="I40" s="882"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54512,8 +54516,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="888"/>
-      <c r="I41" s="889"/>
+      <c r="H41" s="883"/>
+      <c r="I41" s="884"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -54532,8 +54536,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="890"/>
-      <c r="I42" s="891"/>
+      <c r="H42" s="885"/>
+      <c r="I42" s="886"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -55037,10 +55041,10 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="882" t="s">
+      <c r="H67" s="877" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="883"/>
+      <c r="I67" s="878"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -55060,11 +55064,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="844" t="s">
+      <c r="F68" s="839" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="884"/>
-      <c r="I68" s="885"/>
+      <c r="H68" s="879"/>
+      <c r="I68" s="880"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -55075,7 +55079,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="845"/>
+      <c r="F69" s="840"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -55666,10 +55670,10 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
+      <selection pane="bottomRight" activeCell="P44" sqref="P43:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55697,23 +55701,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55723,24 +55727,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -55755,14 +55759,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -55772,11 +55776,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
+      <c r="R4" s="842"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -55964,7 +55968,7 @@
         <v>1247</v>
       </c>
       <c r="P8" s="39">
-        <f t="shared" ref="P8:P32" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P38" si="1">N8+M8+L8+I8+C8</f>
         <v>120503</v>
       </c>
       <c r="Q8" s="325">
@@ -56177,10 +56181,10 @@
       <c r="R12" s="319">
         <v>0</v>
       </c>
-      <c r="S12" s="768"/>
-      <c r="T12" s="757"/>
-      <c r="U12" s="758"/>
-      <c r="V12" s="759"/>
+      <c r="S12" s="932"/>
+      <c r="T12" s="933"/>
+      <c r="U12" s="756"/>
+      <c r="V12" s="757"/>
     </row>
     <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
@@ -56196,10 +56200,10 @@
       <c r="E13" s="27">
         <v>44810</v>
       </c>
-      <c r="F13" s="779">
+      <c r="F13" s="774">
         <v>106867</v>
       </c>
-      <c r="G13" s="778"/>
+      <c r="G13" s="773"/>
       <c r="H13" s="29">
         <v>44810</v>
       </c>
@@ -56209,7 +56213,7 @@
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="777">
+      <c r="M13" s="772">
         <f>42400+10000+121050+650</f>
         <v>174100</v>
       </c>
@@ -56223,7 +56227,7 @@
         <f>N13+M13+L13+I13+C13</f>
         <v>251506</v>
       </c>
-      <c r="Q13" s="775">
+      <c r="Q13" s="770">
         <f t="shared" si="0"/>
         <v>144639</v>
       </c>
@@ -56236,10 +56240,10 @@
       <c r="T13" s="327">
         <v>42400</v>
       </c>
-      <c r="U13" s="773" t="s">
+      <c r="U13" s="768" t="s">
         <v>597</v>
       </c>
-      <c r="V13" s="761"/>
+      <c r="V13" s="759"/>
     </row>
     <row r="14" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
@@ -56286,7 +56290,7 @@
         <f>P14-F14-29415-3</f>
         <v>-49700</v>
       </c>
-      <c r="R14" s="776">
+      <c r="R14" s="771">
         <v>29415</v>
       </c>
       <c r="S14" s="370">
@@ -56295,10 +56299,10 @@
       <c r="T14" s="327">
         <v>10000</v>
       </c>
-      <c r="U14" s="773" t="s">
+      <c r="U14" s="768" t="s">
         <v>597</v>
       </c>
-      <c r="V14" s="761"/>
+      <c r="V14" s="759"/>
     </row>
     <row r="15" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
@@ -56350,13 +56354,13 @@
       <c r="S15" s="370">
         <v>44810</v>
       </c>
-      <c r="T15" s="774">
+      <c r="T15" s="769">
         <v>121050</v>
       </c>
-      <c r="U15" s="773" t="s">
+      <c r="U15" s="768" t="s">
         <v>597</v>
       </c>
-      <c r="V15" s="761"/>
+      <c r="V15" s="759"/>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
@@ -56367,7 +56371,7 @@
         <v>17740</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E16" s="27">
         <v>44813</v>
@@ -56405,13 +56409,13 @@
       <c r="R16" s="319">
         <v>0</v>
       </c>
-      <c r="S16" s="771"/>
-      <c r="T16" s="780">
+      <c r="S16" s="766"/>
+      <c r="T16" s="775">
         <f>SUM(T13:T15)</f>
         <v>173450</v>
       </c>
-      <c r="U16" s="760"/>
-      <c r="V16" s="761"/>
+      <c r="U16" s="758"/>
+      <c r="V16" s="759"/>
     </row>
     <row r="17" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
@@ -56422,7 +56426,7 @@
         <v>19816.5</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E17" s="27">
         <v>44814</v>
@@ -56441,7 +56445,7 @@
         <v>44814</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L17" s="45">
         <v>18565</v>
@@ -56472,10 +56476,10 @@
       <c r="T17" s="327">
         <v>-28811</v>
       </c>
-      <c r="U17" s="772" t="s">
+      <c r="U17" s="767" t="s">
         <v>27</v>
       </c>
-      <c r="V17" s="761"/>
+      <c r="V17" s="759"/>
     </row>
     <row r="18" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
@@ -56486,7 +56490,7 @@
         <v>31662</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E18" s="27">
         <v>44815</v>
@@ -56531,10 +56535,10 @@
       <c r="T18" s="327">
         <v>-49700</v>
       </c>
-      <c r="U18" s="772" t="s">
+      <c r="U18" s="767" t="s">
         <v>27</v>
       </c>
-      <c r="V18" s="761"/>
+      <c r="V18" s="759"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
@@ -56545,7 +56549,7 @@
         <v>27351.5</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E19" s="27">
         <v>44816</v>
@@ -56587,13 +56591,13 @@
       <c r="S19" s="370">
         <v>44812</v>
       </c>
-      <c r="T19" s="327">
+      <c r="T19" s="934">
         <v>-49878</v>
       </c>
-      <c r="U19" s="772" t="s">
+      <c r="U19" s="767" t="s">
         <v>27</v>
       </c>
-      <c r="V19" s="761"/>
+      <c r="V19" s="759"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
@@ -56604,7 +56608,7 @@
         <v>33084</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E20" s="27">
         <v>44817</v>
@@ -56642,16 +56646,16 @@
       <c r="R20" s="319" t="s">
         <v>1062</v>
       </c>
-      <c r="S20" s="771">
+      <c r="S20" s="766">
         <v>44813</v>
       </c>
-      <c r="T20" s="756">
+      <c r="T20" s="935">
         <v>-34611</v>
       </c>
-      <c r="U20" s="762" t="s">
+      <c r="U20" s="760" t="s">
         <v>27</v>
       </c>
-      <c r="V20" s="761"/>
+      <c r="V20" s="759"/>
     </row>
     <row r="21" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
@@ -56662,7 +56666,7 @@
         <v>13474</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E21" s="27">
         <v>44818</v>
@@ -56699,17 +56703,18 @@
         <v>0</v>
       </c>
       <c r="R21" s="319" t="s">
-        <v>1262</v>
-      </c>
-      <c r="S21" s="771"/>
-      <c r="T21" s="763">
-        <f>SUM(T16:T20)</f>
-        <v>10450</v>
-      </c>
-      <c r="U21" s="764" t="s">
-        <v>1253</v>
-      </c>
-      <c r="V21" s="761"/>
+        <v>1261</v>
+      </c>
+      <c r="S21" s="766">
+        <v>44832</v>
+      </c>
+      <c r="T21" s="34">
+        <v>-10450</v>
+      </c>
+      <c r="U21" s="936" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="759"/>
     </row>
     <row r="22" spans="1:22" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
@@ -56738,8 +56743,8 @@
       <c r="J22" s="37">
         <v>44819</v>
       </c>
-      <c r="K22" s="781" t="s">
-        <v>1263</v>
+      <c r="K22" s="776" t="s">
+        <v>1262</v>
       </c>
       <c r="L22" s="49">
         <v>15000</v>
@@ -56765,10 +56770,13 @@
       <c r="R22" s="319">
         <v>0</v>
       </c>
-      <c r="S22" s="771"/>
-      <c r="T22" s="765"/>
-      <c r="U22" s="765"/>
-      <c r="V22" s="761"/>
+      <c r="S22" s="766"/>
+      <c r="T22" s="937">
+        <f>SUM(T17:T21)</f>
+        <v>-173450</v>
+      </c>
+      <c r="U22" s="938"/>
+      <c r="V22" s="759"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
@@ -56779,7 +56787,7 @@
         <v>10700</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E23" s="27">
         <v>44820</v>
@@ -56818,10 +56826,15 @@
       <c r="R23" s="319">
         <v>0</v>
       </c>
-      <c r="S23" s="771"/>
-      <c r="T23" s="765"/>
-      <c r="U23" s="765"/>
-      <c r="V23" s="761"/>
+      <c r="S23" s="766"/>
+      <c r="T23" s="939">
+        <f>T16+T22</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="940" t="s">
+        <v>1272</v>
+      </c>
+      <c r="V23" s="759"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
@@ -56832,7 +56845,7 @@
         <v>17481</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E24" s="27">
         <v>44821</v>
@@ -56851,7 +56864,7 @@
         <v>44821</v>
       </c>
       <c r="K24" s="173" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L24" s="52">
         <v>22708</v>
@@ -56877,10 +56890,10 @@
       <c r="R24" s="319">
         <v>0</v>
       </c>
-      <c r="S24" s="771"/>
-      <c r="T24" s="765"/>
-      <c r="U24" s="765"/>
-      <c r="V24" s="761"/>
+      <c r="S24" s="766"/>
+      <c r="T24" s="761"/>
+      <c r="U24" s="761"/>
+      <c r="V24" s="759"/>
     </row>
     <row r="25" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
@@ -56927,10 +56940,10 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="S25" s="769"/>
-      <c r="T25" s="765"/>
-      <c r="U25" s="765"/>
-      <c r="V25" s="761"/>
+      <c r="S25" s="764"/>
+      <c r="T25" s="761"/>
+      <c r="U25" s="761"/>
+      <c r="V25" s="759"/>
     </row>
     <row r="26" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
@@ -56941,7 +56954,7 @@
         <v>32880</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E26" s="27">
         <v>44823</v>
@@ -56979,10 +56992,10 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="S26" s="770"/>
-      <c r="T26" s="766"/>
-      <c r="U26" s="766"/>
-      <c r="V26" s="767"/>
+      <c r="S26" s="765"/>
+      <c r="T26" s="762"/>
+      <c r="U26" s="762"/>
+      <c r="V26" s="763"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
@@ -56993,7 +57006,7 @@
         <v>16862</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E27" s="27">
         <v>44824</v>
@@ -57042,7 +57055,7 @@
         <v>16722</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E28" s="27">
         <v>44825</v>
@@ -57091,7 +57104,7 @@
         <v>11366</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E29" s="27">
         <v>44826</v>
@@ -57110,7 +57123,7 @@
         <v>44826</v>
       </c>
       <c r="K29" s="175" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L29" s="54">
         <v>5000</v>
@@ -57146,7 +57159,7 @@
         <v>1581</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E30" s="27">
         <v>44827</v>
@@ -57266,13 +57279,19 @@
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="24">
+        <v>44830</v>
+      </c>
       <c r="C33" s="25"/>
       <c r="D33" s="65"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="27">
+        <v>44830</v>
+      </c>
       <c r="F33" s="28"/>
       <c r="G33" s="572"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="29">
+        <v>44830</v>
+      </c>
       <c r="I33" s="30"/>
       <c r="J33" s="56"/>
       <c r="K33" s="223"/>
@@ -57284,6 +57303,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="325">
@@ -57295,23 +57315,23 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="24">
+        <v>44831</v>
+      </c>
       <c r="C34" s="25"/>
       <c r="D34" s="64"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="27">
+        <v>44831</v>
+      </c>
       <c r="F34" s="28"/>
       <c r="G34" s="572"/>
-      <c r="H34" s="29"/>
+      <c r="H34" s="29">
+        <v>44831</v>
+      </c>
       <c r="I34" s="30"/>
-      <c r="J34" s="56">
-        <v>44807</v>
-      </c>
-      <c r="K34" s="739" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L34" s="39">
-        <v>19507</v>
-      </c>
+      <c r="J34" s="56"/>
+      <c r="K34" s="751"/>
+      <c r="L34" s="39"/>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -57319,6 +57339,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="325">
@@ -57331,35 +57352,36 @@
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="24">
+        <v>44832</v>
+      </c>
       <c r="C35" s="690"/>
       <c r="D35" s="67"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="27">
+        <v>44832</v>
+      </c>
       <c r="F35" s="28"/>
       <c r="G35" s="572"/>
-      <c r="H35" s="29"/>
+      <c r="H35" s="29">
+        <v>44832</v>
+      </c>
       <c r="I35" s="30"/>
-      <c r="J35" s="698">
-        <v>44814</v>
-      </c>
-      <c r="K35" s="752" t="s">
-        <v>1257</v>
-      </c>
-      <c r="L35" s="702">
-        <v>19250</v>
-      </c>
+      <c r="J35" s="698"/>
+      <c r="K35" s="752"/>
+      <c r="L35" s="702"/>
       <c r="M35" s="32">
-        <v>0</v>
+        <v>-10450</v>
       </c>
       <c r="N35" s="33">
         <v>0</v>
       </c>
       <c r="P35" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-10450</v>
+      </c>
+      <c r="Q35" s="317">
+        <f>P35-F35</f>
+        <v>-10450</v>
       </c>
       <c r="R35" s="319">
         <v>0</v>
@@ -57367,23 +57389,23 @@
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
+      <c r="B36" s="24">
+        <v>44833</v>
+      </c>
       <c r="C36" s="693"/>
       <c r="D36" s="741"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="27">
+        <v>44833</v>
+      </c>
       <c r="F36" s="28"/>
       <c r="G36" s="662"/>
-      <c r="H36" s="29"/>
+      <c r="H36" s="29">
+        <v>44833</v>
+      </c>
       <c r="I36" s="30"/>
-      <c r="J36" s="56">
-        <v>44821</v>
-      </c>
-      <c r="K36" s="751" t="s">
-        <v>1266</v>
-      </c>
-      <c r="L36" s="39">
-        <v>22764</v>
-      </c>
+      <c r="J36" s="56"/>
+      <c r="K36" s="751"/>
+      <c r="L36" s="39"/>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -57391,6 +57413,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q36" s="325">
@@ -57403,13 +57426,19 @@
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="24">
+        <v>44834</v>
+      </c>
       <c r="C37" s="692"/>
       <c r="D37" s="742"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="27">
+        <v>44834</v>
+      </c>
       <c r="F37" s="28"/>
       <c r="G37" s="662"/>
-      <c r="H37" s="29"/>
+      <c r="H37" s="29">
+        <v>44834</v>
+      </c>
       <c r="I37" s="30"/>
       <c r="J37" s="56"/>
       <c r="K37" s="751"/>
@@ -57421,6 +57450,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q37" s="325">
@@ -57432,13 +57462,19 @@
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="24">
+        <v>44835</v>
+      </c>
       <c r="C38" s="692"/>
       <c r="D38" s="742"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="27">
+        <v>44835</v>
+      </c>
       <c r="F38" s="28"/>
       <c r="G38" s="662"/>
-      <c r="H38" s="29"/>
+      <c r="H38" s="29">
+        <v>44835</v>
+      </c>
       <c r="I38" s="30"/>
       <c r="J38" s="56"/>
       <c r="K38" s="663"/>
@@ -57450,6 +57486,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q38" s="325">
@@ -57462,13 +57499,19 @@
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="24">
+        <v>44836</v>
+      </c>
       <c r="C39" s="692"/>
       <c r="D39" s="695"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="27">
+        <v>44836</v>
+      </c>
       <c r="F39" s="508"/>
       <c r="G39" s="662"/>
-      <c r="H39" s="29"/>
+      <c r="H39" s="29">
+        <v>44836</v>
+      </c>
       <c r="I39" s="71"/>
       <c r="J39" s="56"/>
       <c r="K39" s="663"/>
@@ -57530,24 +57573,30 @@
       <c r="G41" s="572"/>
       <c r="H41" s="76"/>
       <c r="I41" s="77"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="743"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="827">
+      <c r="J41" s="56">
+        <v>44807</v>
+      </c>
+      <c r="K41" s="739" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L41" s="39">
+        <v>19507</v>
+      </c>
+      <c r="M41" s="833">
         <f>SUM(M5:M40)</f>
-        <v>1544182.68</v>
-      </c>
-      <c r="N41" s="827">
+        <v>1533732.68</v>
+      </c>
+      <c r="N41" s="833">
         <f>SUM(N5:N40)</f>
         <v>1245362</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>3382508.6799999997</v>
-      </c>
-      <c r="Q41" s="892">
+        <v>3372058.6799999997</v>
+      </c>
+      <c r="Q41" s="887">
         <f>SUM(Q5:Q40)</f>
-        <v>10456</v>
+        <v>6</v>
       </c>
       <c r="R41" s="227">
         <f>SUM(R28:R40)</f>
@@ -57564,13 +57613,19 @@
       <c r="G42" s="572"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
-      <c r="J42" s="698"/>
-      <c r="K42" s="701"/>
-      <c r="L42" s="702"/>
-      <c r="M42" s="828"/>
-      <c r="N42" s="828"/>
+      <c r="J42" s="698">
+        <v>44814</v>
+      </c>
+      <c r="K42" s="752" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L42" s="702">
+        <v>19250</v>
+      </c>
+      <c r="M42" s="834"/>
+      <c r="N42" s="834"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="893"/>
+      <c r="Q42" s="888"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>29415</v>
@@ -57586,9 +57641,15 @@
       <c r="G43" s="572"/>
       <c r="H43" s="76"/>
       <c r="I43" s="77"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="39"/>
+      <c r="J43" s="56">
+        <v>44821</v>
+      </c>
+      <c r="K43" s="751" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L43" s="39">
+        <v>22764</v>
+      </c>
       <c r="M43" s="750"/>
       <c r="N43" s="750"/>
       <c r="P43" s="34"/>
@@ -57625,11 +57686,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="671"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="894">
+      <c r="M45" s="889">
         <f>M41+N41</f>
-        <v>2789544.6799999997</v>
-      </c>
-      <c r="N45" s="895"/>
+        <v>2779094.6799999997</v>
+      </c>
+      <c r="N45" s="890"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -58054,26 +58115,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="804" t="s">
+      <c r="H69" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="805"/>
+      <c r="I69" s="789"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="929">
+      <c r="K69" s="921">
         <f>I67+L67</f>
         <v>209255</v>
       </c>
-      <c r="L69" s="930"/>
+      <c r="L69" s="922"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="810" t="s">
+      <c r="D70" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="810"/>
+      <c r="E70" s="794"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>2595733</v>
@@ -58082,22 +58143,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="834" t="s">
+      <c r="D71" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="834"/>
+      <c r="E71" s="824"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="811" t="s">
+      <c r="I71" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="812"/>
-      <c r="K71" s="813">
+      <c r="J71" s="796"/>
+      <c r="K71" s="797">
         <f>F73+F74+F75</f>
         <v>2595733</v>
       </c>
-      <c r="L71" s="813"/>
+      <c r="L71" s="797"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -58138,11 +58199,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="925">
+      <c r="K73" s="923">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="813"/>
+      <c r="L73" s="797"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -58157,22 +58218,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="793" t="s">
+      <c r="D75" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="794"/>
+      <c r="E75" s="778"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="795" t="s">
+      <c r="I75" s="779" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="796"/>
-      <c r="K75" s="797">
+      <c r="J75" s="780"/>
+      <c r="K75" s="781">
         <f>K71+K73</f>
         <v>-76822.990000000224</v>
       </c>
-      <c r="L75" s="797"/>
+      <c r="L75" s="781"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -58316,12 +58377,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -58338,6 +58393,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59197,10 +59258,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="886" t="s">
+      <c r="H40" s="881" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="887"/>
+      <c r="I40" s="882"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -59219,8 +59280,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="888"/>
-      <c r="I41" s="889"/>
+      <c r="H41" s="883"/>
+      <c r="I41" s="884"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -59239,8 +59300,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="890"/>
-      <c r="I42" s="891"/>
+      <c r="H42" s="885"/>
+      <c r="I42" s="886"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -59744,10 +59805,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="882" t="s">
+      <c r="H67" s="877" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="883"/>
+      <c r="I67" s="878"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -59767,11 +59828,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="844" t="s">
+      <c r="F68" s="839" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="884"/>
-      <c r="I68" s="885"/>
+      <c r="H68" s="879"/>
+      <c r="I68" s="880"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -59782,7 +59843,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="845"/>
+      <c r="F69" s="840"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -60426,23 +60487,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="784" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="803" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="785"/>
-      <c r="E1" s="785"/>
-      <c r="F1" s="785"/>
-      <c r="G1" s="785"/>
-      <c r="H1" s="785"/>
-      <c r="I1" s="785"/>
-      <c r="J1" s="785"/>
-      <c r="K1" s="785"/>
-      <c r="L1" s="785"/>
-      <c r="M1" s="785"/>
+      <c r="D1" s="804"/>
+      <c r="E1" s="804"/>
+      <c r="F1" s="804"/>
+      <c r="G1" s="804"/>
+      <c r="H1" s="804"/>
+      <c r="I1" s="804"/>
+      <c r="J1" s="804"/>
+      <c r="K1" s="804"/>
+      <c r="L1" s="804"/>
+      <c r="M1" s="804"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -60452,21 +60513,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
     </row>
@@ -60481,14 +60542,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -60498,14 +60559,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="835" t="s">
+      <c r="W4" s="814" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="835"/>
+      <c r="X4" s="814"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60556,8 +60617,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="835"/>
-      <c r="X5" s="835"/>
+      <c r="W5" s="814"/>
+      <c r="X5" s="814"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61328,7 +61389,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="839">
+      <c r="W19" s="818">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -61380,7 +61441,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="840"/>
+      <c r="W20" s="819"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -61429,8 +61490,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="841"/>
+      <c r="W21" s="820"/>
+      <c r="X21" s="820"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -61531,8 +61592,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="842"/>
-      <c r="X23" s="842"/>
+      <c r="W23" s="821"/>
+      <c r="X23" s="821"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61586,8 +61647,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="842"/>
-      <c r="X24" s="842"/>
+      <c r="W24" s="821"/>
+      <c r="X24" s="821"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61633,8 +61694,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="843"/>
-      <c r="X25" s="843"/>
+      <c r="W25" s="822"/>
+      <c r="X25" s="822"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61685,8 +61746,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="843"/>
-      <c r="X26" s="843"/>
+      <c r="W26" s="822"/>
+      <c r="X26" s="822"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61734,9 +61795,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="836"/>
-      <c r="X27" s="837"/>
-      <c r="Y27" s="838"/>
+      <c r="W27" s="815"/>
+      <c r="X27" s="816"/>
+      <c r="Y27" s="817"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61786,9 +61847,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="837"/>
-      <c r="X28" s="837"/>
-      <c r="Y28" s="838"/>
+      <c r="W28" s="816"/>
+      <c r="X28" s="816"/>
+      <c r="Y28" s="817"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62123,11 +62184,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="827">
+      <c r="M36" s="833">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="829">
+      <c r="N36" s="835">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -62135,7 +62196,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="831">
+      <c r="Q36" s="837">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -62170,13 +62231,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="828"/>
-      <c r="N37" s="830"/>
+      <c r="M37" s="834"/>
+      <c r="N37" s="836"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="832"/>
+      <c r="Q37" s="838"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -62466,26 +62527,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="804" t="s">
+      <c r="H52" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="805"/>
+      <c r="I52" s="789"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="806">
+      <c r="K52" s="790">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="833"/>
+      <c r="L52" s="823"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="810" t="s">
+      <c r="D53" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="810"/>
+      <c r="E53" s="794"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -62494,29 +62555,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="834" t="s">
+      <c r="D54" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="834"/>
+      <c r="E54" s="824"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="811" t="s">
+      <c r="I54" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="812"/>
-      <c r="K54" s="813">
+      <c r="J54" s="796"/>
+      <c r="K54" s="797">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="813"/>
-      <c r="M54" s="819" t="s">
+      <c r="L54" s="797"/>
+      <c r="M54" s="825" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="820"/>
-      <c r="O54" s="820"/>
-      <c r="P54" s="820"/>
-      <c r="Q54" s="821"/>
+      <c r="N54" s="826"/>
+      <c r="O54" s="826"/>
+      <c r="P54" s="826"/>
+      <c r="Q54" s="827"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -62530,11 +62591,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="822"/>
-      <c r="N55" s="823"/>
-      <c r="O55" s="823"/>
-      <c r="P55" s="823"/>
-      <c r="Q55" s="824"/>
+      <c r="M55" s="828"/>
+      <c r="N55" s="829"/>
+      <c r="O55" s="829"/>
+      <c r="P55" s="829"/>
+      <c r="Q55" s="830"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -62552,11 +62613,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="815">
+      <c r="K56" s="799">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="816"/>
+      <c r="L56" s="800"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -62573,22 +62634,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="793" t="s">
+      <c r="D58" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="794"/>
+      <c r="E58" s="778"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="795" t="s">
+      <c r="I58" s="779" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="796"/>
-      <c r="K58" s="797">
+      <c r="J58" s="780"/>
+      <c r="K58" s="781">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="797"/>
+      <c r="L58" s="781"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -62732,14 +62793,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -62750,17 +62814,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -65178,7 +65239,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="844" t="s">
+      <c r="F87" s="839" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -65191,7 +65252,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="845"/>
+      <c r="F88" s="840"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -65503,23 +65564,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="784" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="803" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="785"/>
-      <c r="E1" s="785"/>
-      <c r="F1" s="785"/>
-      <c r="G1" s="785"/>
-      <c r="H1" s="785"/>
-      <c r="I1" s="785"/>
-      <c r="J1" s="785"/>
-      <c r="K1" s="785"/>
-      <c r="L1" s="785"/>
-      <c r="M1" s="785"/>
+      <c r="D1" s="804"/>
+      <c r="E1" s="804"/>
+      <c r="F1" s="804"/>
+      <c r="G1" s="804"/>
+      <c r="H1" s="804"/>
+      <c r="I1" s="804"/>
+      <c r="J1" s="804"/>
+      <c r="K1" s="804"/>
+      <c r="L1" s="804"/>
+      <c r="M1" s="804"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -65529,24 +65590,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -65561,14 +65622,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -65578,15 +65639,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
-      <c r="W4" s="835" t="s">
+      <c r="R4" s="842"/>
+      <c r="W4" s="814" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="835"/>
+      <c r="X4" s="814"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65647,8 +65708,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="835"/>
-      <c r="X5" s="835"/>
+      <c r="W5" s="814"/>
+      <c r="X5" s="814"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66405,7 +66466,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="839">
+      <c r="W19" s="818">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -66457,7 +66518,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="840"/>
+      <c r="W20" s="819"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -66506,8 +66567,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="841"/>
+      <c r="W21" s="820"/>
+      <c r="X21" s="820"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -66608,8 +66669,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="842"/>
-      <c r="X23" s="842"/>
+      <c r="W23" s="821"/>
+      <c r="X23" s="821"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -66660,8 +66721,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="842"/>
-      <c r="X24" s="842"/>
+      <c r="W24" s="821"/>
+      <c r="X24" s="821"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66707,8 +66768,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="843"/>
-      <c r="X25" s="843"/>
+      <c r="W25" s="822"/>
+      <c r="X25" s="822"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66756,8 +66817,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="843"/>
-      <c r="X26" s="843"/>
+      <c r="W26" s="822"/>
+      <c r="X26" s="822"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66817,9 +66878,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="836"/>
-      <c r="X27" s="837"/>
-      <c r="Y27" s="838"/>
+      <c r="W27" s="815"/>
+      <c r="X27" s="816"/>
+      <c r="Y27" s="817"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66873,9 +66934,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="837"/>
-      <c r="X28" s="837"/>
-      <c r="Y28" s="838"/>
+      <c r="W28" s="816"/>
+      <c r="X28" s="816"/>
+      <c r="Y28" s="817"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -67191,11 +67252,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="827">
+      <c r="M36" s="833">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="829">
+      <c r="N36" s="835">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -67203,7 +67264,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="831">
+      <c r="Q36" s="837">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -67222,13 +67283,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="828"/>
-      <c r="N37" s="830"/>
+      <c r="M37" s="834"/>
+      <c r="N37" s="836"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="832"/>
+      <c r="Q37" s="838"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -67502,26 +67563,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="804" t="s">
+      <c r="H52" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="805"/>
+      <c r="I52" s="789"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="806">
+      <c r="K52" s="790">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="833"/>
+      <c r="L52" s="823"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="810" t="s">
+      <c r="D53" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="810"/>
+      <c r="E53" s="794"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -67530,29 +67591,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="834" t="s">
+      <c r="D54" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="834"/>
+      <c r="E54" s="824"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="811" t="s">
+      <c r="I54" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="812"/>
-      <c r="K54" s="813">
+      <c r="J54" s="796"/>
+      <c r="K54" s="797">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="813"/>
-      <c r="M54" s="819" t="s">
+      <c r="L54" s="797"/>
+      <c r="M54" s="825" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="820"/>
-      <c r="O54" s="820"/>
-      <c r="P54" s="820"/>
-      <c r="Q54" s="821"/>
+      <c r="N54" s="826"/>
+      <c r="O54" s="826"/>
+      <c r="P54" s="826"/>
+      <c r="Q54" s="827"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -67566,11 +67627,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="822"/>
-      <c r="N55" s="823"/>
-      <c r="O55" s="823"/>
-      <c r="P55" s="823"/>
-      <c r="Q55" s="824"/>
+      <c r="M55" s="828"/>
+      <c r="N55" s="829"/>
+      <c r="O55" s="829"/>
+      <c r="P55" s="829"/>
+      <c r="Q55" s="830"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -67588,11 +67649,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="815">
+      <c r="K56" s="799">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="816"/>
+      <c r="L56" s="800"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -67609,22 +67670,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="793" t="s">
+      <c r="D58" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="794"/>
+      <c r="E58" s="778"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="795" t="s">
+      <c r="I58" s="779" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="796"/>
-      <c r="K58" s="797">
+      <c r="J58" s="780"/>
+      <c r="K58" s="781">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="797"/>
+      <c r="L58" s="781"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -67768,20 +67829,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -67791,13 +67845,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -70187,7 +70248,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="844" t="s">
+      <c r="F75" s="839" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -70200,7 +70261,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="845"/>
+      <c r="F76" s="840"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -70492,23 +70553,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -70518,24 +70579,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -70550,14 +70611,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -70567,15 +70628,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
-      <c r="W4" s="835" t="s">
+      <c r="R4" s="842"/>
+      <c r="W4" s="814" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="835"/>
+      <c r="X4" s="814"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70626,8 +70687,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="835"/>
-      <c r="X5" s="835"/>
+      <c r="W5" s="814"/>
+      <c r="X5" s="814"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71391,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="839">
+      <c r="W19" s="818">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -71444,7 +71505,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="840"/>
+      <c r="W20" s="819"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -71493,8 +71554,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="841"/>
+      <c r="W21" s="820"/>
+      <c r="X21" s="820"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71594,8 +71655,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="842"/>
-      <c r="X23" s="842"/>
+      <c r="W23" s="821"/>
+      <c r="X23" s="821"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71650,8 +71711,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="842"/>
-      <c r="X24" s="842"/>
+      <c r="W24" s="821"/>
+      <c r="X24" s="821"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71696,8 +71757,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="843"/>
-      <c r="X25" s="843"/>
+      <c r="W25" s="822"/>
+      <c r="X25" s="822"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71745,8 +71806,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="843"/>
-      <c r="X26" s="843"/>
+      <c r="W26" s="822"/>
+      <c r="X26" s="822"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71800,9 +71861,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="836"/>
-      <c r="X27" s="837"/>
-      <c r="Y27" s="838"/>
+      <c r="W27" s="815"/>
+      <c r="X27" s="816"/>
+      <c r="Y27" s="817"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71856,9 +71917,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="837"/>
-      <c r="X28" s="837"/>
-      <c r="Y28" s="838"/>
+      <c r="W28" s="816"/>
+      <c r="X28" s="816"/>
+      <c r="Y28" s="817"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -72169,11 +72230,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="827">
+      <c r="M36" s="833">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="829">
+      <c r="N36" s="835">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -72181,7 +72242,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="831">
+      <c r="Q36" s="837">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -72206,13 +72267,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="828"/>
-      <c r="N37" s="830"/>
+      <c r="M37" s="834"/>
+      <c r="N37" s="836"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="832"/>
+      <c r="Q37" s="838"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -72505,26 +72566,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="804" t="s">
+      <c r="H52" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="805"/>
+      <c r="I52" s="789"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="806">
+      <c r="K52" s="790">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="833"/>
+      <c r="L52" s="823"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="810" t="s">
+      <c r="D53" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="810"/>
+      <c r="E53" s="794"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -72533,22 +72594,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="834" t="s">
+      <c r="D54" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="834"/>
+      <c r="E54" s="824"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="811" t="s">
+      <c r="I54" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="812"/>
-      <c r="K54" s="813">
+      <c r="J54" s="796"/>
+      <c r="K54" s="797">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="813"/>
+      <c r="L54" s="797"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72589,11 +72650,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="815">
+      <c r="K56" s="799">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="816"/>
+      <c r="L56" s="800"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72610,22 +72671,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="793" t="s">
+      <c r="D58" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="794"/>
+      <c r="E58" s="778"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="795" t="s">
+      <c r="I58" s="779" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="796"/>
-      <c r="K58" s="797">
+      <c r="J58" s="780"/>
+      <c r="K58" s="781">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="797"/>
+      <c r="L58" s="781"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -72769,20 +72830,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -72798,6 +72845,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -74494,12 +74555,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="850" t="s">
+      <c r="B43" s="845" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="851"/>
-      <c r="D43" s="851"/>
-      <c r="E43" s="852"/>
+      <c r="C43" s="846"/>
+      <c r="D43" s="846"/>
+      <c r="E43" s="847"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74527,10 +74588,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="853"/>
-      <c r="C44" s="854"/>
-      <c r="D44" s="854"/>
-      <c r="E44" s="855"/>
+      <c r="B44" s="848"/>
+      <c r="C44" s="849"/>
+      <c r="D44" s="849"/>
+      <c r="E44" s="850"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74558,10 +74619,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="856"/>
-      <c r="C45" s="857"/>
-      <c r="D45" s="857"/>
-      <c r="E45" s="858"/>
+      <c r="B45" s="851"/>
+      <c r="C45" s="852"/>
+      <c r="D45" s="852"/>
+      <c r="E45" s="853"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74604,10 +74665,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="865" t="s">
+      <c r="B47" s="860" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="866"/>
+      <c r="C47" s="861"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -74629,8 +74690,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="867"/>
-      <c r="C48" s="868"/>
+      <c r="B48" s="862"/>
+      <c r="C48" s="863"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -74638,11 +74699,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="859" t="s">
+      <c r="J48" s="854" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="860"/>
-      <c r="L48" s="861"/>
+      <c r="K48" s="855"/>
+      <c r="L48" s="856"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -74660,9 +74721,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="862"/>
-      <c r="K49" s="863"/>
-      <c r="L49" s="864"/>
+      <c r="J49" s="857"/>
+      <c r="K49" s="858"/>
+      <c r="L49" s="859"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -74679,10 +74740,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="869" t="s">
+      <c r="I50" s="864" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="870"/>
+      <c r="J50" s="865"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -74703,8 +74764,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="869"/>
-      <c r="J51" s="870"/>
+      <c r="I51" s="864"/>
+      <c r="J51" s="865"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -74723,8 +74784,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="869"/>
-      <c r="J52" s="870"/>
+      <c r="I52" s="864"/>
+      <c r="J52" s="865"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -74743,8 +74804,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="869"/>
-      <c r="J53" s="870"/>
+      <c r="I53" s="864"/>
+      <c r="J53" s="865"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -74763,8 +74824,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="869"/>
-      <c r="J54" s="870"/>
+      <c r="I54" s="864"/>
+      <c r="J54" s="865"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -74783,8 +74844,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="869"/>
-      <c r="J55" s="870"/>
+      <c r="I55" s="864"/>
+      <c r="J55" s="865"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -74803,8 +74864,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="869"/>
-      <c r="J56" s="870"/>
+      <c r="I56" s="864"/>
+      <c r="J56" s="865"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -74823,8 +74884,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="869"/>
-      <c r="J57" s="870"/>
+      <c r="I57" s="864"/>
+      <c r="J57" s="865"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -74843,8 +74904,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="869"/>
-      <c r="J58" s="870"/>
+      <c r="I58" s="864"/>
+      <c r="J58" s="865"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -74863,8 +74924,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="869"/>
-      <c r="J59" s="870"/>
+      <c r="I59" s="864"/>
+      <c r="J59" s="865"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -74883,8 +74944,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="869"/>
-      <c r="J60" s="870"/>
+      <c r="I60" s="864"/>
+      <c r="J60" s="865"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -74903,8 +74964,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="869"/>
-      <c r="J61" s="870"/>
+      <c r="I61" s="864"/>
+      <c r="J61" s="865"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -74923,8 +74984,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="869"/>
-      <c r="J62" s="870"/>
+      <c r="I62" s="864"/>
+      <c r="J62" s="865"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -74943,8 +75004,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="869"/>
-      <c r="J63" s="870"/>
+      <c r="I63" s="864"/>
+      <c r="J63" s="865"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -74963,8 +75024,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="869"/>
-      <c r="J64" s="870"/>
+      <c r="I64" s="864"/>
+      <c r="J64" s="865"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -74983,8 +75044,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="869"/>
-      <c r="J65" s="870"/>
+      <c r="I65" s="864"/>
+      <c r="J65" s="865"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -75003,8 +75064,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="869"/>
-      <c r="J66" s="870"/>
+      <c r="I66" s="864"/>
+      <c r="J66" s="865"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -75023,8 +75084,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="869"/>
-      <c r="J67" s="870"/>
+      <c r="I67" s="864"/>
+      <c r="J67" s="865"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -75043,8 +75104,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="869"/>
-      <c r="J68" s="870"/>
+      <c r="I68" s="864"/>
+      <c r="J68" s="865"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -75063,8 +75124,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="869"/>
-      <c r="J69" s="870"/>
+      <c r="I69" s="864"/>
+      <c r="J69" s="865"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -75083,8 +75144,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="869"/>
-      <c r="J70" s="870"/>
+      <c r="I70" s="864"/>
+      <c r="J70" s="865"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -75103,8 +75164,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="869"/>
-      <c r="J71" s="870"/>
+      <c r="I71" s="864"/>
+      <c r="J71" s="865"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -75123,8 +75184,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="869"/>
-      <c r="J72" s="870"/>
+      <c r="I72" s="864"/>
+      <c r="J72" s="865"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -75143,8 +75204,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="869"/>
-      <c r="J73" s="870"/>
+      <c r="I73" s="864"/>
+      <c r="J73" s="865"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -75163,8 +75224,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="869"/>
-      <c r="J74" s="870"/>
+      <c r="I74" s="864"/>
+      <c r="J74" s="865"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -75183,8 +75244,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="869"/>
-      <c r="J75" s="870"/>
+      <c r="I75" s="864"/>
+      <c r="J75" s="865"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -75203,8 +75264,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="869"/>
-      <c r="J76" s="870"/>
+      <c r="I76" s="864"/>
+      <c r="J76" s="865"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -75223,8 +75284,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="869"/>
-      <c r="J77" s="870"/>
+      <c r="I77" s="864"/>
+      <c r="J77" s="865"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -75245,8 +75306,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="871"/>
-      <c r="J78" s="872"/>
+      <c r="I78" s="866"/>
+      <c r="J78" s="867"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -75291,7 +75352,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="844" t="s">
+      <c r="F80" s="839" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -75303,7 +75364,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="845"/>
+      <c r="F81" s="840"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -75591,23 +75652,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="782"/>
-      <c r="C1" s="848" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="843" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="849"/>
-      <c r="E1" s="849"/>
-      <c r="F1" s="849"/>
-      <c r="G1" s="849"/>
-      <c r="H1" s="849"/>
-      <c r="I1" s="849"/>
-      <c r="J1" s="849"/>
-      <c r="K1" s="849"/>
-      <c r="L1" s="849"/>
-      <c r="M1" s="849"/>
+      <c r="D1" s="844"/>
+      <c r="E1" s="844"/>
+      <c r="F1" s="844"/>
+      <c r="G1" s="844"/>
+      <c r="H1" s="844"/>
+      <c r="I1" s="844"/>
+      <c r="J1" s="844"/>
+      <c r="K1" s="844"/>
+      <c r="L1" s="844"/>
+      <c r="M1" s="844"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="783"/>
+      <c r="B2" s="802"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -75617,24 +75678,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="786" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="787"/>
+      <c r="B3" s="805" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="806"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="788" t="s">
+      <c r="H3" s="807" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="788"/>
+      <c r="I3" s="807"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="825" t="s">
+      <c r="P3" s="831" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="846" t="s">
+      <c r="R3" s="841" t="s">
         <v>216</v>
       </c>
     </row>
@@ -75649,14 +75710,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="789" t="s">
+      <c r="E4" s="808" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="790"/>
-      <c r="H4" s="791" t="s">
+      <c r="F4" s="809"/>
+      <c r="H4" s="810" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="792"/>
+      <c r="I4" s="811"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -75666,15 +75727,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="826"/>
+      <c r="P4" s="832"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="847"/>
-      <c r="W4" s="835" t="s">
+      <c r="R4" s="842"/>
+      <c r="W4" s="814" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="835"/>
+      <c r="X4" s="814"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -75725,8 +75786,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="835"/>
-      <c r="X5" s="835"/>
+      <c r="W5" s="814"/>
+      <c r="X5" s="814"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76487,7 +76548,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="839">
+      <c r="W19" s="818">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -76539,7 +76600,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="840"/>
+      <c r="W20" s="819"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -76588,8 +76649,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="841"/>
+      <c r="W21" s="820"/>
+      <c r="X21" s="820"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -76688,8 +76749,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="842"/>
-      <c r="X23" s="842"/>
+      <c r="W23" s="821"/>
+      <c r="X23" s="821"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -76744,8 +76805,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="842"/>
-      <c r="X24" s="842"/>
+      <c r="W24" s="821"/>
+      <c r="X24" s="821"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -76793,8 +76854,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="843"/>
-      <c r="X25" s="843"/>
+      <c r="W25" s="822"/>
+      <c r="X25" s="822"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -76842,8 +76903,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="843"/>
-      <c r="X26" s="843"/>
+      <c r="W26" s="822"/>
+      <c r="X26" s="822"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -76891,9 +76952,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="836"/>
-      <c r="X27" s="837"/>
-      <c r="Y27" s="838"/>
+      <c r="W27" s="815"/>
+      <c r="X27" s="816"/>
+      <c r="Y27" s="817"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76941,9 +77002,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="837"/>
-      <c r="X28" s="837"/>
-      <c r="Y28" s="838"/>
+      <c r="W28" s="816"/>
+      <c r="X28" s="816"/>
+      <c r="Y28" s="817"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77284,11 +77345,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="827">
+      <c r="M36" s="833">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="829">
+      <c r="N36" s="835">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -77296,7 +77357,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="873">
+      <c r="Q36" s="868">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -77321,13 +77382,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="828"/>
-      <c r="N37" s="830"/>
+      <c r="M37" s="834"/>
+      <c r="N37" s="836"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="874"/>
+      <c r="Q37" s="869"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -77377,11 +77438,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="875">
+      <c r="M39" s="870">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="876"/>
+      <c r="N39" s="871"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -77629,26 +77690,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="804" t="s">
+      <c r="H52" s="788" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="805"/>
+      <c r="I52" s="789"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="806">
+      <c r="K52" s="790">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="833"/>
+      <c r="L52" s="823"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="810" t="s">
+      <c r="D53" s="794" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="810"/>
+      <c r="E53" s="794"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -77657,22 +77718,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="834" t="s">
+      <c r="D54" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="834"/>
+      <c r="E54" s="824"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="811" t="s">
+      <c r="I54" s="795" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="812"/>
-      <c r="K54" s="813">
+      <c r="J54" s="796"/>
+      <c r="K54" s="797">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="813"/>
+      <c r="L54" s="797"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -77713,11 +77774,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="815">
+      <c r="K56" s="799">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="816"/>
+      <c r="L56" s="800"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -77734,22 +77795,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="793" t="s">
+      <c r="D58" s="777" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="794"/>
+      <c r="E58" s="778"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="795" t="s">
+      <c r="I58" s="779" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="796"/>
-      <c r="K58" s="797">
+      <c r="J58" s="780"/>
+      <c r="K58" s="781">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="797"/>
+      <c r="L58" s="781"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -77893,6 +77954,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -77909,20 +77984,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="21" activeTab="23"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="22" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1352">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4756,6 +4756,243 @@
   </si>
   <si>
     <t>Pagado</t>
+  </si>
+  <si>
+    <t>QUESO-POLLO-MAIZ-LONGANIZA-PAPAS</t>
+  </si>
+  <si>
+    <t>NOMINA # 39</t>
+  </si>
+  <si>
+    <t>QUESOS--TOCINETA-SALAMI-PEPERONI</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>TOCINO-POLLO-QUESOS-SALCHICHA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-LONGANIZAS-PASTOR-JAMON-CARBON</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-ENCHILADA-JAMON-CREMA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-PASTOR</t>
+  </si>
+  <si>
+    <t>NOMINA # 40</t>
+  </si>
+  <si>
+    <t>QUESOS</t>
+  </si>
+  <si>
+    <t>2-sep-2022</t>
+  </si>
+  <si>
+    <t>3-sep-2022</t>
+  </si>
+  <si>
+    <t>5-sep-2022</t>
+  </si>
+  <si>
+    <t>6-sep-2022</t>
+  </si>
+  <si>
+    <t>7-sep-2022</t>
+  </si>
+  <si>
+    <t>8-sep-2022</t>
+  </si>
+  <si>
+    <t>10-sep-2022</t>
+  </si>
+  <si>
+    <t>11-sep-2022</t>
+  </si>
+  <si>
+    <t>12-sep-2022</t>
+  </si>
+  <si>
+    <t>13-sep-2022</t>
+  </si>
+  <si>
+    <t>14-sep-2022</t>
+  </si>
+  <si>
+    <t>15-sep-2022</t>
+  </si>
+  <si>
+    <t>16-sep-2022</t>
+  </si>
+  <si>
+    <t>17-sep-2022</t>
+  </si>
+  <si>
+    <t>19-sep-2022</t>
+  </si>
+  <si>
+    <t>20-sep-2022</t>
+  </si>
+  <si>
+    <t>21-sep-2022</t>
+  </si>
+  <si>
+    <t>22-sep-2022</t>
+  </si>
+  <si>
+    <t>23-sep-2022</t>
+  </si>
+  <si>
+    <t>24-sep-2022</t>
+  </si>
+  <si>
+    <t>26-sep-2022</t>
+  </si>
+  <si>
+    <t>27-sep-2022</t>
+  </si>
+  <si>
+    <t>28-sep-2022</t>
+  </si>
+  <si>
+    <t>30-sep-2022</t>
+  </si>
+  <si>
+    <t>1-oct-2022</t>
+  </si>
+  <si>
+    <t>2-oct-2022</t>
+  </si>
+  <si>
+    <t>29-ago-2022</t>
+  </si>
+  <si>
+    <t>30-ago-2022</t>
+  </si>
+  <si>
+    <t>31-ago-2022</t>
+  </si>
+  <si>
+    <t>08653 D</t>
+  </si>
+  <si>
+    <t>08667 D</t>
+  </si>
+  <si>
+    <t>08788 D</t>
+  </si>
+  <si>
+    <t>08892 D</t>
+  </si>
+  <si>
+    <t>30/09/2022</t>
+  </si>
+  <si>
+    <t>D-12322</t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
+  </si>
+  <si>
+    <t>D-12384</t>
+  </si>
+  <si>
+    <t>08961 D</t>
+  </si>
+  <si>
+    <t>0927 D</t>
+  </si>
+  <si>
+    <t>09079 D</t>
+  </si>
+  <si>
+    <t>09227 D</t>
+  </si>
+  <si>
+    <t>09430 D</t>
+  </si>
+  <si>
+    <t>09539 D</t>
+  </si>
+  <si>
+    <t>09656 D</t>
+  </si>
+  <si>
+    <t>09809 D</t>
+  </si>
+  <si>
+    <t>9942 D</t>
+  </si>
+  <si>
+    <t>10019 D</t>
+  </si>
+  <si>
+    <t>10048 D</t>
+  </si>
+  <si>
+    <t>10236 D</t>
+  </si>
+  <si>
+    <t>10258 D</t>
+  </si>
+  <si>
+    <t>10429 D</t>
+  </si>
+  <si>
+    <t>10544 D</t>
+  </si>
+  <si>
+    <t>10662 D</t>
+  </si>
+  <si>
+    <t>10732 D</t>
+  </si>
+  <si>
+    <t>10801 D</t>
+  </si>
+  <si>
+    <t>10805 D</t>
+  </si>
+  <si>
+    <t>10902 D</t>
+  </si>
+  <si>
+    <t>11101 D</t>
+  </si>
+  <si>
+    <t>11193 D</t>
+  </si>
+  <si>
+    <t>11322 D</t>
+  </si>
+  <si>
+    <t>11387 D</t>
+  </si>
+  <si>
+    <t>11494 D</t>
+  </si>
+  <si>
+    <t>11649 D</t>
+  </si>
+  <si>
+    <t>11651 D</t>
+  </si>
+  <si>
+    <t>11783 D</t>
+  </si>
+  <si>
+    <t>11903 D</t>
+  </si>
+  <si>
+    <t>12009 D</t>
+  </si>
+  <si>
+    <t>12131 D</t>
+  </si>
+  <si>
+    <t>12236 D</t>
   </si>
 </sst>
 </file>
@@ -6893,7 +7130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="941">
+  <cellXfs count="952">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8419,7 +8656,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8444,13 +8680,43 @@
     <xf numFmtId="44" fontId="2" fillId="17" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="21" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8916,17 +9182,11 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -14667,23 +14927,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="803" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="818" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="804"/>
-      <c r="E1" s="804"/>
-      <c r="F1" s="804"/>
-      <c r="G1" s="804"/>
-      <c r="H1" s="804"/>
-      <c r="I1" s="804"/>
-      <c r="J1" s="804"/>
-      <c r="K1" s="804"/>
-      <c r="L1" s="804"/>
-      <c r="M1" s="804"/>
+      <c r="D1" s="819"/>
+      <c r="E1" s="819"/>
+      <c r="F1" s="819"/>
+      <c r="G1" s="819"/>
+      <c r="H1" s="819"/>
+      <c r="I1" s="819"/>
+      <c r="J1" s="819"/>
+      <c r="K1" s="819"/>
+      <c r="L1" s="819"/>
+      <c r="M1" s="819"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14693,17 +14953,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14717,14 +14977,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14734,10 +14994,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782" t="s">
+      <c r="P4" s="797" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="783"/>
+      <c r="Q4" s="798"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16178,11 +16438,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="784">
+      <c r="M39" s="799">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="786">
+      <c r="N39" s="801">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16208,8 +16468,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="785"/>
-      <c r="N40" s="787"/>
+      <c r="M40" s="800"/>
+      <c r="N40" s="802"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16424,29 +16684,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="788" t="s">
+      <c r="H52" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="789"/>
+      <c r="I52" s="804"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="790">
+      <c r="K52" s="805">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="791"/>
-      <c r="M52" s="792">
+      <c r="L52" s="806"/>
+      <c r="M52" s="807">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="793"/>
+      <c r="N52" s="808"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="794" t="s">
+      <c r="D53" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="794"/>
+      <c r="E53" s="809"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16457,22 +16717,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="794" t="s">
+      <c r="D54" s="809" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="794"/>
+      <c r="E54" s="809"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="795" t="s">
+      <c r="I54" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="796"/>
-      <c r="K54" s="797">
+      <c r="J54" s="811"/>
+      <c r="K54" s="812">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="798"/>
+      <c r="L54" s="813"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16505,11 +16765,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="799">
+      <c r="K56" s="814">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="800"/>
+      <c r="L56" s="815"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16526,22 +16786,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="777" t="s">
+      <c r="D58" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="778"/>
+      <c r="E58" s="793"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="779" t="s">
+      <c r="I58" s="794" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="780"/>
-      <c r="K58" s="781">
+      <c r="J58" s="795"/>
+      <c r="K58" s="796">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="781"/>
+      <c r="L58" s="796"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -19165,10 +19425,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="873" t="s">
+      <c r="I76" s="888" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="874"/>
+      <c r="J76" s="889"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19187,8 +19447,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="875"/>
-      <c r="J77" s="876"/>
+      <c r="I77" s="890"/>
+      <c r="J77" s="891"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19255,7 +19515,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="839" t="s">
+      <c r="F80" s="854" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19270,7 +19530,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="840"/>
+      <c r="F81" s="855"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19278,10 +19538,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="872" t="s">
+      <c r="B82" s="887" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="872"/>
+      <c r="C82" s="887"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19563,23 +19823,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19589,24 +19849,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19621,14 +19881,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19638,15 +19898,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
-      <c r="W4" s="814" t="s">
+      <c r="R4" s="857"/>
+      <c r="W4" s="829" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="814"/>
+      <c r="X4" s="829"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19697,8 +19957,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="814"/>
-      <c r="X5" s="814"/>
+      <c r="W5" s="829"/>
+      <c r="X5" s="829"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20461,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="818">
+      <c r="W19" s="833">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20513,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="819"/>
+      <c r="W20" s="834"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20562,8 +20822,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="820"/>
-      <c r="X21" s="820"/>
+      <c r="W21" s="835"/>
+      <c r="X21" s="835"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20663,8 +20923,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="821"/>
-      <c r="X23" s="821"/>
+      <c r="W23" s="836"/>
+      <c r="X23" s="836"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20719,8 +20979,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="821"/>
-      <c r="X24" s="821"/>
+      <c r="W24" s="836"/>
+      <c r="X24" s="836"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20768,8 +21028,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="822"/>
-      <c r="X25" s="822"/>
+      <c r="W25" s="837"/>
+      <c r="X25" s="837"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20818,8 +21078,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="822"/>
-      <c r="X26" s="822"/>
+      <c r="W26" s="837"/>
+      <c r="X26" s="837"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20867,9 +21127,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="815"/>
-      <c r="X27" s="816"/>
-      <c r="Y27" s="817"/>
+      <c r="W27" s="830"/>
+      <c r="X27" s="831"/>
+      <c r="Y27" s="832"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20917,9 +21177,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="816"/>
-      <c r="X28" s="816"/>
-      <c r="Y28" s="817"/>
+      <c r="W28" s="831"/>
+      <c r="X28" s="831"/>
+      <c r="Y28" s="832"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21251,11 +21511,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="833">
+      <c r="M36" s="848">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="835">
+      <c r="N36" s="850">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21263,7 +21523,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="868">
+      <c r="Q36" s="883">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21288,13 +21548,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="834"/>
-      <c r="N37" s="836"/>
+      <c r="M37" s="849"/>
+      <c r="N37" s="851"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="869"/>
+      <c r="Q37" s="884"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21344,11 +21604,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="870">
+      <c r="M39" s="885">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="871"/>
+      <c r="N39" s="886"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21976,26 +22236,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="788" t="s">
+      <c r="H68" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="789"/>
+      <c r="I68" s="804"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="790">
+      <c r="K68" s="805">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="823"/>
+      <c r="L68" s="838"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="794" t="s">
+      <c r="D69" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="794"/>
+      <c r="E69" s="809"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -22004,22 +22264,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="824" t="s">
+      <c r="D70" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="824"/>
+      <c r="E70" s="839"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="795" t="s">
+      <c r="I70" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="796"/>
-      <c r="K70" s="797">
+      <c r="J70" s="811"/>
+      <c r="K70" s="812">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="797"/>
+      <c r="L70" s="812"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -22060,11 +22320,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="799">
+      <c r="K72" s="814">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="800"/>
+      <c r="L72" s="815"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -22081,22 +22341,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="777" t="s">
+      <c r="D74" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="778"/>
+      <c r="E74" s="793"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="779" t="s">
+      <c r="I74" s="794" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="780"/>
-      <c r="K74" s="781">
+      <c r="J74" s="795"/>
+      <c r="K74" s="796">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="781"/>
+      <c r="L74" s="796"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -23834,10 +24094,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="881" t="s">
+      <c r="I44" s="896" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="882"/>
+      <c r="J44" s="897"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23856,8 +24116,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="883"/>
-      <c r="J45" s="884"/>
+      <c r="I45" s="898"/>
+      <c r="J45" s="899"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23876,8 +24136,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="885"/>
-      <c r="J46" s="886"/>
+      <c r="I46" s="900"/>
+      <c r="J46" s="901"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24566,7 +24826,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="839" t="s">
+      <c r="F80" s="854" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24579,7 +24839,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="840"/>
+      <c r="F81" s="855"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24599,10 +24859,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="877" t="s">
+      <c r="I83" s="892" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="878"/>
+      <c r="J83" s="893"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24611,8 +24871,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="879"/>
-      <c r="J84" s="880"/>
+      <c r="I84" s="894"/>
+      <c r="J84" s="895"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24885,23 +25145,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24911,24 +25171,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24943,14 +25203,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24960,15 +25220,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
-      <c r="W4" s="814" t="s">
+      <c r="R4" s="857"/>
+      <c r="W4" s="829" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="814"/>
+      <c r="X4" s="829"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25019,8 +25279,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="814"/>
-      <c r="X5" s="814"/>
+      <c r="W5" s="829"/>
+      <c r="X5" s="829"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25779,7 +26039,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="818">
+      <c r="W19" s="833">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25831,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="819"/>
+      <c r="W20" s="834"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25880,8 +26140,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="820"/>
-      <c r="X21" s="820"/>
+      <c r="W21" s="835"/>
+      <c r="X21" s="835"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25978,8 +26238,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="821"/>
-      <c r="X23" s="821"/>
+      <c r="W23" s="836"/>
+      <c r="X23" s="836"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26034,8 +26294,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="821"/>
-      <c r="X24" s="821"/>
+      <c r="W24" s="836"/>
+      <c r="X24" s="836"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26081,8 +26341,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="822"/>
-      <c r="X25" s="822"/>
+      <c r="W25" s="837"/>
+      <c r="X25" s="837"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26133,8 +26393,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="822"/>
-      <c r="X26" s="822"/>
+      <c r="W26" s="837"/>
+      <c r="X26" s="837"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26185,9 +26445,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="815"/>
-      <c r="X27" s="816"/>
-      <c r="Y27" s="817"/>
+      <c r="W27" s="830"/>
+      <c r="X27" s="831"/>
+      <c r="Y27" s="832"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26237,9 +26497,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="816"/>
-      <c r="X28" s="816"/>
-      <c r="Y28" s="817"/>
+      <c r="W28" s="831"/>
+      <c r="X28" s="831"/>
+      <c r="Y28" s="832"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26843,11 +27103,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="833">
+      <c r="M41" s="848">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="833">
+      <c r="N41" s="848">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26855,7 +27115,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="887">
+      <c r="Q41" s="902">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26885,10 +27145,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="834"/>
-      <c r="N42" s="834"/>
+      <c r="M42" s="849"/>
+      <c r="N42" s="849"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="888"/>
+      <c r="Q42" s="903"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26976,11 +27236,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="889">
+      <c r="M45" s="904">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="890"/>
+      <c r="N45" s="905"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27573,26 +27833,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="788" t="s">
+      <c r="H70" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="789"/>
+      <c r="I70" s="804"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="790">
+      <c r="K70" s="805">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="823"/>
+      <c r="L70" s="838"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="794" t="s">
+      <c r="D71" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="794"/>
+      <c r="E71" s="809"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27602,22 +27862,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="824" t="s">
+      <c r="D72" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="824"/>
+      <c r="E72" s="839"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="795" t="s">
+      <c r="I72" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="796"/>
-      <c r="K72" s="797">
+      <c r="J72" s="811"/>
+      <c r="K72" s="812">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="797"/>
+      <c r="L72" s="812"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27658,11 +27918,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="799">
+      <c r="K74" s="814">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="800"/>
+      <c r="L74" s="815"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27681,22 +27941,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="777" t="s">
+      <c r="D76" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="778"/>
+      <c r="E76" s="793"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="779" t="s">
+      <c r="I76" s="794" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="780"/>
-      <c r="K76" s="781">
+      <c r="J76" s="795"/>
+      <c r="K76" s="796">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="781"/>
+      <c r="L76" s="796"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -29856,10 +30116,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="881" t="s">
+      <c r="I54" s="896" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="882"/>
+      <c r="J54" s="897"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29875,8 +30135,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="883"/>
-      <c r="J55" s="884"/>
+      <c r="I55" s="898"/>
+      <c r="J55" s="899"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29892,8 +30152,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="885"/>
-      <c r="J56" s="886"/>
+      <c r="I56" s="900"/>
+      <c r="J56" s="901"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30561,7 +30821,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="839" t="s">
+      <c r="F90" s="854" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30574,7 +30834,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="840"/>
+      <c r="F91" s="855"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30593,10 +30853,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="877" t="s">
+      <c r="I93" s="892" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="878"/>
+      <c r="J93" s="893"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30606,8 +30866,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="879"/>
-      <c r="J94" s="880"/>
+      <c r="I94" s="894"/>
+      <c r="J94" s="895"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -31048,11 +31308,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="891">
+      <c r="C130" s="906">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="892"/>
+      <c r="D130" s="907"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -31089,24 +31349,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="906" t="s">
+      <c r="B2" s="921" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="907"/>
-      <c r="D2" s="908"/>
-      <c r="F2" s="894" t="s">
+      <c r="C2" s="922"/>
+      <c r="D2" s="923"/>
+      <c r="F2" s="909" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="895"/>
-      <c r="H2" s="896"/>
+      <c r="G2" s="910"/>
+      <c r="H2" s="911"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="909"/>
-      <c r="C3" s="910"/>
-      <c r="D3" s="911"/>
-      <c r="F3" s="897"/>
-      <c r="G3" s="898"/>
-      <c r="H3" s="899"/>
+      <c r="B3" s="924"/>
+      <c r="C3" s="925"/>
+      <c r="D3" s="926"/>
+      <c r="F3" s="912"/>
+      <c r="G3" s="913"/>
+      <c r="H3" s="914"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31251,11 +31511,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="900">
+      <c r="G11" s="915">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="901"/>
+      <c r="H11" s="916"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31272,33 +31532,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="904" t="s">
+      <c r="C15" s="919" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="902">
+      <c r="D15" s="917">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="912" t="s">
+      <c r="E15" s="927" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="913"/>
-      <c r="G15" s="913"/>
-      <c r="H15" s="914"/>
+      <c r="F15" s="928"/>
+      <c r="G15" s="928"/>
+      <c r="H15" s="929"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="905"/>
-      <c r="D16" s="903"/>
-      <c r="E16" s="915"/>
-      <c r="F16" s="916"/>
-      <c r="G16" s="916"/>
-      <c r="H16" s="917"/>
+      <c r="C16" s="920"/>
+      <c r="D16" s="918"/>
+      <c r="E16" s="930"/>
+      <c r="F16" s="931"/>
+      <c r="G16" s="931"/>
+      <c r="H16" s="932"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="893" t="s">
+      <c r="C17" s="908" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="893"/>
+      <c r="D17" s="908"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31357,23 +31617,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31383,24 +31643,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31419,14 +31679,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31436,15 +31696,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
+      <c r="R4" s="857"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="924"/>
-      <c r="X4" s="924"/>
+      <c r="W4" s="939"/>
+      <c r="X4" s="939"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31498,8 +31758,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="924"/>
-      <c r="X5" s="924"/>
+      <c r="W5" s="939"/>
+      <c r="X5" s="939"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32265,7 +32525,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="925"/>
+      <c r="W19" s="940"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32319,7 +32579,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="925"/>
+      <c r="W20" s="940"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32374,8 +32634,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="820"/>
-      <c r="X21" s="820"/>
+      <c r="W21" s="835"/>
+      <c r="X21" s="835"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32486,8 +32746,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="821"/>
-      <c r="X23" s="821"/>
+      <c r="W23" s="836"/>
+      <c r="X23" s="836"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32548,8 +32808,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="821"/>
-      <c r="X24" s="821"/>
+      <c r="W24" s="836"/>
+      <c r="X24" s="836"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32602,8 +32862,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="822"/>
-      <c r="X25" s="822"/>
+      <c r="W25" s="837"/>
+      <c r="X25" s="837"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32658,8 +32918,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="822"/>
-      <c r="X26" s="822"/>
+      <c r="W26" s="837"/>
+      <c r="X26" s="837"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32714,9 +32974,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="815"/>
-      <c r="X27" s="816"/>
-      <c r="Y27" s="817"/>
+      <c r="W27" s="830"/>
+      <c r="X27" s="831"/>
+      <c r="Y27" s="832"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32770,9 +33030,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="816"/>
-      <c r="X28" s="816"/>
-      <c r="Y28" s="817"/>
+      <c r="W28" s="831"/>
+      <c r="X28" s="831"/>
+      <c r="Y28" s="832"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33356,11 +33616,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="833">
+      <c r="M41" s="848">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="833">
+      <c r="N41" s="848">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33368,7 +33628,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="887">
+      <c r="Q41" s="902">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33392,10 +33652,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="834"/>
-      <c r="N42" s="834"/>
+      <c r="M42" s="849"/>
+      <c r="N42" s="849"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="888"/>
+      <c r="Q42" s="903"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33464,11 +33724,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="889">
+      <c r="M45" s="904">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="890"/>
+      <c r="N45" s="905"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33884,26 +34144,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="788" t="s">
+      <c r="H63" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="789"/>
+      <c r="I63" s="804"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="921">
+      <c r="K63" s="936">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="922"/>
+      <c r="L63" s="937"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="794" t="s">
+      <c r="D64" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="794"/>
+      <c r="E64" s="809"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33912,22 +34172,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="824" t="s">
+      <c r="D65" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="824"/>
+      <c r="E65" s="839"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="795" t="s">
+      <c r="I65" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="796"/>
-      <c r="K65" s="797">
+      <c r="J65" s="811"/>
+      <c r="K65" s="812">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="797"/>
+      <c r="L65" s="812"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33968,11 +34228,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="923">
+      <c r="K67" s="938">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="797"/>
+      <c r="L67" s="812"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33989,22 +34249,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="777" t="s">
+      <c r="D69" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="778"/>
+      <c r="E69" s="793"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="918" t="s">
+      <c r="I69" s="933" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="919"/>
-      <c r="K69" s="920">
+      <c r="J69" s="934"/>
+      <c r="K69" s="935">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="920"/>
+      <c r="L69" s="935"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -35677,10 +35937,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="881" t="s">
+      <c r="I38" s="896" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="882"/>
+      <c r="J38" s="897"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -35699,8 +35959,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="883"/>
-      <c r="J39" s="884"/>
+      <c r="I39" s="898"/>
+      <c r="J39" s="899"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -35719,8 +35979,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="885"/>
-      <c r="J40" s="886"/>
+      <c r="I40" s="900"/>
+      <c r="J40" s="901"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36343,7 +36603,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="839" t="s">
+      <c r="F71" s="854" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36356,7 +36616,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="840"/>
+      <c r="F72" s="855"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36375,10 +36635,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="877" t="s">
+      <c r="I74" s="892" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="878"/>
+      <c r="J74" s="893"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36387,8 +36647,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="879"/>
-      <c r="J75" s="880"/>
+      <c r="I75" s="894"/>
+      <c r="J75" s="895"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36522,11 +36782,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="928" t="s">
+      <c r="A89" s="943" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="929"/>
-      <c r="C89" s="929"/>
+      <c r="B89" s="944"/>
+      <c r="C89" s="944"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36536,10 +36796,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="930" t="s">
+      <c r="B90" s="945" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="931"/>
+      <c r="C90" s="946"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -36640,7 +36900,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="926">
+      <c r="C97" s="941">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36654,7 +36914,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="927"/>
+      <c r="C98" s="942"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36755,23 +37015,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36781,24 +37041,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36813,14 +37073,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36830,11 +37090,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
+      <c r="R4" s="857"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38602,11 +38862,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="833">
+      <c r="M41" s="848">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="833">
+      <c r="N41" s="848">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38614,7 +38874,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="887">
+      <c r="Q41" s="902">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -38644,10 +38904,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="834"/>
-      <c r="N42" s="834"/>
+      <c r="M42" s="849"/>
+      <c r="N42" s="849"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="888"/>
+      <c r="Q42" s="903"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -38734,11 +38994,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="889">
+      <c r="M45" s="904">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="890"/>
+      <c r="N45" s="905"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39324,26 +39584,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="788" t="s">
+      <c r="H69" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="789"/>
+      <c r="I69" s="804"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="921">
+      <c r="K69" s="936">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="922"/>
+      <c r="L69" s="937"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="794" t="s">
+      <c r="D70" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="794"/>
+      <c r="E70" s="809"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39352,22 +39612,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="824" t="s">
+      <c r="D71" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="824"/>
+      <c r="E71" s="839"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="795" t="s">
+      <c r="I71" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="796"/>
-      <c r="K71" s="797">
+      <c r="J71" s="811"/>
+      <c r="K71" s="812">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="797"/>
+      <c r="L71" s="812"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39408,11 +39668,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="923">
+      <c r="K73" s="938">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="797"/>
+      <c r="L73" s="812"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39429,22 +39689,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="777" t="s">
+      <c r="D75" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="778"/>
+      <c r="E75" s="793"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="779" t="s">
+      <c r="I75" s="794" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="780"/>
-      <c r="K75" s="781">
+      <c r="J75" s="795"/>
+      <c r="K75" s="796">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="781"/>
+      <c r="L75" s="796"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -41293,10 +41553,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="881" t="s">
+      <c r="H43" s="896" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="882"/>
+      <c r="I43" s="897"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41315,8 +41575,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="883"/>
-      <c r="I44" s="884"/>
+      <c r="H44" s="898"/>
+      <c r="I44" s="899"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41335,8 +41595,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="885"/>
-      <c r="I45" s="886"/>
+      <c r="H45" s="900"/>
+      <c r="I45" s="901"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -41780,10 +42040,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="877" t="s">
+      <c r="H67" s="892" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="878"/>
+      <c r="I67" s="893"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -41803,11 +42063,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="839" t="s">
+      <c r="F68" s="854" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="879"/>
-      <c r="I68" s="880"/>
+      <c r="H68" s="894"/>
+      <c r="I68" s="895"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41818,7 +42078,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="840"/>
+      <c r="F69" s="855"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43633,7 +43893,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="812" t="s">
+      <c r="B41" s="827" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -43665,7 +43925,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="813"/>
+      <c r="B42" s="828"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45259,23 +45519,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45285,24 +45545,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45317,14 +45577,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45334,11 +45594,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
+      <c r="R4" s="857"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -47072,11 +47332,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="833">
+      <c r="M41" s="848">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="833">
+      <c r="N41" s="848">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -47084,7 +47344,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="887">
+      <c r="Q41" s="902">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47114,10 +47374,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="834"/>
-      <c r="N42" s="834"/>
+      <c r="M42" s="849"/>
+      <c r="N42" s="849"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="888"/>
+      <c r="Q42" s="903"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47198,11 +47458,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="889">
+      <c r="M45" s="904">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="890"/>
+      <c r="N45" s="905"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -47719,26 +47979,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="788" t="s">
+      <c r="H69" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="789"/>
+      <c r="I69" s="804"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="921">
+      <c r="K69" s="936">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="922"/>
+      <c r="L69" s="937"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="794" t="s">
+      <c r="D70" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="794"/>
+      <c r="E70" s="809"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -47747,22 +48007,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="824" t="s">
+      <c r="D71" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="824"/>
+      <c r="E71" s="839"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="795" t="s">
+      <c r="I71" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="796"/>
-      <c r="K71" s="797">
+      <c r="J71" s="811"/>
+      <c r="K71" s="812">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="797"/>
+      <c r="L71" s="812"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47803,11 +48063,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="923">
+      <c r="K73" s="938">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="797"/>
+      <c r="L73" s="812"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47824,22 +48084,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="777" t="s">
+      <c r="D75" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="778"/>
+      <c r="E75" s="793"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="918" t="s">
+      <c r="I75" s="933" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="919"/>
-      <c r="K75" s="920">
+      <c r="J75" s="934"/>
+      <c r="K75" s="935">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="920"/>
+      <c r="L75" s="935"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -49389,10 +49649,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="881" t="s">
+      <c r="H40" s="896" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="882"/>
+      <c r="I40" s="897"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49411,8 +49671,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="883"/>
-      <c r="I41" s="884"/>
+      <c r="H41" s="898"/>
+      <c r="I41" s="899"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49431,8 +49691,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="885"/>
-      <c r="I42" s="886"/>
+      <c r="H42" s="900"/>
+      <c r="I42" s="901"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49936,10 +50196,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="877" t="s">
+      <c r="H67" s="892" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="878"/>
+      <c r="I67" s="893"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49959,11 +50219,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="839" t="s">
+      <c r="F68" s="854" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="879"/>
-      <c r="I68" s="880"/>
+      <c r="H68" s="894"/>
+      <c r="I68" s="895"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49974,7 +50234,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="840"/>
+      <c r="F69" s="855"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50567,10 +50827,10 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -50596,23 +50856,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50622,24 +50882,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50654,14 +50914,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50671,11 +50931,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
+      <c r="R4" s="857"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52394,11 +52654,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="833">
+      <c r="M41" s="848">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="833">
+      <c r="N41" s="848">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52406,7 +52666,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="887">
+      <c r="Q41" s="902">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52434,10 +52694,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="834"/>
-      <c r="N42" s="834"/>
+      <c r="M42" s="849"/>
+      <c r="N42" s="849"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="888"/>
+      <c r="Q42" s="903"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52510,11 +52770,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="889">
+      <c r="M45" s="904">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="890"/>
+      <c r="N45" s="905"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -53007,26 +53267,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="788" t="s">
+      <c r="H69" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="789"/>
+      <c r="I69" s="804"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="921">
+      <c r="K69" s="936">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="922"/>
+      <c r="L69" s="937"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="794" t="s">
+      <c r="D70" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="794"/>
+      <c r="E70" s="809"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -53035,22 +53295,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="824" t="s">
+      <c r="D71" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="824"/>
+      <c r="E71" s="839"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="795" t="s">
+      <c r="I71" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="796"/>
-      <c r="K71" s="797">
+      <c r="J71" s="811"/>
+      <c r="K71" s="812">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="797"/>
+      <c r="L71" s="812"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -53091,11 +53351,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="923">
+      <c r="K73" s="938">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="797"/>
+      <c r="L73" s="812"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53112,22 +53372,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="777" t="s">
+      <c r="D75" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="778"/>
+      <c r="E75" s="793"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="779" t="s">
+      <c r="I75" s="794" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="780"/>
-      <c r="K75" s="781">
+      <c r="J75" s="795"/>
+      <c r="K75" s="796">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="781"/>
+      <c r="L75" s="796"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53308,8 +53568,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54494,10 +54754,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="881" t="s">
+      <c r="H40" s="896" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="882"/>
+      <c r="I40" s="897"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54516,8 +54776,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="883"/>
-      <c r="I41" s="884"/>
+      <c r="H41" s="898"/>
+      <c r="I41" s="899"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -54536,8 +54796,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="885"/>
-      <c r="I42" s="886"/>
+      <c r="H42" s="900"/>
+      <c r="I42" s="901"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -55041,10 +55301,10 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="877" t="s">
+      <c r="H67" s="892" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="878"/>
+      <c r="I67" s="893"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -55064,11 +55324,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="839" t="s">
+      <c r="F68" s="854" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="879"/>
-      <c r="I68" s="880"/>
+      <c r="H68" s="894"/>
+      <c r="I68" s="895"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -55079,7 +55339,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="840"/>
+      <c r="F69" s="855"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -55670,10 +55930,10 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P44" sqref="P43:P44"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55701,23 +55961,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55727,24 +55987,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -55759,14 +56019,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -55776,11 +56036,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
+      <c r="R4" s="857"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -55866,7 +56126,7 @@
       <c r="N6" s="33">
         <v>44469</v>
       </c>
-      <c r="O6" s="754" t="s">
+      <c r="O6" s="753" t="s">
         <v>1247</v>
       </c>
       <c r="P6" s="39">
@@ -55916,7 +56176,7 @@
       <c r="N7" s="33">
         <v>48294</v>
       </c>
-      <c r="O7" s="754" t="s">
+      <c r="O7" s="753" t="s">
         <v>1247</v>
       </c>
       <c r="P7" s="39">
@@ -55926,8 +56186,8 @@
       <c r="Q7" s="325">
         <v>0</v>
       </c>
-      <c r="R7" s="319">
-        <v>0</v>
+      <c r="R7" s="388">
+        <v>40939</v>
       </c>
       <c r="S7" s="426"/>
     </row>
@@ -55964,14 +56224,15 @@
       <c r="N8" s="33">
         <v>40334</v>
       </c>
-      <c r="O8" s="754" t="s">
+      <c r="O8" s="753" t="s">
         <v>1247</v>
       </c>
       <c r="P8" s="39">
-        <f t="shared" ref="P8:P38" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P39" si="1">N8+M8+L8+I8+C8</f>
         <v>120503</v>
       </c>
       <c r="Q8" s="325">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="319">
@@ -56012,7 +56273,7 @@
       <c r="N9" s="33">
         <v>55554</v>
       </c>
-      <c r="O9" s="754" t="s">
+      <c r="O9" s="753" t="s">
         <v>1247</v>
       </c>
       <c r="P9" s="39">
@@ -56068,7 +56329,7 @@
       <c r="N10" s="33">
         <v>58208</v>
       </c>
-      <c r="O10" s="754" t="s">
+      <c r="O10" s="753" t="s">
         <v>1247</v>
       </c>
       <c r="P10" s="39">
@@ -56117,7 +56378,7 @@
       <c r="N11" s="33">
         <v>40989</v>
       </c>
-      <c r="O11" s="754" t="s">
+      <c r="O11" s="753" t="s">
         <v>1247</v>
       </c>
       <c r="P11" s="39">
@@ -56167,7 +56428,7 @@
       <c r="N12" s="33">
         <v>52008</v>
       </c>
-      <c r="O12" s="755" t="s">
+      <c r="O12" s="754" t="s">
         <v>1247</v>
       </c>
       <c r="P12" s="39">
@@ -56181,10 +56442,10 @@
       <c r="R12" s="319">
         <v>0</v>
       </c>
-      <c r="S12" s="932"/>
-      <c r="T12" s="933"/>
-      <c r="U12" s="756"/>
-      <c r="V12" s="757"/>
+      <c r="S12" s="774"/>
+      <c r="T12" s="775"/>
+      <c r="U12" s="755"/>
+      <c r="V12" s="756"/>
     </row>
     <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
@@ -56200,10 +56461,10 @@
       <c r="E13" s="27">
         <v>44810</v>
       </c>
-      <c r="F13" s="774">
+      <c r="F13" s="28">
         <v>106867</v>
       </c>
-      <c r="G13" s="773"/>
+      <c r="G13" s="771"/>
       <c r="H13" s="29">
         <v>44810</v>
       </c>
@@ -56213,21 +56474,21 @@
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="772">
+      <c r="M13" s="32">
         <f>42400+10000+121050+650</f>
         <v>174100</v>
       </c>
       <c r="N13" s="33">
         <v>42079</v>
       </c>
-      <c r="O13" s="754" t="s">
+      <c r="O13" s="753" t="s">
         <v>1247</v>
       </c>
       <c r="P13" s="39">
         <f>N13+M13+L13+I13+C13</f>
         <v>251506</v>
       </c>
-      <c r="Q13" s="770">
+      <c r="Q13" s="769">
         <f t="shared" si="0"/>
         <v>144639</v>
       </c>
@@ -56240,10 +56501,10 @@
       <c r="T13" s="327">
         <v>42400</v>
       </c>
-      <c r="U13" s="768" t="s">
+      <c r="U13" s="767" t="s">
         <v>597</v>
       </c>
-      <c r="V13" s="759"/>
+      <c r="V13" s="758"/>
     </row>
     <row r="14" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
@@ -56290,7 +56551,7 @@
         <f>P14-F14-29415-3</f>
         <v>-49700</v>
       </c>
-      <c r="R14" s="771">
+      <c r="R14" s="770">
         <v>29415</v>
       </c>
       <c r="S14" s="370">
@@ -56299,10 +56560,10 @@
       <c r="T14" s="327">
         <v>10000</v>
       </c>
-      <c r="U14" s="768" t="s">
+      <c r="U14" s="767" t="s">
         <v>597</v>
       </c>
-      <c r="V14" s="759"/>
+      <c r="V14" s="758"/>
     </row>
     <row r="15" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
@@ -56354,13 +56615,13 @@
       <c r="S15" s="370">
         <v>44810</v>
       </c>
-      <c r="T15" s="769">
+      <c r="T15" s="768">
         <v>121050</v>
       </c>
-      <c r="U15" s="768" t="s">
+      <c r="U15" s="767" t="s">
         <v>597</v>
       </c>
-      <c r="V15" s="759"/>
+      <c r="V15" s="758"/>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
@@ -56409,13 +56670,13 @@
       <c r="R16" s="319">
         <v>0</v>
       </c>
-      <c r="S16" s="766"/>
-      <c r="T16" s="775">
+      <c r="S16" s="765"/>
+      <c r="T16" s="772">
         <f>SUM(T13:T15)</f>
         <v>173450</v>
       </c>
-      <c r="U16" s="758"/>
-      <c r="V16" s="759"/>
+      <c r="U16" s="757"/>
+      <c r="V16" s="758"/>
     </row>
     <row r="17" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
@@ -56476,10 +56737,10 @@
       <c r="T17" s="327">
         <v>-28811</v>
       </c>
-      <c r="U17" s="767" t="s">
+      <c r="U17" s="766" t="s">
         <v>27</v>
       </c>
-      <c r="V17" s="759"/>
+      <c r="V17" s="758"/>
     </row>
     <row r="18" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
@@ -56535,10 +56796,10 @@
       <c r="T18" s="327">
         <v>-49700</v>
       </c>
-      <c r="U18" s="767" t="s">
+      <c r="U18" s="766" t="s">
         <v>27</v>
       </c>
-      <c r="V18" s="759"/>
+      <c r="V18" s="758"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
@@ -56591,13 +56852,13 @@
       <c r="S19" s="370">
         <v>44812</v>
       </c>
-      <c r="T19" s="934">
+      <c r="T19" s="776">
         <v>-49878</v>
       </c>
-      <c r="U19" s="767" t="s">
+      <c r="U19" s="766" t="s">
         <v>27</v>
       </c>
-      <c r="V19" s="759"/>
+      <c r="V19" s="758"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
@@ -56643,19 +56904,19 @@
       <c r="Q20" s="325">
         <v>0</v>
       </c>
-      <c r="R20" s="319" t="s">
-        <v>1062</v>
-      </c>
-      <c r="S20" s="766">
+      <c r="R20" s="388">
+        <v>51478</v>
+      </c>
+      <c r="S20" s="765">
         <v>44813</v>
       </c>
-      <c r="T20" s="935">
+      <c r="T20" s="777">
         <v>-34611</v>
       </c>
-      <c r="U20" s="760" t="s">
+      <c r="U20" s="759" t="s">
         <v>27</v>
       </c>
-      <c r="V20" s="759"/>
+      <c r="V20" s="758"/>
     </row>
     <row r="21" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
@@ -56705,16 +56966,16 @@
       <c r="R21" s="319" t="s">
         <v>1261</v>
       </c>
-      <c r="S21" s="766">
+      <c r="S21" s="765">
         <v>44832</v>
       </c>
       <c r="T21" s="34">
         <v>-10450</v>
       </c>
-      <c r="U21" s="936" t="s">
+      <c r="U21" s="778" t="s">
         <v>27</v>
       </c>
-      <c r="V21" s="759"/>
+      <c r="V21" s="758"/>
     </row>
     <row r="22" spans="1:22" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
@@ -56743,7 +57004,7 @@
       <c r="J22" s="37">
         <v>44819</v>
       </c>
-      <c r="K22" s="776" t="s">
+      <c r="K22" s="773" t="s">
         <v>1262</v>
       </c>
       <c r="L22" s="49">
@@ -56770,13 +57031,13 @@
       <c r="R22" s="319">
         <v>0</v>
       </c>
-      <c r="S22" s="766"/>
-      <c r="T22" s="937">
+      <c r="S22" s="765"/>
+      <c r="T22" s="779">
         <f>SUM(T17:T21)</f>
         <v>-173450</v>
       </c>
-      <c r="U22" s="938"/>
-      <c r="V22" s="759"/>
+      <c r="U22" s="780"/>
+      <c r="V22" s="758"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
@@ -56826,15 +57087,15 @@
       <c r="R23" s="319">
         <v>0</v>
       </c>
-      <c r="S23" s="766"/>
-      <c r="T23" s="939">
+      <c r="S23" s="765"/>
+      <c r="T23" s="781">
         <f>T16+T22</f>
         <v>0</v>
       </c>
-      <c r="U23" s="940" t="s">
+      <c r="U23" s="782" t="s">
         <v>1272</v>
       </c>
-      <c r="V23" s="759"/>
+      <c r="V23" s="758"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
@@ -56863,7 +57124,7 @@
       <c r="J24" s="51">
         <v>44821</v>
       </c>
-      <c r="K24" s="173" t="s">
+      <c r="K24" s="783" t="s">
         <v>1265</v>
       </c>
       <c r="L24" s="52">
@@ -56890,10 +57151,10 @@
       <c r="R24" s="319">
         <v>0</v>
       </c>
-      <c r="S24" s="766"/>
-      <c r="T24" s="761"/>
-      <c r="U24" s="761"/>
-      <c r="V24" s="759"/>
+      <c r="S24" s="765"/>
+      <c r="T24" s="760"/>
+      <c r="U24" s="760"/>
+      <c r="V24" s="758"/>
     </row>
     <row r="25" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
@@ -56940,10 +57201,10 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="S25" s="764"/>
-      <c r="T25" s="761"/>
-      <c r="U25" s="761"/>
-      <c r="V25" s="759"/>
+      <c r="S25" s="763"/>
+      <c r="T25" s="760"/>
+      <c r="U25" s="760"/>
+      <c r="V25" s="758"/>
     </row>
     <row r="26" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
@@ -56992,10 +57253,10 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="S26" s="765"/>
-      <c r="T26" s="762"/>
-      <c r="U26" s="762"/>
-      <c r="V26" s="763"/>
+      <c r="S26" s="764"/>
+      <c r="T26" s="761"/>
+      <c r="U26" s="761"/>
+      <c r="V26" s="762"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
@@ -57203,31 +57464,46 @@
       <c r="B31" s="24">
         <v>44828</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="25">
+        <v>29510.5</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>1273</v>
+      </c>
       <c r="E31" s="27">
         <v>44828</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>129885</v>
+      </c>
       <c r="G31" s="572"/>
       <c r="H31" s="29">
         <v>44828</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="566"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="30">
+        <v>5786</v>
+      </c>
+      <c r="J31" s="56">
+        <v>44828</v>
+      </c>
+      <c r="K31" s="784" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L31" s="54">
+        <v>17332</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <v>16552.5</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>60704</v>
+      </c>
+      <c r="O31" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129885</v>
       </c>
       <c r="Q31" s="325">
         <f t="shared" si="0"/>
@@ -57242,33 +57518,44 @@
       <c r="B32" s="24">
         <v>44829</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="25">
+        <v>8976</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>1275</v>
+      </c>
       <c r="E32" s="27">
         <v>44829</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>89845</v>
+      </c>
       <c r="G32" s="572"/>
       <c r="H32" s="29">
         <v>44829</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="30">
+        <v>2432</v>
+      </c>
       <c r="J32" s="56"/>
       <c r="K32" s="38"/>
       <c r="L32" s="39"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>10000+36765</f>
+        <v>46765</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>31672</v>
+      </c>
+      <c r="O32" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89845</v>
+      </c>
+      <c r="Q32" s="325" t="s">
+        <v>1276</v>
       </c>
       <c r="R32" s="319">
         <v>0</v>
@@ -57282,29 +57569,41 @@
       <c r="B33" s="24">
         <v>44830</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="25">
+        <v>14233</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>1277</v>
+      </c>
       <c r="E33" s="27">
         <v>44830</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28">
+        <v>153400</v>
+      </c>
       <c r="G33" s="572"/>
       <c r="H33" s="29">
         <v>44830</v>
       </c>
-      <c r="I33" s="30"/>
+      <c r="I33" s="30">
+        <v>1019</v>
+      </c>
       <c r="J33" s="56"/>
       <c r="K33" s="223"/>
       <c r="L33" s="69"/>
       <c r="M33" s="32">
-        <v>0</v>
+        <f>65768+19602</f>
+        <v>85370</v>
       </c>
       <c r="N33" s="33">
-        <v>0</v>
+        <v>52778</v>
+      </c>
+      <c r="O33" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P33" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>153400</v>
       </c>
       <c r="Q33" s="325">
         <v>0</v>
@@ -57318,29 +57617,41 @@
       <c r="B34" s="24">
         <v>44831</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="64"/>
+      <c r="C34" s="25">
+        <v>22714</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>1278</v>
+      </c>
       <c r="E34" s="27">
         <v>44831</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="28">
+        <v>145561</v>
+      </c>
       <c r="G34" s="572"/>
       <c r="H34" s="29">
         <v>44831</v>
       </c>
-      <c r="I34" s="30"/>
+      <c r="I34" s="30">
+        <v>860</v>
+      </c>
       <c r="J34" s="56"/>
       <c r="K34" s="751"/>
       <c r="L34" s="39"/>
       <c r="M34" s="32">
-        <v>0</v>
+        <f>56143+28602</f>
+        <v>84745</v>
       </c>
       <c r="N34" s="33">
-        <v>0</v>
+        <v>37242</v>
+      </c>
+      <c r="O34" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P34" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145561</v>
       </c>
       <c r="Q34" s="325">
         <f t="shared" si="0"/>
@@ -57355,29 +57666,41 @@
       <c r="B35" s="24">
         <v>44832</v>
       </c>
-      <c r="C35" s="690"/>
-      <c r="D35" s="67"/>
+      <c r="C35" s="690">
+        <v>8231</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>328</v>
+      </c>
       <c r="E35" s="27">
         <v>44832</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="28">
+        <v>146386</v>
+      </c>
       <c r="G35" s="572"/>
       <c r="H35" s="29">
         <v>44832</v>
       </c>
-      <c r="I35" s="30"/>
+      <c r="I35" s="30">
+        <v>1849</v>
+      </c>
       <c r="J35" s="698"/>
       <c r="K35" s="752"/>
       <c r="L35" s="702"/>
       <c r="M35" s="32">
-        <v>-10450</v>
+        <f>75888+10438</f>
+        <v>86326</v>
       </c>
       <c r="N35" s="33">
-        <v>0</v>
+        <v>39530</v>
+      </c>
+      <c r="O35" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P35" s="34">
         <f t="shared" si="1"/>
-        <v>-10450</v>
+        <v>135936</v>
       </c>
       <c r="Q35" s="317">
         <f>P35-F35</f>
@@ -57392,29 +57715,41 @@
       <c r="B36" s="24">
         <v>44833</v>
       </c>
-      <c r="C36" s="693"/>
-      <c r="D36" s="741"/>
+      <c r="C36" s="693">
+        <v>19378.5</v>
+      </c>
+      <c r="D36" s="786" t="s">
+        <v>1279</v>
+      </c>
       <c r="E36" s="27">
         <v>44833</v>
       </c>
-      <c r="F36" s="28"/>
+      <c r="F36" s="28">
+        <v>129537</v>
+      </c>
       <c r="G36" s="662"/>
       <c r="H36" s="29">
         <v>44833</v>
       </c>
-      <c r="I36" s="30"/>
+      <c r="I36" s="30">
+        <v>1432.5</v>
+      </c>
       <c r="J36" s="56"/>
       <c r="K36" s="751"/>
       <c r="L36" s="39"/>
       <c r="M36" s="32">
-        <v>0</v>
+        <f>75617+5967</f>
+        <v>81584</v>
       </c>
       <c r="N36" s="33">
-        <v>0</v>
+        <v>27142</v>
+      </c>
+      <c r="O36" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129537</v>
       </c>
       <c r="Q36" s="325">
         <f t="shared" si="0"/>
@@ -57429,29 +57764,40 @@
       <c r="B37" s="24">
         <v>44834</v>
       </c>
-      <c r="C37" s="692"/>
-      <c r="D37" s="742"/>
+      <c r="C37" s="692">
+        <v>13389</v>
+      </c>
+      <c r="D37" s="742" t="s">
+        <v>1280</v>
+      </c>
       <c r="E37" s="27">
         <v>44834</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="28">
+        <v>132707</v>
+      </c>
       <c r="G37" s="662"/>
       <c r="H37" s="29">
         <v>44834</v>
       </c>
-      <c r="I37" s="30"/>
+      <c r="I37" s="30">
+        <v>1695.5</v>
+      </c>
       <c r="J37" s="56"/>
       <c r="K37" s="751"/>
       <c r="L37" s="39"/>
       <c r="M37" s="32">
-        <v>0</v>
+        <v>87292.5</v>
       </c>
       <c r="N37" s="33">
-        <v>0</v>
+        <v>30330</v>
+      </c>
+      <c r="O37" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>132707</v>
       </c>
       <c r="Q37" s="325">
         <v>0</v>
@@ -57465,29 +57811,44 @@
       <c r="B38" s="24">
         <v>44835</v>
       </c>
-      <c r="C38" s="692"/>
+      <c r="C38" s="692">
+        <v>0</v>
+      </c>
       <c r="D38" s="742"/>
       <c r="E38" s="27">
         <v>44835</v>
       </c>
-      <c r="F38" s="28"/>
+      <c r="F38" s="28">
+        <v>156339</v>
+      </c>
       <c r="G38" s="662"/>
       <c r="H38" s="29">
         <v>44835</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="663"/>
-      <c r="L38" s="39"/>
+      <c r="I38" s="30">
+        <v>3056</v>
+      </c>
+      <c r="J38" s="56">
+        <v>44835</v>
+      </c>
+      <c r="K38" s="787" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L38" s="39">
+        <v>19981</v>
+      </c>
       <c r="M38" s="32">
-        <v>0</v>
+        <v>72199</v>
       </c>
       <c r="N38" s="33">
-        <v>0</v>
+        <v>61103</v>
+      </c>
+      <c r="O38" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P38" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>156339</v>
       </c>
       <c r="Q38" s="325">
         <f t="shared" si="0"/>
@@ -57502,28 +57863,40 @@
       <c r="B39" s="24">
         <v>44836</v>
       </c>
-      <c r="C39" s="692"/>
-      <c r="D39" s="695"/>
+      <c r="C39" s="692">
+        <v>3653</v>
+      </c>
+      <c r="D39" s="695" t="s">
+        <v>1282</v>
+      </c>
       <c r="E39" s="27">
         <v>44836</v>
       </c>
-      <c r="F39" s="508"/>
+      <c r="F39" s="508">
+        <v>110600</v>
+      </c>
       <c r="G39" s="662"/>
       <c r="H39" s="29">
         <v>44836</v>
       </c>
-      <c r="I39" s="71"/>
+      <c r="I39" s="71">
+        <v>120</v>
+      </c>
       <c r="J39" s="56"/>
       <c r="K39" s="663"/>
       <c r="L39" s="39"/>
       <c r="M39" s="32">
-        <v>0</v>
+        <v>67471</v>
       </c>
       <c r="N39" s="33">
-        <v>0</v>
+        <v>39356</v>
+      </c>
+      <c r="O39" s="577" t="s">
+        <v>937</v>
       </c>
       <c r="P39" s="34">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>110600</v>
       </c>
       <c r="Q39" s="111">
         <f t="shared" si="0"/>
@@ -57582,19 +57955,19 @@
       <c r="L41" s="39">
         <v>19507</v>
       </c>
-      <c r="M41" s="833">
+      <c r="M41" s="848">
         <f>SUM(M5:M40)</f>
-        <v>1533732.68</v>
-      </c>
-      <c r="N41" s="833">
+        <v>2172487.6799999997</v>
+      </c>
+      <c r="N41" s="848">
         <f>SUM(N5:N40)</f>
-        <v>1245362</v>
+        <v>1625219</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>3372058.6799999997</v>
-      </c>
-      <c r="Q41" s="887">
+        <v>4566318.68</v>
+      </c>
+      <c r="Q41" s="902">
         <f>SUM(Q5:Q40)</f>
         <v>6</v>
       </c>
@@ -57616,19 +57989,19 @@
       <c r="J42" s="698">
         <v>44814</v>
       </c>
-      <c r="K42" s="752" t="s">
+      <c r="K42" s="740" t="s">
         <v>1256</v>
       </c>
       <c r="L42" s="702">
         <v>19250</v>
       </c>
-      <c r="M42" s="834"/>
-      <c r="N42" s="834"/>
+      <c r="M42" s="849"/>
+      <c r="N42" s="849"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="888"/>
-      <c r="R42" s="227">
+      <c r="Q42" s="903"/>
+      <c r="R42" s="788">
         <f>SUM(R5:R41)</f>
-        <v>29415</v>
+        <v>121832</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57644,7 +58017,7 @@
       <c r="J43" s="56">
         <v>44821</v>
       </c>
-      <c r="K43" s="751" t="s">
+      <c r="K43" s="739" t="s">
         <v>1265</v>
       </c>
       <c r="L43" s="39">
@@ -57665,9 +58038,15 @@
       <c r="G44" s="572"/>
       <c r="H44" s="76"/>
       <c r="I44" s="77"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
+      <c r="J44" s="56">
+        <v>44828</v>
+      </c>
+      <c r="K44" s="785" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L44" s="39">
+        <v>19464</v>
+      </c>
       <c r="M44" s="750"/>
       <c r="N44" s="750"/>
       <c r="P44" s="34"/>
@@ -57683,14 +58062,20 @@
       <c r="G45" s="572"/>
       <c r="H45" s="76"/>
       <c r="I45" s="77"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="671"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="889">
+      <c r="J45" s="56">
+        <v>44835</v>
+      </c>
+      <c r="K45" s="785" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L45" s="39">
+        <v>19450</v>
+      </c>
+      <c r="M45" s="904">
         <f>M41+N41</f>
-        <v>2779094.6799999997</v>
-      </c>
-      <c r="N45" s="890"/>
+        <v>3797706.6799999997</v>
+      </c>
+      <c r="N45" s="905"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -57706,7 +58091,9 @@
       <c r="I46" s="77"/>
       <c r="J46" s="56"/>
       <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
+      <c r="L46" s="39">
+        <v>0</v>
+      </c>
       <c r="M46" s="750"/>
       <c r="N46" s="750"/>
       <c r="P46" s="34"/>
@@ -57892,7 +58279,7 @@
       <c r="P56" s="34"/>
       <c r="Q56" s="13"/>
     </row>
-    <row r="57" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
@@ -57910,7 +58297,7 @@
       <c r="P57" s="34"/>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
@@ -57928,7 +58315,7 @@
       <c r="P58" s="34"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
@@ -57946,7 +58333,7 @@
       <c r="P59" s="34"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="80"/>
       <c r="C60" s="25">
@@ -57965,7 +58352,7 @@
       <c r="P60" s="34"/>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="595"/>
       <c r="C61" s="596"/>
@@ -57982,7 +58369,7 @@
       <c r="P61" s="34"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="595"/>
       <c r="C62" s="596"/>
@@ -57999,7 +58386,7 @@
       <c r="P62" s="34"/>
       <c r="Q62" s="13"/>
     </row>
-    <row r="63" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="595"/>
       <c r="C63" s="596"/>
@@ -58016,7 +58403,7 @@
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
-    <row r="64" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="595"/>
       <c r="C64" s="596"/>
@@ -58033,7 +58420,7 @@
       <c r="P64" s="34"/>
       <c r="Q64" s="13"/>
     </row>
-    <row r="65" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="595"/>
       <c r="C65" s="596"/>
@@ -58073,7 +58460,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>445230</v>
+        <v>565315</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -58081,7 +58468,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>3250218</v>
+        <v>4444478</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -58089,7 +58476,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>68458</v>
+        <v>86708</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -58097,7 +58484,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>140797</v>
+        <v>217024</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -58115,50 +58502,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="788" t="s">
+      <c r="H69" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="789"/>
+      <c r="I69" s="804"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="921">
+      <c r="K69" s="936">
         <f>I67+L67</f>
-        <v>209255</v>
-      </c>
-      <c r="L69" s="922"/>
+        <v>303732</v>
+      </c>
+      <c r="L69" s="937"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="794" t="s">
+      <c r="D70" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="794"/>
+      <c r="E70" s="809"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>2595733</v>
+        <v>3575431</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="824" t="s">
+      <c r="D71" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="824"/>
+      <c r="E71" s="839"/>
       <c r="F71" s="111">
-        <v>0</v>
-      </c>
-      <c r="I71" s="795" t="s">
+        <v>-2600214.79</v>
+      </c>
+      <c r="I71" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="796"/>
-      <c r="K71" s="797">
+      <c r="J71" s="811"/>
+      <c r="K71" s="812">
         <f>F73+F74+F75</f>
-        <v>2595733</v>
-      </c>
-      <c r="L71" s="797"/>
+        <v>4815644.33</v>
+      </c>
+      <c r="L71" s="812"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -58171,7 +58558,7 @@
       </c>
       <c r="E72" s="314"/>
       <c r="F72" s="315">
-        <v>0</v>
+        <v>-250099.28</v>
       </c>
       <c r="I72" s="105"/>
       <c r="J72" s="106"/>
@@ -58192,18 +58579,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>2595733</v>
+        <v>725116.92999999993</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="923">
+      <c r="K73" s="938">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="797"/>
+      <c r="L73" s="812"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -58213,27 +58600,29 @@
         <v>17</v>
       </c>
       <c r="F74" s="111">
-        <v>0</v>
+        <v>317024</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="112"/>
-      <c r="D75" s="777" t="s">
+      <c r="C75" s="112">
+        <v>44836</v>
+      </c>
+      <c r="D75" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="778"/>
+      <c r="E75" s="793"/>
       <c r="F75" s="113">
-        <v>0</v>
-      </c>
-      <c r="I75" s="779" t="s">
+        <v>3773503.4</v>
+      </c>
+      <c r="I75" s="794" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="780"/>
-      <c r="K75" s="781">
+      <c r="J75" s="795"/>
+      <c r="K75" s="796">
         <f>K71+K73</f>
-        <v>-76822.990000000224</v>
-      </c>
-      <c r="L75" s="781"/>
+        <v>2143088.34</v>
+      </c>
+      <c r="L75" s="796"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -58414,8 +58803,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58496,747 +58885,1185 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="454"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="111"/>
+      <c r="A3" s="454">
+        <v>44802</v>
+      </c>
+      <c r="B3" s="246" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C3" s="111">
+        <v>121622.37</v>
+      </c>
       <c r="D3" s="412"/>
       <c r="E3" s="111"/>
       <c r="F3" s="410">
         <f>C3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="753"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="349"/>
+        <v>121622.37</v>
+      </c>
+      <c r="H3" s="789" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I3" s="790">
+        <v>10198</v>
+      </c>
+      <c r="J3" s="791">
+        <v>3903.92</v>
+      </c>
       <c r="K3" s="732"/>
       <c r="L3" s="706"/>
       <c r="M3" s="183">
         <f>J3-L3</f>
-        <v>0</v>
+        <v>3903.92</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="454"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="454">
+        <v>44802</v>
+      </c>
+      <c r="B4" s="246" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C4" s="111">
+        <v>7506</v>
+      </c>
       <c r="D4" s="412"/>
       <c r="E4" s="111"/>
       <c r="F4" s="544">
         <f t="shared" ref="F4:F65" si="0">C4-E4</f>
-        <v>0</v>
+        <v>7506</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="H4" s="753"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="349"/>
+      <c r="H4" s="500" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I4" s="501">
+        <v>10204</v>
+      </c>
+      <c r="J4" s="502">
+        <v>9566.7999999999993</v>
+      </c>
       <c r="K4" s="732"/>
       <c r="L4" s="706"/>
       <c r="M4" s="137">
         <f>M3+J4-L4</f>
-        <v>0</v>
+        <v>13470.72</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="454"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="111"/>
+      <c r="A5" s="454">
+        <v>44803</v>
+      </c>
+      <c r="B5" s="246" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C5" s="111">
+        <v>60096.32</v>
+      </c>
       <c r="D5" s="412"/>
       <c r="E5" s="111"/>
       <c r="F5" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="753"/>
-      <c r="I5" s="347"/>
-      <c r="J5" s="349"/>
+        <v>60096.32</v>
+      </c>
+      <c r="H5" s="500" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I5" s="501">
+        <v>10211</v>
+      </c>
+      <c r="J5" s="502">
+        <v>330</v>
+      </c>
       <c r="K5" s="732"/>
       <c r="L5" s="706"/>
       <c r="M5" s="137">
         <f t="shared" ref="M5:M65" si="1">M4+J5-L5</f>
-        <v>0</v>
+        <v>13800.72</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="454"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="454">
+        <v>44804</v>
+      </c>
+      <c r="B6" s="246" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C6" s="111">
+        <v>70935.199999999997</v>
+      </c>
       <c r="D6" s="412"/>
       <c r="E6" s="111"/>
       <c r="F6" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="753"/>
-      <c r="I6" s="347"/>
-      <c r="J6" s="349"/>
+        <v>70935.199999999997</v>
+      </c>
+      <c r="H6" s="500" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I6" s="501">
+        <v>10237</v>
+      </c>
+      <c r="J6" s="502">
+        <v>1450.6</v>
+      </c>
       <c r="K6" s="732"/>
       <c r="L6" s="706"/>
       <c r="M6" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15251.32</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="454"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="111"/>
+      <c r="A7" s="452">
+        <v>44805</v>
+      </c>
+      <c r="B7" s="437" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C7" s="392">
+        <v>135900.6</v>
+      </c>
       <c r="D7" s="412"/>
       <c r="E7" s="111"/>
       <c r="F7" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="753"/>
-      <c r="I7" s="347"/>
-      <c r="J7" s="349"/>
+        <v>135900.6</v>
+      </c>
+      <c r="H7" s="497" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I7" s="498">
+        <v>10243</v>
+      </c>
+      <c r="J7" s="499">
+        <v>2480</v>
+      </c>
       <c r="K7" s="732"/>
       <c r="L7" s="706"/>
       <c r="M7" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17731.32</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="454"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="111"/>
+      <c r="A8" s="452">
+        <v>44713</v>
+      </c>
+      <c r="B8" s="437" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C8" s="392">
+        <v>4028</v>
+      </c>
       <c r="D8" s="412"/>
       <c r="E8" s="111"/>
       <c r="F8" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="753"/>
-      <c r="I8" s="347"/>
-      <c r="J8" s="349"/>
+        <v>4028</v>
+      </c>
+      <c r="H8" s="497" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I8" s="498">
+        <v>10245</v>
+      </c>
+      <c r="J8" s="499">
+        <v>3712</v>
+      </c>
       <c r="K8" s="732"/>
       <c r="L8" s="706"/>
       <c r="M8" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21443.32</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="454"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="111"/>
+      <c r="A9" s="452">
+        <v>44806</v>
+      </c>
+      <c r="B9" s="437" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C9" s="392">
+        <v>71698.3</v>
+      </c>
       <c r="D9" s="412"/>
       <c r="E9" s="111"/>
       <c r="F9" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="753"/>
-      <c r="I9" s="347"/>
-      <c r="J9" s="349"/>
+        <v>71698.3</v>
+      </c>
+      <c r="H9" s="500" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I9" s="501">
+        <v>10252</v>
+      </c>
+      <c r="J9" s="502">
+        <v>8863</v>
+      </c>
       <c r="K9" s="732"/>
       <c r="L9" s="706"/>
       <c r="M9" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30306.32</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="454"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="111"/>
+      <c r="A10" s="452">
+        <v>44807</v>
+      </c>
+      <c r="B10" s="437" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C10" s="392">
+        <v>76677.600000000006</v>
+      </c>
       <c r="D10" s="412"/>
       <c r="E10" s="111"/>
       <c r="F10" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76677.600000000006</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="H10" s="753"/>
-      <c r="I10" s="347"/>
-      <c r="J10" s="349"/>
+      <c r="H10" s="500" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I10" s="501">
+        <v>10256</v>
+      </c>
+      <c r="J10" s="502">
+        <v>6457.76</v>
+      </c>
       <c r="K10" s="732"/>
       <c r="L10" s="706"/>
       <c r="M10" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36764.080000000002</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="454"/>
-      <c r="B11" s="246"/>
-      <c r="C11" s="111"/>
+      <c r="A11" s="452">
+        <v>44809</v>
+      </c>
+      <c r="B11" s="437" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C11" s="392">
+        <v>74432.399999999994</v>
+      </c>
       <c r="D11" s="412"/>
       <c r="E11" s="111"/>
       <c r="F11" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="753"/>
-      <c r="I11" s="347"/>
-      <c r="J11" s="349"/>
+        <v>74432.399999999994</v>
+      </c>
+      <c r="H11" s="500" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I11" s="501">
+        <v>10264</v>
+      </c>
+      <c r="J11" s="502">
+        <v>6040</v>
+      </c>
       <c r="K11" s="732"/>
       <c r="L11" s="706"/>
       <c r="M11" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42804.08</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="454"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="111"/>
+      <c r="A12" s="452">
+        <v>44810</v>
+      </c>
+      <c r="B12" s="437" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C12" s="392">
+        <v>88952.15</v>
+      </c>
       <c r="D12" s="412"/>
       <c r="E12" s="111"/>
       <c r="F12" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="753"/>
-      <c r="I12" s="347"/>
-      <c r="J12" s="349"/>
+        <v>88952.15</v>
+      </c>
+      <c r="H12" s="497" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I12" s="498">
+        <v>10274</v>
+      </c>
+      <c r="J12" s="499">
+        <v>9717.6</v>
+      </c>
       <c r="K12" s="732"/>
       <c r="L12" s="706"/>
       <c r="M12" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52521.68</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="454"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="452">
+        <v>44811</v>
+      </c>
+      <c r="B13" s="437" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C13" s="392">
+        <v>156034.5</v>
+      </c>
       <c r="D13" s="412"/>
       <c r="E13" s="111"/>
       <c r="F13" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="753"/>
-      <c r="I13" s="347"/>
-      <c r="J13" s="349"/>
+        <v>156034.5</v>
+      </c>
+      <c r="H13" s="500" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I13" s="501">
+        <v>10300</v>
+      </c>
+      <c r="J13" s="502">
+        <v>16135.8</v>
+      </c>
       <c r="K13" s="732"/>
       <c r="L13" s="706"/>
       <c r="M13" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68657.48</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="454"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="452">
+        <v>44812</v>
+      </c>
+      <c r="B14" s="437" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C14" s="392">
+        <v>39036</v>
+      </c>
       <c r="D14" s="412"/>
       <c r="E14" s="111"/>
       <c r="F14" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="753"/>
-      <c r="I14" s="347"/>
-      <c r="J14" s="349"/>
+        <v>39036</v>
+      </c>
+      <c r="H14" s="497" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I14" s="498">
+        <v>10305</v>
+      </c>
+      <c r="J14" s="499">
+        <v>440</v>
+      </c>
       <c r="K14" s="732"/>
       <c r="L14" s="706"/>
       <c r="M14" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69097.48</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="454"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="452">
+        <v>44813</v>
+      </c>
+      <c r="B15" s="437" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C15" s="392">
+        <v>45856.7</v>
+      </c>
       <c r="D15" s="412"/>
       <c r="E15" s="111"/>
       <c r="F15" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="753"/>
-      <c r="I15" s="347"/>
-      <c r="J15" s="349"/>
+        <v>45856.7</v>
+      </c>
+      <c r="H15" s="497" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I15" s="498">
+        <v>10315</v>
+      </c>
+      <c r="J15" s="499">
+        <v>9204</v>
+      </c>
       <c r="K15" s="732"/>
       <c r="L15" s="706"/>
       <c r="M15" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78301.48</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="454"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="111"/>
+      <c r="A16" s="452">
+        <v>44814</v>
+      </c>
+      <c r="B16" s="437" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C16" s="392">
+        <v>90919.73</v>
+      </c>
       <c r="D16" s="412"/>
       <c r="E16" s="111"/>
       <c r="F16" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="753"/>
-      <c r="I16" s="347"/>
-      <c r="J16" s="349"/>
+        <v>90919.73</v>
+      </c>
+      <c r="H16" s="500" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I16" s="501">
+        <v>10323</v>
+      </c>
+      <c r="J16" s="502">
+        <v>880</v>
+      </c>
       <c r="K16" s="732"/>
       <c r="L16" s="706"/>
       <c r="M16" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79181.48</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="454"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="111"/>
+      <c r="A17" s="452">
+        <v>44814</v>
+      </c>
+      <c r="B17" s="437" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C17" s="392">
+        <v>4788</v>
+      </c>
       <c r="D17" s="412"/>
       <c r="E17" s="111"/>
       <c r="F17" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="753"/>
-      <c r="I17" s="347"/>
-      <c r="J17" s="349"/>
+        <v>4788</v>
+      </c>
+      <c r="H17" s="500" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I17" s="501">
+        <v>10332</v>
+      </c>
+      <c r="J17" s="502">
+        <v>1990</v>
+      </c>
       <c r="K17" s="732"/>
       <c r="L17" s="706"/>
       <c r="M17" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81171.48</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="454"/>
-      <c r="B18" s="246"/>
-      <c r="C18" s="111"/>
+      <c r="A18" s="452">
+        <v>44816</v>
+      </c>
+      <c r="B18" s="437" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C18" s="392">
+        <v>132050.23999999999</v>
+      </c>
       <c r="D18" s="412"/>
       <c r="E18" s="111"/>
       <c r="F18" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="753"/>
-      <c r="I18" s="347"/>
-      <c r="J18" s="349"/>
+        <v>132050.23999999999</v>
+      </c>
+      <c r="H18" s="497" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I18" s="498">
+        <v>10350</v>
+      </c>
+      <c r="J18" s="499">
+        <v>440</v>
+      </c>
       <c r="K18" s="732"/>
       <c r="L18" s="706"/>
       <c r="M18" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81611.48</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="454"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="111"/>
+      <c r="A19" s="452">
+        <v>44816</v>
+      </c>
+      <c r="B19" s="437" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C19" s="392">
+        <v>6858</v>
+      </c>
       <c r="D19" s="412"/>
       <c r="E19" s="111"/>
       <c r="F19" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="753"/>
-      <c r="I19" s="347"/>
-      <c r="J19" s="349"/>
+        <v>6858</v>
+      </c>
+      <c r="H19" s="497" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I19" s="498">
+        <v>10355</v>
+      </c>
+      <c r="J19" s="499">
+        <v>760</v>
+      </c>
       <c r="K19" s="732"/>
       <c r="L19" s="706"/>
       <c r="M19" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82371.48</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="454"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="111"/>
+      <c r="A20" s="452">
+        <v>44817</v>
+      </c>
+      <c r="B20" s="437" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C20" s="392">
+        <v>93240.65</v>
+      </c>
       <c r="D20" s="412"/>
       <c r="E20" s="111"/>
       <c r="F20" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="753"/>
-      <c r="I20" s="347"/>
-      <c r="J20" s="349"/>
+        <v>93240.65</v>
+      </c>
+      <c r="H20" s="500" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I20" s="501">
+        <v>10374</v>
+      </c>
+      <c r="J20" s="502">
+        <v>440</v>
+      </c>
       <c r="K20" s="732"/>
       <c r="L20" s="706"/>
       <c r="M20" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82811.48</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="454"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="452">
+        <v>44818</v>
+      </c>
+      <c r="B21" s="437" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C21" s="392">
+        <v>38351.199999999997</v>
+      </c>
       <c r="D21" s="412"/>
       <c r="E21" s="111"/>
       <c r="F21" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="753"/>
-      <c r="I21" s="347"/>
-      <c r="J21" s="349"/>
+        <v>38351.199999999997</v>
+      </c>
+      <c r="H21" s="497" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I21" s="498">
+        <v>10377</v>
+      </c>
+      <c r="J21" s="499">
+        <v>3060</v>
+      </c>
       <c r="K21" s="732"/>
       <c r="L21" s="706"/>
       <c r="M21" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85871.48</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="454"/>
-      <c r="B22" s="246"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="452">
+        <v>44819</v>
+      </c>
+      <c r="B22" s="437" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C22" s="392">
+        <v>48115.16</v>
+      </c>
       <c r="D22" s="412"/>
       <c r="E22" s="111"/>
       <c r="F22" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48115.16</v>
       </c>
       <c r="G22" s="644"/>
-      <c r="H22" s="753"/>
-      <c r="I22" s="347"/>
-      <c r="J22" s="349"/>
+      <c r="H22" s="500" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I22" s="501">
+        <v>10388</v>
+      </c>
+      <c r="J22" s="502">
+        <v>330</v>
+      </c>
       <c r="K22" s="732"/>
       <c r="L22" s="706"/>
       <c r="M22" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86201.48</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="454"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="111"/>
+      <c r="A23" s="452">
+        <v>44819</v>
+      </c>
+      <c r="B23" s="437" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C23" s="392">
+        <v>53088</v>
+      </c>
       <c r="D23" s="412"/>
       <c r="E23" s="111"/>
       <c r="F23" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53088</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="753"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="349"/>
+      <c r="H23" s="500" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I23" s="501">
+        <v>10396</v>
+      </c>
+      <c r="J23" s="502">
+        <v>330</v>
+      </c>
       <c r="K23" s="412"/>
       <c r="L23" s="111"/>
       <c r="M23" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86531.48</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="454"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="111"/>
+      <c r="A24" s="452">
+        <v>44820</v>
+      </c>
+      <c r="B24" s="437" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C24" s="392">
+        <v>71394.820000000007</v>
+      </c>
       <c r="D24" s="412"/>
       <c r="E24" s="111"/>
       <c r="F24" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71394.820000000007</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="753"/>
-      <c r="I24" s="347"/>
-      <c r="J24" s="349"/>
+      <c r="H24" s="497" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I24" s="498">
+        <v>10403</v>
+      </c>
+      <c r="J24" s="499">
+        <v>330</v>
+      </c>
       <c r="K24" s="412"/>
       <c r="L24" s="111"/>
       <c r="M24" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86861.48</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="454"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="452">
+        <v>44820</v>
+      </c>
+      <c r="B25" s="437" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C25" s="392">
+        <v>7659</v>
+      </c>
       <c r="D25" s="412"/>
       <c r="E25" s="111"/>
       <c r="F25" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7659</v>
       </c>
       <c r="G25" s="645"/>
-      <c r="H25" s="753"/>
-      <c r="I25" s="347"/>
-      <c r="J25" s="349"/>
+      <c r="H25" s="500" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I25" s="501">
+        <v>10408</v>
+      </c>
+      <c r="J25" s="502">
+        <v>312</v>
+      </c>
       <c r="K25" s="412"/>
       <c r="L25" s="111"/>
       <c r="M25" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87173.48</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="454"/>
-      <c r="B26" s="580"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="452">
+        <v>44821</v>
+      </c>
+      <c r="B26" s="437" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C26" s="392">
+        <v>78067.399999999994</v>
+      </c>
       <c r="D26" s="412"/>
       <c r="E26" s="111"/>
       <c r="F26" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78067.399999999994</v>
       </c>
       <c r="G26" s="645"/>
-      <c r="H26" s="753"/>
-      <c r="I26" s="347"/>
-      <c r="J26" s="349"/>
+      <c r="H26" s="497" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I26" s="498">
+        <v>10413</v>
+      </c>
+      <c r="J26" s="499">
+        <v>10749.4</v>
+      </c>
       <c r="K26" s="412"/>
       <c r="L26" s="111"/>
       <c r="M26" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>97922.87999999999</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="454"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="111"/>
+      <c r="A27" s="452">
+        <v>44823</v>
+      </c>
+      <c r="B27" s="437" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C27" s="392">
+        <v>4317.6000000000004</v>
+      </c>
       <c r="D27" s="412"/>
       <c r="E27" s="111"/>
       <c r="F27" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4317.6000000000004</v>
       </c>
       <c r="G27" s="645"/>
-      <c r="H27" s="753"/>
-      <c r="I27" s="347"/>
-      <c r="J27" s="349"/>
+      <c r="H27" s="500" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I27" s="501">
+        <v>10426</v>
+      </c>
+      <c r="J27" s="502">
+        <v>440</v>
+      </c>
       <c r="K27" s="412"/>
       <c r="L27" s="111"/>
       <c r="M27" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98362.87999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="454"/>
-      <c r="B28" s="246"/>
-      <c r="C28" s="111"/>
+      <c r="A28" s="452">
+        <v>44824</v>
+      </c>
+      <c r="B28" s="437" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C28" s="392">
+        <v>64961.4</v>
+      </c>
       <c r="D28" s="412"/>
       <c r="E28" s="111"/>
       <c r="F28" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64961.4</v>
       </c>
       <c r="G28" s="645"/>
-      <c r="H28" s="753"/>
-      <c r="I28" s="347"/>
-      <c r="J28" s="349"/>
+      <c r="H28" s="500" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I28" s="501">
+        <v>10430</v>
+      </c>
+      <c r="J28" s="502">
+        <v>83796</v>
+      </c>
       <c r="K28" s="412"/>
       <c r="L28" s="111"/>
       <c r="M28" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>182158.88</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="454"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="111"/>
+      <c r="A29" s="452">
+        <v>44825</v>
+      </c>
+      <c r="B29" s="437" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C29" s="392">
+        <v>8619.2000000000007</v>
+      </c>
       <c r="D29" s="412"/>
       <c r="E29" s="111"/>
       <c r="F29" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8619.2000000000007</v>
       </c>
       <c r="G29" s="645"/>
-      <c r="H29" s="753"/>
-      <c r="I29" s="347"/>
-      <c r="J29" s="349"/>
+      <c r="H29" s="500" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I29" s="501">
+        <v>10431</v>
+      </c>
+      <c r="J29" s="502">
+        <v>32</v>
+      </c>
       <c r="K29" s="412"/>
       <c r="L29" s="111"/>
       <c r="M29" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>182190.88</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="454"/>
-      <c r="B30" s="246"/>
-      <c r="C30" s="111"/>
+      <c r="A30" s="452">
+        <v>44826</v>
+      </c>
+      <c r="B30" s="437" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C30" s="392">
+        <v>26763.09</v>
+      </c>
       <c r="D30" s="412"/>
       <c r="E30" s="111"/>
       <c r="F30" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26763.09</v>
       </c>
       <c r="G30" s="645"/>
-      <c r="H30" s="753"/>
-      <c r="I30" s="347"/>
-      <c r="J30" s="349"/>
+      <c r="H30" s="497" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I30" s="498">
+        <v>10432</v>
+      </c>
+      <c r="J30" s="499">
+        <v>15527.2</v>
+      </c>
       <c r="K30" s="412"/>
       <c r="L30" s="111"/>
       <c r="M30" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>197718.08000000002</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="454"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="111"/>
+      <c r="A31" s="452">
+        <v>44827</v>
+      </c>
+      <c r="B31" s="437" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C31" s="392">
+        <v>449824.82</v>
+      </c>
       <c r="D31" s="412"/>
       <c r="E31" s="111"/>
       <c r="F31" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>449824.82</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="753"/>
-      <c r="I31" s="347"/>
-      <c r="J31" s="349"/>
+      <c r="H31" s="497" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I31" s="498">
+        <v>10439</v>
+      </c>
+      <c r="J31" s="499">
+        <v>9833.2000000000007</v>
+      </c>
       <c r="K31" s="412"/>
       <c r="L31" s="111"/>
       <c r="M31" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>207551.28000000003</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="454"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="111"/>
+      <c r="A32" s="452">
+        <v>44828</v>
+      </c>
+      <c r="B32" s="437" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C32" s="392">
+        <v>75805.399999999994</v>
+      </c>
       <c r="D32" s="412"/>
       <c r="E32" s="111"/>
       <c r="F32" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75805.399999999994</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="753"/>
-      <c r="I32" s="347"/>
-      <c r="J32" s="349"/>
+      <c r="H32" s="497" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I32" s="498">
+        <v>10447</v>
+      </c>
+      <c r="J32" s="499">
+        <v>330</v>
+      </c>
       <c r="K32" s="412"/>
       <c r="L32" s="111"/>
       <c r="M32" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>207881.28000000003</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="454"/>
-      <c r="B33" s="246"/>
-      <c r="C33" s="111"/>
+      <c r="A33" s="452">
+        <v>44828</v>
+      </c>
+      <c r="B33" s="437" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C33" s="392">
+        <v>10260</v>
+      </c>
       <c r="D33" s="412"/>
       <c r="E33" s="111"/>
       <c r="F33" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="753"/>
-      <c r="I33" s="347"/>
-      <c r="J33" s="349"/>
+        <v>10260</v>
+      </c>
+      <c r="H33" s="500" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I33" s="501">
+        <v>10454</v>
+      </c>
+      <c r="J33" s="502">
+        <v>3738</v>
+      </c>
       <c r="K33" s="412"/>
       <c r="L33" s="111"/>
       <c r="M33" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>211619.28000000003</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="454"/>
-      <c r="B34" s="246"/>
-      <c r="C34" s="111"/>
+      <c r="A34" s="452">
+        <v>44830</v>
+      </c>
+      <c r="B34" s="437" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C34" s="392">
+        <v>66227.5</v>
+      </c>
       <c r="D34" s="412"/>
       <c r="E34" s="111"/>
       <c r="F34" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="753"/>
-      <c r="I34" s="347"/>
-      <c r="J34" s="349"/>
+        <v>66227.5</v>
+      </c>
+      <c r="H34" s="497" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I34" s="498">
+        <v>10473</v>
+      </c>
+      <c r="J34" s="499">
+        <v>1760</v>
+      </c>
       <c r="K34" s="412"/>
       <c r="L34" s="111"/>
       <c r="M34" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="454"/>
-      <c r="B35" s="246"/>
-      <c r="C35" s="111"/>
+        <v>213379.28000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="452">
+        <v>44831</v>
+      </c>
+      <c r="B35" s="437" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C35" s="392">
+        <v>61159.199999999997</v>
+      </c>
       <c r="D35" s="412"/>
       <c r="E35" s="111"/>
       <c r="F35" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="704"/>
-      <c r="I35" s="705"/>
-      <c r="J35" s="706"/>
+        <v>61159.199999999997</v>
+      </c>
+      <c r="H35" s="500" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I35" s="501">
+        <v>10482</v>
+      </c>
+      <c r="J35" s="502">
+        <v>550</v>
+      </c>
       <c r="K35" s="412"/>
       <c r="L35" s="111"/>
       <c r="M35" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="454"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="111"/>
+        <v>213929.28000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="452">
+        <v>44832</v>
+      </c>
+      <c r="B36" s="437" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C36" s="392">
+        <v>90739.06</v>
+      </c>
       <c r="D36" s="412"/>
       <c r="E36" s="111"/>
       <c r="F36" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="704"/>
-      <c r="I36" s="705"/>
-      <c r="J36" s="706"/>
+        <v>90739.06</v>
+      </c>
+      <c r="H36" s="497" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I36" s="498">
+        <v>10483</v>
+      </c>
+      <c r="J36" s="499">
+        <v>34040</v>
+      </c>
       <c r="K36" s="412"/>
       <c r="L36" s="111"/>
       <c r="M36" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="454"/>
-      <c r="B37" s="246"/>
-      <c r="C37" s="111"/>
+        <v>247969.28000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="452">
+        <v>44833</v>
+      </c>
+      <c r="B37" s="437" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C37" s="392">
+        <v>27945.95</v>
+      </c>
       <c r="D37" s="412"/>
       <c r="E37" s="111"/>
       <c r="F37" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="704"/>
-      <c r="I37" s="705"/>
-      <c r="J37" s="706"/>
+        <v>27945.95</v>
+      </c>
+      <c r="H37" s="500" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I37" s="501">
+        <v>10484</v>
+      </c>
+      <c r="J37" s="502">
+        <v>1800</v>
+      </c>
       <c r="K37" s="412"/>
       <c r="L37" s="111"/>
       <c r="M37" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="454"/>
-      <c r="B38" s="246"/>
-      <c r="C38" s="111"/>
+        <v>249769.28000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="452">
+        <v>44834</v>
+      </c>
+      <c r="B38" s="437" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C38" s="392">
+        <v>101737.82</v>
+      </c>
       <c r="D38" s="412"/>
       <c r="E38" s="111"/>
       <c r="F38" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="704"/>
-      <c r="I38" s="705"/>
-      <c r="J38" s="706"/>
+        <v>101737.82</v>
+      </c>
+      <c r="H38" s="500" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I38" s="501">
+        <v>10492</v>
+      </c>
+      <c r="J38" s="502">
+        <v>330</v>
+      </c>
       <c r="K38" s="412"/>
       <c r="L38" s="111"/>
       <c r="M38" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="667"/>
-      <c r="B39" s="668"/>
-      <c r="C39" s="111"/>
+      <c r="A39" s="452" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B39" s="437" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C39" s="392">
+        <v>5241.6000000000004</v>
+      </c>
       <c r="D39" s="253"/>
       <c r="E39" s="69"/>
       <c r="F39" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5241.6000000000004</v>
       </c>
       <c r="H39" s="134"/>
       <c r="I39" s="139"/>
@@ -59245,69 +60072,75 @@
       <c r="L39" s="69"/>
       <c r="M39" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="667"/>
-      <c r="B40" s="668"/>
-      <c r="C40" s="111"/>
+      <c r="A40" s="452" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B40" s="437" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C40" s="392">
+        <v>29303.81</v>
+      </c>
       <c r="D40" s="253"/>
       <c r="E40" s="69"/>
       <c r="F40" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="881" t="s">
+        <v>29303.81</v>
+      </c>
+      <c r="H40" s="896" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="882"/>
+      <c r="I40" s="897"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
       <c r="M40" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="667"/>
-      <c r="B41" s="668"/>
-      <c r="C41" s="111"/>
+      <c r="A41" s="951"/>
+      <c r="B41" s="950"/>
+      <c r="C41" s="949"/>
       <c r="D41" s="253"/>
       <c r="E41" s="69"/>
       <c r="F41" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="883"/>
-      <c r="I41" s="884"/>
+      <c r="H41" s="898"/>
+      <c r="I41" s="899"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
       <c r="M41" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="667"/>
-      <c r="B42" s="668"/>
-      <c r="C42" s="111"/>
+      <c r="A42" s="951"/>
+      <c r="B42" s="950"/>
+      <c r="C42" s="949"/>
       <c r="D42" s="253"/>
       <c r="E42" s="69"/>
       <c r="F42" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="885"/>
-      <c r="I42" s="886"/>
+      <c r="H42" s="900"/>
+      <c r="I42" s="901"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
       <c r="M42" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -59327,7 +60160,7 @@
       <c r="L43" s="69"/>
       <c r="M43" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -59347,7 +60180,7 @@
       <c r="L44" s="69"/>
       <c r="M44" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -59367,7 +60200,7 @@
       <c r="L45" s="69"/>
       <c r="M45" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -59387,7 +60220,7 @@
       <c r="L46" s="69"/>
       <c r="M46" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -59407,7 +60240,7 @@
       <c r="L47" s="69"/>
       <c r="M47" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -59427,7 +60260,7 @@
       <c r="L48" s="69"/>
       <c r="M48" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59447,7 +60280,7 @@
       <c r="L49" s="69"/>
       <c r="M49" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59467,7 +60300,7 @@
       <c r="L50" s="34"/>
       <c r="M50" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59487,7 +60320,7 @@
       <c r="L51" s="34"/>
       <c r="M51" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59507,7 +60340,7 @@
       <c r="L52" s="34"/>
       <c r="M52" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59527,7 +60360,7 @@
       <c r="L53" s="34"/>
       <c r="M53" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59547,7 +60380,7 @@
       <c r="L54" s="34"/>
       <c r="M54" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59567,7 +60400,7 @@
       <c r="L55" s="34"/>
       <c r="M55" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59587,7 +60420,7 @@
       <c r="L56" s="69"/>
       <c r="M56" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59607,7 +60440,7 @@
       <c r="L57" s="69"/>
       <c r="M57" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59627,7 +60460,7 @@
       <c r="L58" s="69"/>
       <c r="M58" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59647,7 +60480,7 @@
       <c r="L59" s="69"/>
       <c r="M59" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59667,7 +60500,7 @@
       <c r="L60" s="69"/>
       <c r="M60" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59687,7 +60520,7 @@
       <c r="L61" s="69"/>
       <c r="M61" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59707,7 +60540,7 @@
       <c r="L62" s="69"/>
       <c r="M62" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59727,7 +60560,7 @@
       <c r="L63" s="69"/>
       <c r="M63" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59747,7 +60580,7 @@
       <c r="L64" s="69"/>
       <c r="M64" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -59767,7 +60600,7 @@
       <c r="L65" s="69"/>
       <c r="M65" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -59794,7 +60627,7 @@
       <c r="B67" s="440"/>
       <c r="C67" s="212">
         <f>SUM(C3:C66)</f>
-        <v>0</v>
+        <v>2600214.79</v>
       </c>
       <c r="D67" s="407"/>
       <c r="E67" s="395">
@@ -59803,15 +60636,15 @@
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="877" t="s">
+        <v>2600214.79</v>
+      </c>
+      <c r="H67" s="892" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="878"/>
+      <c r="I67" s="893"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
-        <v>0</v>
+        <v>250099.28000000003</v>
       </c>
       <c r="K67" s="713"/>
       <c r="L67" s="209">
@@ -59828,11 +60661,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="839" t="s">
+      <c r="F68" s="854" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="879"/>
-      <c r="I68" s="880"/>
+      <c r="H68" s="894"/>
+      <c r="I68" s="895"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -59843,7 +60676,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="840"/>
+      <c r="F69" s="855"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -59862,67 +60695,75 @@
       <c r="B71" s="512"/>
       <c r="C71" s="233"/>
       <c r="E71"/>
-      <c r="I71" s="194"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="426"/>
+      <c r="I71" s="503"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="714"/>
       <c r="L71"/>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
       <c r="B72" s="194"/>
       <c r="D72" s="456"/>
       <c r="E72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="947"/>
+      <c r="I72" s="948"/>
+      <c r="J72" s="949"/>
+      <c r="K72" s="949"/>
       <c r="L72"/>
       <c r="M72"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="98"/>
       <c r="B73" s="194"/>
       <c r="D73" s="456"/>
       <c r="E73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="947"/>
+      <c r="I73" s="948"/>
+      <c r="J73" s="949"/>
+      <c r="K73" s="949"/>
       <c r="L73"/>
       <c r="M73"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="98"/>
       <c r="B74" s="194"/>
       <c r="C74" s="129"/>
       <c r="D74" s="456"/>
       <c r="E74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="947"/>
+      <c r="I74" s="948"/>
+      <c r="J74" s="949"/>
+      <c r="K74" s="949"/>
       <c r="L74"/>
       <c r="M74"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="98"/>
       <c r="B75" s="194"/>
       <c r="C75" s="233"/>
       <c r="D75" s="456"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="714"/>
       <c r="L75"/>
       <c r="M75"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="98"/>
       <c r="B76" s="194"/>
       <c r="C76" s="233"/>
       <c r="D76" s="456"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="714"/>
       <c r="L76"/>
       <c r="M76"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="98"/>
       <c r="B77" s="194"/>
       <c r="C77" s="233"/>
       <c r="D77" s="456"/>
@@ -59933,7 +60774,6 @@
       <c r="M77"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="98"/>
       <c r="B78" s="194"/>
       <c r="C78" s="233"/>
       <c r="D78" s="456"/>
@@ -59944,7 +60784,6 @@
       <c r="M78"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="98"/>
       <c r="B79" s="194"/>
       <c r="C79" s="233"/>
       <c r="D79" s="456"/>
@@ -59955,7 +60794,6 @@
       <c r="M79"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
       <c r="B80" s="194"/>
       <c r="C80" s="233"/>
       <c r="D80" s="456"/>
@@ -59965,8 +60803,7 @@
       <c r="L80"/>
       <c r="M80"/>
     </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="98"/>
+    <row r="81" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="116"/>
       <c r="C81" s="233"/>
       <c r="D81" s="456"/>
@@ -59976,8 +60813,7 @@
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="98"/>
+    <row r="82" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="116"/>
       <c r="C82" s="233"/>
       <c r="D82" s="456"/>
@@ -59987,8 +60823,7 @@
       <c r="L82"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="98"/>
+    <row r="83" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="116"/>
       <c r="C83" s="233"/>
       <c r="D83" s="456"/>
@@ -59998,8 +60833,7 @@
       <c r="L83"/>
       <c r="M83"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="98"/>
+    <row r="84" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="116"/>
       <c r="C84" s="233"/>
       <c r="D84" s="456"/>
@@ -60009,8 +60843,7 @@
       <c r="L84"/>
       <c r="M84"/>
     </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="98"/>
+    <row r="85" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="116"/>
       <c r="C85" s="233"/>
       <c r="D85" s="456"/>
@@ -60020,8 +60853,7 @@
       <c r="L85"/>
       <c r="M85"/>
     </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="98"/>
+    <row r="86" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="116"/>
       <c r="C86" s="233"/>
       <c r="D86" s="456"/>
@@ -60031,8 +60863,7 @@
       <c r="L86"/>
       <c r="M86"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="98"/>
+    <row r="87" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="116"/>
       <c r="C87" s="233"/>
       <c r="D87" s="456"/>
@@ -60042,8 +60873,7 @@
       <c r="L87"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="98"/>
+    <row r="88" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="116"/>
       <c r="C88" s="233"/>
       <c r="D88" s="456"/>
@@ -60053,8 +60883,7 @@
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="98"/>
+    <row r="89" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="116"/>
       <c r="C89" s="233"/>
       <c r="D89" s="456"/>
@@ -60064,8 +60893,7 @@
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="98"/>
+    <row r="90" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="116"/>
       <c r="C90" s="233"/>
       <c r="D90" s="456"/>
@@ -60075,8 +60903,7 @@
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
+    <row r="91" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="116"/>
       <c r="C91" s="233"/>
       <c r="D91" s="456"/>
@@ -60086,8 +60913,7 @@
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="98"/>
+    <row r="92" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="116"/>
       <c r="C92" s="233"/>
       <c r="D92" s="456"/>
@@ -60097,8 +60923,7 @@
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="98"/>
+    <row r="93" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="116"/>
       <c r="C93" s="233"/>
       <c r="D93" s="456"/>
@@ -60108,8 +60933,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="98"/>
+    <row r="94" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="116"/>
       <c r="C94" s="233"/>
       <c r="D94" s="456"/>
@@ -60119,8 +60943,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="98"/>
+    <row r="95" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="116"/>
       <c r="C95" s="233"/>
       <c r="D95" s="456"/>
@@ -60130,8 +60953,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
+    <row r="96" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="116"/>
       <c r="C96" s="233"/>
       <c r="D96" s="456"/>
@@ -60141,8 +60963,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="98"/>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="116"/>
       <c r="C97" s="129"/>
       <c r="D97" s="456"/>
@@ -60152,8 +60973,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="98"/>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="116"/>
       <c r="C98" s="129"/>
       <c r="D98" s="456"/>
@@ -60163,8 +60983,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="98"/>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="116"/>
       <c r="C99" s="129"/>
       <c r="D99" s="456"/>
@@ -60174,8 +60993,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="98"/>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="116"/>
       <c r="C100" s="129"/>
       <c r="D100" s="456"/>
@@ -60185,8 +61003,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="98"/>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="116"/>
       <c r="C101" s="129"/>
       <c r="D101" s="456"/>
@@ -60196,8 +61013,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="98"/>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="116"/>
       <c r="D102" s="456"/>
       <c r="H102"/>
@@ -60206,8 +61022,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="98"/>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="116"/>
       <c r="D103" s="456"/>
       <c r="H103"/>
@@ -60216,8 +61031,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="98"/>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="116"/>
       <c r="D104" s="456"/>
       <c r="H104"/>
@@ -60226,8 +61040,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="98"/>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="116"/>
       <c r="D105" s="456"/>
       <c r="H105"/>
@@ -60236,8 +61049,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="98"/>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="116"/>
       <c r="D106" s="456"/>
       <c r="H106"/>
@@ -60246,8 +61058,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="98"/>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="116"/>
       <c r="D107" s="456"/>
       <c r="H107"/>
@@ -60256,8 +61067,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="98"/>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="116"/>
       <c r="D108" s="456"/>
       <c r="H108"/>
@@ -60266,8 +61076,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="98"/>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="116"/>
       <c r="D109" s="456"/>
       <c r="H109"/>
@@ -60276,8 +61085,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="98"/>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="116"/>
       <c r="D110" s="456"/>
       <c r="H110"/>
@@ -60286,8 +61094,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="98"/>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="116"/>
       <c r="D111" s="456"/>
       <c r="H111"/>
@@ -60296,8 +61103,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="98"/>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="116"/>
       <c r="D112" s="456"/>
       <c r="H112"/>
@@ -60306,8 +61112,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="98"/>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="116"/>
       <c r="D113" s="456"/>
       <c r="H113"/>
@@ -60316,8 +61121,7 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="98"/>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="116"/>
       <c r="D114" s="456"/>
       <c r="H114"/>
@@ -60326,8 +61130,7 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="98"/>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="116"/>
       <c r="D115" s="456"/>
       <c r="H115"/>
@@ -60336,8 +61139,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="98"/>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="116"/>
       <c r="D116" s="456"/>
       <c r="H116"/>
@@ -60346,8 +61148,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="98"/>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="116"/>
       <c r="D117" s="456"/>
       <c r="H117"/>
@@ -60356,8 +61157,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="98"/>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="116"/>
       <c r="D118" s="456"/>
       <c r="H118"/>
@@ -60366,8 +61166,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="98"/>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="116"/>
       <c r="D119" s="456"/>
       <c r="H119"/>
@@ -60376,8 +61175,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="98"/>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="116"/>
       <c r="D120" s="456"/>
       <c r="H120"/>
@@ -60386,8 +61184,7 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="98"/>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="116"/>
       <c r="D121" s="456"/>
       <c r="H121"/>
@@ -60396,8 +61193,7 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="98"/>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="116"/>
       <c r="D122" s="456"/>
       <c r="H122"/>
@@ -60406,8 +61202,7 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="98"/>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="116"/>
       <c r="D123" s="456"/>
       <c r="H123"/>
@@ -60487,23 +61282,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="803" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="818" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="804"/>
-      <c r="E1" s="804"/>
-      <c r="F1" s="804"/>
-      <c r="G1" s="804"/>
-      <c r="H1" s="804"/>
-      <c r="I1" s="804"/>
-      <c r="J1" s="804"/>
-      <c r="K1" s="804"/>
-      <c r="L1" s="804"/>
-      <c r="M1" s="804"/>
+      <c r="D1" s="819"/>
+      <c r="E1" s="819"/>
+      <c r="F1" s="819"/>
+      <c r="G1" s="819"/>
+      <c r="H1" s="819"/>
+      <c r="I1" s="819"/>
+      <c r="J1" s="819"/>
+      <c r="K1" s="819"/>
+      <c r="L1" s="819"/>
+      <c r="M1" s="819"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -60513,21 +61308,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
     </row>
@@ -60542,14 +61337,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -60559,14 +61354,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="814" t="s">
+      <c r="W4" s="829" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="814"/>
+      <c r="X4" s="829"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60617,8 +61412,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="814"/>
-      <c r="X5" s="814"/>
+      <c r="W5" s="829"/>
+      <c r="X5" s="829"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61389,7 +62184,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="818">
+      <c r="W19" s="833">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -61441,7 +62236,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="819"/>
+      <c r="W20" s="834"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -61490,8 +62285,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="820"/>
-      <c r="X21" s="820"/>
+      <c r="W21" s="835"/>
+      <c r="X21" s="835"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -61592,8 +62387,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="821"/>
-      <c r="X23" s="821"/>
+      <c r="W23" s="836"/>
+      <c r="X23" s="836"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61647,8 +62442,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="821"/>
-      <c r="X24" s="821"/>
+      <c r="W24" s="836"/>
+      <c r="X24" s="836"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61694,8 +62489,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="822"/>
-      <c r="X25" s="822"/>
+      <c r="W25" s="837"/>
+      <c r="X25" s="837"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61746,8 +62541,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="822"/>
-      <c r="X26" s="822"/>
+      <c r="W26" s="837"/>
+      <c r="X26" s="837"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61795,9 +62590,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="815"/>
-      <c r="X27" s="816"/>
-      <c r="Y27" s="817"/>
+      <c r="W27" s="830"/>
+      <c r="X27" s="831"/>
+      <c r="Y27" s="832"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61847,9 +62642,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="816"/>
-      <c r="X28" s="816"/>
-      <c r="Y28" s="817"/>
+      <c r="W28" s="831"/>
+      <c r="X28" s="831"/>
+      <c r="Y28" s="832"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62184,11 +62979,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="833">
+      <c r="M36" s="848">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="835">
+      <c r="N36" s="850">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -62196,7 +62991,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="837">
+      <c r="Q36" s="852">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -62231,13 +63026,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="834"/>
-      <c r="N37" s="836"/>
+      <c r="M37" s="849"/>
+      <c r="N37" s="851"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="838"/>
+      <c r="Q37" s="853"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -62527,26 +63322,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="788" t="s">
+      <c r="H52" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="789"/>
+      <c r="I52" s="804"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="790">
+      <c r="K52" s="805">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="823"/>
+      <c r="L52" s="838"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="794" t="s">
+      <c r="D53" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="794"/>
+      <c r="E53" s="809"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -62555,29 +63350,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="824" t="s">
+      <c r="D54" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="824"/>
+      <c r="E54" s="839"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="795" t="s">
+      <c r="I54" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="796"/>
-      <c r="K54" s="797">
+      <c r="J54" s="811"/>
+      <c r="K54" s="812">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="797"/>
-      <c r="M54" s="825" t="s">
+      <c r="L54" s="812"/>
+      <c r="M54" s="840" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="826"/>
-      <c r="O54" s="826"/>
-      <c r="P54" s="826"/>
-      <c r="Q54" s="827"/>
+      <c r="N54" s="841"/>
+      <c r="O54" s="841"/>
+      <c r="P54" s="841"/>
+      <c r="Q54" s="842"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -62591,11 +63386,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="828"/>
-      <c r="N55" s="829"/>
-      <c r="O55" s="829"/>
-      <c r="P55" s="829"/>
-      <c r="Q55" s="830"/>
+      <c r="M55" s="843"/>
+      <c r="N55" s="844"/>
+      <c r="O55" s="844"/>
+      <c r="P55" s="844"/>
+      <c r="Q55" s="845"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -62613,11 +63408,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="799">
+      <c r="K56" s="814">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="800"/>
+      <c r="L56" s="815"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -62634,22 +63429,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="777" t="s">
+      <c r="D58" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="778"/>
+      <c r="E58" s="793"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="779" t="s">
+      <c r="I58" s="794" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="780"/>
-      <c r="K58" s="781">
+      <c r="J58" s="795"/>
+      <c r="K58" s="796">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="781"/>
+      <c r="L58" s="796"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -65239,7 +66034,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="839" t="s">
+      <c r="F87" s="854" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -65252,7 +66047,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="840"/>
+      <c r="F88" s="855"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -65564,23 +66359,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="803" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="818" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="804"/>
-      <c r="E1" s="804"/>
-      <c r="F1" s="804"/>
-      <c r="G1" s="804"/>
-      <c r="H1" s="804"/>
-      <c r="I1" s="804"/>
-      <c r="J1" s="804"/>
-      <c r="K1" s="804"/>
-      <c r="L1" s="804"/>
-      <c r="M1" s="804"/>
+      <c r="D1" s="819"/>
+      <c r="E1" s="819"/>
+      <c r="F1" s="819"/>
+      <c r="G1" s="819"/>
+      <c r="H1" s="819"/>
+      <c r="I1" s="819"/>
+      <c r="J1" s="819"/>
+      <c r="K1" s="819"/>
+      <c r="L1" s="819"/>
+      <c r="M1" s="819"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -65590,24 +66385,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -65622,14 +66417,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -65639,15 +66434,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
-      <c r="W4" s="814" t="s">
+      <c r="R4" s="857"/>
+      <c r="W4" s="829" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="814"/>
+      <c r="X4" s="829"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65708,8 +66503,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="814"/>
-      <c r="X5" s="814"/>
+      <c r="W5" s="829"/>
+      <c r="X5" s="829"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66466,7 +67261,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="818">
+      <c r="W19" s="833">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -66518,7 +67313,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="819"/>
+      <c r="W20" s="834"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -66567,8 +67362,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="820"/>
-      <c r="X21" s="820"/>
+      <c r="W21" s="835"/>
+      <c r="X21" s="835"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -66669,8 +67464,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="821"/>
-      <c r="X23" s="821"/>
+      <c r="W23" s="836"/>
+      <c r="X23" s="836"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -66721,8 +67516,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="821"/>
-      <c r="X24" s="821"/>
+      <c r="W24" s="836"/>
+      <c r="X24" s="836"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66768,8 +67563,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="822"/>
-      <c r="X25" s="822"/>
+      <c r="W25" s="837"/>
+      <c r="X25" s="837"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66817,8 +67612,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="822"/>
-      <c r="X26" s="822"/>
+      <c r="W26" s="837"/>
+      <c r="X26" s="837"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66878,9 +67673,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="815"/>
-      <c r="X27" s="816"/>
-      <c r="Y27" s="817"/>
+      <c r="W27" s="830"/>
+      <c r="X27" s="831"/>
+      <c r="Y27" s="832"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66934,9 +67729,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="816"/>
-      <c r="X28" s="816"/>
-      <c r="Y28" s="817"/>
+      <c r="W28" s="831"/>
+      <c r="X28" s="831"/>
+      <c r="Y28" s="832"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -67252,11 +68047,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="833">
+      <c r="M36" s="848">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="835">
+      <c r="N36" s="850">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -67264,7 +68059,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="837">
+      <c r="Q36" s="852">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -67283,13 +68078,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="834"/>
-      <c r="N37" s="836"/>
+      <c r="M37" s="849"/>
+      <c r="N37" s="851"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="838"/>
+      <c r="Q37" s="853"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -67563,26 +68358,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="788" t="s">
+      <c r="H52" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="789"/>
+      <c r="I52" s="804"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="790">
+      <c r="K52" s="805">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="823"/>
+      <c r="L52" s="838"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="794" t="s">
+      <c r="D53" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="794"/>
+      <c r="E53" s="809"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -67591,29 +68386,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="824" t="s">
+      <c r="D54" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="824"/>
+      <c r="E54" s="839"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="795" t="s">
+      <c r="I54" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="796"/>
-      <c r="K54" s="797">
+      <c r="J54" s="811"/>
+      <c r="K54" s="812">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="797"/>
-      <c r="M54" s="825" t="s">
+      <c r="L54" s="812"/>
+      <c r="M54" s="840" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="826"/>
-      <c r="O54" s="826"/>
-      <c r="P54" s="826"/>
-      <c r="Q54" s="827"/>
+      <c r="N54" s="841"/>
+      <c r="O54" s="841"/>
+      <c r="P54" s="841"/>
+      <c r="Q54" s="842"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -67627,11 +68422,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="828"/>
-      <c r="N55" s="829"/>
-      <c r="O55" s="829"/>
-      <c r="P55" s="829"/>
-      <c r="Q55" s="830"/>
+      <c r="M55" s="843"/>
+      <c r="N55" s="844"/>
+      <c r="O55" s="844"/>
+      <c r="P55" s="844"/>
+      <c r="Q55" s="845"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -67649,11 +68444,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="799">
+      <c r="K56" s="814">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="800"/>
+      <c r="L56" s="815"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -67670,22 +68465,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="777" t="s">
+      <c r="D58" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="778"/>
+      <c r="E58" s="793"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="779" t="s">
+      <c r="I58" s="794" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="780"/>
-      <c r="K58" s="781">
+      <c r="J58" s="795"/>
+      <c r="K58" s="796">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="781"/>
+      <c r="L58" s="796"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -70248,7 +71043,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="839" t="s">
+      <c r="F75" s="854" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -70261,7 +71056,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="840"/>
+      <c r="F76" s="855"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -70553,23 +71348,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -70579,24 +71374,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -70611,14 +71406,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -70628,15 +71423,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
-      <c r="W4" s="814" t="s">
+      <c r="R4" s="857"/>
+      <c r="W4" s="829" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="814"/>
+      <c r="X4" s="829"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70687,8 +71482,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="814"/>
-      <c r="X5" s="814"/>
+      <c r="W5" s="829"/>
+      <c r="X5" s="829"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71452,7 +72247,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="818">
+      <c r="W19" s="833">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -71505,7 +72300,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="819"/>
+      <c r="W20" s="834"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -71554,8 +72349,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="820"/>
-      <c r="X21" s="820"/>
+      <c r="W21" s="835"/>
+      <c r="X21" s="835"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71655,8 +72450,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="821"/>
-      <c r="X23" s="821"/>
+      <c r="W23" s="836"/>
+      <c r="X23" s="836"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71711,8 +72506,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="821"/>
-      <c r="X24" s="821"/>
+      <c r="W24" s="836"/>
+      <c r="X24" s="836"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71757,8 +72552,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="822"/>
-      <c r="X25" s="822"/>
+      <c r="W25" s="837"/>
+      <c r="X25" s="837"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71806,8 +72601,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="822"/>
-      <c r="X26" s="822"/>
+      <c r="W26" s="837"/>
+      <c r="X26" s="837"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71861,9 +72656,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="815"/>
-      <c r="X27" s="816"/>
-      <c r="Y27" s="817"/>
+      <c r="W27" s="830"/>
+      <c r="X27" s="831"/>
+      <c r="Y27" s="832"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71917,9 +72712,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="816"/>
-      <c r="X28" s="816"/>
-      <c r="Y28" s="817"/>
+      <c r="W28" s="831"/>
+      <c r="X28" s="831"/>
+      <c r="Y28" s="832"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -72230,11 +73025,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="833">
+      <c r="M36" s="848">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="835">
+      <c r="N36" s="850">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -72242,7 +73037,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="837">
+      <c r="Q36" s="852">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -72267,13 +73062,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="834"/>
-      <c r="N37" s="836"/>
+      <c r="M37" s="849"/>
+      <c r="N37" s="851"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="838"/>
+      <c r="Q37" s="853"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -72566,26 +73361,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="788" t="s">
+      <c r="H52" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="789"/>
+      <c r="I52" s="804"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="790">
+      <c r="K52" s="805">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="823"/>
+      <c r="L52" s="838"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="794" t="s">
+      <c r="D53" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="794"/>
+      <c r="E53" s="809"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -72594,22 +73389,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="824" t="s">
+      <c r="D54" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="824"/>
+      <c r="E54" s="839"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="795" t="s">
+      <c r="I54" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="796"/>
-      <c r="K54" s="797">
+      <c r="J54" s="811"/>
+      <c r="K54" s="812">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="797"/>
+      <c r="L54" s="812"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72650,11 +73445,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="799">
+      <c r="K56" s="814">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="800"/>
+      <c r="L56" s="815"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72671,22 +73466,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="777" t="s">
+      <c r="D58" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="778"/>
+      <c r="E58" s="793"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="779" t="s">
+      <c r="I58" s="794" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="780"/>
-      <c r="K58" s="781">
+      <c r="J58" s="795"/>
+      <c r="K58" s="796">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="781"/>
+      <c r="L58" s="796"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -74555,12 +75350,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="845" t="s">
+      <c r="B43" s="860" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="846"/>
-      <c r="D43" s="846"/>
-      <c r="E43" s="847"/>
+      <c r="C43" s="861"/>
+      <c r="D43" s="861"/>
+      <c r="E43" s="862"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74588,10 +75383,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="848"/>
-      <c r="C44" s="849"/>
-      <c r="D44" s="849"/>
-      <c r="E44" s="850"/>
+      <c r="B44" s="863"/>
+      <c r="C44" s="864"/>
+      <c r="D44" s="864"/>
+      <c r="E44" s="865"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74619,10 +75414,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="851"/>
-      <c r="C45" s="852"/>
-      <c r="D45" s="852"/>
-      <c r="E45" s="853"/>
+      <c r="B45" s="866"/>
+      <c r="C45" s="867"/>
+      <c r="D45" s="867"/>
+      <c r="E45" s="868"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -74665,10 +75460,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="860" t="s">
+      <c r="B47" s="875" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="861"/>
+      <c r="C47" s="876"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -74690,8 +75485,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="862"/>
-      <c r="C48" s="863"/>
+      <c r="B48" s="877"/>
+      <c r="C48" s="878"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -74699,11 +75494,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="854" t="s">
+      <c r="J48" s="869" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="855"/>
-      <c r="L48" s="856"/>
+      <c r="K48" s="870"/>
+      <c r="L48" s="871"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -74721,9 +75516,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="857"/>
-      <c r="K49" s="858"/>
-      <c r="L49" s="859"/>
+      <c r="J49" s="872"/>
+      <c r="K49" s="873"/>
+      <c r="L49" s="874"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -74740,10 +75535,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="864" t="s">
+      <c r="I50" s="879" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="865"/>
+      <c r="J50" s="880"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -74764,8 +75559,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="864"/>
-      <c r="J51" s="865"/>
+      <c r="I51" s="879"/>
+      <c r="J51" s="880"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -74784,8 +75579,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="864"/>
-      <c r="J52" s="865"/>
+      <c r="I52" s="879"/>
+      <c r="J52" s="880"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -74804,8 +75599,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="864"/>
-      <c r="J53" s="865"/>
+      <c r="I53" s="879"/>
+      <c r="J53" s="880"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -74824,8 +75619,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="864"/>
-      <c r="J54" s="865"/>
+      <c r="I54" s="879"/>
+      <c r="J54" s="880"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -74844,8 +75639,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="864"/>
-      <c r="J55" s="865"/>
+      <c r="I55" s="879"/>
+      <c r="J55" s="880"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -74864,8 +75659,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="864"/>
-      <c r="J56" s="865"/>
+      <c r="I56" s="879"/>
+      <c r="J56" s="880"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -74884,8 +75679,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="864"/>
-      <c r="J57" s="865"/>
+      <c r="I57" s="879"/>
+      <c r="J57" s="880"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -74904,8 +75699,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="864"/>
-      <c r="J58" s="865"/>
+      <c r="I58" s="879"/>
+      <c r="J58" s="880"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -74924,8 +75719,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="864"/>
-      <c r="J59" s="865"/>
+      <c r="I59" s="879"/>
+      <c r="J59" s="880"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -74944,8 +75739,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="864"/>
-      <c r="J60" s="865"/>
+      <c r="I60" s="879"/>
+      <c r="J60" s="880"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -74964,8 +75759,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="864"/>
-      <c r="J61" s="865"/>
+      <c r="I61" s="879"/>
+      <c r="J61" s="880"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -74984,8 +75779,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="864"/>
-      <c r="J62" s="865"/>
+      <c r="I62" s="879"/>
+      <c r="J62" s="880"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -75004,8 +75799,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="864"/>
-      <c r="J63" s="865"/>
+      <c r="I63" s="879"/>
+      <c r="J63" s="880"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -75024,8 +75819,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="864"/>
-      <c r="J64" s="865"/>
+      <c r="I64" s="879"/>
+      <c r="J64" s="880"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -75044,8 +75839,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="864"/>
-      <c r="J65" s="865"/>
+      <c r="I65" s="879"/>
+      <c r="J65" s="880"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -75064,8 +75859,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="864"/>
-      <c r="J66" s="865"/>
+      <c r="I66" s="879"/>
+      <c r="J66" s="880"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -75084,8 +75879,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="864"/>
-      <c r="J67" s="865"/>
+      <c r="I67" s="879"/>
+      <c r="J67" s="880"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -75104,8 +75899,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="864"/>
-      <c r="J68" s="865"/>
+      <c r="I68" s="879"/>
+      <c r="J68" s="880"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -75124,8 +75919,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="864"/>
-      <c r="J69" s="865"/>
+      <c r="I69" s="879"/>
+      <c r="J69" s="880"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -75144,8 +75939,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="864"/>
-      <c r="J70" s="865"/>
+      <c r="I70" s="879"/>
+      <c r="J70" s="880"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -75164,8 +75959,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="864"/>
-      <c r="J71" s="865"/>
+      <c r="I71" s="879"/>
+      <c r="J71" s="880"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -75184,8 +75979,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="864"/>
-      <c r="J72" s="865"/>
+      <c r="I72" s="879"/>
+      <c r="J72" s="880"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -75204,8 +75999,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="864"/>
-      <c r="J73" s="865"/>
+      <c r="I73" s="879"/>
+      <c r="J73" s="880"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -75224,8 +76019,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="864"/>
-      <c r="J74" s="865"/>
+      <c r="I74" s="879"/>
+      <c r="J74" s="880"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -75244,8 +76039,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="864"/>
-      <c r="J75" s="865"/>
+      <c r="I75" s="879"/>
+      <c r="J75" s="880"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -75264,8 +76059,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="864"/>
-      <c r="J76" s="865"/>
+      <c r="I76" s="879"/>
+      <c r="J76" s="880"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -75284,8 +76079,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="864"/>
-      <c r="J77" s="865"/>
+      <c r="I77" s="879"/>
+      <c r="J77" s="880"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -75306,8 +76101,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="866"/>
-      <c r="J78" s="867"/>
+      <c r="I78" s="881"/>
+      <c r="J78" s="882"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -75352,7 +76147,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="839" t="s">
+      <c r="F80" s="854" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -75364,7 +76159,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="840"/>
+      <c r="F81" s="855"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -75652,23 +76447,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="801"/>
-      <c r="C1" s="843" t="s">
+      <c r="B1" s="816"/>
+      <c r="C1" s="858" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
-      <c r="L1" s="844"/>
-      <c r="M1" s="844"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="859"/>
+      <c r="H1" s="859"/>
+      <c r="I1" s="859"/>
+      <c r="J1" s="859"/>
+      <c r="K1" s="859"/>
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="802"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -75678,24 +76473,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="805" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="806"/>
+      <c r="B3" s="820" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="821"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="807" t="s">
+      <c r="H3" s="822" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="807"/>
+      <c r="I3" s="822"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="831" t="s">
+      <c r="P3" s="846" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="841" t="s">
+      <c r="R3" s="856" t="s">
         <v>216</v>
       </c>
     </row>
@@ -75710,14 +76505,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="808" t="s">
+      <c r="E4" s="823" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="809"/>
-      <c r="H4" s="810" t="s">
+      <c r="F4" s="824"/>
+      <c r="H4" s="825" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="811"/>
+      <c r="I4" s="826"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -75727,15 +76522,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="832"/>
+      <c r="P4" s="847"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="842"/>
-      <c r="W4" s="814" t="s">
+      <c r="R4" s="857"/>
+      <c r="W4" s="829" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="814"/>
+      <c r="X4" s="829"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -75786,8 +76581,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="814"/>
-      <c r="X5" s="814"/>
+      <c r="W5" s="829"/>
+      <c r="X5" s="829"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76548,7 +77343,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="818">
+      <c r="W19" s="833">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -76600,7 +77395,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="819"/>
+      <c r="W20" s="834"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -76649,8 +77444,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="820"/>
-      <c r="X21" s="820"/>
+      <c r="W21" s="835"/>
+      <c r="X21" s="835"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -76749,8 +77544,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="821"/>
-      <c r="X23" s="821"/>
+      <c r="W23" s="836"/>
+      <c r="X23" s="836"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -76805,8 +77600,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="821"/>
-      <c r="X24" s="821"/>
+      <c r="W24" s="836"/>
+      <c r="X24" s="836"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -76854,8 +77649,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="822"/>
-      <c r="X25" s="822"/>
+      <c r="W25" s="837"/>
+      <c r="X25" s="837"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -76903,8 +77698,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="822"/>
-      <c r="X26" s="822"/>
+      <c r="W26" s="837"/>
+      <c r="X26" s="837"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -76952,9 +77747,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="815"/>
-      <c r="X27" s="816"/>
-      <c r="Y27" s="817"/>
+      <c r="W27" s="830"/>
+      <c r="X27" s="831"/>
+      <c r="Y27" s="832"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77002,9 +77797,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="816"/>
-      <c r="X28" s="816"/>
-      <c r="Y28" s="817"/>
+      <c r="W28" s="831"/>
+      <c r="X28" s="831"/>
+      <c r="Y28" s="832"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77345,11 +78140,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="833">
+      <c r="M36" s="848">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="835">
+      <c r="N36" s="850">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -77357,7 +78152,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="868">
+      <c r="Q36" s="883">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -77382,13 +78177,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="834"/>
-      <c r="N37" s="836"/>
+      <c r="M37" s="849"/>
+      <c r="N37" s="851"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="869"/>
+      <c r="Q37" s="884"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -77438,11 +78233,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="870">
+      <c r="M39" s="885">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="871"/>
+      <c r="N39" s="886"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -77690,26 +78485,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="788" t="s">
+      <c r="H52" s="803" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="789"/>
+      <c r="I52" s="804"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="790">
+      <c r="K52" s="805">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="823"/>
+      <c r="L52" s="838"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="794" t="s">
+      <c r="D53" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="794"/>
+      <c r="E53" s="809"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -77718,22 +78513,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="824" t="s">
+      <c r="D54" s="839" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="824"/>
+      <c r="E54" s="839"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="795" t="s">
+      <c r="I54" s="810" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="796"/>
-      <c r="K54" s="797">
+      <c r="J54" s="811"/>
+      <c r="K54" s="812">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="797"/>
+      <c r="L54" s="812"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -77774,11 +78569,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="799">
+      <c r="K56" s="814">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="800"/>
+      <c r="L56" s="815"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -77795,22 +78590,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="777" t="s">
+      <c r="D58" s="792" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="778"/>
+      <c r="E58" s="793"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="779" t="s">
+      <c r="I58" s="794" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="780"/>
-      <c r="K58" s="781">
+      <c r="J58" s="795"/>
+      <c r="K58" s="796">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="781"/>
+      <c r="L58" s="796"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="22" activeTab="23"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -37,8 +37,9 @@
     <sheet name="  COMPRAS  AGOSTO    2022     " sheetId="25" r:id="rId23"/>
     <sheet name=" S E P T I E M B R E     2022  " sheetId="26" r:id="rId24"/>
     <sheet name="COMPRAS  SEPTIEMBRE  2022    " sheetId="28" r:id="rId25"/>
-    <sheet name="Hoja3" sheetId="27" r:id="rId26"/>
-    <sheet name="Hoja4" sheetId="29" r:id="rId27"/>
+    <sheet name="Hoja1" sheetId="30" r:id="rId26"/>
+    <sheet name="Hoja3" sheetId="27" r:id="rId27"/>
+    <sheet name="Hoja4" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -890,7 +891,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="1373">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4887,15 +4888,9 @@
     <t>08892 D</t>
   </si>
   <si>
-    <t>30/09/2022</t>
-  </si>
-  <si>
     <t>D-12322</t>
   </si>
   <si>
-    <t>01/10/2022</t>
-  </si>
-  <si>
     <t>D-12384</t>
   </si>
   <si>
@@ -4993,6 +4988,75 @@
   </si>
   <si>
     <t>12236 D</t>
+  </si>
+  <si>
+    <t>salchicha</t>
+  </si>
+  <si>
+    <t>Chorizo</t>
+  </si>
+  <si>
+    <t>PULPA RES cien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASURA </t>
+  </si>
+  <si>
+    <t>FLETE RES</t>
+  </si>
+  <si>
+    <t>Tocino-Jamon-Chorizo-pata res-Salchichoneria</t>
+  </si>
+  <si>
+    <t>Surimi-Salmon-Atun</t>
+  </si>
+  <si>
+    <t>CORTES caña-pulpa</t>
+  </si>
+  <si>
+    <t>Tostitostadas</t>
+  </si>
+  <si>
+    <t>Encontrack</t>
+  </si>
+  <si>
+    <t>Seguro Resp Civil</t>
+  </si>
+  <si>
+    <t>bordados</t>
+  </si>
+  <si>
+    <t>SALSAS FMTS</t>
+  </si>
+  <si>
+    <t>ADT SECURITY</t>
+  </si>
+  <si>
+    <t>Seguros cargas</t>
+  </si>
+  <si>
+    <t>Camara Comercio</t>
+  </si>
+  <si>
+    <t>Jamon americano-pata res-chorizo blanco-Longaniza</t>
+  </si>
+  <si>
+    <t>quesos gouda</t>
+  </si>
+  <si>
+    <t>Albicia productos</t>
+  </si>
+  <si>
+    <t>29-Ago--al 2-Oct</t>
+  </si>
+  <si>
+    <t>comision banco</t>
+  </si>
+  <si>
+    <t>3-Oct-22---7-Oct-22</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -5008,7 +5072,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5612,6 +5676,14 @@
       <b/>
       <sz val="17"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7130,7 +7202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="952">
+  <cellXfs count="965">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8717,6 +8789,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="21" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8789,76 +8906,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8902,6 +8953,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9140,6 +9224,15 @@
     <xf numFmtId="0" fontId="75" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9154,15 +9247,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9182,11 +9266,30 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9196,16 +9299,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCCFF66"/>
       <color rgb="FFFFCCFF"/>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF990033"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FFCCFF66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -14927,23 +15030,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="818" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="804" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="819"/>
-      <c r="E1" s="819"/>
-      <c r="F1" s="819"/>
-      <c r="G1" s="819"/>
-      <c r="H1" s="819"/>
-      <c r="I1" s="819"/>
-      <c r="J1" s="819"/>
-      <c r="K1" s="819"/>
-      <c r="L1" s="819"/>
-      <c r="M1" s="819"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14953,17 +15056,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -14977,14 +15080,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14994,10 +15097,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="797" t="s">
+      <c r="P4" s="818" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="798"/>
+      <c r="Q4" s="819"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16438,11 +16541,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="799">
+      <c r="M39" s="820">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="801">
+      <c r="N39" s="822">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16468,8 +16571,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="800"/>
-      <c r="N40" s="802"/>
+      <c r="M40" s="821"/>
+      <c r="N40" s="823"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16684,29 +16787,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="803" t="s">
+      <c r="H52" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="804"/>
+      <c r="I52" s="825"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="805">
+      <c r="K52" s="826">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="806"/>
-      <c r="M52" s="807">
+      <c r="L52" s="827"/>
+      <c r="M52" s="828">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="808"/>
+      <c r="N52" s="829"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="809" t="s">
+      <c r="D53" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="809"/>
+      <c r="E53" s="830"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16717,22 +16820,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="809" t="s">
+      <c r="D54" s="830" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="809"/>
+      <c r="E54" s="830"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="810" t="s">
+      <c r="I54" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="811"/>
-      <c r="K54" s="812">
+      <c r="J54" s="832"/>
+      <c r="K54" s="833">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="813"/>
+      <c r="L54" s="834"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16765,11 +16868,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="814">
+      <c r="K56" s="835">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="815"/>
+      <c r="L56" s="836"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16786,22 +16889,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="792" t="s">
+      <c r="D58" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="793"/>
+      <c r="E58" s="814"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="794" t="s">
+      <c r="I58" s="815" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="795"/>
-      <c r="K58" s="796">
+      <c r="J58" s="816"/>
+      <c r="K58" s="817">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="796"/>
+      <c r="L58" s="817"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16945,12 +17048,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16965,6 +17062,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19425,10 +19528,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="888" t="s">
+      <c r="I76" s="898" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="889"/>
+      <c r="J76" s="899"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19447,8 +19550,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="890"/>
-      <c r="J77" s="891"/>
+      <c r="I77" s="900"/>
+      <c r="J77" s="901"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19515,7 +19618,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="854" t="s">
+      <c r="F80" s="864" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19530,7 +19633,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="855"/>
+      <c r="F81" s="865"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19538,10 +19641,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="887" t="s">
+      <c r="B82" s="897" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="887"/>
+      <c r="C82" s="897"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19823,23 +19926,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19849,24 +19952,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19881,14 +19984,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19898,15 +20001,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
-      <c r="W4" s="829" t="s">
+      <c r="R4" s="867"/>
+      <c r="W4" s="855" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="829"/>
+      <c r="X4" s="855"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19957,8 +20060,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="829"/>
-      <c r="X5" s="829"/>
+      <c r="W5" s="855"/>
+      <c r="X5" s="855"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20721,7 +20824,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="833">
+      <c r="W19" s="859">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20773,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="834"/>
+      <c r="W20" s="860"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20822,8 +20925,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="835"/>
-      <c r="X21" s="835"/>
+      <c r="W21" s="861"/>
+      <c r="X21" s="861"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20923,8 +21026,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="836"/>
-      <c r="X23" s="836"/>
+      <c r="W23" s="862"/>
+      <c r="X23" s="862"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20979,8 +21082,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="836"/>
-      <c r="X24" s="836"/>
+      <c r="W24" s="862"/>
+      <c r="X24" s="862"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21028,8 +21131,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="837"/>
-      <c r="X25" s="837"/>
+      <c r="W25" s="863"/>
+      <c r="X25" s="863"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21078,8 +21181,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="837"/>
-      <c r="X26" s="837"/>
+      <c r="W26" s="863"/>
+      <c r="X26" s="863"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21127,9 +21230,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="830"/>
-      <c r="X27" s="831"/>
-      <c r="Y27" s="832"/>
+      <c r="W27" s="856"/>
+      <c r="X27" s="857"/>
+      <c r="Y27" s="858"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21177,9 +21280,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="831"/>
-      <c r="X28" s="831"/>
-      <c r="Y28" s="832"/>
+      <c r="W28" s="857"/>
+      <c r="X28" s="857"/>
+      <c r="Y28" s="858"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21511,11 +21614,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="848">
+      <c r="M36" s="847">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="850">
+      <c r="N36" s="849">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21523,7 +21626,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="883">
+      <c r="Q36" s="893">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21548,13 +21651,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="849"/>
-      <c r="N37" s="851"/>
+      <c r="M37" s="848"/>
+      <c r="N37" s="850"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="884"/>
+      <c r="Q37" s="894"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21604,11 +21707,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="885">
+      <c r="M39" s="895">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="886"/>
+      <c r="N39" s="896"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -22236,26 +22339,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="803" t="s">
+      <c r="H68" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="804"/>
+      <c r="I68" s="825"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="805">
+      <c r="K68" s="826">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="838"/>
+      <c r="L68" s="853"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="809" t="s">
+      <c r="D69" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="809"/>
+      <c r="E69" s="830"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -22264,22 +22367,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="839" t="s">
+      <c r="D70" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="839"/>
+      <c r="E70" s="854"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="810" t="s">
+      <c r="I70" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="811"/>
-      <c r="K70" s="812">
+      <c r="J70" s="832"/>
+      <c r="K70" s="833">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="812"/>
+      <c r="L70" s="833"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -22320,11 +22423,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="814">
+      <c r="K72" s="835">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="815"/>
+      <c r="L72" s="836"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -22341,22 +22444,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="792" t="s">
+      <c r="D74" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="793"/>
+      <c r="E74" s="814"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="794" t="s">
+      <c r="I74" s="815" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="795"/>
-      <c r="K74" s="796">
+      <c r="J74" s="816"/>
+      <c r="K74" s="817">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="796"/>
+      <c r="L74" s="817"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22503,21 +22606,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22533,6 +22621,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24094,10 +24197,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="896" t="s">
+      <c r="I44" s="906" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="897"/>
+      <c r="J44" s="907"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -24116,8 +24219,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="898"/>
-      <c r="J45" s="899"/>
+      <c r="I45" s="908"/>
+      <c r="J45" s="909"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -24136,8 +24239,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="900"/>
-      <c r="J46" s="901"/>
+      <c r="I46" s="910"/>
+      <c r="J46" s="911"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24826,7 +24929,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="854" t="s">
+      <c r="F80" s="864" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24839,7 +24942,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="855"/>
+      <c r="F81" s="865"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24859,10 +24962,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="892" t="s">
+      <c r="I83" s="902" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="893"/>
+      <c r="J83" s="903"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24871,8 +24974,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="894"/>
-      <c r="J84" s="895"/>
+      <c r="I84" s="904"/>
+      <c r="J84" s="905"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -25145,23 +25248,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25171,24 +25274,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -25203,14 +25306,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25220,15 +25323,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
-      <c r="W4" s="829" t="s">
+      <c r="R4" s="867"/>
+      <c r="W4" s="855" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="829"/>
+      <c r="X4" s="855"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25279,8 +25382,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="829"/>
-      <c r="X5" s="829"/>
+      <c r="W5" s="855"/>
+      <c r="X5" s="855"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26039,7 +26142,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="833">
+      <c r="W19" s="859">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -26091,7 +26194,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="834"/>
+      <c r="W20" s="860"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26140,8 +26243,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="835"/>
-      <c r="X21" s="835"/>
+      <c r="W21" s="861"/>
+      <c r="X21" s="861"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26238,8 +26341,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="836"/>
-      <c r="X23" s="836"/>
+      <c r="W23" s="862"/>
+      <c r="X23" s="862"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26294,8 +26397,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="836"/>
-      <c r="X24" s="836"/>
+      <c r="W24" s="862"/>
+      <c r="X24" s="862"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26341,8 +26444,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="837"/>
-      <c r="X25" s="837"/>
+      <c r="W25" s="863"/>
+      <c r="X25" s="863"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26393,8 +26496,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="837"/>
-      <c r="X26" s="837"/>
+      <c r="W26" s="863"/>
+      <c r="X26" s="863"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26445,9 +26548,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="830"/>
-      <c r="X27" s="831"/>
-      <c r="Y27" s="832"/>
+      <c r="W27" s="856"/>
+      <c r="X27" s="857"/>
+      <c r="Y27" s="858"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26497,9 +26600,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="831"/>
-      <c r="X28" s="831"/>
-      <c r="Y28" s="832"/>
+      <c r="W28" s="857"/>
+      <c r="X28" s="857"/>
+      <c r="Y28" s="858"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27103,11 +27206,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="848">
+      <c r="M41" s="847">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="848">
+      <c r="N41" s="847">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -27115,7 +27218,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="902">
+      <c r="Q41" s="912">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -27145,10 +27248,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="849"/>
-      <c r="N42" s="849"/>
+      <c r="M42" s="848"/>
+      <c r="N42" s="848"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="903"/>
+      <c r="Q42" s="913"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -27236,11 +27339,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="904">
+      <c r="M45" s="914">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="905"/>
+      <c r="N45" s="915"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27833,26 +27936,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="803" t="s">
+      <c r="H70" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="804"/>
+      <c r="I70" s="825"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="805">
+      <c r="K70" s="826">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="838"/>
+      <c r="L70" s="853"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="809" t="s">
+      <c r="D71" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="809"/>
+      <c r="E71" s="830"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27862,22 +27965,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="839" t="s">
+      <c r="D72" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="839"/>
+      <c r="E72" s="854"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="810" t="s">
+      <c r="I72" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="811"/>
-      <c r="K72" s="812">
+      <c r="J72" s="832"/>
+      <c r="K72" s="833">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="812"/>
+      <c r="L72" s="833"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -27918,11 +28021,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="814">
+      <c r="K74" s="835">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="815"/>
+      <c r="L74" s="836"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27941,22 +28044,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="792" t="s">
+      <c r="D76" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="793"/>
+      <c r="E76" s="814"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="794" t="s">
+      <c r="I76" s="815" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="795"/>
-      <c r="K76" s="796">
+      <c r="J76" s="816"/>
+      <c r="K76" s="817">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="796"/>
+      <c r="L76" s="817"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -28116,21 +28219,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -28146,6 +28234,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30116,10 +30219,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="896" t="s">
+      <c r="I54" s="906" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="897"/>
+      <c r="J54" s="907"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -30135,8 +30238,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="898"/>
-      <c r="J55" s="899"/>
+      <c r="I55" s="908"/>
+      <c r="J55" s="909"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -30152,8 +30255,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="900"/>
-      <c r="J56" s="901"/>
+      <c r="I56" s="910"/>
+      <c r="J56" s="911"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30821,7 +30924,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="854" t="s">
+      <c r="F90" s="864" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30834,7 +30937,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="855"/>
+      <c r="F91" s="865"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30853,10 +30956,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="892" t="s">
+      <c r="I93" s="902" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="893"/>
+      <c r="J93" s="903"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30866,8 +30969,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="894"/>
-      <c r="J94" s="895"/>
+      <c r="I94" s="904"/>
+      <c r="J94" s="905"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -31308,11 +31411,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="906">
+      <c r="C130" s="916">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="907"/>
+      <c r="D130" s="917"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -31349,24 +31452,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="921" t="s">
+      <c r="B2" s="931" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="922"/>
-      <c r="D2" s="923"/>
-      <c r="F2" s="909" t="s">
+      <c r="C2" s="932"/>
+      <c r="D2" s="933"/>
+      <c r="F2" s="919" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="910"/>
-      <c r="H2" s="911"/>
+      <c r="G2" s="920"/>
+      <c r="H2" s="921"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="924"/>
-      <c r="C3" s="925"/>
-      <c r="D3" s="926"/>
-      <c r="F3" s="912"/>
-      <c r="G3" s="913"/>
-      <c r="H3" s="914"/>
+      <c r="B3" s="934"/>
+      <c r="C3" s="935"/>
+      <c r="D3" s="936"/>
+      <c r="F3" s="922"/>
+      <c r="G3" s="923"/>
+      <c r="H3" s="924"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31511,11 +31614,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="915">
+      <c r="G11" s="925">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="916"/>
+      <c r="H11" s="926"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31532,33 +31635,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="919" t="s">
+      <c r="C15" s="929" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="917">
+      <c r="D15" s="927">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="927" t="s">
+      <c r="E15" s="937" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="928"/>
-      <c r="G15" s="928"/>
-      <c r="H15" s="929"/>
+      <c r="F15" s="938"/>
+      <c r="G15" s="938"/>
+      <c r="H15" s="939"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="920"/>
-      <c r="D16" s="918"/>
-      <c r="E16" s="930"/>
-      <c r="F16" s="931"/>
-      <c r="G16" s="931"/>
-      <c r="H16" s="932"/>
+      <c r="C16" s="930"/>
+      <c r="D16" s="928"/>
+      <c r="E16" s="940"/>
+      <c r="F16" s="941"/>
+      <c r="G16" s="941"/>
+      <c r="H16" s="942"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="908" t="s">
+      <c r="C17" s="918" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="908"/>
+      <c r="D17" s="918"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31617,23 +31720,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31643,24 +31746,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31679,14 +31782,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31696,15 +31799,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
+      <c r="R4" s="867"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="939"/>
-      <c r="X4" s="939"/>
+      <c r="W4" s="943"/>
+      <c r="X4" s="943"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31758,8 +31861,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="939"/>
-      <c r="X5" s="939"/>
+      <c r="W5" s="943"/>
+      <c r="X5" s="943"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32525,7 +32628,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="940"/>
+      <c r="W19" s="944"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32579,7 +32682,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="940"/>
+      <c r="W20" s="944"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32634,8 +32737,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="835"/>
-      <c r="X21" s="835"/>
+      <c r="W21" s="861"/>
+      <c r="X21" s="861"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32746,8 +32849,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="836"/>
-      <c r="X23" s="836"/>
+      <c r="W23" s="862"/>
+      <c r="X23" s="862"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32808,8 +32911,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="836"/>
-      <c r="X24" s="836"/>
+      <c r="W24" s="862"/>
+      <c r="X24" s="862"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32862,8 +32965,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="837"/>
-      <c r="X25" s="837"/>
+      <c r="W25" s="863"/>
+      <c r="X25" s="863"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32918,8 +33021,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="837"/>
-      <c r="X26" s="837"/>
+      <c r="W26" s="863"/>
+      <c r="X26" s="863"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32974,9 +33077,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="830"/>
-      <c r="X27" s="831"/>
-      <c r="Y27" s="832"/>
+      <c r="W27" s="856"/>
+      <c r="X27" s="857"/>
+      <c r="Y27" s="858"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33030,9 +33133,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="831"/>
-      <c r="X28" s="831"/>
-      <c r="Y28" s="832"/>
+      <c r="W28" s="857"/>
+      <c r="X28" s="857"/>
+      <c r="Y28" s="858"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33616,11 +33719,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="848">
+      <c r="M41" s="847">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="848">
+      <c r="N41" s="847">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33628,7 +33731,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="902">
+      <c r="Q41" s="912">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33652,10 +33755,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="849"/>
-      <c r="N42" s="849"/>
+      <c r="M42" s="848"/>
+      <c r="N42" s="848"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="903"/>
+      <c r="Q42" s="913"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33724,11 +33827,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="904">
+      <c r="M45" s="914">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="905"/>
+      <c r="N45" s="915"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -34144,26 +34247,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="803" t="s">
+      <c r="H63" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="804"/>
+      <c r="I63" s="825"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="936">
+      <c r="K63" s="949">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="937"/>
+      <c r="L63" s="950"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="809" t="s">
+      <c r="D64" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="809"/>
+      <c r="E64" s="830"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -34172,22 +34275,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="839" t="s">
+      <c r="D65" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="839"/>
+      <c r="E65" s="854"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="810" t="s">
+      <c r="I65" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="811"/>
-      <c r="K65" s="812">
+      <c r="J65" s="832"/>
+      <c r="K65" s="833">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="812"/>
+      <c r="L65" s="833"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -34228,11 +34331,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="938">
+      <c r="K67" s="945">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="812"/>
+      <c r="L67" s="833"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -34249,22 +34352,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="792" t="s">
+      <c r="D69" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="793"/>
+      <c r="E69" s="814"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="933" t="s">
+      <c r="I69" s="946" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="934"/>
-      <c r="K69" s="935">
+      <c r="J69" s="947"/>
+      <c r="K69" s="948">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="935"/>
+      <c r="L69" s="948"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34411,6 +34514,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -34426,21 +34544,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35937,10 +36040,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="896" t="s">
+      <c r="I38" s="906" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="897"/>
+      <c r="J38" s="907"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -35959,8 +36062,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="898"/>
-      <c r="J39" s="899"/>
+      <c r="I39" s="908"/>
+      <c r="J39" s="909"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -35979,8 +36082,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="900"/>
-      <c r="J40" s="901"/>
+      <c r="I40" s="910"/>
+      <c r="J40" s="911"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36603,7 +36706,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="854" t="s">
+      <c r="F71" s="864" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36616,7 +36719,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="855"/>
+      <c r="F72" s="865"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36635,10 +36738,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="892" t="s">
+      <c r="I74" s="902" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="893"/>
+      <c r="J74" s="903"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36647,8 +36750,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="894"/>
-      <c r="J75" s="895"/>
+      <c r="I75" s="904"/>
+      <c r="J75" s="905"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36782,11 +36885,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="943" t="s">
+      <c r="A89" s="953" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="944"/>
-      <c r="C89" s="944"/>
+      <c r="B89" s="954"/>
+      <c r="C89" s="954"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36796,10 +36899,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="945" t="s">
+      <c r="B90" s="955" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="946"/>
+      <c r="C90" s="956"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -36900,7 +37003,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="941">
+      <c r="C97" s="951">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -36914,7 +37017,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="942"/>
+      <c r="C98" s="952"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -37015,23 +37118,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -37041,24 +37144,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -37073,14 +37176,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -37090,11 +37193,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
+      <c r="R4" s="867"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38862,11 +38965,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="848">
+      <c r="M41" s="847">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="848">
+      <c r="N41" s="847">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38874,7 +38977,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="902">
+      <c r="Q41" s="912">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -38904,10 +39007,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="849"/>
-      <c r="N42" s="849"/>
+      <c r="M42" s="848"/>
+      <c r="N42" s="848"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="903"/>
+      <c r="Q42" s="913"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -38994,11 +39097,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="904">
+      <c r="M45" s="914">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="905"/>
+      <c r="N45" s="915"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39584,26 +39687,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="803" t="s">
+      <c r="H69" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="804"/>
+      <c r="I69" s="825"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="936">
+      <c r="K69" s="949">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="937"/>
+      <c r="L69" s="950"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="809" t="s">
+      <c r="D70" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="809"/>
+      <c r="E70" s="830"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39612,22 +39715,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="839" t="s">
+      <c r="D71" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="839"/>
+      <c r="E71" s="854"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="810" t="s">
+      <c r="I71" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="811"/>
-      <c r="K71" s="812">
+      <c r="J71" s="832"/>
+      <c r="K71" s="833">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="812"/>
+      <c r="L71" s="833"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39668,11 +39771,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="938">
+      <c r="K73" s="945">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="812"/>
+      <c r="L73" s="833"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39689,22 +39792,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="792" t="s">
+      <c r="D75" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="793"/>
+      <c r="E75" s="814"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="794" t="s">
+      <c r="I75" s="815" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="795"/>
-      <c r="K75" s="796">
+      <c r="J75" s="816"/>
+      <c r="K75" s="817">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="796"/>
+      <c r="L75" s="817"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -39851,17 +39954,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -39873,6 +39965,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41553,10 +41656,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="896" t="s">
+      <c r="H43" s="906" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="897"/>
+      <c r="I43" s="907"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41575,8 +41678,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="898"/>
-      <c r="I44" s="899"/>
+      <c r="H44" s="908"/>
+      <c r="I44" s="909"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41595,8 +41698,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="900"/>
-      <c r="I45" s="901"/>
+      <c r="H45" s="910"/>
+      <c r="I45" s="911"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -42040,10 +42143,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="892" t="s">
+      <c r="H67" s="902" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="893"/>
+      <c r="I67" s="903"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -42063,11 +42166,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="854" t="s">
+      <c r="F68" s="864" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="894"/>
-      <c r="I68" s="895"/>
+      <c r="H68" s="904"/>
+      <c r="I68" s="905"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -42078,7 +42181,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="855"/>
+      <c r="F69" s="865"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43893,7 +43996,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="827" t="s">
+      <c r="B41" s="837" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -43925,7 +44028,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="828"/>
+      <c r="B42" s="838"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45519,23 +45622,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45545,24 +45648,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45577,14 +45680,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45594,11 +45697,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
+      <c r="R4" s="867"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -47332,11 +47435,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="848">
+      <c r="M41" s="847">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="848">
+      <c r="N41" s="847">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -47344,7 +47447,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="902">
+      <c r="Q41" s="912">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47374,10 +47477,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="849"/>
-      <c r="N42" s="849"/>
+      <c r="M42" s="848"/>
+      <c r="N42" s="848"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="903"/>
+      <c r="Q42" s="913"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47458,11 +47561,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="904">
+      <c r="M45" s="914">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="905"/>
+      <c r="N45" s="915"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -47979,26 +48082,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="803" t="s">
+      <c r="H69" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="804"/>
+      <c r="I69" s="825"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="936">
+      <c r="K69" s="949">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="937"/>
+      <c r="L69" s="950"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="809" t="s">
+      <c r="D70" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="809"/>
+      <c r="E70" s="830"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -48007,22 +48110,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="839" t="s">
+      <c r="D71" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="839"/>
+      <c r="E71" s="854"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="810" t="s">
+      <c r="I71" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="811"/>
-      <c r="K71" s="812">
+      <c r="J71" s="832"/>
+      <c r="K71" s="833">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="812"/>
+      <c r="L71" s="833"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -48063,11 +48166,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="938">
+      <c r="K73" s="945">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="812"/>
+      <c r="L73" s="833"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -48084,22 +48187,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="792" t="s">
+      <c r="D75" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="793"/>
+      <c r="E75" s="814"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="933" t="s">
+      <c r="I75" s="946" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="934"/>
-      <c r="K75" s="935">
+      <c r="J75" s="947"/>
+      <c r="K75" s="948">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="935"/>
+      <c r="L75" s="948"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -48246,6 +48349,12 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -48262,12 +48371,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -48283,8 +48386,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49251,11 +49354,15 @@
       <c r="C25" s="111">
         <v>26094.639999999999</v>
       </c>
-      <c r="D25" s="412"/>
-      <c r="E25" s="111"/>
+      <c r="D25" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E25" s="653">
+        <v>26094.639999999999</v>
+      </c>
       <c r="F25" s="544">
         <f t="shared" si="0"/>
-        <v>26094.639999999999</v>
+        <v>0</v>
       </c>
       <c r="G25" s="645"/>
       <c r="H25" s="704" t="s">
@@ -49284,11 +49391,15 @@
       <c r="C26" s="111">
         <v>6990.16</v>
       </c>
-      <c r="D26" s="412"/>
-      <c r="E26" s="111"/>
+      <c r="D26" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E26" s="653">
+        <v>6990.16</v>
+      </c>
       <c r="F26" s="544">
         <f t="shared" si="0"/>
-        <v>6990.16</v>
+        <v>0</v>
       </c>
       <c r="G26" s="645"/>
       <c r="H26" s="704" t="s">
@@ -49317,11 +49428,15 @@
       <c r="C27" s="111">
         <v>97965.58</v>
       </c>
-      <c r="D27" s="412"/>
-      <c r="E27" s="111"/>
+      <c r="D27" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E27" s="653">
+        <v>97965.58</v>
+      </c>
       <c r="F27" s="544">
         <f t="shared" si="0"/>
-        <v>97965.58</v>
+        <v>0</v>
       </c>
       <c r="G27" s="645"/>
       <c r="H27" s="704" t="s">
@@ -49350,11 +49465,15 @@
       <c r="C28" s="111">
         <v>10947.2</v>
       </c>
-      <c r="D28" s="412"/>
-      <c r="E28" s="111"/>
+      <c r="D28" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E28" s="653">
+        <v>10947.2</v>
+      </c>
       <c r="F28" s="544">
         <f t="shared" si="0"/>
-        <v>10947.2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="645"/>
       <c r="H28" s="704" t="s">
@@ -49383,11 +49502,15 @@
       <c r="C29" s="111">
         <v>29495.85</v>
       </c>
-      <c r="D29" s="412"/>
-      <c r="E29" s="111"/>
+      <c r="D29" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E29" s="653">
+        <v>29495.85</v>
+      </c>
       <c r="F29" s="544">
         <f t="shared" si="0"/>
-        <v>29495.85</v>
+        <v>0</v>
       </c>
       <c r="G29" s="645"/>
       <c r="H29" s="704" t="s">
@@ -49416,11 +49539,15 @@
       <c r="C30" s="111">
         <v>9222</v>
       </c>
-      <c r="D30" s="412"/>
-      <c r="E30" s="111"/>
+      <c r="D30" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E30" s="653">
+        <v>9222</v>
+      </c>
       <c r="F30" s="544">
         <f t="shared" si="0"/>
-        <v>9222</v>
+        <v>0</v>
       </c>
       <c r="G30" s="645"/>
       <c r="H30" s="704" t="s">
@@ -49449,11 +49576,15 @@
       <c r="C31" s="111">
         <v>73071.5</v>
       </c>
-      <c r="D31" s="412"/>
-      <c r="E31" s="111"/>
+      <c r="D31" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E31" s="653">
+        <v>73071.5</v>
+      </c>
       <c r="F31" s="544">
         <f t="shared" si="0"/>
-        <v>73071.5</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="704" t="s">
@@ -49482,11 +49613,15 @@
       <c r="C32" s="111">
         <v>78511.600000000006</v>
       </c>
-      <c r="D32" s="412"/>
-      <c r="E32" s="111"/>
+      <c r="D32" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E32" s="653">
+        <v>78511.600000000006</v>
+      </c>
       <c r="F32" s="544">
         <f t="shared" si="0"/>
-        <v>78511.600000000006</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="704"/>
@@ -49649,10 +49784,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="896" t="s">
+      <c r="H40" s="906" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="897"/>
+      <c r="I40" s="907"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49671,8 +49806,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="898"/>
-      <c r="I41" s="899"/>
+      <c r="H41" s="908"/>
+      <c r="I41" s="909"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49691,8 +49826,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="900"/>
-      <c r="I42" s="901"/>
+      <c r="H42" s="910"/>
+      <c r="I42" s="911"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -50190,16 +50325,16 @@
       <c r="D67" s="407"/>
       <c r="E67" s="395">
         <f>SUM(E3:E66)</f>
-        <v>1395472.73</v>
+        <v>1727771.26</v>
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>332298.53000000003</v>
-      </c>
-      <c r="H67" s="892" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="902" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="893"/>
+      <c r="I67" s="903"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -50219,11 +50354,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="854" t="s">
+      <c r="F68" s="864" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="894"/>
-      <c r="I68" s="895"/>
+      <c r="H68" s="904"/>
+      <c r="I68" s="905"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -50234,7 +50369,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="855"/>
+      <c r="F69" s="865"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50827,10 +50962,10 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -50856,23 +50991,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50882,24 +51017,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50914,14 +51049,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -50931,11 +51066,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
+      <c r="R4" s="867"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52654,11 +52789,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="848">
+      <c r="M41" s="847">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="848">
+      <c r="N41" s="847">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52666,7 +52801,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="902">
+      <c r="Q41" s="912">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52694,10 +52829,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="849"/>
-      <c r="N42" s="849"/>
+      <c r="M42" s="848"/>
+      <c r="N42" s="848"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="903"/>
+      <c r="Q42" s="913"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52770,11 +52905,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="904">
+      <c r="M45" s="914">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="905"/>
+      <c r="N45" s="915"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -53267,26 +53402,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="803" t="s">
+      <c r="H69" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="804"/>
+      <c r="I69" s="825"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="936">
+      <c r="K69" s="949">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="937"/>
+      <c r="L69" s="950"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="809" t="s">
+      <c r="D70" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="809"/>
+      <c r="E70" s="830"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -53295,22 +53430,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="839" t="s">
+      <c r="D71" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="839"/>
+      <c r="E71" s="854"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="810" t="s">
+      <c r="I71" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="811"/>
-      <c r="K71" s="812">
+      <c r="J71" s="832"/>
+      <c r="K71" s="833">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="812"/>
+      <c r="L71" s="833"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -53351,11 +53486,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="938">
+      <c r="K73" s="945">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="812"/>
+      <c r="L73" s="833"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53372,22 +53507,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="792" t="s">
+      <c r="D75" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="793"/>
+      <c r="E75" s="814"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="794" t="s">
+      <c r="I75" s="815" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="795"/>
-      <c r="K75" s="796">
+      <c r="J75" s="816"/>
+      <c r="K75" s="817">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="796"/>
+      <c r="L75" s="817"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53531,6 +53666,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53547,12 +53688,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -53568,8 +53703,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53659,11 +53794,15 @@
       <c r="C3" s="111">
         <v>154625.5</v>
       </c>
-      <c r="D3" s="412"/>
-      <c r="E3" s="111"/>
+      <c r="D3" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E3" s="653">
+        <v>154625.5</v>
+      </c>
       <c r="F3" s="410">
         <f>C3-E3</f>
-        <v>154625.5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="744" t="s">
         <v>1217</v>
@@ -53691,11 +53830,15 @@
       <c r="C4" s="111">
         <v>33703.32</v>
       </c>
-      <c r="D4" s="412"/>
-      <c r="E4" s="111"/>
+      <c r="D4" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E4" s="653">
+        <v>33703.32</v>
+      </c>
       <c r="F4" s="544">
         <f t="shared" ref="F4:F65" si="0">C4-E4</f>
-        <v>33703.32</v>
+        <v>0</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="747" t="s">
@@ -53724,11 +53867,15 @@
       <c r="C5" s="111">
         <v>100041.42</v>
       </c>
-      <c r="D5" s="412"/>
-      <c r="E5" s="111"/>
+      <c r="D5" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E5" s="653">
+        <v>100041.42</v>
+      </c>
       <c r="F5" s="544">
         <f t="shared" si="0"/>
-        <v>100041.42</v>
+        <v>0</v>
       </c>
       <c r="H5" s="744" t="s">
         <v>1218</v>
@@ -53756,11 +53903,15 @@
       <c r="C6" s="111">
         <v>83301.009999999995</v>
       </c>
-      <c r="D6" s="412"/>
-      <c r="E6" s="111"/>
+      <c r="D6" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E6" s="653">
+        <v>83301.009999999995</v>
+      </c>
       <c r="F6" s="544">
         <f t="shared" si="0"/>
-        <v>83301.009999999995</v>
+        <v>0</v>
       </c>
       <c r="H6" s="747" t="s">
         <v>1219</v>
@@ -53788,11 +53939,15 @@
       <c r="C7" s="111">
         <v>109154.04</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="111"/>
+      <c r="D7" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E7" s="653">
+        <v>109154.04</v>
+      </c>
       <c r="F7" s="544">
         <f t="shared" si="0"/>
-        <v>109154.04</v>
+        <v>0</v>
       </c>
       <c r="H7" s="747" t="s">
         <v>1220</v>
@@ -53820,11 +53975,15 @@
       <c r="C8" s="111">
         <v>157421.98000000001</v>
       </c>
-      <c r="D8" s="412"/>
-      <c r="E8" s="111"/>
+      <c r="D8" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E8" s="653">
+        <v>157421.98000000001</v>
+      </c>
       <c r="F8" s="544">
         <f t="shared" si="0"/>
-        <v>157421.98000000001</v>
+        <v>0</v>
       </c>
       <c r="H8" s="744" t="s">
         <v>1220</v>
@@ -53852,11 +54011,15 @@
       <c r="C9" s="111">
         <v>112479.02</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="111"/>
+      <c r="D9" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E9" s="653">
+        <v>112479.02</v>
+      </c>
       <c r="F9" s="544">
         <f t="shared" si="0"/>
-        <v>112479.02</v>
+        <v>0</v>
       </c>
       <c r="H9" s="744" t="s">
         <v>1221</v>
@@ -53884,11 +54047,15 @@
       <c r="C10" s="111">
         <v>21000.400000000001</v>
       </c>
-      <c r="D10" s="412"/>
-      <c r="E10" s="111"/>
+      <c r="D10" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E10" s="653">
+        <v>21000.400000000001</v>
+      </c>
       <c r="F10" s="544">
         <f t="shared" si="0"/>
-        <v>21000.400000000001</v>
+        <v>0</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="747" t="s">
@@ -53917,11 +54084,15 @@
       <c r="C11" s="111">
         <v>60532.46</v>
       </c>
-      <c r="D11" s="412"/>
-      <c r="E11" s="111"/>
+      <c r="D11" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E11" s="653">
+        <v>60532.46</v>
+      </c>
       <c r="F11" s="544">
         <f t="shared" si="0"/>
-        <v>60532.46</v>
+        <v>0</v>
       </c>
       <c r="H11" s="744" t="s">
         <v>1223</v>
@@ -53949,11 +54120,15 @@
       <c r="C12" s="111">
         <v>73336.13</v>
       </c>
-      <c r="D12" s="412"/>
-      <c r="E12" s="111"/>
+      <c r="D12" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E12" s="653">
+        <v>73336.13</v>
+      </c>
       <c r="F12" s="544">
         <f t="shared" si="0"/>
-        <v>73336.13</v>
+        <v>0</v>
       </c>
       <c r="H12" s="747" t="s">
         <v>1223</v>
@@ -53981,11 +54156,15 @@
       <c r="C13" s="111">
         <v>104138.62</v>
       </c>
-      <c r="D13" s="412"/>
-      <c r="E13" s="111"/>
+      <c r="D13" s="652">
+        <v>44837</v>
+      </c>
+      <c r="E13" s="653">
+        <v>104138.62</v>
+      </c>
       <c r="F13" s="544">
         <f t="shared" si="0"/>
-        <v>104138.62</v>
+        <v>0</v>
       </c>
       <c r="H13" s="747" t="s">
         <v>1224</v>
@@ -54003,7 +54182,7 @@
         <v>46455.58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A14" s="454">
         <v>44788</v>
       </c>
@@ -54013,11 +54192,16 @@
       <c r="C14" s="111">
         <v>120814.64</v>
       </c>
-      <c r="D14" s="412"/>
-      <c r="E14" s="111"/>
+      <c r="D14" s="797" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E14" s="653">
+        <f>76948.57+43866.07</f>
+        <v>120814.64000000001</v>
+      </c>
       <c r="F14" s="544">
         <f t="shared" si="0"/>
-        <v>120814.64</v>
+        <v>0</v>
       </c>
       <c r="H14" s="744" t="s">
         <v>1225</v>
@@ -54045,11 +54229,15 @@
       <c r="C15" s="111">
         <v>19406.900000000001</v>
       </c>
-      <c r="D15" s="412"/>
-      <c r="E15" s="111"/>
+      <c r="D15" s="584">
+        <v>44841</v>
+      </c>
+      <c r="E15" s="585">
+        <v>19406.900000000001</v>
+      </c>
       <c r="F15" s="544">
         <f t="shared" si="0"/>
-        <v>19406.900000000001</v>
+        <v>0</v>
       </c>
       <c r="H15" s="747" t="s">
         <v>1226</v>
@@ -54077,11 +54265,15 @@
       <c r="C16" s="111">
         <v>67461.399999999994</v>
       </c>
-      <c r="D16" s="412"/>
-      <c r="E16" s="111"/>
+      <c r="D16" s="584">
+        <v>44841</v>
+      </c>
+      <c r="E16" s="585">
+        <v>67461.399999999994</v>
+      </c>
       <c r="F16" s="544">
         <f t="shared" si="0"/>
-        <v>67461.399999999994</v>
+        <v>0</v>
       </c>
       <c r="H16" s="744" t="s">
         <v>1227</v>
@@ -54109,11 +54301,15 @@
       <c r="C17" s="111">
         <v>79085.52</v>
       </c>
-      <c r="D17" s="412"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="584">
+        <v>44841</v>
+      </c>
+      <c r="E17" s="585">
+        <v>79085.52</v>
+      </c>
       <c r="F17" s="544">
         <f t="shared" si="0"/>
-        <v>79085.52</v>
+        <v>0</v>
       </c>
       <c r="H17" s="747" t="s">
         <v>1228</v>
@@ -54141,11 +54337,15 @@
       <c r="C18" s="111">
         <v>543.20000000000005</v>
       </c>
-      <c r="D18" s="412"/>
-      <c r="E18" s="111"/>
+      <c r="D18" s="584">
+        <v>44841</v>
+      </c>
+      <c r="E18" s="585">
+        <v>543.20000000000005</v>
+      </c>
       <c r="F18" s="544">
         <f t="shared" si="0"/>
-        <v>543.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="H18" s="747" t="s">
         <v>1229</v>
@@ -54173,11 +54373,15 @@
       <c r="C19" s="111">
         <v>22809.58</v>
       </c>
-      <c r="D19" s="412"/>
-      <c r="E19" s="111"/>
+      <c r="D19" s="584">
+        <v>44841</v>
+      </c>
+      <c r="E19" s="585">
+        <v>16600.41</v>
+      </c>
       <c r="F19" s="544">
         <f t="shared" si="0"/>
-        <v>22809.58</v>
+        <v>6209.1700000000019</v>
       </c>
       <c r="H19" s="744" t="s">
         <v>1229</v>
@@ -54754,10 +54958,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="896" t="s">
+      <c r="H40" s="906" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="897"/>
+      <c r="I40" s="907"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54776,8 +54980,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="898"/>
-      <c r="I41" s="899"/>
+      <c r="H41" s="908"/>
+      <c r="I41" s="909"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -54796,8 +55000,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="900"/>
-      <c r="I42" s="901"/>
+      <c r="H42" s="910"/>
+      <c r="I42" s="911"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -55286,7 +55490,7 @@
       <c r="L66" s="151"/>
       <c r="M66" s="137"/>
     </row>
-    <row r="67" spans="1:13" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B67" s="440"/>
       <c r="C67" s="212">
         <f>SUM(C3:C66)</f>
@@ -55295,16 +55499,19 @@
       <c r="D67" s="407"/>
       <c r="E67" s="395">
         <f>SUM(E3:E66)</f>
-        <v>0</v>
+        <v>1313645.9699999997</v>
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>1715125.23</v>
-      </c>
-      <c r="H67" s="892" t="s">
+        <v>401479.26</v>
+      </c>
+      <c r="G67" s="798" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H67" s="902" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="893"/>
+      <c r="I67" s="903"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -55324,11 +55531,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="854" t="s">
+      <c r="F68" s="864" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="894"/>
-      <c r="I68" s="895"/>
+      <c r="H68" s="904"/>
+      <c r="I68" s="905"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -55339,7 +55546,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="855"/>
+      <c r="F69" s="865"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -55363,9 +55570,11 @@
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="98"/>
-      <c r="B72" s="194"/>
-      <c r="D72" s="456"/>
-      <c r="E72"/>
+      <c r="B72" s="799"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="800"/>
+      <c r="E72" s="760"/>
+      <c r="F72" s="127"/>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
@@ -55374,21 +55583,24 @@
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="98"/>
-      <c r="B73" s="194"/>
-      <c r="D73" s="456"/>
-      <c r="E73"/>
+      <c r="B73" s="799"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="800"/>
+      <c r="E73" s="760"/>
+      <c r="F73" s="127"/>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="L73"/>
       <c r="M73"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="98"/>
-      <c r="B74" s="194"/>
+      <c r="B74" s="799"/>
       <c r="C74" s="129"/>
-      <c r="D74" s="456"/>
-      <c r="E74"/>
+      <c r="D74" s="800"/>
+      <c r="E74" s="801"/>
+      <c r="F74" s="127"/>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
@@ -55397,9 +55609,11 @@
     </row>
     <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="98"/>
-      <c r="B75" s="194"/>
+      <c r="B75" s="799"/>
       <c r="C75" s="233"/>
-      <c r="D75" s="456"/>
+      <c r="D75" s="800"/>
+      <c r="E75" s="233"/>
+      <c r="F75" s="127"/>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
@@ -55408,9 +55622,11 @@
     </row>
     <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="98"/>
-      <c r="B76" s="194"/>
+      <c r="B76" s="799"/>
       <c r="C76" s="233"/>
-      <c r="D76" s="456"/>
+      <c r="D76" s="800"/>
+      <c r="E76" s="233"/>
+      <c r="F76" s="127"/>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
@@ -55419,9 +55635,11 @@
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="98"/>
-      <c r="B77" s="194"/>
+      <c r="B77" s="799"/>
       <c r="C77" s="233"/>
-      <c r="D77" s="456"/>
+      <c r="D77" s="800"/>
+      <c r="E77" s="233"/>
+      <c r="F77" s="127"/>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
@@ -55430,9 +55648,11 @@
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="98"/>
-      <c r="B78" s="194"/>
+      <c r="B78" s="799"/>
       <c r="C78" s="233"/>
-      <c r="D78" s="456"/>
+      <c r="D78" s="800"/>
+      <c r="E78" s="233"/>
+      <c r="F78" s="127"/>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
@@ -55441,9 +55661,11 @@
     </row>
     <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="98"/>
-      <c r="B79" s="194"/>
+      <c r="B79" s="799"/>
       <c r="C79" s="233"/>
-      <c r="D79" s="456"/>
+      <c r="D79" s="800"/>
+      <c r="E79" s="233"/>
+      <c r="F79" s="127"/>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
@@ -55452,9 +55674,11 @@
     </row>
     <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="98"/>
-      <c r="B80" s="194"/>
+      <c r="B80" s="799"/>
       <c r="C80" s="233"/>
-      <c r="D80" s="456"/>
+      <c r="D80" s="800"/>
+      <c r="E80" s="233"/>
+      <c r="F80" s="127"/>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
@@ -55463,9 +55687,11 @@
     </row>
     <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="98"/>
-      <c r="B81" s="116"/>
+      <c r="B81" s="757"/>
       <c r="C81" s="233"/>
-      <c r="D81" s="456"/>
+      <c r="D81" s="800"/>
+      <c r="E81" s="126"/>
+      <c r="F81" s="127"/>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
@@ -55474,9 +55700,11 @@
     </row>
     <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="98"/>
-      <c r="B82" s="116"/>
+      <c r="B82" s="757"/>
       <c r="C82" s="233"/>
-      <c r="D82" s="456"/>
+      <c r="D82" s="800"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="127"/>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
@@ -55485,9 +55713,11 @@
     </row>
     <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="98"/>
-      <c r="B83" s="116"/>
+      <c r="B83" s="757"/>
       <c r="C83" s="233"/>
-      <c r="D83" s="456"/>
+      <c r="D83" s="800"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="127"/>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83"/>
@@ -55496,9 +55726,11 @@
     </row>
     <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="98"/>
-      <c r="B84" s="116"/>
+      <c r="B84" s="757"/>
       <c r="C84" s="233"/>
-      <c r="D84" s="456"/>
+      <c r="D84" s="800"/>
+      <c r="E84" s="126"/>
+      <c r="F84" s="127"/>
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84"/>
@@ -55507,9 +55739,11 @@
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="98"/>
-      <c r="B85" s="116"/>
+      <c r="B85" s="757"/>
       <c r="C85" s="233"/>
-      <c r="D85" s="456"/>
+      <c r="D85" s="800"/>
+      <c r="E85" s="126"/>
+      <c r="F85" s="127"/>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85"/>
@@ -55518,9 +55752,11 @@
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="98"/>
-      <c r="B86" s="116"/>
+      <c r="B86" s="757"/>
       <c r="C86" s="233"/>
-      <c r="D86" s="456"/>
+      <c r="D86" s="800"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="127"/>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86"/>
@@ -55529,9 +55765,11 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="98"/>
-      <c r="B87" s="116"/>
+      <c r="B87" s="757"/>
       <c r="C87" s="233"/>
-      <c r="D87" s="456"/>
+      <c r="D87" s="800"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="127"/>
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87"/>
@@ -55540,9 +55778,11 @@
     </row>
     <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="98"/>
-      <c r="B88" s="116"/>
+      <c r="B88" s="757"/>
       <c r="C88" s="233"/>
-      <c r="D88" s="456"/>
+      <c r="D88" s="800"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="127"/>
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88"/>
@@ -55551,9 +55791,11 @@
     </row>
     <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="98"/>
-      <c r="B89" s="116"/>
+      <c r="B89" s="757"/>
       <c r="C89" s="233"/>
-      <c r="D89" s="456"/>
+      <c r="D89" s="800"/>
+      <c r="E89" s="126"/>
+      <c r="F89" s="127"/>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89"/>
@@ -55562,9 +55804,11 @@
     </row>
     <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="98"/>
-      <c r="B90" s="116"/>
+      <c r="B90" s="757"/>
       <c r="C90" s="233"/>
-      <c r="D90" s="456"/>
+      <c r="D90" s="800"/>
+      <c r="E90" s="126"/>
+      <c r="F90" s="127"/>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90"/>
@@ -55573,9 +55817,11 @@
     </row>
     <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="98"/>
-      <c r="B91" s="116"/>
+      <c r="B91" s="757"/>
       <c r="C91" s="233"/>
-      <c r="D91" s="456"/>
+      <c r="D91" s="800"/>
+      <c r="E91" s="126"/>
+      <c r="F91" s="127"/>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
@@ -55584,9 +55830,11 @@
     </row>
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="98"/>
-      <c r="B92" s="116"/>
+      <c r="B92" s="757"/>
       <c r="C92" s="233"/>
-      <c r="D92" s="456"/>
+      <c r="D92" s="800"/>
+      <c r="E92" s="126"/>
+      <c r="F92" s="127"/>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92"/>
@@ -55595,9 +55843,11 @@
     </row>
     <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="98"/>
-      <c r="B93" s="116"/>
+      <c r="B93" s="757"/>
       <c r="C93" s="233"/>
-      <c r="D93" s="456"/>
+      <c r="D93" s="800"/>
+      <c r="E93" s="126"/>
+      <c r="F93" s="127"/>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
@@ -55606,9 +55856,11 @@
     </row>
     <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="98"/>
-      <c r="B94" s="116"/>
+      <c r="B94" s="757"/>
       <c r="C94" s="233"/>
-      <c r="D94" s="456"/>
+      <c r="D94" s="800"/>
+      <c r="E94" s="126"/>
+      <c r="F94" s="127"/>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94"/>
@@ -55617,9 +55869,11 @@
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="98"/>
-      <c r="B95" s="116"/>
+      <c r="B95" s="757"/>
       <c r="C95" s="233"/>
-      <c r="D95" s="456"/>
+      <c r="D95" s="800"/>
+      <c r="E95" s="126"/>
+      <c r="F95" s="127"/>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
@@ -55628,42 +55882,50 @@
     </row>
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="98"/>
-      <c r="B96" s="116"/>
+      <c r="B96" s="757"/>
       <c r="C96" s="233"/>
-      <c r="D96" s="456"/>
+      <c r="D96" s="800"/>
+      <c r="E96" s="126"/>
+      <c r="F96" s="127"/>
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96"/>
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="98"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="129"/>
-      <c r="D97" s="456"/>
+      <c r="B97" s="757"/>
+      <c r="C97" s="233"/>
+      <c r="D97" s="800"/>
+      <c r="E97" s="126"/>
+      <c r="F97" s="127"/>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="98"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="129"/>
-      <c r="D98" s="456"/>
+      <c r="B98" s="757"/>
+      <c r="C98" s="233"/>
+      <c r="D98" s="800"/>
+      <c r="E98" s="126"/>
+      <c r="F98" s="127"/>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98"/>
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="98"/>
-      <c r="B99" s="116"/>
-      <c r="C99" s="129"/>
-      <c r="D99" s="456"/>
+      <c r="B99" s="757"/>
+      <c r="C99" s="233"/>
+      <c r="D99" s="800"/>
+      <c r="E99" s="126"/>
+      <c r="F99" s="127"/>
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99"/>
@@ -55672,9 +55934,11 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="98"/>
-      <c r="B100" s="116"/>
+      <c r="B100" s="757"/>
       <c r="C100" s="129"/>
-      <c r="D100" s="456"/>
+      <c r="D100" s="800"/>
+      <c r="E100" s="126"/>
+      <c r="F100" s="127"/>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
@@ -55683,9 +55947,11 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="98"/>
-      <c r="B101" s="116"/>
+      <c r="B101" s="757"/>
       <c r="C101" s="129"/>
-      <c r="D101" s="456"/>
+      <c r="D101" s="800"/>
+      <c r="E101" s="126"/>
+      <c r="F101" s="127"/>
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101"/>
@@ -55930,15 +56196,15 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="551" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
@@ -55961,23 +56227,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55987,24 +56253,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56019,14 +56285,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -56036,11 +56302,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
+      <c r="R4" s="867"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -57938,9 +58204,15 @@
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="692"/>
-      <c r="D41" s="697"/>
+      <c r="B41" s="24">
+        <v>44805</v>
+      </c>
+      <c r="C41" s="692">
+        <v>1065.9000000000001</v>
+      </c>
+      <c r="D41" s="697" t="s">
+        <v>1350</v>
+      </c>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
       <c r="G41" s="572"/>
@@ -57955,11 +58227,11 @@
       <c r="L41" s="39">
         <v>19507</v>
       </c>
-      <c r="M41" s="848">
+      <c r="M41" s="847">
         <f>SUM(M5:M40)</f>
         <v>2172487.6799999997</v>
       </c>
-      <c r="N41" s="848">
+      <c r="N41" s="847">
         <f>SUM(N5:N40)</f>
         <v>1625219</v>
       </c>
@@ -57967,7 +58239,7 @@
         <f>SUM(P5:P40)</f>
         <v>4566318.68</v>
       </c>
-      <c r="Q41" s="902">
+      <c r="Q41" s="912">
         <f>SUM(Q5:Q40)</f>
         <v>6</v>
       </c>
@@ -57978,9 +58250,15 @@
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="692"/>
-      <c r="D42" s="697"/>
+      <c r="B42" s="24">
+        <v>44806</v>
+      </c>
+      <c r="C42" s="692">
+        <v>200000</v>
+      </c>
+      <c r="D42" s="697" t="s">
+        <v>1208</v>
+      </c>
       <c r="E42" s="74"/>
       <c r="F42" s="75"/>
       <c r="G42" s="572"/>
@@ -57995,10 +58273,10 @@
       <c r="L42" s="702">
         <v>19250</v>
       </c>
-      <c r="M42" s="849"/>
-      <c r="N42" s="849"/>
+      <c r="M42" s="848"/>
+      <c r="N42" s="848"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="903"/>
+      <c r="Q42" s="913"/>
       <c r="R42" s="788">
         <f>SUM(R5:R41)</f>
         <v>121832</v>
@@ -58006,9 +58284,15 @@
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="692"/>
-      <c r="D43" s="697"/>
+      <c r="B43" s="24">
+        <v>44806</v>
+      </c>
+      <c r="C43" s="692">
+        <v>30000</v>
+      </c>
+      <c r="D43" s="697" t="s">
+        <v>978</v>
+      </c>
       <c r="E43" s="74"/>
       <c r="F43" s="75"/>
       <c r="G43" s="572"/>
@@ -58030,9 +58314,15 @@
     </row>
     <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="692"/>
-      <c r="D44" s="697"/>
+      <c r="B44" s="24">
+        <v>44810</v>
+      </c>
+      <c r="C44" s="692">
+        <v>2236.4</v>
+      </c>
+      <c r="D44" s="697" t="s">
+        <v>1351</v>
+      </c>
       <c r="E44" s="74"/>
       <c r="F44" s="75"/>
       <c r="G44" s="572"/>
@@ -58054,9 +58344,15 @@
     </row>
     <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="692"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="24">
+        <v>44810</v>
+      </c>
+      <c r="C45" s="692">
+        <v>455691.8</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>1352</v>
+      </c>
       <c r="E45" s="74"/>
       <c r="F45" s="75"/>
       <c r="G45" s="572"/>
@@ -58071,19 +58367,25 @@
       <c r="L45" s="39">
         <v>19450</v>
       </c>
-      <c r="M45" s="904">
+      <c r="M45" s="914">
         <f>M41+N41</f>
         <v>3797706.6799999997</v>
       </c>
-      <c r="N45" s="905"/>
+      <c r="N45" s="915"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
     <row r="46" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="692"/>
-      <c r="D46" s="73"/>
+      <c r="B46" s="24">
+        <v>44810</v>
+      </c>
+      <c r="C46" s="692">
+        <v>197670.39999999999</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>1208</v>
+      </c>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
       <c r="G46" s="572"/>
@@ -58101,17 +58403,29 @@
     </row>
     <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="692"/>
-      <c r="D47" s="73"/>
+      <c r="B47" s="24">
+        <v>44810</v>
+      </c>
+      <c r="C47" s="692">
+        <v>28000</v>
+      </c>
+      <c r="D47" s="73" t="s">
+        <v>1354</v>
+      </c>
       <c r="E47" s="74"/>
       <c r="F47" s="75"/>
       <c r="G47" s="572"/>
       <c r="H47" s="76"/>
       <c r="I47" s="77"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
+      <c r="J47" s="622">
+        <v>44802</v>
+      </c>
+      <c r="K47" s="963" t="s">
+        <v>202</v>
+      </c>
+      <c r="L47" s="624">
+        <v>4342.01</v>
+      </c>
       <c r="M47" s="750"/>
       <c r="N47" s="750"/>
       <c r="P47" s="34"/>
@@ -58119,17 +58433,29 @@
     </row>
     <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="692"/>
-      <c r="D48" s="73"/>
+      <c r="B48" s="24">
+        <v>44816</v>
+      </c>
+      <c r="C48" s="692">
+        <v>39811</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>1355</v>
+      </c>
       <c r="E48" s="74"/>
       <c r="F48" s="75"/>
       <c r="G48" s="572"/>
       <c r="H48" s="76"/>
       <c r="I48" s="77"/>
-      <c r="J48" s="601"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="69"/>
+      <c r="J48" s="466">
+        <v>44804</v>
+      </c>
+      <c r="K48" s="964" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L48" s="54">
+        <v>1126.45</v>
+      </c>
       <c r="M48" s="750"/>
       <c r="N48" s="750"/>
       <c r="P48" s="34"/>
@@ -58137,17 +58463,29 @@
     </row>
     <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="692"/>
-      <c r="D49" s="73"/>
+      <c r="B49" s="24">
+        <v>44819</v>
+      </c>
+      <c r="C49" s="692">
+        <v>200000</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>1208</v>
+      </c>
       <c r="E49" s="74"/>
       <c r="F49" s="75"/>
       <c r="G49" s="572"/>
       <c r="H49" s="76"/>
       <c r="I49" s="77"/>
-      <c r="J49" s="601"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="69"/>
+      <c r="J49" s="601">
+        <v>44809</v>
+      </c>
+      <c r="K49" s="962" t="s">
+        <v>854</v>
+      </c>
+      <c r="L49" s="69">
+        <v>5894.61</v>
+      </c>
       <c r="M49" s="750"/>
       <c r="N49" s="750"/>
       <c r="P49" s="34"/>
@@ -58155,17 +58493,29 @@
     </row>
     <row r="50" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="692"/>
-      <c r="D50" s="73"/>
+      <c r="B50" s="24">
+        <v>44823</v>
+      </c>
+      <c r="C50" s="692">
+        <v>57150</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>1356</v>
+      </c>
       <c r="E50" s="74"/>
       <c r="F50" s="75"/>
       <c r="G50" s="572"/>
       <c r="H50" s="76"/>
       <c r="I50" s="77"/>
-      <c r="J50" s="601"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="69"/>
+      <c r="J50" s="601">
+        <v>44812</v>
+      </c>
+      <c r="K50" s="962" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L50" s="69">
+        <v>4006.5</v>
+      </c>
       <c r="M50" s="750"/>
       <c r="N50" s="750"/>
       <c r="P50" s="34"/>
@@ -58173,17 +58523,29 @@
     </row>
     <row r="51" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="692"/>
-      <c r="D51" s="73"/>
+      <c r="B51" s="24">
+        <v>44824</v>
+      </c>
+      <c r="C51" s="692">
+        <v>184147</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>1208</v>
+      </c>
       <c r="E51" s="74"/>
       <c r="F51" s="75"/>
       <c r="G51" s="572"/>
       <c r="H51" s="76"/>
       <c r="I51" s="77"/>
-      <c r="J51" s="601"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="69"/>
+      <c r="J51" s="601">
+        <v>44814</v>
+      </c>
+      <c r="K51" s="962" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L51" s="69">
+        <v>1856</v>
+      </c>
       <c r="M51" s="750"/>
       <c r="N51" s="750"/>
       <c r="P51" s="34"/>
@@ -58191,17 +58553,29 @@
     </row>
     <row r="52" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="692"/>
-      <c r="D52" s="73"/>
+      <c r="B52" s="24">
+        <v>44824</v>
+      </c>
+      <c r="C52" s="692">
+        <v>83097</v>
+      </c>
+      <c r="D52" s="73" t="s">
+        <v>1357</v>
+      </c>
       <c r="E52" s="74"/>
       <c r="F52" s="75"/>
       <c r="G52" s="572"/>
       <c r="H52" s="76"/>
       <c r="I52" s="77"/>
-      <c r="J52" s="601"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="69"/>
+      <c r="J52" s="601">
+        <v>44823</v>
+      </c>
+      <c r="K52" s="962" t="s">
+        <v>854</v>
+      </c>
+      <c r="L52" s="69">
+        <v>9575.01</v>
+      </c>
       <c r="M52" s="750"/>
       <c r="N52" s="750"/>
       <c r="P52" s="34"/>
@@ -58209,17 +58583,29 @@
     </row>
     <row r="53" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="692"/>
-      <c r="D53" s="73"/>
+      <c r="B53" s="24">
+        <v>44825</v>
+      </c>
+      <c r="C53" s="692">
+        <v>6862.78</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>1358</v>
+      </c>
       <c r="E53" s="74"/>
       <c r="F53" s="75"/>
       <c r="G53" s="572"/>
       <c r="H53" s="76"/>
       <c r="I53" s="77"/>
-      <c r="J53" s="601"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="69"/>
+      <c r="J53" s="601">
+        <v>44826</v>
+      </c>
+      <c r="K53" s="962" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L53" s="69">
+        <v>1368</v>
+      </c>
       <c r="M53" s="750"/>
       <c r="N53" s="750"/>
       <c r="P53" s="34"/>
@@ -58227,17 +58613,29 @@
     </row>
     <row r="54" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="694"/>
-      <c r="D54" s="73"/>
+      <c r="B54" s="24">
+        <v>44826</v>
+      </c>
+      <c r="C54" s="694">
+        <v>28000</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>1354</v>
+      </c>
       <c r="E54" s="74"/>
       <c r="F54" s="75"/>
       <c r="G54" s="572"/>
       <c r="H54" s="76"/>
       <c r="I54" s="77"/>
-      <c r="J54" s="601"/>
-      <c r="K54" s="671"/>
-      <c r="L54" s="69"/>
+      <c r="J54" s="601">
+        <v>44826</v>
+      </c>
+      <c r="K54" s="961" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L54" s="69">
+        <v>2626.35</v>
+      </c>
       <c r="M54" s="750"/>
       <c r="N54" s="750"/>
       <c r="P54" s="34"/>
@@ -58245,17 +58643,29 @@
     </row>
     <row r="55" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="691"/>
-      <c r="D55" s="73"/>
+      <c r="B55" s="24">
+        <v>44830</v>
+      </c>
+      <c r="C55" s="691">
+        <v>4698</v>
+      </c>
+      <c r="D55" s="73" t="s">
+        <v>834</v>
+      </c>
       <c r="E55" s="74"/>
       <c r="F55" s="75"/>
       <c r="G55" s="572"/>
       <c r="H55" s="76"/>
       <c r="I55" s="77"/>
-      <c r="J55" s="601"/>
-      <c r="K55" s="570"/>
-      <c r="L55" s="69"/>
+      <c r="J55" s="601">
+        <v>44830</v>
+      </c>
+      <c r="K55" s="962" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L55" s="69">
+        <v>4689.8100000000004</v>
+      </c>
       <c r="M55" s="750"/>
       <c r="N55" s="750"/>
       <c r="P55" s="34"/>
@@ -58263,17 +58673,29 @@
     </row>
     <row r="56" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="23"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="73"/>
+      <c r="B56" s="24">
+        <v>44831</v>
+      </c>
+      <c r="C56" s="25">
+        <v>6792.78</v>
+      </c>
+      <c r="D56" s="73" t="s">
+        <v>1362</v>
+      </c>
       <c r="E56" s="74"/>
       <c r="F56" s="75"/>
       <c r="G56" s="572"/>
       <c r="H56" s="76"/>
       <c r="I56" s="77"/>
-      <c r="J56" s="601"/>
-      <c r="K56" s="570"/>
-      <c r="L56" s="69"/>
+      <c r="J56" s="601">
+        <v>44832</v>
+      </c>
+      <c r="K56" s="961" t="s">
+        <v>202</v>
+      </c>
+      <c r="L56" s="69">
+        <v>12964.45</v>
+      </c>
       <c r="M56" s="750"/>
       <c r="N56" s="750"/>
       <c r="P56" s="34"/>
@@ -58281,17 +58703,29 @@
     </row>
     <row r="57" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="24">
+        <v>44834</v>
+      </c>
+      <c r="C57" s="25">
+        <v>6032</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>1364</v>
+      </c>
       <c r="E57" s="74"/>
       <c r="F57" s="75"/>
       <c r="G57" s="572"/>
       <c r="H57" s="76"/>
       <c r="I57" s="77"/>
-      <c r="J57" s="601"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="69"/>
+      <c r="J57" s="601">
+        <v>44832</v>
+      </c>
+      <c r="K57" s="962" t="s">
+        <v>825</v>
+      </c>
+      <c r="L57" s="69">
+        <v>2320</v>
+      </c>
       <c r="M57" s="750"/>
       <c r="N57" s="750"/>
       <c r="P57" s="34"/>
@@ -58299,17 +58733,29 @@
     </row>
     <row r="58" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="73"/>
+      <c r="B58" s="24">
+        <v>44834</v>
+      </c>
+      <c r="C58" s="25">
+        <v>64615.98</v>
+      </c>
+      <c r="D58" s="73" t="s">
+        <v>1366</v>
+      </c>
       <c r="E58" s="74"/>
       <c r="F58" s="75"/>
       <c r="G58" s="572"/>
       <c r="H58" s="76"/>
       <c r="I58" s="77"/>
-      <c r="J58" s="699"/>
-      <c r="K58" s="623"/>
-      <c r="L58" s="703"/>
+      <c r="J58" s="601">
+        <v>44832</v>
+      </c>
+      <c r="K58" s="962" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L58" s="69">
+        <v>1126.45</v>
+      </c>
       <c r="M58" s="750"/>
       <c r="N58" s="750"/>
       <c r="P58" s="34"/>
@@ -58317,17 +58763,29 @@
     </row>
     <row r="59" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="73"/>
+      <c r="B59" s="24">
+        <v>44804</v>
+      </c>
+      <c r="C59" s="25">
+        <v>5568</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>1364</v>
+      </c>
       <c r="E59" s="74"/>
       <c r="F59" s="75"/>
       <c r="G59" s="572"/>
       <c r="H59" s="76"/>
       <c r="I59" s="77"/>
-      <c r="J59" s="466"/>
-      <c r="K59" s="700"/>
-      <c r="L59" s="54"/>
+      <c r="J59" s="601">
+        <v>44834</v>
+      </c>
+      <c r="K59" s="671" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L59" s="69">
+        <v>2850</v>
+      </c>
       <c r="M59" s="750"/>
       <c r="N59" s="750"/>
       <c r="P59" s="34"/>
@@ -58335,18 +58793,28 @@
     </row>
     <row r="60" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
-      <c r="B60" s="80"/>
+      <c r="B60" s="80">
+        <v>44804</v>
+      </c>
       <c r="C60" s="25">
-        <v>0</v>
-      </c>
-      <c r="D60" s="81"/>
+        <v>391725.77</v>
+      </c>
+      <c r="D60" s="81" t="s">
+        <v>1367</v>
+      </c>
       <c r="E60" s="82"/>
       <c r="F60" s="72"/>
       <c r="H60" s="83"/>
       <c r="I60" s="77"/>
-      <c r="J60" s="557"/>
-      <c r="K60" s="174"/>
-      <c r="L60" s="69"/>
+      <c r="J60" s="960" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K60" s="174" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L60" s="69">
+        <v>42972.75</v>
+      </c>
       <c r="M60" s="34"/>
       <c r="N60" s="34"/>
       <c r="P60" s="34"/>
@@ -58354,9 +58822,15 @@
     </row>
     <row r="61" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
-      <c r="B61" s="595"/>
-      <c r="C61" s="596"/>
-      <c r="D61" s="81"/>
+      <c r="B61" s="595">
+        <v>44804</v>
+      </c>
+      <c r="C61" s="596">
+        <v>17337.12</v>
+      </c>
+      <c r="D61" s="81" t="s">
+        <v>1368</v>
+      </c>
       <c r="E61" s="597"/>
       <c r="F61" s="34"/>
       <c r="H61" s="598"/>
@@ -58369,7 +58843,7 @@
       <c r="P61" s="34"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="595"/>
       <c r="C62" s="596"/>
@@ -58386,7 +58860,7 @@
       <c r="P62" s="34"/>
       <c r="Q62" s="13"/>
     </row>
-    <row r="63" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="595"/>
       <c r="C63" s="596"/>
@@ -58403,7 +58877,7 @@
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
-    <row r="64" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="595"/>
       <c r="C64" s="596"/>
@@ -58420,7 +58894,7 @@
       <c r="P64" s="34"/>
       <c r="Q64" s="13"/>
     </row>
-    <row r="65" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="595"/>
       <c r="C65" s="596"/>
@@ -58460,7 +58934,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>565315</v>
+        <v>2558479.81</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -58484,7 +58958,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>217024</v>
+        <v>314742.39</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -58502,50 +58976,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="803" t="s">
+      <c r="H69" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="804"/>
+      <c r="I69" s="825"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="936">
+      <c r="K69" s="949">
         <f>I67+L67</f>
-        <v>303732</v>
-      </c>
-      <c r="L69" s="937"/>
+        <v>401450.39</v>
+      </c>
+      <c r="L69" s="950"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="809" t="s">
+      <c r="D70" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="809"/>
+      <c r="E70" s="830"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>3575431</v>
+        <v>1484547.7999999998</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="839" t="s">
+      <c r="D71" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="839"/>
+      <c r="E71" s="854"/>
       <c r="F71" s="111">
         <v>-2600214.79</v>
       </c>
-      <c r="I71" s="810" t="s">
+      <c r="I71" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="811"/>
-      <c r="K71" s="812">
+      <c r="J71" s="832"/>
+      <c r="K71" s="833">
         <f>F73+F74+F75</f>
-        <v>4815644.33</v>
-      </c>
-      <c r="L71" s="812"/>
+        <v>2724761.13</v>
+      </c>
+      <c r="L71" s="833"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -58579,18 +59053,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>725116.92999999993</v>
+        <v>-1365766.2700000003</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="938">
+      <c r="K73" s="945">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="812"/>
+      <c r="L73" s="833"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -58607,22 +59081,22 @@
       <c r="C75" s="112">
         <v>44836</v>
       </c>
-      <c r="D75" s="792" t="s">
+      <c r="D75" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="793"/>
+      <c r="E75" s="814"/>
       <c r="F75" s="113">
         <v>3773503.4</v>
       </c>
-      <c r="I75" s="794" t="s">
-        <v>97</v>
-      </c>
-      <c r="J75" s="795"/>
-      <c r="K75" s="796">
+      <c r="I75" s="957" t="s">
+        <v>198</v>
+      </c>
+      <c r="J75" s="958"/>
+      <c r="K75" s="959">
         <f>K71+K73</f>
-        <v>2143088.34</v>
-      </c>
-      <c r="L75" s="796"/>
+        <v>52205.139999999665</v>
+      </c>
+      <c r="L75" s="959"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -58765,7 +59239,16 @@
       <c r="F97" s="129"/>
     </row>
   </sheetData>
+  <sortState ref="J47:L60">
+    <sortCondition ref="J47:J60"/>
+  </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -58782,12 +59265,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -58804,7 +59281,7 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59018,7 +59495,7 @@
         <v>44805</v>
       </c>
       <c r="B7" s="437" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C7" s="392">
         <v>135900.6</v>
@@ -59050,7 +59527,7 @@
         <v>44713</v>
       </c>
       <c r="B8" s="437" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C8" s="392">
         <v>4028</v>
@@ -59082,7 +59559,7 @@
         <v>44806</v>
       </c>
       <c r="B9" s="437" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C9" s="392">
         <v>71698.3</v>
@@ -59114,7 +59591,7 @@
         <v>44807</v>
       </c>
       <c r="B10" s="437" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C10" s="392">
         <v>76677.600000000006</v>
@@ -59147,7 +59624,7 @@
         <v>44809</v>
       </c>
       <c r="B11" s="437" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C11" s="392">
         <v>74432.399999999994</v>
@@ -59179,7 +59656,7 @@
         <v>44810</v>
       </c>
       <c r="B12" s="437" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C12" s="392">
         <v>88952.15</v>
@@ -59211,7 +59688,7 @@
         <v>44811</v>
       </c>
       <c r="B13" s="437" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C13" s="392">
         <v>156034.5</v>
@@ -59243,7 +59720,7 @@
         <v>44812</v>
       </c>
       <c r="B14" s="437" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C14" s="392">
         <v>39036</v>
@@ -59275,7 +59752,7 @@
         <v>44813</v>
       </c>
       <c r="B15" s="437" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C15" s="392">
         <v>45856.7</v>
@@ -59307,7 +59784,7 @@
         <v>44814</v>
       </c>
       <c r="B16" s="437" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C16" s="392">
         <v>90919.73</v>
@@ -59339,7 +59816,7 @@
         <v>44814</v>
       </c>
       <c r="B17" s="437" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C17" s="392">
         <v>4788</v>
@@ -59371,7 +59848,7 @@
         <v>44816</v>
       </c>
       <c r="B18" s="437" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C18" s="392">
         <v>132050.23999999999</v>
@@ -59403,7 +59880,7 @@
         <v>44816</v>
       </c>
       <c r="B19" s="437" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C19" s="392">
         <v>6858</v>
@@ -59435,7 +59912,7 @@
         <v>44817</v>
       </c>
       <c r="B20" s="437" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C20" s="392">
         <v>93240.65</v>
@@ -59467,7 +59944,7 @@
         <v>44818</v>
       </c>
       <c r="B21" s="437" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C21" s="392">
         <v>38351.199999999997</v>
@@ -59499,7 +59976,7 @@
         <v>44819</v>
       </c>
       <c r="B22" s="437" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C22" s="392">
         <v>48115.16</v>
@@ -59532,7 +60009,7 @@
         <v>44819</v>
       </c>
       <c r="B23" s="437" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C23" s="392">
         <v>53088</v>
@@ -59565,7 +60042,7 @@
         <v>44820</v>
       </c>
       <c r="B24" s="437" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C24" s="392">
         <v>71394.820000000007</v>
@@ -59598,7 +60075,7 @@
         <v>44820</v>
       </c>
       <c r="B25" s="437" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C25" s="392">
         <v>7659</v>
@@ -59631,7 +60108,7 @@
         <v>44821</v>
       </c>
       <c r="B26" s="437" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C26" s="392">
         <v>78067.399999999994</v>
@@ -59664,7 +60141,7 @@
         <v>44823</v>
       </c>
       <c r="B27" s="437" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C27" s="392">
         <v>4317.6000000000004</v>
@@ -59697,7 +60174,7 @@
         <v>44824</v>
       </c>
       <c r="B28" s="437" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C28" s="392">
         <v>64961.4</v>
@@ -59730,7 +60207,7 @@
         <v>44825</v>
       </c>
       <c r="B29" s="437" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C29" s="392">
         <v>8619.2000000000007</v>
@@ -59763,7 +60240,7 @@
         <v>44826</v>
       </c>
       <c r="B30" s="437" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C30" s="392">
         <v>26763.09</v>
@@ -59796,7 +60273,7 @@
         <v>44827</v>
       </c>
       <c r="B31" s="437" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C31" s="392">
         <v>449824.82</v>
@@ -59829,7 +60306,7 @@
         <v>44828</v>
       </c>
       <c r="B32" s="437" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C32" s="392">
         <v>75805.399999999994</v>
@@ -59862,7 +60339,7 @@
         <v>44828</v>
       </c>
       <c r="B33" s="437" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C33" s="392">
         <v>10260</v>
@@ -59894,7 +60371,7 @@
         <v>44830</v>
       </c>
       <c r="B34" s="437" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C34" s="392">
         <v>66227.5</v>
@@ -59926,7 +60403,7 @@
         <v>44831</v>
       </c>
       <c r="B35" s="437" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C35" s="392">
         <v>61159.199999999997</v>
@@ -59958,7 +60435,7 @@
         <v>44832</v>
       </c>
       <c r="B36" s="437" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C36" s="392">
         <v>90739.06</v>
@@ -59990,7 +60467,7 @@
         <v>44833</v>
       </c>
       <c r="B37" s="437" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C37" s="392">
         <v>27945.95</v>
@@ -60022,7 +60499,7 @@
         <v>44834</v>
       </c>
       <c r="B38" s="437" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C38" s="392">
         <v>101737.82</v>
@@ -60050,11 +60527,11 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="452" t="s">
+      <c r="A39" s="452">
+        <v>44834</v>
+      </c>
+      <c r="B39" s="437" t="s">
         <v>1316</v>
-      </c>
-      <c r="B39" s="437" t="s">
-        <v>1317</v>
       </c>
       <c r="C39" s="392">
         <v>5241.6000000000004</v>
@@ -60076,11 +60553,11 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="452" t="s">
-        <v>1318</v>
+      <c r="A40" s="452">
+        <v>44835</v>
       </c>
       <c r="B40" s="437" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C40" s="392">
         <v>29303.81</v>
@@ -60091,10 +60568,10 @@
         <f t="shared" si="0"/>
         <v>29303.81</v>
       </c>
-      <c r="H40" s="896" t="s">
+      <c r="H40" s="906" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="897"/>
+      <c r="I40" s="907"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -60104,17 +60581,17 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="951"/>
-      <c r="B41" s="950"/>
-      <c r="C41" s="949"/>
+      <c r="A41" s="796"/>
+      <c r="B41" s="795"/>
+      <c r="C41" s="794"/>
       <c r="D41" s="253"/>
       <c r="E41" s="69"/>
       <c r="F41" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="898"/>
-      <c r="I41" s="899"/>
+      <c r="H41" s="908"/>
+      <c r="I41" s="909"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -60124,17 +60601,17 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="951"/>
-      <c r="B42" s="950"/>
-      <c r="C42" s="949"/>
+      <c r="A42" s="796"/>
+      <c r="B42" s="795"/>
+      <c r="C42" s="794"/>
       <c r="D42" s="253"/>
       <c r="E42" s="69"/>
       <c r="F42" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="900"/>
-      <c r="I42" s="901"/>
+      <c r="H42" s="910"/>
+      <c r="I42" s="911"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -60638,10 +61115,10 @@
         <f>SUM(F3:F66)</f>
         <v>2600214.79</v>
       </c>
-      <c r="H67" s="892" t="s">
+      <c r="H67" s="902" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="893"/>
+      <c r="I67" s="903"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>250099.28000000003</v>
@@ -60661,11 +61138,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="854" t="s">
+      <c r="F68" s="864" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="894"/>
-      <c r="I68" s="895"/>
+      <c r="H68" s="904"/>
+      <c r="I68" s="905"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -60676,7 +61153,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="855"/>
+      <c r="F69" s="865"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -60707,10 +61184,10 @@
       <c r="D72" s="456"/>
       <c r="E72"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="947"/>
-      <c r="I72" s="948"/>
-      <c r="J72" s="949"/>
-      <c r="K72" s="949"/>
+      <c r="H72" s="792"/>
+      <c r="I72" s="793"/>
+      <c r="J72" s="794"/>
+      <c r="K72" s="794"/>
       <c r="L72"/>
       <c r="M72"/>
     </row>
@@ -60719,10 +61196,10 @@
       <c r="D73" s="456"/>
       <c r="E73"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="947"/>
-      <c r="I73" s="948"/>
-      <c r="J73" s="949"/>
-      <c r="K73" s="949"/>
+      <c r="H73" s="792"/>
+      <c r="I73" s="793"/>
+      <c r="J73" s="794"/>
+      <c r="K73" s="794"/>
       <c r="L73"/>
       <c r="M73"/>
     </row>
@@ -60732,10 +61209,10 @@
       <c r="D74" s="456"/>
       <c r="E74"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="947"/>
-      <c r="I74" s="948"/>
-      <c r="J74" s="949"/>
-      <c r="K74" s="949"/>
+      <c r="H74" s="792"/>
+      <c r="I74" s="793"/>
+      <c r="J74" s="794"/>
+      <c r="K74" s="794"/>
       <c r="L74"/>
       <c r="M74"/>
     </row>
@@ -61235,6 +61712,18 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -61282,23 +61771,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="818" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="804" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="819"/>
-      <c r="E1" s="819"/>
-      <c r="F1" s="819"/>
-      <c r="G1" s="819"/>
-      <c r="H1" s="819"/>
-      <c r="I1" s="819"/>
-      <c r="J1" s="819"/>
-      <c r="K1" s="819"/>
-      <c r="L1" s="819"/>
-      <c r="M1" s="819"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -61308,21 +61797,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
     </row>
@@ -61337,14 +61826,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -61354,14 +61843,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="829" t="s">
+      <c r="W4" s="855" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="829"/>
+      <c r="X4" s="855"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61412,8 +61901,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="829"/>
-      <c r="X5" s="829"/>
+      <c r="W5" s="855"/>
+      <c r="X5" s="855"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62184,7 +62673,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="833">
+      <c r="W19" s="859">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -62236,7 +62725,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="834"/>
+      <c r="W20" s="860"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -62285,8 +62774,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="835"/>
-      <c r="X21" s="835"/>
+      <c r="W21" s="861"/>
+      <c r="X21" s="861"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -62387,8 +62876,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="836"/>
-      <c r="X23" s="836"/>
+      <c r="W23" s="862"/>
+      <c r="X23" s="862"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -62442,8 +62931,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="836"/>
-      <c r="X24" s="836"/>
+      <c r="W24" s="862"/>
+      <c r="X24" s="862"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -62489,8 +62978,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="837"/>
-      <c r="X25" s="837"/>
+      <c r="W25" s="863"/>
+      <c r="X25" s="863"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -62541,8 +63030,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="837"/>
-      <c r="X26" s="837"/>
+      <c r="W26" s="863"/>
+      <c r="X26" s="863"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -62590,9 +63079,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="830"/>
-      <c r="X27" s="831"/>
-      <c r="Y27" s="832"/>
+      <c r="W27" s="856"/>
+      <c r="X27" s="857"/>
+      <c r="Y27" s="858"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62642,9 +63131,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="831"/>
-      <c r="X28" s="831"/>
-      <c r="Y28" s="832"/>
+      <c r="W28" s="857"/>
+      <c r="X28" s="857"/>
+      <c r="Y28" s="858"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62979,11 +63468,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="848">
+      <c r="M36" s="847">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="850">
+      <c r="N36" s="849">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -62991,7 +63480,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="852">
+      <c r="Q36" s="851">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -63026,13 +63515,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="849"/>
-      <c r="N37" s="851"/>
+      <c r="M37" s="848"/>
+      <c r="N37" s="850"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="853"/>
+      <c r="Q37" s="852"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -63322,26 +63811,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="803" t="s">
+      <c r="H52" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="804"/>
+      <c r="I52" s="825"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="805">
+      <c r="K52" s="826">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="838"/>
+      <c r="L52" s="853"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="809" t="s">
+      <c r="D53" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="809"/>
+      <c r="E53" s="830"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -63350,29 +63839,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="839" t="s">
+      <c r="D54" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="839"/>
+      <c r="E54" s="854"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="810" t="s">
+      <c r="I54" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="811"/>
-      <c r="K54" s="812">
+      <c r="J54" s="832"/>
+      <c r="K54" s="833">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="812"/>
-      <c r="M54" s="840" t="s">
+      <c r="L54" s="833"/>
+      <c r="M54" s="839" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="841"/>
-      <c r="O54" s="841"/>
-      <c r="P54" s="841"/>
-      <c r="Q54" s="842"/>
+      <c r="N54" s="840"/>
+      <c r="O54" s="840"/>
+      <c r="P54" s="840"/>
+      <c r="Q54" s="841"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -63386,11 +63875,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="843"/>
-      <c r="N55" s="844"/>
-      <c r="O55" s="844"/>
-      <c r="P55" s="844"/>
-      <c r="Q55" s="845"/>
+      <c r="M55" s="842"/>
+      <c r="N55" s="843"/>
+      <c r="O55" s="843"/>
+      <c r="P55" s="843"/>
+      <c r="Q55" s="844"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -63408,11 +63897,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="814">
+      <c r="K56" s="835">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="815"/>
+      <c r="L56" s="836"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -63429,22 +63918,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="792" t="s">
+      <c r="D58" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="793"/>
+      <c r="E58" s="814"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="794" t="s">
+      <c r="I58" s="815" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="795"/>
-      <c r="K58" s="796">
+      <c r="J58" s="816"/>
+      <c r="K58" s="817">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="796"/>
+      <c r="L58" s="817"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -63588,17 +64077,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -63609,14 +64095,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -66034,7 +66523,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="854" t="s">
+      <c r="F87" s="864" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -66047,7 +66536,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="855"/>
+      <c r="F88" s="865"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -66359,23 +66848,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="818" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="804" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="819"/>
-      <c r="E1" s="819"/>
-      <c r="F1" s="819"/>
-      <c r="G1" s="819"/>
-      <c r="H1" s="819"/>
-      <c r="I1" s="819"/>
-      <c r="J1" s="819"/>
-      <c r="K1" s="819"/>
-      <c r="L1" s="819"/>
-      <c r="M1" s="819"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -66385,24 +66874,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -66417,14 +66906,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -66434,15 +66923,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
-      <c r="W4" s="829" t="s">
+      <c r="R4" s="867"/>
+      <c r="W4" s="855" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="829"/>
+      <c r="X4" s="855"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66503,8 +66992,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="829"/>
-      <c r="X5" s="829"/>
+      <c r="W5" s="855"/>
+      <c r="X5" s="855"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -67261,7 +67750,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="833">
+      <c r="W19" s="859">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -67313,7 +67802,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="834"/>
+      <c r="W20" s="860"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -67362,8 +67851,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="835"/>
-      <c r="X21" s="835"/>
+      <c r="W21" s="861"/>
+      <c r="X21" s="861"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -67464,8 +67953,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="836"/>
-      <c r="X23" s="836"/>
+      <c r="W23" s="862"/>
+      <c r="X23" s="862"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -67516,8 +68005,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="836"/>
-      <c r="X24" s="836"/>
+      <c r="W24" s="862"/>
+      <c r="X24" s="862"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -67563,8 +68052,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="837"/>
-      <c r="X25" s="837"/>
+      <c r="W25" s="863"/>
+      <c r="X25" s="863"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -67612,8 +68101,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="837"/>
-      <c r="X26" s="837"/>
+      <c r="W26" s="863"/>
+      <c r="X26" s="863"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -67673,9 +68162,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="830"/>
-      <c r="X27" s="831"/>
-      <c r="Y27" s="832"/>
+      <c r="W27" s="856"/>
+      <c r="X27" s="857"/>
+      <c r="Y27" s="858"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -67729,9 +68218,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="831"/>
-      <c r="X28" s="831"/>
-      <c r="Y28" s="832"/>
+      <c r="W28" s="857"/>
+      <c r="X28" s="857"/>
+      <c r="Y28" s="858"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -68047,11 +68536,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="848">
+      <c r="M36" s="847">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="850">
+      <c r="N36" s="849">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -68059,7 +68548,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="852">
+      <c r="Q36" s="851">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -68078,13 +68567,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="849"/>
-      <c r="N37" s="851"/>
+      <c r="M37" s="848"/>
+      <c r="N37" s="850"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="853"/>
+      <c r="Q37" s="852"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -68358,26 +68847,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="803" t="s">
+      <c r="H52" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="804"/>
+      <c r="I52" s="825"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="805">
+      <c r="K52" s="826">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="838"/>
+      <c r="L52" s="853"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="809" t="s">
+      <c r="D53" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="809"/>
+      <c r="E53" s="830"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -68386,29 +68875,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="839" t="s">
+      <c r="D54" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="839"/>
+      <c r="E54" s="854"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="810" t="s">
+      <c r="I54" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="811"/>
-      <c r="K54" s="812">
+      <c r="J54" s="832"/>
+      <c r="K54" s="833">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="812"/>
-      <c r="M54" s="840" t="s">
+      <c r="L54" s="833"/>
+      <c r="M54" s="839" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="841"/>
-      <c r="O54" s="841"/>
-      <c r="P54" s="841"/>
-      <c r="Q54" s="842"/>
+      <c r="N54" s="840"/>
+      <c r="O54" s="840"/>
+      <c r="P54" s="840"/>
+      <c r="Q54" s="841"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -68422,11 +68911,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="843"/>
-      <c r="N55" s="844"/>
-      <c r="O55" s="844"/>
-      <c r="P55" s="844"/>
-      <c r="Q55" s="845"/>
+      <c r="M55" s="842"/>
+      <c r="N55" s="843"/>
+      <c r="O55" s="843"/>
+      <c r="P55" s="843"/>
+      <c r="Q55" s="844"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -68444,11 +68933,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="814">
+      <c r="K56" s="835">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="815"/>
+      <c r="L56" s="836"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -68465,22 +68954,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="792" t="s">
+      <c r="D58" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="793"/>
+      <c r="E58" s="814"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="794" t="s">
+      <c r="I58" s="815" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="795"/>
-      <c r="K58" s="796">
+      <c r="J58" s="816"/>
+      <c r="K58" s="817">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="796"/>
+      <c r="L58" s="817"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -68624,13 +69113,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -68640,20 +69136,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -71043,7 +71532,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="854" t="s">
+      <c r="F75" s="864" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -71056,7 +71545,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="855"/>
+      <c r="F76" s="865"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -71348,23 +71837,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -71374,24 +71863,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -71406,14 +71895,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -71423,15 +71912,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
-      <c r="W4" s="829" t="s">
+      <c r="R4" s="867"/>
+      <c r="W4" s="855" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="829"/>
+      <c r="X4" s="855"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71482,8 +71971,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="829"/>
-      <c r="X5" s="829"/>
+      <c r="W5" s="855"/>
+      <c r="X5" s="855"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -72247,7 +72736,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="833">
+      <c r="W19" s="859">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -72300,7 +72789,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="834"/>
+      <c r="W20" s="860"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -72349,8 +72838,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="835"/>
-      <c r="X21" s="835"/>
+      <c r="W21" s="861"/>
+      <c r="X21" s="861"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -72450,8 +72939,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="836"/>
-      <c r="X23" s="836"/>
+      <c r="W23" s="862"/>
+      <c r="X23" s="862"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -72506,8 +72995,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="836"/>
-      <c r="X24" s="836"/>
+      <c r="W24" s="862"/>
+      <c r="X24" s="862"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -72552,8 +73041,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="837"/>
-      <c r="X25" s="837"/>
+      <c r="W25" s="863"/>
+      <c r="X25" s="863"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -72601,8 +73090,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="837"/>
-      <c r="X26" s="837"/>
+      <c r="W26" s="863"/>
+      <c r="X26" s="863"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -72656,9 +73145,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="830"/>
-      <c r="X27" s="831"/>
-      <c r="Y27" s="832"/>
+      <c r="W27" s="856"/>
+      <c r="X27" s="857"/>
+      <c r="Y27" s="858"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -72712,9 +73201,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="831"/>
-      <c r="X28" s="831"/>
-      <c r="Y28" s="832"/>
+      <c r="W28" s="857"/>
+      <c r="X28" s="857"/>
+      <c r="Y28" s="858"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -73025,11 +73514,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="848">
+      <c r="M36" s="847">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="850">
+      <c r="N36" s="849">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -73037,7 +73526,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="852">
+      <c r="Q36" s="851">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -73062,13 +73551,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="849"/>
-      <c r="N37" s="851"/>
+      <c r="M37" s="848"/>
+      <c r="N37" s="850"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="853"/>
+      <c r="Q37" s="852"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -73361,26 +73850,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="803" t="s">
+      <c r="H52" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="804"/>
+      <c r="I52" s="825"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="805">
+      <c r="K52" s="826">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="838"/>
+      <c r="L52" s="853"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="809" t="s">
+      <c r="D53" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="809"/>
+      <c r="E53" s="830"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -73389,22 +73878,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="839" t="s">
+      <c r="D54" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="839"/>
+      <c r="E54" s="854"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="810" t="s">
+      <c r="I54" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="811"/>
-      <c r="K54" s="812">
+      <c r="J54" s="832"/>
+      <c r="K54" s="833">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="812"/>
+      <c r="L54" s="833"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -73445,11 +73934,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="814">
+      <c r="K56" s="835">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="815"/>
+      <c r="L56" s="836"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -73466,22 +73955,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="792" t="s">
+      <c r="D58" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="793"/>
+      <c r="E58" s="814"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="794" t="s">
+      <c r="I58" s="815" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="795"/>
-      <c r="K58" s="796">
+      <c r="J58" s="816"/>
+      <c r="K58" s="817">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="796"/>
+      <c r="L58" s="817"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -73625,6 +74114,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -73640,20 +74143,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -75350,12 +75839,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="860" t="s">
+      <c r="B43" s="870" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="861"/>
-      <c r="D43" s="861"/>
-      <c r="E43" s="862"/>
+      <c r="C43" s="871"/>
+      <c r="D43" s="871"/>
+      <c r="E43" s="872"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -75383,10 +75872,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="863"/>
-      <c r="C44" s="864"/>
-      <c r="D44" s="864"/>
-      <c r="E44" s="865"/>
+      <c r="B44" s="873"/>
+      <c r="C44" s="874"/>
+      <c r="D44" s="874"/>
+      <c r="E44" s="875"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -75414,10 +75903,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="866"/>
-      <c r="C45" s="867"/>
-      <c r="D45" s="867"/>
-      <c r="E45" s="868"/>
+      <c r="B45" s="876"/>
+      <c r="C45" s="877"/>
+      <c r="D45" s="877"/>
+      <c r="E45" s="878"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -75460,10 +75949,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="875" t="s">
+      <c r="B47" s="885" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="876"/>
+      <c r="C47" s="886"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -75485,8 +75974,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="877"/>
-      <c r="C48" s="878"/>
+      <c r="B48" s="887"/>
+      <c r="C48" s="888"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -75494,11 +75983,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="869" t="s">
+      <c r="J48" s="879" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="870"/>
-      <c r="L48" s="871"/>
+      <c r="K48" s="880"/>
+      <c r="L48" s="881"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -75516,9 +76005,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="872"/>
-      <c r="K49" s="873"/>
-      <c r="L49" s="874"/>
+      <c r="J49" s="882"/>
+      <c r="K49" s="883"/>
+      <c r="L49" s="884"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -75535,10 +76024,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="879" t="s">
+      <c r="I50" s="889" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="880"/>
+      <c r="J50" s="890"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -75559,8 +76048,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="879"/>
-      <c r="J51" s="880"/>
+      <c r="I51" s="889"/>
+      <c r="J51" s="890"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -75579,8 +76068,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="879"/>
-      <c r="J52" s="880"/>
+      <c r="I52" s="889"/>
+      <c r="J52" s="890"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -75599,8 +76088,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="879"/>
-      <c r="J53" s="880"/>
+      <c r="I53" s="889"/>
+      <c r="J53" s="890"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -75619,8 +76108,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="879"/>
-      <c r="J54" s="880"/>
+      <c r="I54" s="889"/>
+      <c r="J54" s="890"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -75639,8 +76128,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="879"/>
-      <c r="J55" s="880"/>
+      <c r="I55" s="889"/>
+      <c r="J55" s="890"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -75659,8 +76148,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="879"/>
-      <c r="J56" s="880"/>
+      <c r="I56" s="889"/>
+      <c r="J56" s="890"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -75679,8 +76168,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="879"/>
-      <c r="J57" s="880"/>
+      <c r="I57" s="889"/>
+      <c r="J57" s="890"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -75699,8 +76188,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="879"/>
-      <c r="J58" s="880"/>
+      <c r="I58" s="889"/>
+      <c r="J58" s="890"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -75719,8 +76208,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="879"/>
-      <c r="J59" s="880"/>
+      <c r="I59" s="889"/>
+      <c r="J59" s="890"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -75739,8 +76228,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="879"/>
-      <c r="J60" s="880"/>
+      <c r="I60" s="889"/>
+      <c r="J60" s="890"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -75759,8 +76248,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="879"/>
-      <c r="J61" s="880"/>
+      <c r="I61" s="889"/>
+      <c r="J61" s="890"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -75779,8 +76268,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="879"/>
-      <c r="J62" s="880"/>
+      <c r="I62" s="889"/>
+      <c r="J62" s="890"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -75799,8 +76288,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="879"/>
-      <c r="J63" s="880"/>
+      <c r="I63" s="889"/>
+      <c r="J63" s="890"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -75819,8 +76308,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="879"/>
-      <c r="J64" s="880"/>
+      <c r="I64" s="889"/>
+      <c r="J64" s="890"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -75839,8 +76328,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="879"/>
-      <c r="J65" s="880"/>
+      <c r="I65" s="889"/>
+      <c r="J65" s="890"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -75859,8 +76348,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="879"/>
-      <c r="J66" s="880"/>
+      <c r="I66" s="889"/>
+      <c r="J66" s="890"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -75879,8 +76368,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="879"/>
-      <c r="J67" s="880"/>
+      <c r="I67" s="889"/>
+      <c r="J67" s="890"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -75899,8 +76388,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="879"/>
-      <c r="J68" s="880"/>
+      <c r="I68" s="889"/>
+      <c r="J68" s="890"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -75919,8 +76408,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="879"/>
-      <c r="J69" s="880"/>
+      <c r="I69" s="889"/>
+      <c r="J69" s="890"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -75939,8 +76428,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="879"/>
-      <c r="J70" s="880"/>
+      <c r="I70" s="889"/>
+      <c r="J70" s="890"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -75959,8 +76448,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="879"/>
-      <c r="J71" s="880"/>
+      <c r="I71" s="889"/>
+      <c r="J71" s="890"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -75979,8 +76468,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="879"/>
-      <c r="J72" s="880"/>
+      <c r="I72" s="889"/>
+      <c r="J72" s="890"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -75999,8 +76488,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="879"/>
-      <c r="J73" s="880"/>
+      <c r="I73" s="889"/>
+      <c r="J73" s="890"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -76019,8 +76508,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="879"/>
-      <c r="J74" s="880"/>
+      <c r="I74" s="889"/>
+      <c r="J74" s="890"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -76039,8 +76528,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="879"/>
-      <c r="J75" s="880"/>
+      <c r="I75" s="889"/>
+      <c r="J75" s="890"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -76059,8 +76548,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="879"/>
-      <c r="J76" s="880"/>
+      <c r="I76" s="889"/>
+      <c r="J76" s="890"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -76079,8 +76568,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="879"/>
-      <c r="J77" s="880"/>
+      <c r="I77" s="889"/>
+      <c r="J77" s="890"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -76101,8 +76590,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="881"/>
-      <c r="J78" s="882"/>
+      <c r="I78" s="891"/>
+      <c r="J78" s="892"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -76147,7 +76636,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="854" t="s">
+      <c r="F80" s="864" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -76159,7 +76648,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="855"/>
+      <c r="F81" s="865"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -76447,23 +76936,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="816"/>
-      <c r="C1" s="858" t="s">
+      <c r="B1" s="802"/>
+      <c r="C1" s="868" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="859"/>
-      <c r="E1" s="859"/>
-      <c r="F1" s="859"/>
-      <c r="G1" s="859"/>
-      <c r="H1" s="859"/>
-      <c r="I1" s="859"/>
-      <c r="J1" s="859"/>
-      <c r="K1" s="859"/>
-      <c r="L1" s="859"/>
-      <c r="M1" s="859"/>
+      <c r="D1" s="869"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="817"/>
+      <c r="B2" s="803"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -76473,24 +76962,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="820" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="821"/>
+      <c r="B3" s="806" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="807"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="808" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="822"/>
+      <c r="I3" s="808"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="846" t="s">
+      <c r="P3" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="856" t="s">
+      <c r="R3" s="866" t="s">
         <v>216</v>
       </c>
     </row>
@@ -76505,14 +76994,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="823" t="s">
+      <c r="E4" s="809" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="824"/>
-      <c r="H4" s="825" t="s">
+      <c r="F4" s="810"/>
+      <c r="H4" s="811" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="826"/>
+      <c r="I4" s="812"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -76522,15 +77011,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="847"/>
+      <c r="P4" s="846"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="857"/>
-      <c r="W4" s="829" t="s">
+      <c r="R4" s="867"/>
+      <c r="W4" s="855" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="829"/>
+      <c r="X4" s="855"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -76581,8 +77070,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="829"/>
-      <c r="X5" s="829"/>
+      <c r="W5" s="855"/>
+      <c r="X5" s="855"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77343,7 +77832,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="833">
+      <c r="W19" s="859">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -77395,7 +77884,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="834"/>
+      <c r="W20" s="860"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -77444,8 +77933,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="835"/>
-      <c r="X21" s="835"/>
+      <c r="W21" s="861"/>
+      <c r="X21" s="861"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -77544,8 +78033,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="836"/>
-      <c r="X23" s="836"/>
+      <c r="W23" s="862"/>
+      <c r="X23" s="862"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -77600,8 +78089,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="836"/>
-      <c r="X24" s="836"/>
+      <c r="W24" s="862"/>
+      <c r="X24" s="862"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -77649,8 +78138,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="837"/>
-      <c r="X25" s="837"/>
+      <c r="W25" s="863"/>
+      <c r="X25" s="863"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -77698,8 +78187,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="837"/>
-      <c r="X26" s="837"/>
+      <c r="W26" s="863"/>
+      <c r="X26" s="863"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -77747,9 +78236,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="830"/>
-      <c r="X27" s="831"/>
-      <c r="Y27" s="832"/>
+      <c r="W27" s="856"/>
+      <c r="X27" s="857"/>
+      <c r="Y27" s="858"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77797,9 +78286,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="831"/>
-      <c r="X28" s="831"/>
-      <c r="Y28" s="832"/>
+      <c r="W28" s="857"/>
+      <c r="X28" s="857"/>
+      <c r="Y28" s="858"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -78140,11 +78629,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="848">
+      <c r="M36" s="847">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="850">
+      <c r="N36" s="849">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -78152,7 +78641,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="883">
+      <c r="Q36" s="893">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -78177,13 +78666,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="849"/>
-      <c r="N37" s="851"/>
+      <c r="M37" s="848"/>
+      <c r="N37" s="850"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="884"/>
+      <c r="Q37" s="894"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -78233,11 +78722,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="885">
+      <c r="M39" s="895">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="886"/>
+      <c r="N39" s="896"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -78485,26 +78974,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="803" t="s">
+      <c r="H52" s="824" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="804"/>
+      <c r="I52" s="825"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="805">
+      <c r="K52" s="826">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="838"/>
+      <c r="L52" s="853"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="809" t="s">
+      <c r="D53" s="830" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="809"/>
+      <c r="E53" s="830"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -78513,22 +79002,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="839" t="s">
+      <c r="D54" s="854" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="839"/>
+      <c r="E54" s="854"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="810" t="s">
+      <c r="I54" s="831" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="811"/>
-      <c r="K54" s="812">
+      <c r="J54" s="832"/>
+      <c r="K54" s="833">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="812"/>
+      <c r="L54" s="833"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -78569,11 +79058,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="814">
+      <c r="K56" s="835">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="815"/>
+      <c r="L56" s="836"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -78590,22 +79079,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="792" t="s">
+      <c r="D58" s="813" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="793"/>
+      <c r="E58" s="814"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="794" t="s">
+      <c r="I58" s="815" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="795"/>
-      <c r="K58" s="796">
+      <c r="J58" s="816"/>
+      <c r="K58" s="817">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="796"/>
+      <c r="L58" s="817"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -78749,20 +79238,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -78779,6 +79254,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="23"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1374">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -5057,6 +5057,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>7-Oct-22--8-Oct-22</t>
   </si>
 </sst>
 </file>
@@ -7202,7 +7205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="965">
+  <cellXfs count="967">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8801,38 +8804,20 @@
     <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8906,10 +8891,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8953,39 +9004,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9224,15 +9242,6 @@
     <xf numFmtId="0" fontId="75" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9247,6 +9256,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9275,21 +9293,10 @@
     <xf numFmtId="166" fontId="11" fillId="9" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="64" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="3" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9299,13 +9306,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF990033"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF00FF99"/>
@@ -15030,23 +15037,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="833" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="834"/>
+      <c r="E1" s="834"/>
+      <c r="F1" s="834"/>
+      <c r="G1" s="834"/>
+      <c r="H1" s="834"/>
+      <c r="I1" s="834"/>
+      <c r="J1" s="834"/>
+      <c r="K1" s="834"/>
+      <c r="L1" s="834"/>
+      <c r="M1" s="834"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15056,17 +15063,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -15080,14 +15087,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15097,10 +15104,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="818" t="s">
+      <c r="P4" s="812" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="819"/>
+      <c r="Q4" s="813"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16541,11 +16548,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="820">
+      <c r="M39" s="814">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="822">
+      <c r="N39" s="816">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16571,8 +16578,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="821"/>
-      <c r="N40" s="823"/>
+      <c r="M40" s="815"/>
+      <c r="N40" s="817"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16787,29 +16794,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="824" t="s">
+      <c r="H52" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="825"/>
+      <c r="I52" s="819"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="826">
+      <c r="K52" s="820">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="827"/>
-      <c r="M52" s="828">
+      <c r="L52" s="821"/>
+      <c r="M52" s="822">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="829"/>
+      <c r="N52" s="823"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="830" t="s">
+      <c r="D53" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="830"/>
+      <c r="E53" s="824"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16820,22 +16827,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="830" t="s">
+      <c r="D54" s="824" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="830"/>
+      <c r="E54" s="824"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="831" t="s">
+      <c r="I54" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="832"/>
-      <c r="K54" s="833">
+      <c r="J54" s="826"/>
+      <c r="K54" s="827">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="834"/>
+      <c r="L54" s="828"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16868,11 +16875,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="835">
+      <c r="K56" s="829">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="836"/>
+      <c r="L56" s="830"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16889,22 +16896,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="813" t="s">
+      <c r="D58" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="814"/>
+      <c r="E58" s="808"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="815" t="s">
+      <c r="I58" s="809" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="816"/>
-      <c r="K58" s="817">
+      <c r="J58" s="810"/>
+      <c r="K58" s="811">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="817"/>
+      <c r="L58" s="811"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17048,6 +17055,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -17062,12 +17075,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19528,10 +19535,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="898" t="s">
+      <c r="I76" s="903" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="899"/>
+      <c r="J76" s="904"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19550,8 +19557,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="900"/>
-      <c r="J77" s="901"/>
+      <c r="I77" s="905"/>
+      <c r="J77" s="906"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19618,7 +19625,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="864" t="s">
+      <c r="F80" s="869" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19633,7 +19640,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="865"/>
+      <c r="F81" s="870"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19641,10 +19648,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="897" t="s">
+      <c r="B82" s="902" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="897"/>
+      <c r="C82" s="902"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19926,23 +19933,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19952,24 +19959,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19984,14 +19991,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20001,15 +20008,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
-      <c r="W4" s="855" t="s">
+      <c r="R4" s="872"/>
+      <c r="W4" s="844" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="855"/>
+      <c r="X4" s="844"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20060,8 +20067,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="855"/>
-      <c r="X5" s="855"/>
+      <c r="W5" s="844"/>
+      <c r="X5" s="844"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20824,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="859">
+      <c r="W19" s="848">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20876,7 +20883,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="860"/>
+      <c r="W20" s="849"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20925,8 +20932,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="861"/>
-      <c r="X21" s="861"/>
+      <c r="W21" s="850"/>
+      <c r="X21" s="850"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21026,8 +21033,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="862"/>
-      <c r="X23" s="862"/>
+      <c r="W23" s="851"/>
+      <c r="X23" s="851"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21082,8 +21089,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="862"/>
-      <c r="X24" s="862"/>
+      <c r="W24" s="851"/>
+      <c r="X24" s="851"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21131,8 +21138,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="863"/>
-      <c r="X25" s="863"/>
+      <c r="W25" s="852"/>
+      <c r="X25" s="852"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21181,8 +21188,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="863"/>
-      <c r="X26" s="863"/>
+      <c r="W26" s="852"/>
+      <c r="X26" s="852"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21230,9 +21237,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="856"/>
-      <c r="X27" s="857"/>
-      <c r="Y27" s="858"/>
+      <c r="W27" s="845"/>
+      <c r="X27" s="846"/>
+      <c r="Y27" s="847"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21280,9 +21287,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="857"/>
-      <c r="X28" s="857"/>
-      <c r="Y28" s="858"/>
+      <c r="W28" s="846"/>
+      <c r="X28" s="846"/>
+      <c r="Y28" s="847"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21614,11 +21621,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="847">
+      <c r="M36" s="863">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="849">
+      <c r="N36" s="865">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21626,7 +21633,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="893">
+      <c r="Q36" s="898">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21651,13 +21658,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="848"/>
-      <c r="N37" s="850"/>
+      <c r="M37" s="864"/>
+      <c r="N37" s="866"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="894"/>
+      <c r="Q37" s="899"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21707,11 +21714,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="895">
+      <c r="M39" s="900">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="896"/>
+      <c r="N39" s="901"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -22339,12 +22346,12 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="824" t="s">
+      <c r="H68" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="825"/>
+      <c r="I68" s="819"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="826">
+      <c r="K68" s="820">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
@@ -22355,10 +22362,10 @@
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="830" t="s">
+      <c r="D69" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="830"/>
+      <c r="E69" s="824"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -22374,15 +22381,15 @@
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="831" t="s">
+      <c r="I70" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="832"/>
-      <c r="K70" s="833">
+      <c r="J70" s="826"/>
+      <c r="K70" s="827">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="833"/>
+      <c r="L70" s="827"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -22423,11 +22430,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="835">
+      <c r="K72" s="829">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="836"/>
+      <c r="L72" s="830"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -22444,22 +22451,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="813" t="s">
+      <c r="D74" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="814"/>
+      <c r="E74" s="808"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="815" t="s">
+      <c r="I74" s="809" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="816"/>
-      <c r="K74" s="817">
+      <c r="J74" s="810"/>
+      <c r="K74" s="811">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="817"/>
+      <c r="L74" s="811"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22606,6 +22613,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22621,21 +22643,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24197,10 +24204,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="906" t="s">
+      <c r="I44" s="911" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="907"/>
+      <c r="J44" s="912"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -24219,8 +24226,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="908"/>
-      <c r="J45" s="909"/>
+      <c r="I45" s="913"/>
+      <c r="J45" s="914"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -24239,8 +24246,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="910"/>
-      <c r="J46" s="911"/>
+      <c r="I46" s="915"/>
+      <c r="J46" s="916"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24929,7 +24936,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="864" t="s">
+      <c r="F80" s="869" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24942,7 +24949,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="865"/>
+      <c r="F81" s="870"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24962,10 +24969,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="902" t="s">
+      <c r="I83" s="907" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="903"/>
+      <c r="J83" s="908"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24974,8 +24981,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="904"/>
-      <c r="J84" s="905"/>
+      <c r="I84" s="909"/>
+      <c r="J84" s="910"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -25248,23 +25255,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25274,24 +25281,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -25306,14 +25313,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25323,15 +25330,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
-      <c r="W4" s="855" t="s">
+      <c r="R4" s="872"/>
+      <c r="W4" s="844" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="855"/>
+      <c r="X4" s="844"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25382,8 +25389,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="855"/>
-      <c r="X5" s="855"/>
+      <c r="W5" s="844"/>
+      <c r="X5" s="844"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26142,7 +26149,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="859">
+      <c r="W19" s="848">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -26194,7 +26201,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="860"/>
+      <c r="W20" s="849"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26243,8 +26250,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="861"/>
-      <c r="X21" s="861"/>
+      <c r="W21" s="850"/>
+      <c r="X21" s="850"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26341,8 +26348,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="862"/>
-      <c r="X23" s="862"/>
+      <c r="W23" s="851"/>
+      <c r="X23" s="851"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26397,8 +26404,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="862"/>
-      <c r="X24" s="862"/>
+      <c r="W24" s="851"/>
+      <c r="X24" s="851"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26444,8 +26451,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="863"/>
-      <c r="X25" s="863"/>
+      <c r="W25" s="852"/>
+      <c r="X25" s="852"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26496,8 +26503,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="863"/>
-      <c r="X26" s="863"/>
+      <c r="W26" s="852"/>
+      <c r="X26" s="852"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26548,9 +26555,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="856"/>
-      <c r="X27" s="857"/>
-      <c r="Y27" s="858"/>
+      <c r="W27" s="845"/>
+      <c r="X27" s="846"/>
+      <c r="Y27" s="847"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26600,9 +26607,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="857"/>
-      <c r="X28" s="857"/>
-      <c r="Y28" s="858"/>
+      <c r="W28" s="846"/>
+      <c r="X28" s="846"/>
+      <c r="Y28" s="847"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27206,11 +27213,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="847">
+      <c r="M41" s="863">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="847">
+      <c r="N41" s="863">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -27218,7 +27225,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="912">
+      <c r="Q41" s="917">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -27248,10 +27255,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="848"/>
-      <c r="N42" s="848"/>
+      <c r="M42" s="864"/>
+      <c r="N42" s="864"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="913"/>
+      <c r="Q42" s="918"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -27339,11 +27346,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="914">
+      <c r="M45" s="919">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="915"/>
+      <c r="N45" s="920"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27936,12 +27943,12 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="824" t="s">
+      <c r="H70" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="825"/>
+      <c r="I70" s="819"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="826">
+      <c r="K70" s="820">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
@@ -27952,10 +27959,10 @@
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="830" t="s">
+      <c r="D71" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="830"/>
+      <c r="E71" s="824"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27972,15 +27979,15 @@
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="831" t="s">
+      <c r="I72" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="832"/>
-      <c r="K72" s="833">
+      <c r="J72" s="826"/>
+      <c r="K72" s="827">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="833"/>
+      <c r="L72" s="827"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -28021,11 +28028,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="835">
+      <c r="K74" s="829">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="836"/>
+      <c r="L74" s="830"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28044,22 +28051,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="813" t="s">
+      <c r="D76" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="814"/>
+      <c r="E76" s="808"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="815" t="s">
+      <c r="I76" s="809" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="816"/>
-      <c r="K76" s="817">
+      <c r="J76" s="810"/>
+      <c r="K76" s="811">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="817"/>
+      <c r="L76" s="811"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -28219,6 +28226,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -28234,21 +28256,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30219,10 +30226,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="906" t="s">
+      <c r="I54" s="911" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="907"/>
+      <c r="J54" s="912"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -30238,8 +30245,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="908"/>
-      <c r="J55" s="909"/>
+      <c r="I55" s="913"/>
+      <c r="J55" s="914"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -30255,8 +30262,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="910"/>
-      <c r="J56" s="911"/>
+      <c r="I56" s="915"/>
+      <c r="J56" s="916"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30924,7 +30931,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="864" t="s">
+      <c r="F90" s="869" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30937,7 +30944,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="865"/>
+      <c r="F91" s="870"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30956,10 +30963,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="902" t="s">
+      <c r="I93" s="907" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="903"/>
+      <c r="J93" s="908"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30969,8 +30976,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="904"/>
-      <c r="J94" s="905"/>
+      <c r="I94" s="909"/>
+      <c r="J94" s="910"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -31411,11 +31418,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="916">
+      <c r="C130" s="921">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="917"/>
+      <c r="D130" s="922"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -31452,24 +31459,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="931" t="s">
+      <c r="B2" s="936" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="932"/>
-      <c r="D2" s="933"/>
-      <c r="F2" s="919" t="s">
+      <c r="C2" s="937"/>
+      <c r="D2" s="938"/>
+      <c r="F2" s="924" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="920"/>
-      <c r="H2" s="921"/>
+      <c r="G2" s="925"/>
+      <c r="H2" s="926"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="934"/>
-      <c r="C3" s="935"/>
-      <c r="D3" s="936"/>
-      <c r="F3" s="922"/>
-      <c r="G3" s="923"/>
-      <c r="H3" s="924"/>
+      <c r="B3" s="939"/>
+      <c r="C3" s="940"/>
+      <c r="D3" s="941"/>
+      <c r="F3" s="927"/>
+      <c r="G3" s="928"/>
+      <c r="H3" s="929"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31614,11 +31621,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="925">
+      <c r="G11" s="930">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="926"/>
+      <c r="H11" s="931"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31635,33 +31642,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="929" t="s">
+      <c r="C15" s="934" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="927">
+      <c r="D15" s="932">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="937" t="s">
+      <c r="E15" s="942" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="938"/>
-      <c r="G15" s="938"/>
-      <c r="H15" s="939"/>
+      <c r="F15" s="943"/>
+      <c r="G15" s="943"/>
+      <c r="H15" s="944"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="930"/>
-      <c r="D16" s="928"/>
-      <c r="E16" s="940"/>
-      <c r="F16" s="941"/>
-      <c r="G16" s="941"/>
-      <c r="H16" s="942"/>
+      <c r="C16" s="935"/>
+      <c r="D16" s="933"/>
+      <c r="E16" s="945"/>
+      <c r="F16" s="946"/>
+      <c r="G16" s="946"/>
+      <c r="H16" s="947"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="918" t="s">
+      <c r="C17" s="923" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="918"/>
+      <c r="D17" s="923"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31720,23 +31727,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31746,24 +31753,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31782,14 +31789,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31799,15 +31806,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
+      <c r="R4" s="872"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="943"/>
-      <c r="X4" s="943"/>
+      <c r="W4" s="954"/>
+      <c r="X4" s="954"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31861,8 +31868,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="943"/>
-      <c r="X5" s="943"/>
+      <c r="W5" s="954"/>
+      <c r="X5" s="954"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32628,7 +32635,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="944"/>
+      <c r="W19" s="955"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32682,7 +32689,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="944"/>
+      <c r="W20" s="955"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32737,8 +32744,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="861"/>
-      <c r="X21" s="861"/>
+      <c r="W21" s="850"/>
+      <c r="X21" s="850"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32849,8 +32856,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="862"/>
-      <c r="X23" s="862"/>
+      <c r="W23" s="851"/>
+      <c r="X23" s="851"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32911,8 +32918,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="862"/>
-      <c r="X24" s="862"/>
+      <c r="W24" s="851"/>
+      <c r="X24" s="851"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32965,8 +32972,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="863"/>
-      <c r="X25" s="863"/>
+      <c r="W25" s="852"/>
+      <c r="X25" s="852"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -33021,8 +33028,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="863"/>
-      <c r="X26" s="863"/>
+      <c r="W26" s="852"/>
+      <c r="X26" s="852"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -33077,9 +33084,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="856"/>
-      <c r="X27" s="857"/>
-      <c r="Y27" s="858"/>
+      <c r="W27" s="845"/>
+      <c r="X27" s="846"/>
+      <c r="Y27" s="847"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33133,9 +33140,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="857"/>
-      <c r="X28" s="857"/>
-      <c r="Y28" s="858"/>
+      <c r="W28" s="846"/>
+      <c r="X28" s="846"/>
+      <c r="Y28" s="847"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33719,11 +33726,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="847">
+      <c r="M41" s="863">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="847">
+      <c r="N41" s="863">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33731,7 +33738,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="912">
+      <c r="Q41" s="917">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33755,10 +33762,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="848"/>
-      <c r="N42" s="848"/>
+      <c r="M42" s="864"/>
+      <c r="N42" s="864"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="913"/>
+      <c r="Q42" s="918"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33827,11 +33834,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="914">
+      <c r="M45" s="919">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="915"/>
+      <c r="N45" s="920"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -34247,26 +34254,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="824" t="s">
+      <c r="H63" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="825"/>
+      <c r="I63" s="819"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="949">
+      <c r="K63" s="951">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="950"/>
+      <c r="L63" s="952"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="830" t="s">
+      <c r="D64" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="830"/>
+      <c r="E64" s="824"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -34282,15 +34289,15 @@
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="831" t="s">
+      <c r="I65" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="832"/>
-      <c r="K65" s="833">
+      <c r="J65" s="826"/>
+      <c r="K65" s="827">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="833"/>
+      <c r="L65" s="827"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -34331,11 +34338,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="945">
+      <c r="K67" s="953">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="833"/>
+      <c r="L67" s="827"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -34352,22 +34359,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="813" t="s">
+      <c r="D69" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="814"/>
+      <c r="E69" s="808"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="946" t="s">
+      <c r="I69" s="948" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="947"/>
-      <c r="K69" s="948">
+      <c r="J69" s="949"/>
+      <c r="K69" s="950">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="948"/>
+      <c r="L69" s="950"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34514,21 +34521,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -34544,6 +34536,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36040,10 +36047,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="906" t="s">
+      <c r="I38" s="911" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="907"/>
+      <c r="J38" s="912"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -36062,8 +36069,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="908"/>
-      <c r="J39" s="909"/>
+      <c r="I39" s="913"/>
+      <c r="J39" s="914"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -36082,8 +36089,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="910"/>
-      <c r="J40" s="911"/>
+      <c r="I40" s="915"/>
+      <c r="J40" s="916"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36706,7 +36713,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="864" t="s">
+      <c r="F71" s="869" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36719,7 +36726,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="865"/>
+      <c r="F72" s="870"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36738,10 +36745,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="902" t="s">
+      <c r="I74" s="907" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="903"/>
+      <c r="J74" s="908"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36750,8 +36757,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="904"/>
-      <c r="J75" s="905"/>
+      <c r="I75" s="909"/>
+      <c r="J75" s="910"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36885,11 +36892,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="953" t="s">
+      <c r="A89" s="958" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="954"/>
-      <c r="C89" s="954"/>
+      <c r="B89" s="959"/>
+      <c r="C89" s="959"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36899,10 +36906,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="955" t="s">
+      <c r="B90" s="960" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="956"/>
+      <c r="C90" s="961"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -37003,7 +37010,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="951">
+      <c r="C97" s="956">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -37017,7 +37024,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="952"/>
+      <c r="C98" s="957"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -37118,23 +37125,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -37144,24 +37151,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -37176,14 +37183,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -37193,11 +37200,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
+      <c r="R4" s="872"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38965,11 +38972,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="847">
+      <c r="M41" s="863">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="847">
+      <c r="N41" s="863">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38977,7 +38984,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="912">
+      <c r="Q41" s="917">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -39007,10 +39014,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="848"/>
-      <c r="N42" s="848"/>
+      <c r="M42" s="864"/>
+      <c r="N42" s="864"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="913"/>
+      <c r="Q42" s="918"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -39097,11 +39104,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="914">
+      <c r="M45" s="919">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="915"/>
+      <c r="N45" s="920"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39687,26 +39694,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="824" t="s">
+      <c r="H69" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="825"/>
+      <c r="I69" s="819"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="949">
+      <c r="K69" s="951">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="950"/>
+      <c r="L69" s="952"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="830" t="s">
+      <c r="D70" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="830"/>
+      <c r="E70" s="824"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39722,15 +39729,15 @@
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="831" t="s">
+      <c r="I71" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="832"/>
-      <c r="K71" s="833">
+      <c r="J71" s="826"/>
+      <c r="K71" s="827">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="833"/>
+      <c r="L71" s="827"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39771,11 +39778,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="945">
+      <c r="K73" s="953">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="833"/>
+      <c r="L73" s="827"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39792,22 +39799,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="813" t="s">
+      <c r="D75" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="814"/>
+      <c r="E75" s="808"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="815" t="s">
+      <c r="I75" s="809" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="816"/>
-      <c r="K75" s="817">
+      <c r="J75" s="810"/>
+      <c r="K75" s="811">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="817"/>
+      <c r="L75" s="811"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -39954,6 +39961,17 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -39965,17 +39983,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41656,10 +41663,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="906" t="s">
+      <c r="H43" s="911" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="907"/>
+      <c r="I43" s="912"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41678,8 +41685,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="908"/>
-      <c r="I44" s="909"/>
+      <c r="H44" s="913"/>
+      <c r="I44" s="914"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41698,8 +41705,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="910"/>
-      <c r="I45" s="911"/>
+      <c r="H45" s="915"/>
+      <c r="I45" s="916"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -42143,10 +42150,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="902" t="s">
+      <c r="H67" s="907" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="903"/>
+      <c r="I67" s="908"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -42166,11 +42173,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="864" t="s">
+      <c r="F68" s="869" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="904"/>
-      <c r="I68" s="905"/>
+      <c r="H68" s="909"/>
+      <c r="I68" s="910"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -42181,7 +42188,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="865"/>
+      <c r="F69" s="870"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -43996,7 +44003,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="837" t="s">
+      <c r="B41" s="842" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -44028,7 +44035,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="838"/>
+      <c r="B42" s="843"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45622,23 +45629,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45648,24 +45655,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45680,14 +45687,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45697,11 +45704,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
+      <c r="R4" s="872"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -47435,11 +47442,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="847">
+      <c r="M41" s="863">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="847">
+      <c r="N41" s="863">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -47447,7 +47454,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="912">
+      <c r="Q41" s="917">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47477,10 +47484,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="848"/>
-      <c r="N42" s="848"/>
+      <c r="M42" s="864"/>
+      <c r="N42" s="864"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="913"/>
+      <c r="Q42" s="918"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47561,11 +47568,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="914">
+      <c r="M45" s="919">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="915"/>
+      <c r="N45" s="920"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -48082,26 +48089,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="824" t="s">
+      <c r="H69" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="825"/>
+      <c r="I69" s="819"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="949">
+      <c r="K69" s="951">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="950"/>
+      <c r="L69" s="952"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="830" t="s">
+      <c r="D70" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="830"/>
+      <c r="E70" s="824"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -48117,15 +48124,15 @@
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="831" t="s">
+      <c r="I71" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="832"/>
-      <c r="K71" s="833">
+      <c r="J71" s="826"/>
+      <c r="K71" s="827">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="833"/>
+      <c r="L71" s="827"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -48166,11 +48173,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="945">
+      <c r="K73" s="953">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="833"/>
+      <c r="L73" s="827"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -48187,22 +48194,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="813" t="s">
+      <c r="D75" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="814"/>
+      <c r="E75" s="808"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="946" t="s">
+      <c r="I75" s="948" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="947"/>
-      <c r="K75" s="948">
+      <c r="J75" s="949"/>
+      <c r="K75" s="950">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="948"/>
+      <c r="L75" s="950"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -48349,12 +48356,6 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -48371,6 +48372,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49784,10 +49791,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="906" t="s">
+      <c r="H40" s="911" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="907"/>
+      <c r="I40" s="912"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49806,8 +49813,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="908"/>
-      <c r="I41" s="909"/>
+      <c r="H41" s="913"/>
+      <c r="I41" s="914"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49826,8 +49833,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="910"/>
-      <c r="I42" s="911"/>
+      <c r="H42" s="915"/>
+      <c r="I42" s="916"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -50331,10 +50338,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="902" t="s">
+      <c r="H67" s="907" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="903"/>
+      <c r="I67" s="908"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -50354,11 +50361,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="864" t="s">
+      <c r="F68" s="869" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="904"/>
-      <c r="I68" s="905"/>
+      <c r="H68" s="909"/>
+      <c r="I68" s="910"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -50369,7 +50376,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="865"/>
+      <c r="F69" s="870"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50991,23 +50998,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51017,24 +51024,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -51049,14 +51056,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -51066,11 +51073,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
+      <c r="R4" s="872"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52789,11 +52796,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="847">
+      <c r="M41" s="863">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="847">
+      <c r="N41" s="863">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52801,7 +52808,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="912">
+      <c r="Q41" s="917">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52829,10 +52836,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="848"/>
-      <c r="N42" s="848"/>
+      <c r="M42" s="864"/>
+      <c r="N42" s="864"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="913"/>
+      <c r="Q42" s="918"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52905,11 +52912,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="914">
+      <c r="M45" s="919">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="915"/>
+      <c r="N45" s="920"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -53402,26 +53409,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="824" t="s">
+      <c r="H69" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="825"/>
+      <c r="I69" s="819"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="949">
+      <c r="K69" s="951">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="950"/>
+      <c r="L69" s="952"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="830" t="s">
+      <c r="D70" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="830"/>
+      <c r="E70" s="824"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -53437,15 +53444,15 @@
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="831" t="s">
+      <c r="I71" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="832"/>
-      <c r="K71" s="833">
+      <c r="J71" s="826"/>
+      <c r="K71" s="827">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="833"/>
+      <c r="L71" s="827"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -53486,11 +53493,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="945">
+      <c r="K73" s="953">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="833"/>
+      <c r="L73" s="827"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53507,22 +53514,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="813" t="s">
+      <c r="D75" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="814"/>
+      <c r="E75" s="808"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="815" t="s">
+      <c r="I75" s="809" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="816"/>
-      <c r="K75" s="817">
+      <c r="J75" s="810"/>
+      <c r="K75" s="811">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="817"/>
+      <c r="L75" s="811"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53666,12 +53673,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53688,6 +53689,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -53703,8 +53710,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54363,7 +54370,7 @@
         <v>91963.06</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A19" s="454">
         <v>44792</v>
       </c>
@@ -54373,15 +54380,16 @@
       <c r="C19" s="111">
         <v>22809.58</v>
       </c>
-      <c r="D19" s="584">
-        <v>44841</v>
+      <c r="D19" s="965" t="s">
+        <v>1373</v>
       </c>
       <c r="E19" s="585">
-        <v>16600.41</v>
+        <f>16600.41+6209.17</f>
+        <v>22809.58</v>
       </c>
       <c r="F19" s="544">
         <f t="shared" si="0"/>
-        <v>6209.1700000000019</v>
+        <v>0</v>
       </c>
       <c r="H19" s="744" t="s">
         <v>1229</v>
@@ -54409,11 +54417,15 @@
       <c r="C20" s="111">
         <v>95140.96</v>
       </c>
-      <c r="D20" s="412"/>
-      <c r="E20" s="111"/>
+      <c r="D20" s="966">
+        <v>44842</v>
+      </c>
+      <c r="E20" s="707">
+        <v>95140.96</v>
+      </c>
       <c r="F20" s="544">
         <f t="shared" si="0"/>
-        <v>95140.96</v>
+        <v>0</v>
       </c>
       <c r="H20" s="744" t="s">
         <v>1230</v>
@@ -54441,11 +54453,15 @@
       <c r="C21" s="111">
         <v>1861.5</v>
       </c>
-      <c r="D21" s="412"/>
-      <c r="E21" s="111"/>
+      <c r="D21" s="966">
+        <v>44842</v>
+      </c>
+      <c r="E21" s="707">
+        <v>1861.5</v>
+      </c>
       <c r="F21" s="544">
         <f t="shared" si="0"/>
-        <v>1861.5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="747" t="s">
         <v>1231</v>
@@ -54473,11 +54489,15 @@
       <c r="C22" s="111">
         <v>108419.36</v>
       </c>
-      <c r="D22" s="412"/>
-      <c r="E22" s="111"/>
+      <c r="D22" s="966">
+        <v>44842</v>
+      </c>
+      <c r="E22" s="707">
+        <v>108419.36</v>
+      </c>
       <c r="F22" s="544">
         <f t="shared" si="0"/>
-        <v>108419.36</v>
+        <v>0</v>
       </c>
       <c r="G22" s="644"/>
       <c r="H22" s="747" t="s">
@@ -54506,11 +54526,15 @@
       <c r="C23" s="111">
         <v>17118</v>
       </c>
-      <c r="D23" s="412"/>
-      <c r="E23" s="111"/>
+      <c r="D23" s="966">
+        <v>44842</v>
+      </c>
+      <c r="E23" s="707">
+        <v>17118</v>
+      </c>
       <c r="F23" s="544">
         <f t="shared" si="0"/>
-        <v>17118</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="744" t="s">
@@ -54539,11 +54563,15 @@
       <c r="C24" s="111">
         <v>35648.26</v>
       </c>
-      <c r="D24" s="412"/>
-      <c r="E24" s="111"/>
+      <c r="D24" s="966">
+        <v>44842</v>
+      </c>
+      <c r="E24" s="707">
+        <v>35648.26</v>
+      </c>
       <c r="F24" s="544">
         <f t="shared" si="0"/>
-        <v>35648.26</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="747" t="s">
@@ -54572,11 +54600,15 @@
       <c r="C25" s="111">
         <v>104295.06</v>
       </c>
-      <c r="D25" s="412"/>
-      <c r="E25" s="111"/>
+      <c r="D25" s="966">
+        <v>44842</v>
+      </c>
+      <c r="E25" s="707">
+        <v>6215.75</v>
+      </c>
       <c r="F25" s="544">
         <f t="shared" si="0"/>
-        <v>104295.06</v>
+        <v>98079.31</v>
       </c>
       <c r="G25" s="645"/>
       <c r="H25" s="747" t="s">
@@ -54958,10 +54990,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="906" t="s">
+      <c r="H40" s="911" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="907"/>
+      <c r="I40" s="912"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -54980,8 +55012,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="908"/>
-      <c r="I41" s="909"/>
+      <c r="H41" s="913"/>
+      <c r="I41" s="914"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -55000,8 +55032,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="910"/>
-      <c r="I42" s="911"/>
+      <c r="H42" s="915"/>
+      <c r="I42" s="916"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -55499,19 +55531,19 @@
       <c r="D67" s="407"/>
       <c r="E67" s="395">
         <f>SUM(E3:E66)</f>
-        <v>1313645.9699999997</v>
+        <v>1584258.97</v>
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>401479.26</v>
+        <v>130866.26000000001</v>
       </c>
       <c r="G67" s="798" t="s">
         <v>1372</v>
       </c>
-      <c r="H67" s="902" t="s">
+      <c r="H67" s="907" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="903"/>
+      <c r="I67" s="908"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -55531,11 +55563,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="864" t="s">
+      <c r="F68" s="869" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="904"/>
-      <c r="I68" s="905"/>
+      <c r="H68" s="909"/>
+      <c r="I68" s="910"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -55546,7 +55578,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="865"/>
+      <c r="F69" s="870"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -56195,7 +56227,7 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -56227,23 +56259,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56253,24 +56285,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56285,14 +56317,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -56302,11 +56334,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
+      <c r="R4" s="872"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -58227,11 +58259,11 @@
       <c r="L41" s="39">
         <v>19507</v>
       </c>
-      <c r="M41" s="847">
+      <c r="M41" s="863">
         <f>SUM(M5:M40)</f>
         <v>2172487.6799999997</v>
       </c>
-      <c r="N41" s="847">
+      <c r="N41" s="863">
         <f>SUM(N5:N40)</f>
         <v>1625219</v>
       </c>
@@ -58239,7 +58271,7 @@
         <f>SUM(P5:P40)</f>
         <v>4566318.68</v>
       </c>
-      <c r="Q41" s="912">
+      <c r="Q41" s="917">
         <f>SUM(Q5:Q40)</f>
         <v>6</v>
       </c>
@@ -58273,10 +58305,10 @@
       <c r="L42" s="702">
         <v>19250</v>
       </c>
-      <c r="M42" s="848"/>
-      <c r="N42" s="848"/>
+      <c r="M42" s="864"/>
+      <c r="N42" s="864"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="913"/>
+      <c r="Q42" s="918"/>
       <c r="R42" s="788">
         <f>SUM(R5:R41)</f>
         <v>121832</v>
@@ -58367,11 +58399,11 @@
       <c r="L45" s="39">
         <v>19450</v>
       </c>
-      <c r="M45" s="914">
+      <c r="M45" s="919">
         <f>M41+N41</f>
         <v>3797706.6799999997</v>
       </c>
-      <c r="N45" s="915"/>
+      <c r="N45" s="920"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -58420,7 +58452,7 @@
       <c r="J47" s="622">
         <v>44802</v>
       </c>
-      <c r="K47" s="963" t="s">
+      <c r="K47" s="805" t="s">
         <v>202</v>
       </c>
       <c r="L47" s="624">
@@ -58450,7 +58482,7 @@
       <c r="J48" s="466">
         <v>44804</v>
       </c>
-      <c r="K48" s="964" t="s">
+      <c r="K48" s="806" t="s">
         <v>1363</v>
       </c>
       <c r="L48" s="54">
@@ -58480,7 +58512,7 @@
       <c r="J49" s="601">
         <v>44809</v>
       </c>
-      <c r="K49" s="962" t="s">
+      <c r="K49" s="804" t="s">
         <v>854</v>
       </c>
       <c r="L49" s="69">
@@ -58510,7 +58542,7 @@
       <c r="J50" s="601">
         <v>44812</v>
       </c>
-      <c r="K50" s="962" t="s">
+      <c r="K50" s="804" t="s">
         <v>1353</v>
       </c>
       <c r="L50" s="69">
@@ -58540,7 +58572,7 @@
       <c r="J51" s="601">
         <v>44814</v>
       </c>
-      <c r="K51" s="962" t="s">
+      <c r="K51" s="804" t="s">
         <v>1100</v>
       </c>
       <c r="L51" s="69">
@@ -58570,7 +58602,7 @@
       <c r="J52" s="601">
         <v>44823</v>
       </c>
-      <c r="K52" s="962" t="s">
+      <c r="K52" s="804" t="s">
         <v>854</v>
       </c>
       <c r="L52" s="69">
@@ -58600,7 +58632,7 @@
       <c r="J53" s="601">
         <v>44826</v>
       </c>
-      <c r="K53" s="962" t="s">
+      <c r="K53" s="804" t="s">
         <v>1359</v>
       </c>
       <c r="L53" s="69">
@@ -58630,7 +58662,7 @@
       <c r="J54" s="601">
         <v>44826</v>
       </c>
-      <c r="K54" s="961" t="s">
+      <c r="K54" s="803" t="s">
         <v>1360</v>
       </c>
       <c r="L54" s="69">
@@ -58660,7 +58692,7 @@
       <c r="J55" s="601">
         <v>44830</v>
       </c>
-      <c r="K55" s="962" t="s">
+      <c r="K55" s="804" t="s">
         <v>1361</v>
       </c>
       <c r="L55" s="69">
@@ -58690,7 +58722,7 @@
       <c r="J56" s="601">
         <v>44832</v>
       </c>
-      <c r="K56" s="961" t="s">
+      <c r="K56" s="803" t="s">
         <v>202</v>
       </c>
       <c r="L56" s="69">
@@ -58720,7 +58752,7 @@
       <c r="J57" s="601">
         <v>44832</v>
       </c>
-      <c r="K57" s="962" t="s">
+      <c r="K57" s="804" t="s">
         <v>825</v>
       </c>
       <c r="L57" s="69">
@@ -58750,7 +58782,7 @@
       <c r="J58" s="601">
         <v>44832</v>
       </c>
-      <c r="K58" s="962" t="s">
+      <c r="K58" s="804" t="s">
         <v>1363</v>
       </c>
       <c r="L58" s="69">
@@ -58806,7 +58838,7 @@
       <c r="F60" s="72"/>
       <c r="H60" s="83"/>
       <c r="I60" s="77"/>
-      <c r="J60" s="960" t="s">
+      <c r="J60" s="802" t="s">
         <v>1369</v>
       </c>
       <c r="K60" s="174" t="s">
@@ -58976,26 +59008,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="824" t="s">
+      <c r="H69" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="825"/>
+      <c r="I69" s="819"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="949">
+      <c r="K69" s="951">
         <f>I67+L67</f>
         <v>401450.39</v>
       </c>
-      <c r="L69" s="950"/>
+      <c r="L69" s="952"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="830" t="s">
+      <c r="D70" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="830"/>
+      <c r="E70" s="824"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1484547.7999999998</v>
@@ -59011,15 +59043,15 @@
       <c r="F71" s="111">
         <v>-2600214.79</v>
       </c>
-      <c r="I71" s="831" t="s">
+      <c r="I71" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="832"/>
-      <c r="K71" s="833">
+      <c r="J71" s="826"/>
+      <c r="K71" s="827">
         <f>F73+F74+F75</f>
         <v>2724761.13</v>
       </c>
-      <c r="L71" s="833"/>
+      <c r="L71" s="827"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -59060,11 +59092,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="945">
+      <c r="K73" s="953">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="833"/>
+      <c r="L73" s="827"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -59081,22 +59113,22 @@
       <c r="C75" s="112">
         <v>44836</v>
       </c>
-      <c r="D75" s="813" t="s">
+      <c r="D75" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="814"/>
+      <c r="E75" s="808"/>
       <c r="F75" s="113">
         <v>3773503.4</v>
       </c>
-      <c r="I75" s="957" t="s">
+      <c r="I75" s="962" t="s">
         <v>198</v>
       </c>
-      <c r="J75" s="958"/>
-      <c r="K75" s="959">
+      <c r="J75" s="963"/>
+      <c r="K75" s="964">
         <f>K71+K73</f>
         <v>52205.139999999665</v>
       </c>
-      <c r="L75" s="959"/>
+      <c r="L75" s="964"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -59243,12 +59275,6 @@
     <sortCondition ref="J47:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -59265,6 +59291,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -60568,10 +60600,10 @@
         <f t="shared" si="0"/>
         <v>29303.81</v>
       </c>
-      <c r="H40" s="906" t="s">
+      <c r="H40" s="911" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="907"/>
+      <c r="I40" s="912"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -60590,8 +60622,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="908"/>
-      <c r="I41" s="909"/>
+      <c r="H41" s="913"/>
+      <c r="I41" s="914"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -60610,8 +60642,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="910"/>
-      <c r="I42" s="911"/>
+      <c r="H42" s="915"/>
+      <c r="I42" s="916"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -61115,10 +61147,10 @@
         <f>SUM(F3:F66)</f>
         <v>2600214.79</v>
       </c>
-      <c r="H67" s="902" t="s">
+      <c r="H67" s="907" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="903"/>
+      <c r="I67" s="908"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>250099.28000000003</v>
@@ -61138,11 +61170,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="864" t="s">
+      <c r="F68" s="869" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="904"/>
-      <c r="I68" s="905"/>
+      <c r="H68" s="909"/>
+      <c r="I68" s="910"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -61153,7 +61185,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="865"/>
+      <c r="F69" s="870"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -61771,23 +61803,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="833" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="834"/>
+      <c r="E1" s="834"/>
+      <c r="F1" s="834"/>
+      <c r="G1" s="834"/>
+      <c r="H1" s="834"/>
+      <c r="I1" s="834"/>
+      <c r="J1" s="834"/>
+      <c r="K1" s="834"/>
+      <c r="L1" s="834"/>
+      <c r="M1" s="834"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -61797,21 +61829,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
     </row>
@@ -61826,14 +61858,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -61843,14 +61875,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="855" t="s">
+      <c r="W4" s="844" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="855"/>
+      <c r="X4" s="844"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61901,8 +61933,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="855"/>
-      <c r="X5" s="855"/>
+      <c r="W5" s="844"/>
+      <c r="X5" s="844"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62673,7 +62705,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="859">
+      <c r="W19" s="848">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -62725,7 +62757,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="860"/>
+      <c r="W20" s="849"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -62774,8 +62806,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="861"/>
-      <c r="X21" s="861"/>
+      <c r="W21" s="850"/>
+      <c r="X21" s="850"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -62876,8 +62908,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="862"/>
-      <c r="X23" s="862"/>
+      <c r="W23" s="851"/>
+      <c r="X23" s="851"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -62931,8 +62963,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="862"/>
-      <c r="X24" s="862"/>
+      <c r="W24" s="851"/>
+      <c r="X24" s="851"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -62978,8 +63010,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="863"/>
-      <c r="X25" s="863"/>
+      <c r="W25" s="852"/>
+      <c r="X25" s="852"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63030,8 +63062,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="863"/>
-      <c r="X26" s="863"/>
+      <c r="W26" s="852"/>
+      <c r="X26" s="852"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -63079,9 +63111,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="856"/>
-      <c r="X27" s="857"/>
-      <c r="Y27" s="858"/>
+      <c r="W27" s="845"/>
+      <c r="X27" s="846"/>
+      <c r="Y27" s="847"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63131,9 +63163,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="857"/>
-      <c r="X28" s="857"/>
-      <c r="Y28" s="858"/>
+      <c r="W28" s="846"/>
+      <c r="X28" s="846"/>
+      <c r="Y28" s="847"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63468,11 +63500,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="847">
+      <c r="M36" s="863">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="849">
+      <c r="N36" s="865">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -63480,7 +63512,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="851">
+      <c r="Q36" s="867">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -63515,13 +63547,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="848"/>
-      <c r="N37" s="850"/>
+      <c r="M37" s="864"/>
+      <c r="N37" s="866"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="852"/>
+      <c r="Q37" s="868"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -63811,12 +63843,12 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="824" t="s">
+      <c r="H52" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="825"/>
+      <c r="I52" s="819"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="826">
+      <c r="K52" s="820">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
@@ -63827,10 +63859,10 @@
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="830" t="s">
+      <c r="D53" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="830"/>
+      <c r="E53" s="824"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -63846,22 +63878,22 @@
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="831" t="s">
+      <c r="I54" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="832"/>
-      <c r="K54" s="833">
+      <c r="J54" s="826"/>
+      <c r="K54" s="827">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="833"/>
-      <c r="M54" s="839" t="s">
+      <c r="L54" s="827"/>
+      <c r="M54" s="855" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="840"/>
-      <c r="O54" s="840"/>
-      <c r="P54" s="840"/>
-      <c r="Q54" s="841"/>
+      <c r="N54" s="856"/>
+      <c r="O54" s="856"/>
+      <c r="P54" s="856"/>
+      <c r="Q54" s="857"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -63875,11 +63907,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="842"/>
-      <c r="N55" s="843"/>
-      <c r="O55" s="843"/>
-      <c r="P55" s="843"/>
-      <c r="Q55" s="844"/>
+      <c r="M55" s="858"/>
+      <c r="N55" s="859"/>
+      <c r="O55" s="859"/>
+      <c r="P55" s="859"/>
+      <c r="Q55" s="860"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -63897,11 +63929,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="835">
+      <c r="K56" s="829">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="836"/>
+      <c r="L56" s="830"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -63918,22 +63950,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="813" t="s">
+      <c r="D58" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="814"/>
+      <c r="E58" s="808"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="815" t="s">
+      <c r="I58" s="809" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="816"/>
-      <c r="K58" s="817">
+      <c r="J58" s="810"/>
+      <c r="K58" s="811">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="817"/>
+      <c r="L58" s="811"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -64077,14 +64109,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -64095,17 +64130,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -66523,7 +66555,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="864" t="s">
+      <c r="F87" s="869" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -66536,7 +66568,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="865"/>
+      <c r="F88" s="870"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -66848,23 +66880,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="833" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="834"/>
+      <c r="E1" s="834"/>
+      <c r="F1" s="834"/>
+      <c r="G1" s="834"/>
+      <c r="H1" s="834"/>
+      <c r="I1" s="834"/>
+      <c r="J1" s="834"/>
+      <c r="K1" s="834"/>
+      <c r="L1" s="834"/>
+      <c r="M1" s="834"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -66874,24 +66906,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -66906,14 +66938,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -66923,15 +66955,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
-      <c r="W4" s="855" t="s">
+      <c r="R4" s="872"/>
+      <c r="W4" s="844" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="855"/>
+      <c r="X4" s="844"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66992,8 +67024,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="855"/>
-      <c r="X5" s="855"/>
+      <c r="W5" s="844"/>
+      <c r="X5" s="844"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -67750,7 +67782,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="859">
+      <c r="W19" s="848">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -67802,7 +67834,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="860"/>
+      <c r="W20" s="849"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -67851,8 +67883,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="861"/>
-      <c r="X21" s="861"/>
+      <c r="W21" s="850"/>
+      <c r="X21" s="850"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -67953,8 +67985,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="862"/>
-      <c r="X23" s="862"/>
+      <c r="W23" s="851"/>
+      <c r="X23" s="851"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -68005,8 +68037,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="862"/>
-      <c r="X24" s="862"/>
+      <c r="W24" s="851"/>
+      <c r="X24" s="851"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -68052,8 +68084,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="863"/>
-      <c r="X25" s="863"/>
+      <c r="W25" s="852"/>
+      <c r="X25" s="852"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -68101,8 +68133,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="863"/>
-      <c r="X26" s="863"/>
+      <c r="W26" s="852"/>
+      <c r="X26" s="852"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -68162,9 +68194,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="856"/>
-      <c r="X27" s="857"/>
-      <c r="Y27" s="858"/>
+      <c r="W27" s="845"/>
+      <c r="X27" s="846"/>
+      <c r="Y27" s="847"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -68218,9 +68250,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="857"/>
-      <c r="X28" s="857"/>
-      <c r="Y28" s="858"/>
+      <c r="W28" s="846"/>
+      <c r="X28" s="846"/>
+      <c r="Y28" s="847"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -68536,11 +68568,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="847">
+      <c r="M36" s="863">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="849">
+      <c r="N36" s="865">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -68548,7 +68580,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="851">
+      <c r="Q36" s="867">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -68567,13 +68599,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="848"/>
-      <c r="N37" s="850"/>
+      <c r="M37" s="864"/>
+      <c r="N37" s="866"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="852"/>
+      <c r="Q37" s="868"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -68847,12 +68879,12 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="824" t="s">
+      <c r="H52" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="825"/>
+      <c r="I52" s="819"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="826">
+      <c r="K52" s="820">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
@@ -68863,10 +68895,10 @@
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="830" t="s">
+      <c r="D53" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="830"/>
+      <c r="E53" s="824"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -68882,22 +68914,22 @@
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="831" t="s">
+      <c r="I54" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="832"/>
-      <c r="K54" s="833">
+      <c r="J54" s="826"/>
+      <c r="K54" s="827">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="833"/>
-      <c r="M54" s="839" t="s">
+      <c r="L54" s="827"/>
+      <c r="M54" s="855" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="840"/>
-      <c r="O54" s="840"/>
-      <c r="P54" s="840"/>
-      <c r="Q54" s="841"/>
+      <c r="N54" s="856"/>
+      <c r="O54" s="856"/>
+      <c r="P54" s="856"/>
+      <c r="Q54" s="857"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -68911,11 +68943,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="842"/>
-      <c r="N55" s="843"/>
-      <c r="O55" s="843"/>
-      <c r="P55" s="843"/>
-      <c r="Q55" s="844"/>
+      <c r="M55" s="858"/>
+      <c r="N55" s="859"/>
+      <c r="O55" s="859"/>
+      <c r="P55" s="859"/>
+      <c r="Q55" s="860"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -68933,11 +68965,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="835">
+      <c r="K56" s="829">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="836"/>
+      <c r="L56" s="830"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -68954,22 +68986,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="813" t="s">
+      <c r="D58" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="814"/>
+      <c r="E58" s="808"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="815" t="s">
+      <c r="I58" s="809" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="816"/>
-      <c r="K58" s="817">
+      <c r="J58" s="810"/>
+      <c r="K58" s="811">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="817"/>
+      <c r="L58" s="811"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -69113,20 +69145,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -69136,13 +69161,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -71532,7 +71564,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="864" t="s">
+      <c r="F75" s="869" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -71545,7 +71577,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="865"/>
+      <c r="F76" s="870"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -71837,23 +71869,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -71863,24 +71895,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -71895,14 +71927,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -71912,15 +71944,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
-      <c r="W4" s="855" t="s">
+      <c r="R4" s="872"/>
+      <c r="W4" s="844" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="855"/>
+      <c r="X4" s="844"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71971,8 +72003,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="855"/>
-      <c r="X5" s="855"/>
+      <c r="W5" s="844"/>
+      <c r="X5" s="844"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -72736,7 +72768,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="859">
+      <c r="W19" s="848">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -72789,7 +72821,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="860"/>
+      <c r="W20" s="849"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -72838,8 +72870,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="861"/>
-      <c r="X21" s="861"/>
+      <c r="W21" s="850"/>
+      <c r="X21" s="850"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -72939,8 +72971,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="862"/>
-      <c r="X23" s="862"/>
+      <c r="W23" s="851"/>
+      <c r="X23" s="851"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -72995,8 +73027,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="862"/>
-      <c r="X24" s="862"/>
+      <c r="W24" s="851"/>
+      <c r="X24" s="851"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -73041,8 +73073,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="863"/>
-      <c r="X25" s="863"/>
+      <c r="W25" s="852"/>
+      <c r="X25" s="852"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -73090,8 +73122,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="863"/>
-      <c r="X26" s="863"/>
+      <c r="W26" s="852"/>
+      <c r="X26" s="852"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -73145,9 +73177,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="856"/>
-      <c r="X27" s="857"/>
-      <c r="Y27" s="858"/>
+      <c r="W27" s="845"/>
+      <c r="X27" s="846"/>
+      <c r="Y27" s="847"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -73201,9 +73233,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="857"/>
-      <c r="X28" s="857"/>
-      <c r="Y28" s="858"/>
+      <c r="W28" s="846"/>
+      <c r="X28" s="846"/>
+      <c r="Y28" s="847"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -73514,11 +73546,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="847">
+      <c r="M36" s="863">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="849">
+      <c r="N36" s="865">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -73526,7 +73558,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="851">
+      <c r="Q36" s="867">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -73551,13 +73583,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="848"/>
-      <c r="N37" s="850"/>
+      <c r="M37" s="864"/>
+      <c r="N37" s="866"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="852"/>
+      <c r="Q37" s="868"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -73850,12 +73882,12 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="824" t="s">
+      <c r="H52" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="825"/>
+      <c r="I52" s="819"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="826">
+      <c r="K52" s="820">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
@@ -73866,10 +73898,10 @@
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="830" t="s">
+      <c r="D53" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="830"/>
+      <c r="E53" s="824"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -73885,15 +73917,15 @@
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="831" t="s">
+      <c r="I54" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="832"/>
-      <c r="K54" s="833">
+      <c r="J54" s="826"/>
+      <c r="K54" s="827">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="833"/>
+      <c r="L54" s="827"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -73934,11 +73966,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="835">
+      <c r="K56" s="829">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="836"/>
+      <c r="L56" s="830"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -73955,22 +73987,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="813" t="s">
+      <c r="D58" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="814"/>
+      <c r="E58" s="808"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="815" t="s">
+      <c r="I58" s="809" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="816"/>
-      <c r="K58" s="817">
+      <c r="J58" s="810"/>
+      <c r="K58" s="811">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="817"/>
+      <c r="L58" s="811"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -74114,20 +74146,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -74143,6 +74161,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -75839,12 +75871,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="870" t="s">
+      <c r="B43" s="875" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="871"/>
-      <c r="D43" s="871"/>
-      <c r="E43" s="872"/>
+      <c r="C43" s="876"/>
+      <c r="D43" s="876"/>
+      <c r="E43" s="877"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -75872,10 +75904,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="873"/>
-      <c r="C44" s="874"/>
-      <c r="D44" s="874"/>
-      <c r="E44" s="875"/>
+      <c r="B44" s="878"/>
+      <c r="C44" s="879"/>
+      <c r="D44" s="879"/>
+      <c r="E44" s="880"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -75903,10 +75935,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="876"/>
-      <c r="C45" s="877"/>
-      <c r="D45" s="877"/>
-      <c r="E45" s="878"/>
+      <c r="B45" s="881"/>
+      <c r="C45" s="882"/>
+      <c r="D45" s="882"/>
+      <c r="E45" s="883"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -75949,10 +75981,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="885" t="s">
+      <c r="B47" s="890" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="886"/>
+      <c r="C47" s="891"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -75974,8 +76006,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="887"/>
-      <c r="C48" s="888"/>
+      <c r="B48" s="892"/>
+      <c r="C48" s="893"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -75983,11 +76015,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="879" t="s">
+      <c r="J48" s="884" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="880"/>
-      <c r="L48" s="881"/>
+      <c r="K48" s="885"/>
+      <c r="L48" s="886"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -76005,9 +76037,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="882"/>
-      <c r="K49" s="883"/>
-      <c r="L49" s="884"/>
+      <c r="J49" s="887"/>
+      <c r="K49" s="888"/>
+      <c r="L49" s="889"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -76024,10 +76056,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="889" t="s">
+      <c r="I50" s="894" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="890"/>
+      <c r="J50" s="895"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -76048,8 +76080,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="889"/>
-      <c r="J51" s="890"/>
+      <c r="I51" s="894"/>
+      <c r="J51" s="895"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -76068,8 +76100,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="889"/>
-      <c r="J52" s="890"/>
+      <c r="I52" s="894"/>
+      <c r="J52" s="895"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -76088,8 +76120,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="889"/>
-      <c r="J53" s="890"/>
+      <c r="I53" s="894"/>
+      <c r="J53" s="895"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -76108,8 +76140,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="889"/>
-      <c r="J54" s="890"/>
+      <c r="I54" s="894"/>
+      <c r="J54" s="895"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -76128,8 +76160,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="889"/>
-      <c r="J55" s="890"/>
+      <c r="I55" s="894"/>
+      <c r="J55" s="895"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -76148,8 +76180,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="889"/>
-      <c r="J56" s="890"/>
+      <c r="I56" s="894"/>
+      <c r="J56" s="895"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -76168,8 +76200,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="889"/>
-      <c r="J57" s="890"/>
+      <c r="I57" s="894"/>
+      <c r="J57" s="895"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -76188,8 +76220,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="889"/>
-      <c r="J58" s="890"/>
+      <c r="I58" s="894"/>
+      <c r="J58" s="895"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -76208,8 +76240,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="889"/>
-      <c r="J59" s="890"/>
+      <c r="I59" s="894"/>
+      <c r="J59" s="895"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -76228,8 +76260,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="889"/>
-      <c r="J60" s="890"/>
+      <c r="I60" s="894"/>
+      <c r="J60" s="895"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -76248,8 +76280,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="889"/>
-      <c r="J61" s="890"/>
+      <c r="I61" s="894"/>
+      <c r="J61" s="895"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -76268,8 +76300,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="889"/>
-      <c r="J62" s="890"/>
+      <c r="I62" s="894"/>
+      <c r="J62" s="895"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -76288,8 +76320,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="889"/>
-      <c r="J63" s="890"/>
+      <c r="I63" s="894"/>
+      <c r="J63" s="895"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -76308,8 +76340,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="889"/>
-      <c r="J64" s="890"/>
+      <c r="I64" s="894"/>
+      <c r="J64" s="895"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -76328,8 +76360,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="889"/>
-      <c r="J65" s="890"/>
+      <c r="I65" s="894"/>
+      <c r="J65" s="895"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -76348,8 +76380,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="889"/>
-      <c r="J66" s="890"/>
+      <c r="I66" s="894"/>
+      <c r="J66" s="895"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -76368,8 +76400,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="889"/>
-      <c r="J67" s="890"/>
+      <c r="I67" s="894"/>
+      <c r="J67" s="895"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -76388,8 +76420,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="889"/>
-      <c r="J68" s="890"/>
+      <c r="I68" s="894"/>
+      <c r="J68" s="895"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -76408,8 +76440,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="889"/>
-      <c r="J69" s="890"/>
+      <c r="I69" s="894"/>
+      <c r="J69" s="895"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -76428,8 +76460,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="889"/>
-      <c r="J70" s="890"/>
+      <c r="I70" s="894"/>
+      <c r="J70" s="895"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -76448,8 +76480,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="889"/>
-      <c r="J71" s="890"/>
+      <c r="I71" s="894"/>
+      <c r="J71" s="895"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -76468,8 +76500,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="889"/>
-      <c r="J72" s="890"/>
+      <c r="I72" s="894"/>
+      <c r="J72" s="895"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -76488,8 +76520,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="889"/>
-      <c r="J73" s="890"/>
+      <c r="I73" s="894"/>
+      <c r="J73" s="895"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -76508,8 +76540,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="889"/>
-      <c r="J74" s="890"/>
+      <c r="I74" s="894"/>
+      <c r="J74" s="895"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -76528,8 +76560,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="889"/>
-      <c r="J75" s="890"/>
+      <c r="I75" s="894"/>
+      <c r="J75" s="895"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -76548,8 +76580,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="889"/>
-      <c r="J76" s="890"/>
+      <c r="I76" s="894"/>
+      <c r="J76" s="895"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -76568,8 +76600,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="889"/>
-      <c r="J77" s="890"/>
+      <c r="I77" s="894"/>
+      <c r="J77" s="895"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -76590,8 +76622,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="891"/>
-      <c r="J78" s="892"/>
+      <c r="I78" s="896"/>
+      <c r="J78" s="897"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -76636,7 +76668,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="864" t="s">
+      <c r="F80" s="869" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -76648,7 +76680,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="865"/>
+      <c r="F81" s="870"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -76936,23 +76968,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="802"/>
-      <c r="C1" s="868" t="s">
+      <c r="B1" s="831"/>
+      <c r="C1" s="873" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="869"/>
-      <c r="E1" s="869"/>
-      <c r="F1" s="869"/>
-      <c r="G1" s="869"/>
-      <c r="H1" s="869"/>
-      <c r="I1" s="869"/>
-      <c r="J1" s="869"/>
-      <c r="K1" s="869"/>
-      <c r="L1" s="869"/>
-      <c r="M1" s="869"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="803"/>
+      <c r="B2" s="832"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -76962,24 +76994,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="806" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="807"/>
+      <c r="B3" s="835" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="836"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="808" t="s">
+      <c r="H3" s="837" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="808"/>
+      <c r="I3" s="837"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="845" t="s">
+      <c r="P3" s="861" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="866" t="s">
+      <c r="R3" s="871" t="s">
         <v>216</v>
       </c>
     </row>
@@ -76994,14 +77026,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="809" t="s">
+      <c r="E4" s="838" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="810"/>
-      <c r="H4" s="811" t="s">
+      <c r="F4" s="839"/>
+      <c r="H4" s="840" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="812"/>
+      <c r="I4" s="841"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -77011,15 +77043,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="846"/>
+      <c r="P4" s="862"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="867"/>
-      <c r="W4" s="855" t="s">
+      <c r="R4" s="872"/>
+      <c r="W4" s="844" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="855"/>
+      <c r="X4" s="844"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77070,8 +77102,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="855"/>
-      <c r="X5" s="855"/>
+      <c r="W5" s="844"/>
+      <c r="X5" s="844"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -77832,7 +77864,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="859">
+      <c r="W19" s="848">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -77884,7 +77916,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="860"/>
+      <c r="W20" s="849"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -77933,8 +77965,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="861"/>
-      <c r="X21" s="861"/>
+      <c r="W21" s="850"/>
+      <c r="X21" s="850"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -78033,8 +78065,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="862"/>
-      <c r="X23" s="862"/>
+      <c r="W23" s="851"/>
+      <c r="X23" s="851"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -78089,8 +78121,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="862"/>
-      <c r="X24" s="862"/>
+      <c r="W24" s="851"/>
+      <c r="X24" s="851"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -78138,8 +78170,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="863"/>
-      <c r="X25" s="863"/>
+      <c r="W25" s="852"/>
+      <c r="X25" s="852"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -78187,8 +78219,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="863"/>
-      <c r="X26" s="863"/>
+      <c r="W26" s="852"/>
+      <c r="X26" s="852"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -78236,9 +78268,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="856"/>
-      <c r="X27" s="857"/>
-      <c r="Y27" s="858"/>
+      <c r="W27" s="845"/>
+      <c r="X27" s="846"/>
+      <c r="Y27" s="847"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -78286,9 +78318,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="857"/>
-      <c r="X28" s="857"/>
-      <c r="Y28" s="858"/>
+      <c r="W28" s="846"/>
+      <c r="X28" s="846"/>
+      <c r="Y28" s="847"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -78629,11 +78661,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="847">
+      <c r="M36" s="863">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="849">
+      <c r="N36" s="865">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -78641,7 +78673,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="893">
+      <c r="Q36" s="898">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -78666,13 +78698,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="848"/>
-      <c r="N37" s="850"/>
+      <c r="M37" s="864"/>
+      <c r="N37" s="866"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="894"/>
+      <c r="Q37" s="899"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -78722,11 +78754,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="895">
+      <c r="M39" s="900">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="896"/>
+      <c r="N39" s="901"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -78974,12 +79006,12 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="824" t="s">
+      <c r="H52" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="825"/>
+      <c r="I52" s="819"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="826">
+      <c r="K52" s="820">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
@@ -78990,10 +79022,10 @@
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="830" t="s">
+      <c r="D53" s="824" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="830"/>
+      <c r="E53" s="824"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -79009,15 +79041,15 @@
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="831" t="s">
+      <c r="I54" s="825" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="832"/>
-      <c r="K54" s="833">
+      <c r="J54" s="826"/>
+      <c r="K54" s="827">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="833"/>
+      <c r="L54" s="827"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -79058,11 +79090,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="835">
+      <c r="K56" s="829">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="836"/>
+      <c r="L56" s="830"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -79079,22 +79111,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="813" t="s">
+      <c r="D58" s="807" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="814"/>
+      <c r="E58" s="808"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="815" t="s">
+      <c r="I58" s="809" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="816"/>
-      <c r="K58" s="817">
+      <c r="J58" s="810"/>
+      <c r="K58" s="811">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="817"/>
+      <c r="L58" s="811"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -79238,6 +79270,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -79254,20 +79300,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/BALANCE    ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -891,7 +891,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1375">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -5060,6 +5060,9 @@
   </si>
   <si>
     <t>7-Oct-22--8-Oct-22</t>
+  </si>
+  <si>
+    <t>8-Oct-22--11-Oct-22</t>
   </si>
 </sst>
 </file>
@@ -7205,7 +7208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="967">
+  <cellXfs count="969">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8819,6 +8822,43 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8891,76 +8931,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9004,6 +8978,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9242,6 +9249,15 @@
     <xf numFmtId="0" fontId="75" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9256,15 +9272,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9293,10 +9300,10 @@
     <xf numFmtId="166" fontId="11" fillId="9" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -15037,23 +15044,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="831"/>
-      <c r="C1" s="833" t="s">
+      <c r="B1" s="809"/>
+      <c r="C1" s="811" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="834"/>
-      <c r="E1" s="834"/>
-      <c r="F1" s="834"/>
-      <c r="G1" s="834"/>
-      <c r="H1" s="834"/>
-      <c r="I1" s="834"/>
-      <c r="J1" s="834"/>
-      <c r="K1" s="834"/>
-      <c r="L1" s="834"/>
-      <c r="M1" s="834"/>
+      <c r="D1" s="812"/>
+      <c r="E1" s="812"/>
+      <c r="F1" s="812"/>
+      <c r="G1" s="812"/>
+      <c r="H1" s="812"/>
+      <c r="I1" s="812"/>
+      <c r="J1" s="812"/>
+      <c r="K1" s="812"/>
+      <c r="L1" s="812"/>
+      <c r="M1" s="812"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="832"/>
+      <c r="B2" s="810"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15063,17 +15070,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="836"/>
+      <c r="B3" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="814"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="837" t="s">
+      <c r="H3" s="815" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="837"/>
+      <c r="I3" s="815"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -15087,14 +15094,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="838" t="s">
+      <c r="E4" s="816" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="839"/>
-      <c r="H4" s="840" t="s">
+      <c r="F4" s="817"/>
+      <c r="H4" s="818" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="841"/>
+      <c r="I4" s="819"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15104,10 +15111,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="812" t="s">
+      <c r="P4" s="825" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="813"/>
+      <c r="Q4" s="826"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16548,11 +16555,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="814">
+      <c r="M39" s="827">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="816">
+      <c r="N39" s="829">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -16578,8 +16585,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="815"/>
-      <c r="N40" s="817"/>
+      <c r="M40" s="828"/>
+      <c r="N40" s="830"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -16794,29 +16801,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="818" t="s">
+      <c r="H52" s="831" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="819"/>
+      <c r="I52" s="832"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="820">
+      <c r="K52" s="833">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="821"/>
-      <c r="M52" s="822">
+      <c r="L52" s="834"/>
+      <c r="M52" s="835">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="823"/>
+      <c r="N52" s="836"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="824" t="s">
+      <c r="D53" s="837" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="824"/>
+      <c r="E53" s="837"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -16827,22 +16834,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="824" t="s">
+      <c r="D54" s="837" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="824"/>
+      <c r="E54" s="837"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="825" t="s">
+      <c r="I54" s="838" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="826"/>
-      <c r="K54" s="827">
+      <c r="J54" s="839"/>
+      <c r="K54" s="840">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="828"/>
+      <c r="L54" s="841"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -16875,11 +16882,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="829">
+      <c r="K56" s="842">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="830"/>
+      <c r="L56" s="843"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16896,22 +16903,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="807" t="s">
+      <c r="D58" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="808"/>
+      <c r="E58" s="821"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="809" t="s">
+      <c r="I58" s="822" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="810"/>
-      <c r="K58" s="811">
+      <c r="J58" s="823"/>
+      <c r="K58" s="824">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="811"/>
+      <c r="L58" s="824"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17055,12 +17062,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -17075,6 +17076,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19535,10 +19542,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="903" t="s">
+      <c r="I76" s="905" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="904"/>
+      <c r="J76" s="906"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -19557,8 +19564,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="905"/>
-      <c r="J77" s="906"/>
+      <c r="I77" s="907"/>
+      <c r="J77" s="908"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -19625,7 +19632,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="869" t="s">
+      <c r="F80" s="871" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19640,7 +19647,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="870"/>
+      <c r="F81" s="872"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19648,10 +19655,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="902" t="s">
+      <c r="B82" s="904" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="902"/>
+      <c r="C82" s="904"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -19933,23 +19940,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="831"/>
-      <c r="C1" s="873" t="s">
+      <c r="B1" s="809"/>
+      <c r="C1" s="875" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
+      <c r="D1" s="876"/>
+      <c r="E1" s="876"/>
+      <c r="F1" s="876"/>
+      <c r="G1" s="876"/>
+      <c r="H1" s="876"/>
+      <c r="I1" s="876"/>
+      <c r="J1" s="876"/>
+      <c r="K1" s="876"/>
+      <c r="L1" s="876"/>
+      <c r="M1" s="876"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="832"/>
+      <c r="B2" s="810"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19959,24 +19966,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="836"/>
+      <c r="B3" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="814"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="837" t="s">
+      <c r="H3" s="815" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="837"/>
+      <c r="I3" s="815"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="861" t="s">
+      <c r="P3" s="852" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="871" t="s">
+      <c r="R3" s="873" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19991,14 +19998,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="838" t="s">
+      <c r="E4" s="816" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="839"/>
-      <c r="H4" s="840" t="s">
+      <c r="F4" s="817"/>
+      <c r="H4" s="818" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="841"/>
+      <c r="I4" s="819"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20008,15 +20015,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="862"/>
+      <c r="P4" s="853"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="872"/>
-      <c r="W4" s="844" t="s">
+      <c r="R4" s="874"/>
+      <c r="W4" s="862" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="844"/>
+      <c r="X4" s="862"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20067,8 +20074,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="844"/>
-      <c r="X5" s="844"/>
+      <c r="W5" s="862"/>
+      <c r="X5" s="862"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20831,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="848">
+      <c r="W19" s="866">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20883,7 +20890,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="849"/>
+      <c r="W20" s="867"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20932,8 +20939,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="850"/>
-      <c r="X21" s="850"/>
+      <c r="W21" s="868"/>
+      <c r="X21" s="868"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21033,8 +21040,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="851"/>
-      <c r="X23" s="851"/>
+      <c r="W23" s="869"/>
+      <c r="X23" s="869"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21089,8 +21096,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="851"/>
-      <c r="X24" s="851"/>
+      <c r="W24" s="869"/>
+      <c r="X24" s="869"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21138,8 +21145,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="852"/>
-      <c r="X25" s="852"/>
+      <c r="W25" s="870"/>
+      <c r="X25" s="870"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21188,8 +21195,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="852"/>
-      <c r="X26" s="852"/>
+      <c r="W26" s="870"/>
+      <c r="X26" s="870"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21237,9 +21244,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="845"/>
-      <c r="X27" s="846"/>
-      <c r="Y27" s="847"/>
+      <c r="W27" s="863"/>
+      <c r="X27" s="864"/>
+      <c r="Y27" s="865"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21287,9 +21294,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="846"/>
-      <c r="X28" s="846"/>
-      <c r="Y28" s="847"/>
+      <c r="W28" s="864"/>
+      <c r="X28" s="864"/>
+      <c r="Y28" s="865"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21621,11 +21628,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="863">
+      <c r="M36" s="854">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="865">
+      <c r="N36" s="856">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -21633,7 +21640,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="898">
+      <c r="Q36" s="900">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -21658,13 +21665,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="864"/>
-      <c r="N37" s="866"/>
+      <c r="M37" s="855"/>
+      <c r="N37" s="857"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="899"/>
+      <c r="Q37" s="901"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -21714,11 +21721,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="900">
+      <c r="M39" s="902">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="901"/>
+      <c r="N39" s="903"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -22346,26 +22353,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="818" t="s">
+      <c r="H68" s="831" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="819"/>
+      <c r="I68" s="832"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="820">
+      <c r="K68" s="833">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="853"/>
+      <c r="L68" s="860"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="824" t="s">
+      <c r="D69" s="837" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="824"/>
+      <c r="E69" s="837"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -22374,22 +22381,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="854" t="s">
+      <c r="D70" s="861" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="854"/>
+      <c r="E70" s="861"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="825" t="s">
+      <c r="I70" s="838" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="826"/>
-      <c r="K70" s="827">
+      <c r="J70" s="839"/>
+      <c r="K70" s="840">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="827"/>
+      <c r="L70" s="840"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -22430,11 +22437,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="829">
+      <c r="K72" s="842">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="830"/>
+      <c r="L72" s="843"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -22451,22 +22458,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="807" t="s">
+      <c r="D74" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="808"/>
+      <c r="E74" s="821"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="809" t="s">
+      <c r="I74" s="822" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="810"/>
-      <c r="K74" s="811">
+      <c r="J74" s="823"/>
+      <c r="K74" s="824">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="811"/>
+      <c r="L74" s="824"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22613,21 +22620,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22643,6 +22635,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24204,10 +24211,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="911" t="s">
+      <c r="I44" s="913" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="912"/>
+      <c r="J44" s="914"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -24226,8 +24233,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="913"/>
-      <c r="J45" s="914"/>
+      <c r="I45" s="915"/>
+      <c r="J45" s="916"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -24246,8 +24253,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="915"/>
-      <c r="J46" s="916"/>
+      <c r="I46" s="917"/>
+      <c r="J46" s="918"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -24936,7 +24943,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="869" t="s">
+      <c r="F80" s="871" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -24949,7 +24956,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="870"/>
+      <c r="F81" s="872"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -24969,10 +24976,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="907" t="s">
+      <c r="I83" s="909" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="908"/>
+      <c r="J83" s="910"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -24981,8 +24988,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="909"/>
-      <c r="J84" s="910"/>
+      <c r="I84" s="911"/>
+      <c r="J84" s="912"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -25255,23 +25262,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="831"/>
-      <c r="C1" s="873" t="s">
+      <c r="B1" s="809"/>
+      <c r="C1" s="875" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
+      <c r="D1" s="876"/>
+      <c r="E1" s="876"/>
+      <c r="F1" s="876"/>
+      <c r="G1" s="876"/>
+      <c r="H1" s="876"/>
+      <c r="I1" s="876"/>
+      <c r="J1" s="876"/>
+      <c r="K1" s="876"/>
+      <c r="L1" s="876"/>
+      <c r="M1" s="876"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="832"/>
+      <c r="B2" s="810"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25281,24 +25288,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="836"/>
+      <c r="B3" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="814"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="837" t="s">
+      <c r="H3" s="815" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="837"/>
+      <c r="I3" s="815"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="861" t="s">
+      <c r="P3" s="852" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="871" t="s">
+      <c r="R3" s="873" t="s">
         <v>216</v>
       </c>
     </row>
@@ -25313,14 +25320,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="838" t="s">
+      <c r="E4" s="816" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="839"/>
-      <c r="H4" s="840" t="s">
+      <c r="F4" s="817"/>
+      <c r="H4" s="818" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="841"/>
+      <c r="I4" s="819"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25330,15 +25337,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="862"/>
+      <c r="P4" s="853"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="872"/>
-      <c r="W4" s="844" t="s">
+      <c r="R4" s="874"/>
+      <c r="W4" s="862" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="844"/>
+      <c r="X4" s="862"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25389,8 +25396,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="844"/>
-      <c r="X5" s="844"/>
+      <c r="W5" s="862"/>
+      <c r="X5" s="862"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26149,7 +26156,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="848">
+      <c r="W19" s="866">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -26201,7 +26208,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="849"/>
+      <c r="W20" s="867"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26250,8 +26257,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="850"/>
-      <c r="X21" s="850"/>
+      <c r="W21" s="868"/>
+      <c r="X21" s="868"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26348,8 +26355,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="851"/>
-      <c r="X23" s="851"/>
+      <c r="W23" s="869"/>
+      <c r="X23" s="869"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26404,8 +26411,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="851"/>
-      <c r="X24" s="851"/>
+      <c r="W24" s="869"/>
+      <c r="X24" s="869"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26451,8 +26458,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="852"/>
-      <c r="X25" s="852"/>
+      <c r="W25" s="870"/>
+      <c r="X25" s="870"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26503,8 +26510,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="852"/>
-      <c r="X26" s="852"/>
+      <c r="W26" s="870"/>
+      <c r="X26" s="870"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26555,9 +26562,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="845"/>
-      <c r="X27" s="846"/>
-      <c r="Y27" s="847"/>
+      <c r="W27" s="863"/>
+      <c r="X27" s="864"/>
+      <c r="Y27" s="865"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26607,9 +26614,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="846"/>
-      <c r="X28" s="846"/>
-      <c r="Y28" s="847"/>
+      <c r="W28" s="864"/>
+      <c r="X28" s="864"/>
+      <c r="Y28" s="865"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27213,11 +27220,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="863">
+      <c r="M41" s="854">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="863">
+      <c r="N41" s="854">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -27225,7 +27232,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="917">
+      <c r="Q41" s="919">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -27255,10 +27262,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="864"/>
-      <c r="N42" s="864"/>
+      <c r="M42" s="855"/>
+      <c r="N42" s="855"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="918"/>
+      <c r="Q42" s="920"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -27346,11 +27353,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="919">
+      <c r="M45" s="921">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="920"/>
+      <c r="N45" s="922"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27943,26 +27950,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="818" t="s">
+      <c r="H70" s="831" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="819"/>
+      <c r="I70" s="832"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="820">
+      <c r="K70" s="833">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="853"/>
+      <c r="L70" s="860"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="824" t="s">
+      <c r="D71" s="837" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="824"/>
+      <c r="E71" s="837"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -27972,22 +27979,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="854" t="s">
+      <c r="D72" s="861" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="854"/>
+      <c r="E72" s="861"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="825" t="s">
+      <c r="I72" s="838" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="826"/>
-      <c r="K72" s="827">
+      <c r="J72" s="839"/>
+      <c r="K72" s="840">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="827"/>
+      <c r="L72" s="840"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -28028,11 +28035,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="829">
+      <c r="K74" s="842">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="830"/>
+      <c r="L74" s="843"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28051,22 +28058,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="807" t="s">
+      <c r="D76" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="808"/>
+      <c r="E76" s="821"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="809" t="s">
+      <c r="I76" s="822" t="s">
         <v>852</v>
       </c>
-      <c r="J76" s="810"/>
-      <c r="K76" s="811">
+      <c r="J76" s="823"/>
+      <c r="K76" s="824">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="811"/>
+      <c r="L76" s="824"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -28226,21 +28233,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -28256,6 +28248,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30226,10 +30233,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="911" t="s">
+      <c r="I54" s="913" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="912"/>
+      <c r="J54" s="914"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -30245,8 +30252,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="913"/>
-      <c r="J55" s="914"/>
+      <c r="I55" s="915"/>
+      <c r="J55" s="916"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -30262,8 +30269,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="915"/>
-      <c r="J56" s="916"/>
+      <c r="I56" s="917"/>
+      <c r="J56" s="918"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -30931,7 +30938,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="869" t="s">
+      <c r="F90" s="871" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30944,7 +30951,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="870"/>
+      <c r="F91" s="872"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -30963,10 +30970,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="907" t="s">
+      <c r="I93" s="909" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="908"/>
+      <c r="J93" s="910"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30976,8 +30983,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="909"/>
-      <c r="J94" s="910"/>
+      <c r="I94" s="911"/>
+      <c r="J94" s="912"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -31418,11 +31425,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="921">
+      <c r="C130" s="923">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="922"/>
+      <c r="D130" s="924"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -31459,24 +31466,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="936" t="s">
+      <c r="B2" s="938" t="s">
         <v>1242</v>
       </c>
-      <c r="C2" s="937"/>
-      <c r="D2" s="938"/>
-      <c r="F2" s="924" t="s">
+      <c r="C2" s="939"/>
+      <c r="D2" s="940"/>
+      <c r="F2" s="926" t="s">
         <v>1241</v>
       </c>
-      <c r="G2" s="925"/>
-      <c r="H2" s="926"/>
+      <c r="G2" s="927"/>
+      <c r="H2" s="928"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="939"/>
-      <c r="C3" s="940"/>
-      <c r="D3" s="941"/>
-      <c r="F3" s="927"/>
-      <c r="G3" s="928"/>
-      <c r="H3" s="929"/>
+      <c r="B3" s="941"/>
+      <c r="C3" s="942"/>
+      <c r="D3" s="943"/>
+      <c r="F3" s="929"/>
+      <c r="G3" s="930"/>
+      <c r="H3" s="931"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -31621,11 +31628,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="930">
+      <c r="G11" s="932">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="931"/>
+      <c r="H11" s="933"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -31642,33 +31649,33 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="934" t="s">
+      <c r="C15" s="936" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="932">
+      <c r="D15" s="934">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
-      <c r="E15" s="942" t="s">
+      <c r="E15" s="944" t="s">
         <v>1243</v>
       </c>
-      <c r="F15" s="943"/>
-      <c r="G15" s="943"/>
-      <c r="H15" s="944"/>
+      <c r="F15" s="945"/>
+      <c r="G15" s="945"/>
+      <c r="H15" s="946"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="935"/>
-      <c r="D16" s="933"/>
-      <c r="E16" s="945"/>
-      <c r="F16" s="946"/>
-      <c r="G16" s="946"/>
-      <c r="H16" s="947"/>
+      <c r="C16" s="937"/>
+      <c r="D16" s="935"/>
+      <c r="E16" s="947"/>
+      <c r="F16" s="948"/>
+      <c r="G16" s="948"/>
+      <c r="H16" s="949"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="923" t="s">
+      <c r="C17" s="925" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="923"/>
+      <c r="D17" s="925"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -31727,23 +31734,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="831"/>
-      <c r="C1" s="873" t="s">
+      <c r="B1" s="809"/>
+      <c r="C1" s="875" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
+      <c r="D1" s="876"/>
+      <c r="E1" s="876"/>
+      <c r="F1" s="876"/>
+      <c r="G1" s="876"/>
+      <c r="H1" s="876"/>
+      <c r="I1" s="876"/>
+      <c r="J1" s="876"/>
+      <c r="K1" s="876"/>
+      <c r="L1" s="876"/>
+      <c r="M1" s="876"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="832"/>
+      <c r="B2" s="810"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31753,24 +31760,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="836"/>
+      <c r="B3" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="814"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="837" t="s">
+      <c r="H3" s="815" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="837"/>
+      <c r="I3" s="815"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="861" t="s">
+      <c r="P3" s="852" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="871" t="s">
+      <c r="R3" s="873" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -31789,14 +31796,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="838" t="s">
+      <c r="E4" s="816" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="839"/>
-      <c r="H4" s="840" t="s">
+      <c r="F4" s="817"/>
+      <c r="H4" s="818" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="841"/>
+      <c r="I4" s="819"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -31806,15 +31813,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="862"/>
+      <c r="P4" s="853"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="872"/>
+      <c r="R4" s="874"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="954"/>
-      <c r="X4" s="954"/>
+      <c r="W4" s="950"/>
+      <c r="X4" s="950"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31868,8 +31875,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="954"/>
-      <c r="X5" s="954"/>
+      <c r="W5" s="950"/>
+      <c r="X5" s="950"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32635,7 +32642,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="955"/>
+      <c r="W19" s="951"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -32689,7 +32696,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="955"/>
+      <c r="W20" s="951"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32744,8 +32751,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="850"/>
-      <c r="X21" s="850"/>
+      <c r="W21" s="868"/>
+      <c r="X21" s="868"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32856,8 +32863,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="851"/>
-      <c r="X23" s="851"/>
+      <c r="W23" s="869"/>
+      <c r="X23" s="869"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32918,8 +32925,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="851"/>
-      <c r="X24" s="851"/>
+      <c r="W24" s="869"/>
+      <c r="X24" s="869"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32972,8 +32979,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="852"/>
-      <c r="X25" s="852"/>
+      <c r="W25" s="870"/>
+      <c r="X25" s="870"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -33028,8 +33035,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="852"/>
-      <c r="X26" s="852"/>
+      <c r="W26" s="870"/>
+      <c r="X26" s="870"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -33084,9 +33091,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="845"/>
-      <c r="X27" s="846"/>
-      <c r="Y27" s="847"/>
+      <c r="W27" s="863"/>
+      <c r="X27" s="864"/>
+      <c r="Y27" s="865"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33140,9 +33147,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="846"/>
-      <c r="X28" s="846"/>
-      <c r="Y28" s="847"/>
+      <c r="W28" s="864"/>
+      <c r="X28" s="864"/>
+      <c r="Y28" s="865"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33726,11 +33733,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="863">
+      <c r="M41" s="854">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="863">
+      <c r="N41" s="854">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -33738,7 +33745,7 @@
         <f>SUM(P5:P40)</f>
         <v>3152648.1</v>
       </c>
-      <c r="Q41" s="917">
+      <c r="Q41" s="919">
         <f>SUM(Q5:Q40)</f>
         <v>2.1000000000058208</v>
       </c>
@@ -33762,10 +33769,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="864"/>
-      <c r="N42" s="864"/>
+      <c r="M42" s="855"/>
+      <c r="N42" s="855"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="918"/>
+      <c r="Q42" s="920"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -33834,11 +33841,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="919">
+      <c r="M45" s="921">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="920"/>
+      <c r="N45" s="922"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -34254,26 +34261,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="818" t="s">
+      <c r="H63" s="831" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="819"/>
+      <c r="I63" s="832"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="951">
+      <c r="K63" s="956">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="952"/>
+      <c r="L63" s="957"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="824" t="s">
+      <c r="D64" s="837" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="824"/>
+      <c r="E64" s="837"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -34282,22 +34289,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="854" t="s">
+      <c r="D65" s="861" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="854"/>
+      <c r="E65" s="861"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="825" t="s">
+      <c r="I65" s="838" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="826"/>
-      <c r="K65" s="827">
+      <c r="J65" s="839"/>
+      <c r="K65" s="840">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="827"/>
+      <c r="L65" s="840"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -34338,11 +34345,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="953">
+      <c r="K67" s="952">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="827"/>
+      <c r="L67" s="840"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -34359,22 +34366,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="807" t="s">
+      <c r="D69" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="808"/>
+      <c r="E69" s="821"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="948" t="s">
+      <c r="I69" s="953" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="949"/>
-      <c r="K69" s="950">
+      <c r="J69" s="954"/>
+      <c r="K69" s="955">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="950"/>
+      <c r="L69" s="955"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34521,6 +34528,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -34536,21 +34558,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36047,10 +36054,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="911" t="s">
+      <c r="I38" s="913" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="912"/>
+      <c r="J38" s="914"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -36069,8 +36076,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="913"/>
-      <c r="J39" s="914"/>
+      <c r="I39" s="915"/>
+      <c r="J39" s="916"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -36089,8 +36096,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="915"/>
-      <c r="J40" s="916"/>
+      <c r="I40" s="917"/>
+      <c r="J40" s="918"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -36713,7 +36720,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="869" t="s">
+      <c r="F71" s="871" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -36726,7 +36733,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="870"/>
+      <c r="F72" s="872"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -36745,10 +36752,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="907" t="s">
+      <c r="I74" s="909" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="908"/>
+      <c r="J74" s="910"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -36757,8 +36764,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="909"/>
-      <c r="J75" s="910"/>
+      <c r="I75" s="911"/>
+      <c r="J75" s="912"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -36892,11 +36899,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="958" t="s">
+      <c r="A89" s="960" t="s">
         <v>804</v>
       </c>
-      <c r="B89" s="959"/>
-      <c r="C89" s="959"/>
+      <c r="B89" s="961"/>
+      <c r="C89" s="961"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -36906,10 +36913,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="960" t="s">
+      <c r="B90" s="962" t="s">
         <v>805</v>
       </c>
-      <c r="C90" s="961"/>
+      <c r="C90" s="963"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -37010,7 +37017,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="956">
+      <c r="C97" s="958">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -37024,7 +37031,7 @@
       <c r="B98" s="659" t="s">
         <v>881</v>
       </c>
-      <c r="C98" s="957"/>
+      <c r="C98" s="959"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -37125,23 +37132,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="831"/>
-      <c r="C1" s="873" t="s">
+      <c r="B1" s="809"/>
+      <c r="C1" s="875" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
+      <c r="D1" s="876"/>
+      <c r="E1" s="876"/>
+      <c r="F1" s="876"/>
+      <c r="G1" s="876"/>
+      <c r="H1" s="876"/>
+      <c r="I1" s="876"/>
+      <c r="J1" s="876"/>
+      <c r="K1" s="876"/>
+      <c r="L1" s="876"/>
+      <c r="M1" s="876"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="832"/>
+      <c r="B2" s="810"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -37151,24 +37158,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="836"/>
+      <c r="B3" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="814"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="837" t="s">
+      <c r="H3" s="815" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="837"/>
+      <c r="I3" s="815"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="861" t="s">
+      <c r="P3" s="852" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="871" t="s">
+      <c r="R3" s="873" t="s">
         <v>216</v>
       </c>
     </row>
@@ -37183,14 +37190,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="838" t="s">
+      <c r="E4" s="816" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="839"/>
-      <c r="H4" s="840" t="s">
+      <c r="F4" s="817"/>
+      <c r="H4" s="818" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="841"/>
+      <c r="I4" s="819"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -37200,11 +37207,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="862"/>
+      <c r="P4" s="853"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="872"/>
+      <c r="R4" s="874"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -38972,11 +38979,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="863">
+      <c r="M41" s="854">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="863">
+      <c r="N41" s="854">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -38984,7 +38991,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="917">
+      <c r="Q41" s="919">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -39014,10 +39021,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="864"/>
-      <c r="N42" s="864"/>
+      <c r="M42" s="855"/>
+      <c r="N42" s="855"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="918"/>
+      <c r="Q42" s="920"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -39104,11 +39111,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="919">
+      <c r="M45" s="921">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="920"/>
+      <c r="N45" s="922"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -39694,26 +39701,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="818" t="s">
+      <c r="H69" s="831" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="819"/>
+      <c r="I69" s="832"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="951">
+      <c r="K69" s="956">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="952"/>
+      <c r="L69" s="957"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="824" t="s">
+      <c r="D70" s="837" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="824"/>
+      <c r="E70" s="837"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -39722,22 +39729,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="854" t="s">
+      <c r="D71" s="861" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="854"/>
+      <c r="E71" s="861"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="825" t="s">
+      <c r="I71" s="838" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="826"/>
-      <c r="K71" s="827">
+      <c r="J71" s="839"/>
+      <c r="K71" s="840">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="827"/>
+      <c r="L71" s="840"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -39778,11 +39785,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="953">
+      <c r="K73" s="952">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="827"/>
+      <c r="L73" s="840"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -39799,22 +39806,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="807" t="s">
+      <c r="D75" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="808"/>
+      <c r="E75" s="821"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="809" t="s">
+      <c r="I75" s="822" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="810"/>
-      <c r="K75" s="811">
+      <c r="J75" s="823"/>
+      <c r="K75" s="824">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="811"/>
+      <c r="L75" s="824"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -39961,17 +39968,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -39983,6 +39979,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39998,7 +40005,7 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
@@ -41663,10 +41670,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="911" t="s">
+      <c r="H43" s="913" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="912"/>
+      <c r="I43" s="914"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -41685,8 +41692,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="913"/>
-      <c r="I44" s="914"/>
+      <c r="H44" s="915"/>
+      <c r="I44" s="916"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -41705,8 +41712,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="915"/>
-      <c r="I45" s="916"/>
+      <c r="H45" s="917"/>
+      <c r="I45" s="918"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -42150,10 +42157,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="907" t="s">
+      <c r="H67" s="909" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="908"/>
+      <c r="I67" s="910"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -42173,11 +42180,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="869" t="s">
+      <c r="F68" s="871" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="909"/>
-      <c r="I68" s="910"/>
+      <c r="H68" s="911"/>
+      <c r="I68" s="912"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -42188,7 +42195,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="870"/>
+      <c r="F69" s="872"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -44003,7 +44010,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="842" t="s">
+      <c r="B41" s="844" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -44035,7 +44042,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="843"/>
+      <c r="B42" s="845"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -45629,23 +45636,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="831"/>
-      <c r="C1" s="873" t="s">
+      <c r="B1" s="809"/>
+      <c r="C1" s="875" t="s">
         <v>1025</v>
       </c>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
+      <c r="D1" s="876"/>
+      <c r="E1" s="876"/>
+      <c r="F1" s="876"/>
+      <c r="G1" s="876"/>
+      <c r="H1" s="876"/>
+      <c r="I1" s="876"/>
+      <c r="J1" s="876"/>
+      <c r="K1" s="876"/>
+      <c r="L1" s="876"/>
+      <c r="M1" s="876"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="832"/>
+      <c r="B2" s="810"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45655,24 +45662,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="836"/>
+      <c r="B3" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="814"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="837" t="s">
+      <c r="H3" s="815" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="837"/>
+      <c r="I3" s="815"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="861" t="s">
+      <c r="P3" s="852" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="871" t="s">
+      <c r="R3" s="873" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45687,14 +45694,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="838" t="s">
+      <c r="E4" s="816" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="839"/>
-      <c r="H4" s="840" t="s">
+      <c r="F4" s="817"/>
+      <c r="H4" s="818" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="841"/>
+      <c r="I4" s="819"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -45704,11 +45711,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="862"/>
+      <c r="P4" s="853"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="872"/>
+      <c r="R4" s="874"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -47442,11 +47449,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="863">
+      <c r="M41" s="854">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="863">
+      <c r="N41" s="854">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -47454,7 +47461,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="917">
+      <c r="Q41" s="919">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -47484,10 +47491,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="864"/>
-      <c r="N42" s="864"/>
+      <c r="M42" s="855"/>
+      <c r="N42" s="855"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="918"/>
+      <c r="Q42" s="920"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -47568,11 +47575,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="919">
+      <c r="M45" s="921">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="920"/>
+      <c r="N45" s="922"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -48089,26 +48096,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="818" t="s">
+      <c r="H69" s="831" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="819"/>
+      <c r="I69" s="832"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="951">
+      <c r="K69" s="956">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="952"/>
+      <c r="L69" s="957"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="824" t="s">
+      <c r="D70" s="837" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="824"/>
+      <c r="E70" s="837"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -48117,22 +48124,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="854" t="s">
+      <c r="D71" s="861" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="854"/>
+      <c r="E71" s="861"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="825" t="s">
+      <c r="I71" s="838" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="826"/>
-      <c r="K71" s="827">
+      <c r="J71" s="839"/>
+      <c r="K71" s="840">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="827"/>
+      <c r="L71" s="840"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -48173,11 +48180,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="953">
+      <c r="K73" s="952">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="827"/>
+      <c r="L73" s="840"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -48194,22 +48201,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="807" t="s">
+      <c r="D75" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="808"/>
+      <c r="E75" s="821"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="948" t="s">
+      <c r="I75" s="953" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="949"/>
-      <c r="K75" s="950">
+      <c r="J75" s="954"/>
+      <c r="K75" s="955">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="950"/>
+      <c r="L75" s="955"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -48356,6 +48363,12 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -48372,12 +48385,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -48393,7 +48400,7 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -49791,10 +49798,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="911" t="s">
+      <c r="H40" s="913" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="912"/>
+      <c r="I40" s="914"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -49813,8 +49820,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="913"/>
-      <c r="I41" s="914"/>
+      <c r="H41" s="915"/>
+      <c r="I41" s="916"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -49833,8 +49840,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="915"/>
-      <c r="I42" s="916"/>
+      <c r="H42" s="917"/>
+      <c r="I42" s="918"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -50338,10 +50345,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="907" t="s">
+      <c r="H67" s="909" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="908"/>
+      <c r="I67" s="910"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -50361,11 +50368,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="869" t="s">
+      <c r="F68" s="871" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="909"/>
-      <c r="I68" s="910"/>
+      <c r="H68" s="911"/>
+      <c r="I68" s="912"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -50376,7 +50383,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="870"/>
+      <c r="F69" s="872"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -50998,23 +51005,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="831"/>
-      <c r="C1" s="873" t="s">
+      <c r="B1" s="809"/>
+      <c r="C1" s="875" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
+      <c r="D1" s="876"/>
+      <c r="E1" s="876"/>
+      <c r="F1" s="876"/>
+      <c r="G1" s="876"/>
+      <c r="H1" s="876"/>
+      <c r="I1" s="876"/>
+      <c r="J1" s="876"/>
+      <c r="K1" s="876"/>
+      <c r="L1" s="876"/>
+      <c r="M1" s="876"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="832"/>
+      <c r="B2" s="810"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51024,24 +51031,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="836"/>
+      <c r="B3" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="814"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="837" t="s">
+      <c r="H3" s="815" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="837"/>
+      <c r="I3" s="815"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="861" t="s">
+      <c r="P3" s="852" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="871" t="s">
+      <c r="R3" s="873" t="s">
         <v>216</v>
       </c>
     </row>
@@ -51056,14 +51063,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="838" t="s">
+      <c r="E4" s="816" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="839"/>
-      <c r="H4" s="840" t="s">
+      <c r="F4" s="817"/>
+      <c r="H4" s="818" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="841"/>
+      <c r="I4" s="819"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -51073,11 +51080,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="862"/>
+      <c r="P4" s="853"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="872"/>
+      <c r="R4" s="874"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -52796,11 +52803,11 @@
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="863">
+      <c r="M41" s="854">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="863">
+      <c r="N41" s="854">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -52808,7 +52815,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="917">
+      <c r="Q41" s="919">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -52836,10 +52843,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="864"/>
-      <c r="N42" s="864"/>
+      <c r="M42" s="855"/>
+      <c r="N42" s="855"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="918"/>
+      <c r="Q42" s="920"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -52912,11 +52919,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="919">
+      <c r="M45" s="921">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="920"/>
+      <c r="N45" s="922"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -53409,26 +53416,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="818" t="s">
+      <c r="H69" s="831" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="819"/>
+      <c r="I69" s="832"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="951">
+      <c r="K69" s="956">
         <f>I67+L67</f>
         <v>573073.52</v>
       </c>
-      <c r="L69" s="952"/>
+      <c r="L69" s="957"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="824" t="s">
+      <c r="D70" s="837" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="824"/>
+      <c r="E70" s="837"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1262114.75</v>
@@ -53437,22 +53444,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="854" t="s">
+      <c r="D71" s="861" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="854"/>
+      <c r="E71" s="861"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="825" t="s">
+      <c r="I71" s="838" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="826"/>
-      <c r="K71" s="827">
+      <c r="J71" s="839"/>
+      <c r="K71" s="840">
         <f>F73+F74+F75</f>
         <v>2249865.5500000003</v>
       </c>
-      <c r="L71" s="827"/>
+      <c r="L71" s="840"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -53493,11 +53500,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="953">
+      <c r="K73" s="952">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="827"/>
+      <c r="L73" s="840"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -53514,22 +53521,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="807" t="s">
+      <c r="D75" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="808"/>
+      <c r="E75" s="821"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="809" t="s">
+      <c r="I75" s="822" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="810"/>
-      <c r="K75" s="811">
+      <c r="J75" s="823"/>
+      <c r="K75" s="824">
         <f>K71+K73</f>
         <v>-24787.539999999572</v>
       </c>
-      <c r="L75" s="811"/>
+      <c r="L75" s="824"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53673,6 +53680,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53689,12 +53702,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -53710,8 +53717,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54380,7 +54387,7 @@
       <c r="C19" s="111">
         <v>22809.58</v>
       </c>
-      <c r="D19" s="965" t="s">
+      <c r="D19" s="807" t="s">
         <v>1373</v>
       </c>
       <c r="E19" s="585">
@@ -54417,7 +54424,7 @@
       <c r="C20" s="111">
         <v>95140.96</v>
       </c>
-      <c r="D20" s="966">
+      <c r="D20" s="808">
         <v>44842</v>
       </c>
       <c r="E20" s="707">
@@ -54453,7 +54460,7 @@
       <c r="C21" s="111">
         <v>1861.5</v>
       </c>
-      <c r="D21" s="966">
+      <c r="D21" s="808">
         <v>44842</v>
       </c>
       <c r="E21" s="707">
@@ -54489,7 +54496,7 @@
       <c r="C22" s="111">
         <v>108419.36</v>
       </c>
-      <c r="D22" s="966">
+      <c r="D22" s="808">
         <v>44842</v>
       </c>
       <c r="E22" s="707">
@@ -54526,7 +54533,7 @@
       <c r="C23" s="111">
         <v>17118</v>
       </c>
-      <c r="D23" s="966">
+      <c r="D23" s="808">
         <v>44842</v>
       </c>
       <c r="E23" s="707">
@@ -54563,7 +54570,7 @@
       <c r="C24" s="111">
         <v>35648.26</v>
       </c>
-      <c r="D24" s="966">
+      <c r="D24" s="808">
         <v>44842</v>
       </c>
       <c r="E24" s="707">
@@ -54590,7 +54597,7 @@
         <v>247325.36</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="454">
         <v>44797</v>
       </c>
@@ -54600,15 +54607,16 @@
       <c r="C25" s="111">
         <v>104295.06</v>
       </c>
-      <c r="D25" s="966">
-        <v>44842</v>
+      <c r="D25" s="968" t="s">
+        <v>1374</v>
       </c>
       <c r="E25" s="707">
-        <v>6215.75</v>
+        <f>6215.75+98079.31</f>
+        <v>104295.06</v>
       </c>
       <c r="F25" s="544">
         <f t="shared" si="0"/>
-        <v>98079.31</v>
+        <v>0</v>
       </c>
       <c r="G25" s="645"/>
       <c r="H25" s="747" t="s">
@@ -54637,11 +54645,15 @@
       <c r="C26" s="111">
         <v>7764.05</v>
       </c>
-      <c r="D26" s="412"/>
-      <c r="E26" s="111"/>
+      <c r="D26" s="967">
+        <v>44845</v>
+      </c>
+      <c r="E26" s="261">
+        <v>7764.05</v>
+      </c>
       <c r="F26" s="544">
         <f t="shared" si="0"/>
-        <v>7764.05</v>
+        <v>0</v>
       </c>
       <c r="G26" s="645"/>
       <c r="H26" s="747" t="s">
@@ -54670,11 +54682,15 @@
       <c r="C27" s="111">
         <v>25022.9</v>
       </c>
-      <c r="D27" s="412"/>
-      <c r="E27" s="111"/>
+      <c r="D27" s="967">
+        <v>44845</v>
+      </c>
+      <c r="E27" s="261">
+        <v>25022.9</v>
+      </c>
       <c r="F27" s="544">
         <f t="shared" si="0"/>
-        <v>25022.9</v>
+        <v>0</v>
       </c>
       <c r="G27" s="645"/>
       <c r="H27" s="744" t="s">
@@ -54990,10 +55006,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="911" t="s">
+      <c r="H40" s="913" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="912"/>
+      <c r="I40" s="914"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -55012,8 +55028,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="913"/>
-      <c r="I41" s="914"/>
+      <c r="H41" s="915"/>
+      <c r="I41" s="916"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -55032,8 +55048,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="915"/>
-      <c r="I42" s="916"/>
+      <c r="H42" s="917"/>
+      <c r="I42" s="918"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -55531,19 +55547,19 @@
       <c r="D67" s="407"/>
       <c r="E67" s="395">
         <f>SUM(E3:E66)</f>
-        <v>1584258.97</v>
+        <v>1715125.23</v>
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>130866.26000000001</v>
+        <v>0</v>
       </c>
       <c r="G67" s="798" t="s">
         <v>1372</v>
       </c>
-      <c r="H67" s="907" t="s">
+      <c r="H67" s="909" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="908"/>
+      <c r="I67" s="910"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>301758.95999999996</v>
@@ -55563,11 +55579,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="869" t="s">
+      <c r="F68" s="871" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="909"/>
-      <c r="I68" s="910"/>
+      <c r="H68" s="911"/>
+      <c r="I68" s="912"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -55578,7 +55594,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="870"/>
+      <c r="F69" s="872"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -56228,10 +56244,10 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56259,23 +56275,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="831"/>
-      <c r="C1" s="873" t="s">
+      <c r="B1" s="809"/>
+      <c r="C1" s="875" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
+      <c r="D1" s="876"/>
+      <c r="E1" s="876"/>
+      <c r="F1" s="876"/>
+      <c r="G1" s="876"/>
+      <c r="H1" s="876"/>
+      <c r="I1" s="876"/>
+      <c r="J1" s="876"/>
+      <c r="K1" s="876"/>
+      <c r="L1" s="876"/>
+      <c r="M1" s="876"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="832"/>
+      <c r="B2" s="810"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56285,24 +56301,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="835" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="836"/>
+      <c r="B3" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="814"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="837" t="s">
+      <c r="H3" s="815" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="837"/>
+      <c r="I3" s="815"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="861" t="s">
+      <c r="P3" s="852" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="871" t="s">
+      <c r="R3" s="873" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56317,14 +56333,14 @@
       <c r="D4" s="18">
         <v>44801</v>
       </c>
-      <c r="E4" s="838" t="s">
+      <c r="E4" s="816" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="839"/>
-      <c r="H4" s="840" t="s">
+      <c r="F4" s="817"/>
+      <c r="H4" s="818" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="841"/>
+      <c r="I4" s="819"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -56334,11 +56350,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="862"/>
+      <c r="P4" s="853"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="872"/>
+      <c r="R4" s="874"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -58259,11 +58275,11 @@
       <c r="L41" s="39">
         <v>19507</v>
       </c>
-      <c r="M41" s="863">
+      <c r="M41" s="854">
         <f>SUM(M5:M40)</f>
         <v>2172487.6799999997</v>
       </c>
-      <c r="N41" s="863">
+      <c r="N41" s="854">
         <f>SUM(N5:N40)</f>
         <v>1625219</v>
       </c>
@@ -58271,7 +58287,7 @@
         <f>SUM(P5:P40)</f>
         <v>4566318.68</v>
       </c>
-      <c r="Q41" s="917">
+      <c r="Q41" s="919">
         <f>SUM(Q5:Q40)</f>
         <v>6</v>
       </c>
@@ -58305,10 +58321,10 @@
       <c r="L42" s="702">
         <v>19250</v>
       </c>
-      <c r="M42" s="864"/>
-      <c r="N42" s="864"/>
+      <c r="M42" s="855"/>
+      <c r="N42" s="855"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="918"/>
+      <c r="Q42" s="920"/>
       <c r="R42" s="788">
         <f>SUM(R5:R41)</f>
         <v>121832</v>
@@ -58399,11 +58415,11 @@
       <c r="L45" s="39">
         <v>19450</v>
       </c>
-      <c r="M45" s="919">
+      <c r="M45" s="921">
         <f>M41+N41</f>
         <v>3797706.6799999997</v>
       </c>
-      <c r="N45" s="920"/>
+      <c r="N45" s="922"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -59008,26 +59024,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="818" t="s">
+      <c r="H69" s="831" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="819"/>
+      <c r="I69" s="832"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="951">
+      <c r="K69" s="956">
         <f>I67+L67</f>
         <v>401450.39</v>
       </c>
-      <c r="L69" s="952"/>
+      <c r="L69" s="957"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="824" t="s">
+      <c r="D70" s="837" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="824"/>
+      <c r="E70" s="837"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1484547.7999999998</v>
@@ -59036,22 +59052,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="854" t="s">
+      <c r="D71" s="861" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="854"/>
+      <c r="E71" s="861"/>
       <c r="F71" s="111">
         <v>-2600214.79</v>
       </c>
-      <c r="I71" s="825" t="s">
+      <c r="I71" s="838" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="826"/>
-      <c r="K71" s="827">
+      <c r="J71" s="839"/>
+      <c r="K71" s="840">
         <f>F73+F74+F75</f>
         <v>2724761.13</v>
       </c>
-      <c r="L71" s="827"/>
+      <c r="L71" s="840"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -59092,11 +59108,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="953">
+      <c r="K73" s="952">
         <f>-C4</f>
         <v>-2672555.9900000002</v>
       </c>
-      <c r="L73" s="827"/>
+      <c r="L73" s="840"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -59113,22 +59129,22 @@
       <c r="C75" s="112">
         <v>44836</v>
       </c>
-      <c r="D75" s="807" t="s">
+      <c r="D75" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="808"/>
+      <c r="E75" s="821"/>
       <c r="F75" s="113">
         <v>3773503.4</v>
       </c>
-      <c r="I75" s="962" t="s">
+      <c r="I75" s="964" t="s">
         <v>198</v>
       </c>
-      <c r="J75" s="963"/>
-      <c r="K75" s="964">
+      <c r="J75" s="965"/>
+      <c r="K75" s="966">
         <f>K71+K73</f>
         <v>52205.139999999665</v>
       </c>
-      <c r="L75" s="964"/>
+      <c r="L75" s="966"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -59275,6 +59291,12 @@
     <sortCondition ref="J47:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -59291,12 +59313,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59310,2421 +59326,2421 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="B1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="455" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="162" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="98" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="116" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="455" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="162" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="98" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="116" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="450" t="s">
+    <row r="1" spans="2:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="450" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="378" t="s">
+      <c r="C1" s="436"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="378" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="301" t="s">
+      <c r="I1" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="302"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="367"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="377" t="s">
+      <c r="J1" s="302"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="377" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="545" t="s">
+    <row r="2" spans="2:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="545" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="546" t="s">
+      <c r="C2" s="546" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="547" t="s">
+      <c r="D2" s="547" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="548" t="s">
+      <c r="E2" s="548" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="549" t="s">
+      <c r="F2" s="549" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="289" t="s">
+      <c r="G2" s="289" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="297" t="s">
+      <c r="I2" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="308" t="s">
+      <c r="J2" s="308" t="s">
         <v>265</v>
       </c>
-      <c r="J2" s="299" t="s">
+      <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="368" t="s">
+      <c r="L2" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="299" t="s">
+      <c r="M2" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="309" t="s">
+      <c r="N2" s="309" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="454">
+    <row r="3" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="454">
         <v>44802</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="C3" s="246" t="s">
         <v>1312</v>
       </c>
-      <c r="C3" s="111">
+      <c r="D3" s="111">
         <v>121622.37</v>
       </c>
-      <c r="D3" s="412"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="410">
-        <f>C3-E3</f>
+      <c r="E3" s="412"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="410">
+        <f>D3-F3</f>
         <v>121622.37</v>
       </c>
-      <c r="H3" s="789" t="s">
+      <c r="I3" s="789" t="s">
         <v>1309</v>
       </c>
-      <c r="I3" s="790">
+      <c r="J3" s="790">
         <v>10198</v>
       </c>
-      <c r="J3" s="791">
+      <c r="K3" s="791">
         <v>3903.92</v>
       </c>
-      <c r="K3" s="732"/>
-      <c r="L3" s="706"/>
-      <c r="M3" s="183">
-        <f>J3-L3</f>
+      <c r="L3" s="732"/>
+      <c r="M3" s="706"/>
+      <c r="N3" s="183">
+        <f>K3-M3</f>
         <v>3903.92</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="454">
+    <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="454">
         <v>44802</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="C4" s="246" t="s">
         <v>1313</v>
       </c>
-      <c r="C4" s="111">
+      <c r="D4" s="111">
         <v>7506</v>
       </c>
-      <c r="D4" s="412"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="544">
-        <f t="shared" ref="F4:F65" si="0">C4-E4</f>
+      <c r="E4" s="412"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="544">
+        <f t="shared" ref="G4:G65" si="0">D4-F4</f>
         <v>7506</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="500" t="s">
+      <c r="H4" s="138"/>
+      <c r="I4" s="500" t="s">
         <v>1310</v>
       </c>
-      <c r="I4" s="501">
+      <c r="J4" s="501">
         <v>10204</v>
       </c>
-      <c r="J4" s="502">
+      <c r="K4" s="502">
         <v>9566.7999999999993</v>
       </c>
-      <c r="K4" s="732"/>
-      <c r="L4" s="706"/>
-      <c r="M4" s="137">
-        <f>M3+J4-L4</f>
+      <c r="L4" s="732"/>
+      <c r="M4" s="706"/>
+      <c r="N4" s="137">
+        <f>N3+K4-M4</f>
         <v>13470.72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="454">
+    <row r="5" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="454">
         <v>44803</v>
       </c>
-      <c r="B5" s="246" t="s">
+      <c r="C5" s="246" t="s">
         <v>1314</v>
       </c>
-      <c r="C5" s="111">
+      <c r="D5" s="111">
         <v>60096.32</v>
       </c>
-      <c r="D5" s="412"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="544">
+      <c r="E5" s="412"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="544">
         <f t="shared" si="0"/>
         <v>60096.32</v>
       </c>
-      <c r="H5" s="500" t="s">
+      <c r="I5" s="500" t="s">
         <v>1311</v>
       </c>
-      <c r="I5" s="501">
+      <c r="J5" s="501">
         <v>10211</v>
       </c>
-      <c r="J5" s="502">
+      <c r="K5" s="502">
         <v>330</v>
       </c>
-      <c r="K5" s="732"/>
-      <c r="L5" s="706"/>
-      <c r="M5" s="137">
-        <f t="shared" ref="M5:M65" si="1">M4+J5-L5</f>
+      <c r="L5" s="732"/>
+      <c r="M5" s="706"/>
+      <c r="N5" s="137">
+        <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
         <v>13800.72</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="454">
+    <row r="6" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="454">
         <v>44804</v>
       </c>
-      <c r="B6" s="246" t="s">
+      <c r="C6" s="246" t="s">
         <v>1315</v>
       </c>
-      <c r="C6" s="111">
+      <c r="D6" s="111">
         <v>70935.199999999997</v>
       </c>
-      <c r="D6" s="412"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="544">
+      <c r="E6" s="412"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="544">
         <f t="shared" si="0"/>
         <v>70935.199999999997</v>
       </c>
-      <c r="H6" s="500" t="s">
+      <c r="I6" s="500" t="s">
         <v>1283</v>
       </c>
-      <c r="I6" s="501">
+      <c r="J6" s="501">
         <v>10237</v>
       </c>
-      <c r="J6" s="502">
+      <c r="K6" s="502">
         <v>1450.6</v>
       </c>
-      <c r="K6" s="732"/>
-      <c r="L6" s="706"/>
-      <c r="M6" s="137">
+      <c r="L6" s="732"/>
+      <c r="M6" s="706"/>
+      <c r="N6" s="137">
         <f t="shared" si="1"/>
         <v>15251.32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="452">
+    <row r="7" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="452">
         <v>44805</v>
       </c>
-      <c r="B7" s="437" t="s">
+      <c r="C7" s="437" t="s">
         <v>1318</v>
       </c>
-      <c r="C7" s="392">
+      <c r="D7" s="392">
         <v>135900.6</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="544">
+      <c r="E7" s="412"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="544">
         <f t="shared" si="0"/>
         <v>135900.6</v>
       </c>
-      <c r="H7" s="497" t="s">
+      <c r="I7" s="497" t="s">
         <v>1284</v>
       </c>
-      <c r="I7" s="498">
+      <c r="J7" s="498">
         <v>10243</v>
       </c>
-      <c r="J7" s="499">
+      <c r="K7" s="499">
         <v>2480</v>
       </c>
-      <c r="K7" s="732"/>
-      <c r="L7" s="706"/>
-      <c r="M7" s="137">
+      <c r="L7" s="732"/>
+      <c r="M7" s="706"/>
+      <c r="N7" s="137">
         <f t="shared" si="1"/>
         <v>17731.32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="452">
+    <row r="8" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="452">
         <v>44713</v>
       </c>
-      <c r="B8" s="437" t="s">
+      <c r="C8" s="437" t="s">
         <v>1319</v>
       </c>
-      <c r="C8" s="392">
+      <c r="D8" s="392">
         <v>4028</v>
       </c>
-      <c r="D8" s="412"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="544">
+      <c r="E8" s="412"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="544">
         <f t="shared" si="0"/>
         <v>4028</v>
       </c>
-      <c r="H8" s="497" t="s">
+      <c r="I8" s="497" t="s">
         <v>1284</v>
       </c>
-      <c r="I8" s="498">
+      <c r="J8" s="498">
         <v>10245</v>
       </c>
-      <c r="J8" s="499">
+      <c r="K8" s="499">
         <v>3712</v>
       </c>
-      <c r="K8" s="732"/>
-      <c r="L8" s="706"/>
-      <c r="M8" s="137">
+      <c r="L8" s="732"/>
+      <c r="M8" s="706"/>
+      <c r="N8" s="137">
         <f t="shared" si="1"/>
         <v>21443.32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="452">
+    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="452">
         <v>44806</v>
       </c>
-      <c r="B9" s="437" t="s">
+      <c r="C9" s="437" t="s">
         <v>1320</v>
       </c>
-      <c r="C9" s="392">
+      <c r="D9" s="392">
         <v>71698.3</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="544">
+      <c r="E9" s="412"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="544">
         <f t="shared" si="0"/>
         <v>71698.3</v>
       </c>
-      <c r="H9" s="500" t="s">
+      <c r="I9" s="500" t="s">
         <v>1285</v>
       </c>
-      <c r="I9" s="501">
+      <c r="J9" s="501">
         <v>10252</v>
       </c>
-      <c r="J9" s="502">
+      <c r="K9" s="502">
         <v>8863</v>
       </c>
-      <c r="K9" s="732"/>
-      <c r="L9" s="706"/>
-      <c r="M9" s="137">
+      <c r="L9" s="732"/>
+      <c r="M9" s="706"/>
+      <c r="N9" s="137">
         <f t="shared" si="1"/>
         <v>30306.32</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="452">
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="452">
         <v>44807</v>
       </c>
-      <c r="B10" s="437" t="s">
+      <c r="C10" s="437" t="s">
         <v>1321</v>
       </c>
-      <c r="C10" s="392">
+      <c r="D10" s="392">
         <v>76677.600000000006</v>
       </c>
-      <c r="D10" s="412"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="544">
+      <c r="E10" s="412"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="544">
         <f t="shared" si="0"/>
         <v>76677.600000000006</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="500" t="s">
+      <c r="H10" s="138"/>
+      <c r="I10" s="500" t="s">
         <v>1286</v>
       </c>
-      <c r="I10" s="501">
+      <c r="J10" s="501">
         <v>10256</v>
       </c>
-      <c r="J10" s="502">
+      <c r="K10" s="502">
         <v>6457.76</v>
       </c>
-      <c r="K10" s="732"/>
-      <c r="L10" s="706"/>
-      <c r="M10" s="137">
+      <c r="L10" s="732"/>
+      <c r="M10" s="706"/>
+      <c r="N10" s="137">
         <f t="shared" si="1"/>
         <v>36764.080000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="452">
+    <row r="11" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="452">
         <v>44809</v>
       </c>
-      <c r="B11" s="437" t="s">
+      <c r="C11" s="437" t="s">
         <v>1322</v>
       </c>
-      <c r="C11" s="392">
+      <c r="D11" s="392">
         <v>74432.399999999994</v>
       </c>
-      <c r="D11" s="412"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="544">
+      <c r="E11" s="412"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="544">
         <f t="shared" si="0"/>
         <v>74432.399999999994</v>
       </c>
-      <c r="H11" s="500" t="s">
+      <c r="I11" s="500" t="s">
         <v>1287</v>
       </c>
-      <c r="I11" s="501">
+      <c r="J11" s="501">
         <v>10264</v>
       </c>
-      <c r="J11" s="502">
+      <c r="K11" s="502">
         <v>6040</v>
       </c>
-      <c r="K11" s="732"/>
-      <c r="L11" s="706"/>
-      <c r="M11" s="137">
+      <c r="L11" s="732"/>
+      <c r="M11" s="706"/>
+      <c r="N11" s="137">
         <f t="shared" si="1"/>
         <v>42804.08</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="452">
+    <row r="12" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="452">
         <v>44810</v>
       </c>
-      <c r="B12" s="437" t="s">
+      <c r="C12" s="437" t="s">
         <v>1323</v>
       </c>
-      <c r="C12" s="392">
+      <c r="D12" s="392">
         <v>88952.15</v>
       </c>
-      <c r="D12" s="412"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="544">
+      <c r="E12" s="412"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="544">
         <f t="shared" si="0"/>
         <v>88952.15</v>
       </c>
-      <c r="H12" s="497" t="s">
+      <c r="I12" s="497" t="s">
         <v>1288</v>
       </c>
-      <c r="I12" s="498">
+      <c r="J12" s="498">
         <v>10274</v>
       </c>
-      <c r="J12" s="499">
+      <c r="K12" s="499">
         <v>9717.6</v>
       </c>
-      <c r="K12" s="732"/>
-      <c r="L12" s="706"/>
-      <c r="M12" s="137">
+      <c r="L12" s="732"/>
+      <c r="M12" s="706"/>
+      <c r="N12" s="137">
         <f t="shared" si="1"/>
         <v>52521.68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="452">
+    <row r="13" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="452">
         <v>44811</v>
       </c>
-      <c r="B13" s="437" t="s">
+      <c r="C13" s="437" t="s">
         <v>1324</v>
       </c>
-      <c r="C13" s="392">
+      <c r="D13" s="392">
         <v>156034.5</v>
       </c>
-      <c r="D13" s="412"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="544">
+      <c r="E13" s="412"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="544">
         <f t="shared" si="0"/>
         <v>156034.5</v>
       </c>
-      <c r="H13" s="500" t="s">
+      <c r="I13" s="500" t="s">
         <v>1289</v>
       </c>
-      <c r="I13" s="501">
+      <c r="J13" s="501">
         <v>10300</v>
       </c>
-      <c r="J13" s="502">
+      <c r="K13" s="502">
         <v>16135.8</v>
       </c>
-      <c r="K13" s="732"/>
-      <c r="L13" s="706"/>
-      <c r="M13" s="137">
+      <c r="L13" s="732"/>
+      <c r="M13" s="706"/>
+      <c r="N13" s="137">
         <f t="shared" si="1"/>
         <v>68657.48</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="452">
+    <row r="14" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="452">
         <v>44812</v>
       </c>
-      <c r="B14" s="437" t="s">
+      <c r="C14" s="437" t="s">
         <v>1325</v>
       </c>
-      <c r="C14" s="392">
+      <c r="D14" s="392">
         <v>39036</v>
       </c>
-      <c r="D14" s="412"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="544">
+      <c r="E14" s="412"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="544">
         <f t="shared" si="0"/>
         <v>39036</v>
       </c>
-      <c r="H14" s="497" t="s">
+      <c r="I14" s="497" t="s">
         <v>1290</v>
       </c>
-      <c r="I14" s="498">
+      <c r="J14" s="498">
         <v>10305</v>
       </c>
-      <c r="J14" s="499">
+      <c r="K14" s="499">
         <v>440</v>
       </c>
-      <c r="K14" s="732"/>
-      <c r="L14" s="706"/>
-      <c r="M14" s="137">
+      <c r="L14" s="732"/>
+      <c r="M14" s="706"/>
+      <c r="N14" s="137">
         <f t="shared" si="1"/>
         <v>69097.48</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="452">
+    <row r="15" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="452">
         <v>44813</v>
       </c>
-      <c r="B15" s="437" t="s">
+      <c r="C15" s="437" t="s">
         <v>1326</v>
       </c>
-      <c r="C15" s="392">
+      <c r="D15" s="392">
         <v>45856.7</v>
       </c>
-      <c r="D15" s="412"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="544">
+      <c r="E15" s="412"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="544">
         <f t="shared" si="0"/>
         <v>45856.7</v>
       </c>
-      <c r="H15" s="497" t="s">
+      <c r="I15" s="497" t="s">
         <v>1291</v>
       </c>
-      <c r="I15" s="498">
+      <c r="J15" s="498">
         <v>10315</v>
       </c>
-      <c r="J15" s="499">
+      <c r="K15" s="499">
         <v>9204</v>
       </c>
-      <c r="K15" s="732"/>
-      <c r="L15" s="706"/>
-      <c r="M15" s="137">
+      <c r="L15" s="732"/>
+      <c r="M15" s="706"/>
+      <c r="N15" s="137">
         <f t="shared" si="1"/>
         <v>78301.48</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="452">
+    <row r="16" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="452">
         <v>44814</v>
       </c>
-      <c r="B16" s="437" t="s">
+      <c r="C16" s="437" t="s">
         <v>1327</v>
       </c>
-      <c r="C16" s="392">
+      <c r="D16" s="392">
         <v>90919.73</v>
       </c>
-      <c r="D16" s="412"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="544">
+      <c r="E16" s="412"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="544">
         <f t="shared" si="0"/>
         <v>90919.73</v>
       </c>
-      <c r="H16" s="500" t="s">
+      <c r="I16" s="500" t="s">
         <v>1292</v>
       </c>
-      <c r="I16" s="501">
+      <c r="J16" s="501">
         <v>10323</v>
       </c>
-      <c r="J16" s="502">
+      <c r="K16" s="502">
         <v>880</v>
       </c>
-      <c r="K16" s="732"/>
-      <c r="L16" s="706"/>
-      <c r="M16" s="137">
+      <c r="L16" s="732"/>
+      <c r="M16" s="706"/>
+      <c r="N16" s="137">
         <f t="shared" si="1"/>
         <v>79181.48</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="452">
+    <row r="17" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="452">
         <v>44814</v>
       </c>
-      <c r="B17" s="437" t="s">
+      <c r="C17" s="437" t="s">
         <v>1328</v>
       </c>
-      <c r="C17" s="392">
+      <c r="D17" s="392">
         <v>4788</v>
       </c>
-      <c r="D17" s="412"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="544">
+      <c r="E17" s="412"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="544">
         <f t="shared" si="0"/>
         <v>4788</v>
       </c>
-      <c r="H17" s="500" t="s">
+      <c r="I17" s="500" t="s">
         <v>1293</v>
       </c>
-      <c r="I17" s="501">
+      <c r="J17" s="501">
         <v>10332</v>
       </c>
-      <c r="J17" s="502">
+      <c r="K17" s="502">
         <v>1990</v>
       </c>
-      <c r="K17" s="732"/>
-      <c r="L17" s="706"/>
-      <c r="M17" s="137">
+      <c r="L17" s="732"/>
+      <c r="M17" s="706"/>
+      <c r="N17" s="137">
         <f t="shared" si="1"/>
         <v>81171.48</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="452">
+    <row r="18" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="452">
         <v>44816</v>
       </c>
-      <c r="B18" s="437" t="s">
+      <c r="C18" s="437" t="s">
         <v>1329</v>
       </c>
-      <c r="C18" s="392">
+      <c r="D18" s="392">
         <v>132050.23999999999</v>
       </c>
-      <c r="D18" s="412"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="544">
+      <c r="E18" s="412"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="544">
         <f t="shared" si="0"/>
         <v>132050.23999999999</v>
       </c>
-      <c r="H18" s="497" t="s">
+      <c r="I18" s="497" t="s">
         <v>1294</v>
       </c>
-      <c r="I18" s="498">
+      <c r="J18" s="498">
         <v>10350</v>
       </c>
-      <c r="J18" s="499">
+      <c r="K18" s="499">
         <v>440</v>
       </c>
-      <c r="K18" s="732"/>
-      <c r="L18" s="706"/>
-      <c r="M18" s="137">
+      <c r="L18" s="732"/>
+      <c r="M18" s="706"/>
+      <c r="N18" s="137">
         <f t="shared" si="1"/>
         <v>81611.48</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="452">
+    <row r="19" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="452">
         <v>44816</v>
       </c>
-      <c r="B19" s="437" t="s">
+      <c r="C19" s="437" t="s">
         <v>1330</v>
       </c>
-      <c r="C19" s="392">
+      <c r="D19" s="392">
         <v>6858</v>
       </c>
-      <c r="D19" s="412"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="544">
+      <c r="E19" s="412"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="544">
         <f t="shared" si="0"/>
         <v>6858</v>
       </c>
-      <c r="H19" s="497" t="s">
+      <c r="I19" s="497" t="s">
         <v>1294</v>
       </c>
-      <c r="I19" s="498">
+      <c r="J19" s="498">
         <v>10355</v>
       </c>
-      <c r="J19" s="499">
+      <c r="K19" s="499">
         <v>760</v>
       </c>
-      <c r="K19" s="732"/>
-      <c r="L19" s="706"/>
-      <c r="M19" s="137">
+      <c r="L19" s="732"/>
+      <c r="M19" s="706"/>
+      <c r="N19" s="137">
         <f t="shared" si="1"/>
         <v>82371.48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="452">
+    <row r="20" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="452">
         <v>44817</v>
       </c>
-      <c r="B20" s="437" t="s">
+      <c r="C20" s="437" t="s">
         <v>1331</v>
       </c>
-      <c r="C20" s="392">
+      <c r="D20" s="392">
         <v>93240.65</v>
       </c>
-      <c r="D20" s="412"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="544">
+      <c r="E20" s="412"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="544">
         <f t="shared" si="0"/>
         <v>93240.65</v>
       </c>
-      <c r="H20" s="500" t="s">
+      <c r="I20" s="500" t="s">
         <v>1295</v>
       </c>
-      <c r="I20" s="501">
+      <c r="J20" s="501">
         <v>10374</v>
       </c>
-      <c r="J20" s="502">
+      <c r="K20" s="502">
         <v>440</v>
       </c>
-      <c r="K20" s="732"/>
-      <c r="L20" s="706"/>
-      <c r="M20" s="137">
+      <c r="L20" s="732"/>
+      <c r="M20" s="706"/>
+      <c r="N20" s="137">
         <f t="shared" si="1"/>
         <v>82811.48</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="452">
+    <row r="21" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="452">
         <v>44818</v>
       </c>
-      <c r="B21" s="437" t="s">
+      <c r="C21" s="437" t="s">
         <v>1332</v>
       </c>
-      <c r="C21" s="392">
+      <c r="D21" s="392">
         <v>38351.199999999997</v>
       </c>
-      <c r="D21" s="412"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="544">
+      <c r="E21" s="412"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="544">
         <f t="shared" si="0"/>
         <v>38351.199999999997</v>
       </c>
-      <c r="H21" s="497" t="s">
+      <c r="I21" s="497" t="s">
         <v>1296</v>
       </c>
-      <c r="I21" s="498">
+      <c r="J21" s="498">
         <v>10377</v>
       </c>
-      <c r="J21" s="499">
+      <c r="K21" s="499">
         <v>3060</v>
       </c>
-      <c r="K21" s="732"/>
-      <c r="L21" s="706"/>
-      <c r="M21" s="137">
+      <c r="L21" s="732"/>
+      <c r="M21" s="706"/>
+      <c r="N21" s="137">
         <f t="shared" si="1"/>
         <v>85871.48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="452">
+    <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="452">
         <v>44819</v>
       </c>
-      <c r="B22" s="437" t="s">
+      <c r="C22" s="437" t="s">
         <v>1333</v>
       </c>
-      <c r="C22" s="392">
+      <c r="D22" s="392">
         <v>48115.16</v>
       </c>
-      <c r="D22" s="412"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="544">
+      <c r="E22" s="412"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="544">
         <f t="shared" si="0"/>
         <v>48115.16</v>
       </c>
-      <c r="G22" s="644"/>
-      <c r="H22" s="500" t="s">
+      <c r="H22" s="644"/>
+      <c r="I22" s="500" t="s">
         <v>1297</v>
       </c>
-      <c r="I22" s="501">
+      <c r="J22" s="501">
         <v>10388</v>
       </c>
-      <c r="J22" s="502">
+      <c r="K22" s="502">
         <v>330</v>
       </c>
-      <c r="K22" s="732"/>
-      <c r="L22" s="706"/>
-      <c r="M22" s="137">
+      <c r="L22" s="732"/>
+      <c r="M22" s="706"/>
+      <c r="N22" s="137">
         <f t="shared" si="1"/>
         <v>86201.48</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="452">
+    <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="452">
         <v>44819</v>
       </c>
-      <c r="B23" s="437" t="s">
+      <c r="C23" s="437" t="s">
         <v>1334</v>
       </c>
-      <c r="C23" s="392">
+      <c r="D23" s="392">
         <v>53088</v>
       </c>
-      <c r="D23" s="412"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="544">
+      <c r="E23" s="412"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="544">
         <f t="shared" si="0"/>
         <v>53088</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="500" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="500" t="s">
         <v>1298</v>
       </c>
-      <c r="I23" s="501">
+      <c r="J23" s="501">
         <v>10396</v>
       </c>
-      <c r="J23" s="502">
+      <c r="K23" s="502">
         <v>330</v>
       </c>
-      <c r="K23" s="412"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="137">
+      <c r="L23" s="412"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="137">
         <f t="shared" si="1"/>
         <v>86531.48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="452">
+    <row r="24" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="452">
         <v>44820</v>
       </c>
-      <c r="B24" s="437" t="s">
+      <c r="C24" s="437" t="s">
         <v>1335</v>
       </c>
-      <c r="C24" s="392">
+      <c r="D24" s="392">
         <v>71394.820000000007</v>
       </c>
-      <c r="D24" s="412"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="544">
+      <c r="E24" s="412"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="544">
         <f t="shared" si="0"/>
         <v>71394.820000000007</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="497" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="497" t="s">
         <v>1299</v>
       </c>
-      <c r="I24" s="498">
+      <c r="J24" s="498">
         <v>10403</v>
       </c>
-      <c r="J24" s="499">
+      <c r="K24" s="499">
         <v>330</v>
       </c>
-      <c r="K24" s="412"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="137">
+      <c r="L24" s="412"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="137">
         <f t="shared" si="1"/>
         <v>86861.48</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="452">
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="452">
         <v>44820</v>
       </c>
-      <c r="B25" s="437" t="s">
+      <c r="C25" s="437" t="s">
         <v>1336</v>
       </c>
-      <c r="C25" s="392">
+      <c r="D25" s="392">
         <v>7659</v>
       </c>
-      <c r="D25" s="412"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="544">
+      <c r="E25" s="412"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="544">
         <f t="shared" si="0"/>
         <v>7659</v>
       </c>
-      <c r="G25" s="645"/>
-      <c r="H25" s="500" t="s">
+      <c r="H25" s="645"/>
+      <c r="I25" s="500" t="s">
         <v>1300</v>
       </c>
-      <c r="I25" s="501">
+      <c r="J25" s="501">
         <v>10408</v>
       </c>
-      <c r="J25" s="502">
+      <c r="K25" s="502">
         <v>312</v>
       </c>
-      <c r="K25" s="412"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="137">
+      <c r="L25" s="412"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="137">
         <f t="shared" si="1"/>
         <v>87173.48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="452">
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="452">
         <v>44821</v>
       </c>
-      <c r="B26" s="437" t="s">
+      <c r="C26" s="437" t="s">
         <v>1337</v>
       </c>
-      <c r="C26" s="392">
+      <c r="D26" s="392">
         <v>78067.399999999994</v>
       </c>
-      <c r="D26" s="412"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="544">
+      <c r="E26" s="412"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="544">
         <f t="shared" si="0"/>
         <v>78067.399999999994</v>
       </c>
-      <c r="G26" s="645"/>
-      <c r="H26" s="497" t="s">
+      <c r="H26" s="645"/>
+      <c r="I26" s="497" t="s">
         <v>1301</v>
       </c>
-      <c r="I26" s="498">
+      <c r="J26" s="498">
         <v>10413</v>
       </c>
-      <c r="J26" s="499">
+      <c r="K26" s="499">
         <v>10749.4</v>
       </c>
-      <c r="K26" s="412"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="137">
+      <c r="L26" s="412"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="137">
         <f t="shared" si="1"/>
         <v>97922.87999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="452">
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="452">
         <v>44823</v>
       </c>
-      <c r="B27" s="437" t="s">
+      <c r="C27" s="437" t="s">
         <v>1338</v>
       </c>
-      <c r="C27" s="392">
+      <c r="D27" s="392">
         <v>4317.6000000000004</v>
       </c>
-      <c r="D27" s="412"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="544">
+      <c r="E27" s="412"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="544">
         <f t="shared" si="0"/>
         <v>4317.6000000000004</v>
       </c>
-      <c r="G27" s="645"/>
-      <c r="H27" s="500" t="s">
+      <c r="H27" s="645"/>
+      <c r="I27" s="500" t="s">
         <v>1302</v>
       </c>
-      <c r="I27" s="501">
+      <c r="J27" s="501">
         <v>10426</v>
       </c>
-      <c r="J27" s="502">
+      <c r="K27" s="502">
         <v>440</v>
       </c>
-      <c r="K27" s="412"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="137">
+      <c r="L27" s="412"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="137">
         <f t="shared" si="1"/>
         <v>98362.87999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="452">
+    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="452">
         <v>44824</v>
       </c>
-      <c r="B28" s="437" t="s">
+      <c r="C28" s="437" t="s">
         <v>1339</v>
       </c>
-      <c r="C28" s="392">
+      <c r="D28" s="392">
         <v>64961.4</v>
       </c>
-      <c r="D28" s="412"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="544">
+      <c r="E28" s="412"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="544">
         <f t="shared" si="0"/>
         <v>64961.4</v>
       </c>
-      <c r="G28" s="645"/>
-      <c r="H28" s="500" t="s">
+      <c r="H28" s="645"/>
+      <c r="I28" s="500" t="s">
         <v>1302</v>
       </c>
-      <c r="I28" s="501">
+      <c r="J28" s="501">
         <v>10430</v>
       </c>
-      <c r="J28" s="502">
+      <c r="K28" s="502">
         <v>83796</v>
       </c>
-      <c r="K28" s="412"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="137">
+      <c r="L28" s="412"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="137">
         <f t="shared" si="1"/>
         <v>182158.88</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="452">
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="452">
         <v>44825</v>
       </c>
-      <c r="B29" s="437" t="s">
+      <c r="C29" s="437" t="s">
         <v>1340</v>
       </c>
-      <c r="C29" s="392">
+      <c r="D29" s="392">
         <v>8619.2000000000007</v>
       </c>
-      <c r="D29" s="412"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="544">
+      <c r="E29" s="412"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="544">
         <f t="shared" si="0"/>
         <v>8619.2000000000007</v>
       </c>
-      <c r="G29" s="645"/>
-      <c r="H29" s="500" t="s">
+      <c r="H29" s="645"/>
+      <c r="I29" s="500" t="s">
         <v>1302</v>
       </c>
-      <c r="I29" s="501">
+      <c r="J29" s="501">
         <v>10431</v>
       </c>
-      <c r="J29" s="502">
+      <c r="K29" s="502">
         <v>32</v>
       </c>
-      <c r="K29" s="412"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="137">
+      <c r="L29" s="412"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="137">
         <f t="shared" si="1"/>
         <v>182190.88</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="452">
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="452">
         <v>44826</v>
       </c>
-      <c r="B30" s="437" t="s">
+      <c r="C30" s="437" t="s">
         <v>1341</v>
       </c>
-      <c r="C30" s="392">
+      <c r="D30" s="392">
         <v>26763.09</v>
       </c>
-      <c r="D30" s="412"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="544">
+      <c r="E30" s="412"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="544">
         <f t="shared" si="0"/>
         <v>26763.09</v>
       </c>
-      <c r="G30" s="645"/>
-      <c r="H30" s="497" t="s">
+      <c r="H30" s="645"/>
+      <c r="I30" s="497" t="s">
         <v>1302</v>
       </c>
-      <c r="I30" s="498">
+      <c r="J30" s="498">
         <v>10432</v>
       </c>
-      <c r="J30" s="499">
+      <c r="K30" s="499">
         <v>15527.2</v>
       </c>
-      <c r="K30" s="412"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="137">
+      <c r="L30" s="412"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="137">
         <f t="shared" si="1"/>
         <v>197718.08000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="452">
+    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="452">
         <v>44827</v>
       </c>
-      <c r="B31" s="437" t="s">
+      <c r="C31" s="437" t="s">
         <v>1342</v>
       </c>
-      <c r="C31" s="392">
+      <c r="D31" s="392">
         <v>449824.82</v>
       </c>
-      <c r="D31" s="412"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="544">
+      <c r="E31" s="412"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="544">
         <f t="shared" si="0"/>
         <v>449824.82</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="497" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="497" t="s">
         <v>1303</v>
       </c>
-      <c r="I31" s="498">
+      <c r="J31" s="498">
         <v>10439</v>
       </c>
-      <c r="J31" s="499">
+      <c r="K31" s="499">
         <v>9833.2000000000007</v>
       </c>
-      <c r="K31" s="412"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="137">
+      <c r="L31" s="412"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="137">
         <f t="shared" si="1"/>
         <v>207551.28000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="452">
+    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="452">
         <v>44828</v>
       </c>
-      <c r="B32" s="437" t="s">
+      <c r="C32" s="437" t="s">
         <v>1343</v>
       </c>
-      <c r="C32" s="392">
+      <c r="D32" s="392">
         <v>75805.399999999994</v>
       </c>
-      <c r="D32" s="412"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="544">
+      <c r="E32" s="412"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="544">
         <f t="shared" si="0"/>
         <v>75805.399999999994</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="497" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="497" t="s">
         <v>1304</v>
       </c>
-      <c r="I32" s="498">
+      <c r="J32" s="498">
         <v>10447</v>
       </c>
-      <c r="J32" s="499">
+      <c r="K32" s="499">
         <v>330</v>
       </c>
-      <c r="K32" s="412"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="137">
+      <c r="L32" s="412"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="137">
         <f t="shared" si="1"/>
         <v>207881.28000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="452">
+    <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="452">
         <v>44828</v>
       </c>
-      <c r="B33" s="437" t="s">
+      <c r="C33" s="437" t="s">
         <v>1344</v>
       </c>
-      <c r="C33" s="392">
+      <c r="D33" s="392">
         <v>10260</v>
       </c>
-      <c r="D33" s="412"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="544">
+      <c r="E33" s="412"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="544">
         <f t="shared" si="0"/>
         <v>10260</v>
       </c>
-      <c r="H33" s="500" t="s">
+      <c r="I33" s="500" t="s">
         <v>1305</v>
       </c>
-      <c r="I33" s="501">
+      <c r="J33" s="501">
         <v>10454</v>
       </c>
-      <c r="J33" s="502">
+      <c r="K33" s="502">
         <v>3738</v>
       </c>
-      <c r="K33" s="412"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="137">
+      <c r="L33" s="412"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="137">
         <f t="shared" si="1"/>
         <v>211619.28000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="452">
+    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="452">
         <v>44830</v>
       </c>
-      <c r="B34" s="437" t="s">
+      <c r="C34" s="437" t="s">
         <v>1345</v>
       </c>
-      <c r="C34" s="392">
+      <c r="D34" s="392">
         <v>66227.5</v>
       </c>
-      <c r="D34" s="412"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="544">
+      <c r="E34" s="412"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="544">
         <f t="shared" si="0"/>
         <v>66227.5</v>
       </c>
-      <c r="H34" s="497" t="s">
+      <c r="I34" s="497" t="s">
         <v>1306</v>
       </c>
-      <c r="I34" s="498">
+      <c r="J34" s="498">
         <v>10473</v>
       </c>
-      <c r="J34" s="499">
+      <c r="K34" s="499">
         <v>1760</v>
       </c>
-      <c r="K34" s="412"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="137">
+      <c r="L34" s="412"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="137">
         <f t="shared" si="1"/>
         <v>213379.28000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="452">
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="452">
         <v>44831</v>
       </c>
-      <c r="B35" s="437" t="s">
+      <c r="C35" s="437" t="s">
         <v>1346</v>
       </c>
-      <c r="C35" s="392">
+      <c r="D35" s="392">
         <v>61159.199999999997</v>
       </c>
-      <c r="D35" s="412"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="544">
+      <c r="E35" s="412"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="544">
         <f t="shared" si="0"/>
         <v>61159.199999999997</v>
       </c>
-      <c r="H35" s="500" t="s">
+      <c r="I35" s="500" t="s">
         <v>1307</v>
       </c>
-      <c r="I35" s="501">
+      <c r="J35" s="501">
         <v>10482</v>
       </c>
-      <c r="J35" s="502">
+      <c r="K35" s="502">
         <v>550</v>
       </c>
-      <c r="K35" s="412"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="137">
+      <c r="L35" s="412"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="137">
         <f t="shared" si="1"/>
         <v>213929.28000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="452">
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="452">
         <v>44832</v>
       </c>
-      <c r="B36" s="437" t="s">
+      <c r="C36" s="437" t="s">
         <v>1347</v>
       </c>
-      <c r="C36" s="392">
+      <c r="D36" s="392">
         <v>90739.06</v>
       </c>
-      <c r="D36" s="412"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="544">
+      <c r="E36" s="412"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="544">
         <f t="shared" si="0"/>
         <v>90739.06</v>
       </c>
-      <c r="H36" s="497" t="s">
+      <c r="I36" s="497" t="s">
         <v>1307</v>
       </c>
-      <c r="I36" s="498">
+      <c r="J36" s="498">
         <v>10483</v>
       </c>
-      <c r="J36" s="499">
+      <c r="K36" s="499">
         <v>34040</v>
       </c>
-      <c r="K36" s="412"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="137">
+      <c r="L36" s="412"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="137">
         <f t="shared" si="1"/>
         <v>247969.28000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="452">
+    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="452">
         <v>44833</v>
       </c>
-      <c r="B37" s="437" t="s">
+      <c r="C37" s="437" t="s">
         <v>1348</v>
       </c>
-      <c r="C37" s="392">
+      <c r="D37" s="392">
         <v>27945.95</v>
       </c>
-      <c r="D37" s="412"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="544">
+      <c r="E37" s="412"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="544">
         <f t="shared" si="0"/>
         <v>27945.95</v>
       </c>
-      <c r="H37" s="500" t="s">
+      <c r="I37" s="500" t="s">
         <v>1307</v>
       </c>
-      <c r="I37" s="501">
+      <c r="J37" s="501">
         <v>10484</v>
       </c>
-      <c r="J37" s="502">
+      <c r="K37" s="502">
         <v>1800</v>
       </c>
-      <c r="K37" s="412"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="137">
+      <c r="L37" s="412"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="137">
         <f t="shared" si="1"/>
         <v>249769.28000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="452">
+    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="452">
         <v>44834</v>
       </c>
-      <c r="B38" s="437" t="s">
+      <c r="C38" s="437" t="s">
         <v>1349</v>
       </c>
-      <c r="C38" s="392">
+      <c r="D38" s="392">
         <v>101737.82</v>
       </c>
-      <c r="D38" s="412"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="544">
+      <c r="E38" s="412"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="544">
         <f t="shared" si="0"/>
         <v>101737.82</v>
       </c>
-      <c r="H38" s="500" t="s">
+      <c r="I38" s="500" t="s">
         <v>1308</v>
       </c>
-      <c r="I38" s="501">
+      <c r="J38" s="501">
         <v>10492</v>
       </c>
-      <c r="J38" s="502">
+      <c r="K38" s="502">
         <v>330</v>
       </c>
-      <c r="K38" s="412"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="137">
+      <c r="L38" s="412"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="452">
+    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="452">
         <v>44834</v>
       </c>
-      <c r="B39" s="437" t="s">
+      <c r="C39" s="437" t="s">
         <v>1316</v>
       </c>
-      <c r="C39" s="392">
+      <c r="D39" s="392">
         <v>5241.6000000000004</v>
       </c>
-      <c r="D39" s="253"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="111">
+      <c r="E39" s="253"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="111">
         <f t="shared" si="0"/>
         <v>5241.6000000000004</v>
       </c>
-      <c r="H39" s="134"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="253"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="137">
+      <c r="I39" s="134"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="253"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="452">
+    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="452">
         <v>44835</v>
       </c>
-      <c r="B40" s="437" t="s">
+      <c r="C40" s="437" t="s">
         <v>1317</v>
       </c>
-      <c r="C40" s="392">
+      <c r="D40" s="392">
         <v>29303.81</v>
       </c>
-      <c r="D40" s="253"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="111">
+      <c r="E40" s="253"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="111">
         <f t="shared" si="0"/>
         <v>29303.81</v>
       </c>
-      <c r="H40" s="911" t="s">
+      <c r="I40" s="913" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="912"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="253"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="137">
+      <c r="J40" s="914"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="253"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="796"/>
-      <c r="B41" s="795"/>
-      <c r="C41" s="794"/>
-      <c r="D41" s="253"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="913"/>
-      <c r="I41" s="914"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="253"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="137">
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="796"/>
+      <c r="C41" s="795"/>
+      <c r="D41" s="794"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="915"/>
+      <c r="J41" s="916"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="253"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="796"/>
-      <c r="B42" s="795"/>
-      <c r="C42" s="794"/>
-      <c r="D42" s="253"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="915"/>
-      <c r="I42" s="916"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="253"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="137">
+    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="796"/>
+      <c r="C42" s="795"/>
+      <c r="D42" s="794"/>
+      <c r="E42" s="253"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="917"/>
+      <c r="J42" s="918"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="253"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="667"/>
-      <c r="B43" s="668"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="253"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="134"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="253"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="137">
+    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="667"/>
+      <c r="C43" s="668"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="253"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="134"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="253"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="669"/>
-      <c r="B44" s="668"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="134"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="253"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="137">
+    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="669"/>
+      <c r="C44" s="668"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="134"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="669"/>
-      <c r="B45" s="668"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="253"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="134"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="253"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="137">
+    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="669"/>
+      <c r="C45" s="668"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="253"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="134"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="253"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="666"/>
-      <c r="B46" s="664"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="253"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="134"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="253"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="137">
+    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="666"/>
+      <c r="C46" s="664"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="253"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="134"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="253"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="134"/>
-      <c r="B47" s="664"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="253"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="134"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="253"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="137">
+    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="134"/>
+      <c r="C47" s="664"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="253"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="134"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="253"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="134"/>
-      <c r="B48" s="664"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="253"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="134"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="253"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="137">
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="134"/>
+      <c r="C48" s="664"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="253"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="134"/>
+      <c r="J48" s="139"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="253"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="665"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="253"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="134"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="253"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="137">
+    <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="134"/>
+      <c r="C49" s="665"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="253"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="134"/>
+      <c r="J49" s="139"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="253"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="254"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="356"/>
-      <c r="I50" s="357"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="137">
+    <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="134"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="356"/>
+      <c r="J50" s="357"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="254"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="356"/>
-      <c r="I51" s="357"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="137">
+    <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="134"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="254"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="356"/>
+      <c r="J51" s="357"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="356"/>
-      <c r="I52" s="357"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="137">
+    <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="134"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="356"/>
+      <c r="J52" s="357"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="134"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="254"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="356"/>
-      <c r="I53" s="357"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="137">
+    <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="134"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="254"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="356"/>
+      <c r="J53" s="357"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="134"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="254"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="356"/>
-      <c r="I54" s="357"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="137">
+    <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="134"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="254"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="356"/>
+      <c r="J54" s="357"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="356"/>
-      <c r="B55" s="357"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="356"/>
-      <c r="I55" s="357"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="137">
+    <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="356"/>
+      <c r="C55" s="357"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="356"/>
+      <c r="J55" s="357"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="134"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="254"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="134"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="254"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="137">
+    <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="134"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="254"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="134"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="254"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="134"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="254"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="134"/>
-      <c r="I57" s="139"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="254"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="137">
+    <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="134"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="254"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="134"/>
+      <c r="J57" s="139"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="254"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="254"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="134"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="254"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="137">
+    <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="134"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="254"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="134"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="254"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="134"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="134"/>
-      <c r="I59" s="139"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="254"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="137">
+    <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="134"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="254"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="134"/>
+      <c r="J59" s="139"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="254"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="134"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="134"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="254"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="137">
+    <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="134"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="254"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="134"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="254"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="134"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="254"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="134"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="254"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="137">
+    <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="134"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="254"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="134"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="254"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="134"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="134"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="254"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="137">
+    <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="134"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="254"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="134"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="254"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="134"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="254"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="134"/>
-      <c r="I63" s="139"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="254"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="137">
+    <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="134"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="254"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="134"/>
+      <c r="J63" s="139"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="254"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="134"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="254"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="134"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="254"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="137">
+    <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="134"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="254"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="134"/>
+      <c r="J64" s="139"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="254"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="134"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="254"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="134"/>
-      <c r="I65" s="139"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="254"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="137">
+    <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="134"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="254"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="134"/>
+      <c r="J65" s="139"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="254"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="137">
         <f t="shared" si="1"/>
         <v>250099.28000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="149"/>
-      <c r="B66" s="210"/>
-      <c r="C66" s="34">
-        <v>0</v>
-      </c>
-      <c r="D66" s="255"/>
-      <c r="E66" s="151"/>
-      <c r="F66" s="137">
-        <v>0</v>
-      </c>
-      <c r="H66" s="149"/>
-      <c r="I66" s="150"/>
-      <c r="J66" s="151">
-        <v>0</v>
-      </c>
-      <c r="K66" s="255"/>
-      <c r="L66" s="151"/>
-      <c r="M66" s="137"/>
-    </row>
-    <row r="67" spans="1:13" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="440"/>
-      <c r="C67" s="212">
-        <f>SUM(C3:C66)</f>
+    <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="149"/>
+      <c r="C66" s="210"/>
+      <c r="D66" s="34">
+        <v>0</v>
+      </c>
+      <c r="E66" s="255"/>
+      <c r="F66" s="151"/>
+      <c r="G66" s="137">
+        <v>0</v>
+      </c>
+      <c r="I66" s="149"/>
+      <c r="J66" s="150"/>
+      <c r="K66" s="151">
+        <v>0</v>
+      </c>
+      <c r="L66" s="255"/>
+      <c r="M66" s="151"/>
+      <c r="N66" s="137"/>
+    </row>
+    <row r="67" spans="2:14" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="440"/>
+      <c r="D67" s="212">
+        <f>SUM(D3:D66)</f>
         <v>2600214.79</v>
       </c>
-      <c r="D67" s="407"/>
-      <c r="E67" s="395">
-        <f>SUM(E3:E66)</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="153">
+      <c r="E67" s="407"/>
+      <c r="F67" s="395">
         <f>SUM(F3:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="153">
+        <f>SUM(G3:G66)</f>
         <v>2600214.79</v>
       </c>
-      <c r="H67" s="907" t="s">
+      <c r="I67" s="909" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="908"/>
-      <c r="J67" s="642">
-        <f>SUM(J3:J66)</f>
+      <c r="J67" s="910"/>
+      <c r="K67" s="642">
+        <f>SUM(K3:K66)</f>
         <v>250099.28000000003</v>
       </c>
-      <c r="K67" s="713"/>
-      <c r="L67" s="209">
-        <f>SUM(L3:L66)</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="153">
-        <f>M66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="441"/>
-      <c r="C68" s="214"/>
-      <c r="D68" s="256"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="869" t="s">
+      <c r="L67" s="713"/>
+      <c r="M67" s="209">
+        <f>SUM(M3:M66)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="153">
+        <f>N66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="441"/>
+      <c r="D68" s="214"/>
+      <c r="E68" s="256"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="871" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="909"/>
-      <c r="I68" s="910"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="256"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="163"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="256"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="870"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="256"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="511"/>
-      <c r="B70" s="512"/>
-      <c r="C70" s="233"/>
-      <c r="E70"/>
-      <c r="I70" s="194"/>
-      <c r="L70"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="511"/>
-      <c r="B71" s="512"/>
-      <c r="C71" s="233"/>
-      <c r="E71"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="426"/>
-      <c r="I71" s="503"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="714"/>
-      <c r="L71"/>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="194"/>
-      <c r="D72" s="456"/>
-      <c r="E72"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="792"/>
-      <c r="I72" s="793"/>
-      <c r="J72" s="794"/>
+      <c r="I68" s="911"/>
+      <c r="J68" s="912"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="256"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="163"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="256"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="872"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="256"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="511"/>
+      <c r="C70" s="512"/>
+      <c r="D70" s="233"/>
+      <c r="F70"/>
+      <c r="J70" s="194"/>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="511"/>
+      <c r="C71" s="512"/>
+      <c r="D71" s="233"/>
+      <c r="F71"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="426"/>
+      <c r="J71" s="503"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="714"/>
+      <c r="M71"/>
+    </row>
+    <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="194"/>
+      <c r="E72" s="456"/>
+      <c r="F72"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="792"/>
+      <c r="J72" s="793"/>
       <c r="K72" s="794"/>
-      <c r="L72"/>
+      <c r="L72" s="794"/>
       <c r="M72"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="194"/>
-      <c r="D73" s="456"/>
-      <c r="E73"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="792"/>
-      <c r="I73" s="793"/>
-      <c r="J73" s="794"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="194"/>
+      <c r="E73" s="456"/>
+      <c r="F73"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="792"/>
+      <c r="J73" s="793"/>
       <c r="K73" s="794"/>
-      <c r="L73"/>
+      <c r="L73" s="794"/>
       <c r="M73"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="194"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="456"/>
-      <c r="E74"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="792"/>
-      <c r="I74" s="793"/>
-      <c r="J74" s="794"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C74" s="194"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="456"/>
+      <c r="F74"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="792"/>
+      <c r="J74" s="793"/>
       <c r="K74" s="794"/>
-      <c r="L74"/>
+      <c r="L74" s="794"/>
       <c r="M74"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="194"/>
-      <c r="C75" s="233"/>
-      <c r="D75" s="456"/>
-      <c r="G75" s="2"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C75" s="194"/>
+      <c r="D75" s="233"/>
+      <c r="E75" s="456"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="714"/>
-      <c r="L75"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="714"/>
       <c r="M75"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="194"/>
-      <c r="C76" s="233"/>
-      <c r="D76" s="456"/>
-      <c r="G76" s="2"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C76" s="194"/>
+      <c r="D76" s="233"/>
+      <c r="E76" s="456"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="714"/>
-      <c r="L76"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="714"/>
       <c r="M76"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="194"/>
-      <c r="C77" s="233"/>
-      <c r="D77" s="456"/>
-      <c r="H77"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C77" s="194"/>
+      <c r="D77" s="233"/>
+      <c r="E77" s="456"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="L77"/>
+      <c r="K77"/>
       <c r="M77"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="194"/>
-      <c r="C78" s="233"/>
-      <c r="D78" s="456"/>
-      <c r="H78"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" s="194"/>
+      <c r="D78" s="233"/>
+      <c r="E78" s="456"/>
       <c r="I78"/>
       <c r="J78"/>
-      <c r="L78"/>
+      <c r="K78"/>
       <c r="M78"/>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="194"/>
-      <c r="C79" s="233"/>
-      <c r="D79" s="456"/>
-      <c r="H79"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C79" s="194"/>
+      <c r="D79" s="233"/>
+      <c r="E79" s="456"/>
       <c r="I79"/>
       <c r="J79"/>
-      <c r="L79"/>
+      <c r="K79"/>
       <c r="M79"/>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="194"/>
-      <c r="C80" s="233"/>
-      <c r="D80" s="456"/>
-      <c r="H80"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C80" s="194"/>
+      <c r="D80" s="233"/>
+      <c r="E80" s="456"/>
       <c r="I80"/>
       <c r="J80"/>
-      <c r="L80"/>
+      <c r="K80"/>
       <c r="M80"/>
-    </row>
-    <row r="81" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="116"/>
-      <c r="C81" s="233"/>
-      <c r="D81" s="456"/>
-      <c r="H81"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C81" s="116"/>
+      <c r="D81" s="233"/>
+      <c r="E81" s="456"/>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="L81"/>
+      <c r="K81"/>
       <c r="M81"/>
-    </row>
-    <row r="82" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="116"/>
-      <c r="C82" s="233"/>
-      <c r="D82" s="456"/>
-      <c r="H82"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C82" s="116"/>
+      <c r="D82" s="233"/>
+      <c r="E82" s="456"/>
       <c r="I82"/>
       <c r="J82"/>
-      <c r="L82"/>
+      <c r="K82"/>
       <c r="M82"/>
-    </row>
-    <row r="83" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="116"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="456"/>
-      <c r="H83"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="116"/>
+      <c r="D83" s="233"/>
+      <c r="E83" s="456"/>
       <c r="I83"/>
       <c r="J83"/>
-      <c r="L83"/>
+      <c r="K83"/>
       <c r="M83"/>
-    </row>
-    <row r="84" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="116"/>
-      <c r="C84" s="233"/>
-      <c r="D84" s="456"/>
-      <c r="H84"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C84" s="116"/>
+      <c r="D84" s="233"/>
+      <c r="E84" s="456"/>
       <c r="I84"/>
       <c r="J84"/>
-      <c r="L84"/>
+      <c r="K84"/>
       <c r="M84"/>
-    </row>
-    <row r="85" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="116"/>
-      <c r="C85" s="233"/>
-      <c r="D85" s="456"/>
-      <c r="H85"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C85" s="116"/>
+      <c r="D85" s="233"/>
+      <c r="E85" s="456"/>
       <c r="I85"/>
       <c r="J85"/>
-      <c r="L85"/>
+      <c r="K85"/>
       <c r="M85"/>
-    </row>
-    <row r="86" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="116"/>
-      <c r="C86" s="233"/>
-      <c r="D86" s="456"/>
-      <c r="H86"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C86" s="116"/>
+      <c r="D86" s="233"/>
+      <c r="E86" s="456"/>
       <c r="I86"/>
       <c r="J86"/>
-      <c r="L86"/>
+      <c r="K86"/>
       <c r="M86"/>
-    </row>
-    <row r="87" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="116"/>
-      <c r="C87" s="233"/>
-      <c r="D87" s="456"/>
-      <c r="H87"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C87" s="116"/>
+      <c r="D87" s="233"/>
+      <c r="E87" s="456"/>
       <c r="I87"/>
       <c r="J87"/>
-      <c r="L87"/>
+      <c r="K87"/>
       <c r="M87"/>
-    </row>
-    <row r="88" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="116"/>
-      <c r="C88" s="233"/>
-      <c r="D88" s="456"/>
-      <c r="H88"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C88" s="116"/>
+      <c r="D88" s="233"/>
+      <c r="E88" s="456"/>
       <c r="I88"/>
       <c r="J88"/>
-      <c r="L88"/>
+      <c r="K88"/>
       <c r="M88"/>
-    </row>
-    <row r="89" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="116"/>
-      <c r="C89" s="233"/>
-      <c r="D89" s="456"/>
-      <c r="H89"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C89" s="116"/>
+      <c r="D89" s="233"/>
+      <c r="E89" s="456"/>
       <c r="I89"/>
       <c r="J89"/>
-      <c r="L89"/>
+      <c r="K89"/>
       <c r="M89"/>
-    </row>
-    <row r="90" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="116"/>
-      <c r="C90" s="233"/>
-      <c r="D90" s="456"/>
-      <c r="H90"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C90" s="116"/>
+      <c r="D90" s="233"/>
+      <c r="E90" s="456"/>
       <c r="I90"/>
       <c r="J90"/>
-      <c r="L90"/>
+      <c r="K90"/>
       <c r="M90"/>
-    </row>
-    <row r="91" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="116"/>
-      <c r="C91" s="233"/>
-      <c r="D91" s="456"/>
-      <c r="H91"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C91" s="116"/>
+      <c r="D91" s="233"/>
+      <c r="E91" s="456"/>
       <c r="I91"/>
       <c r="J91"/>
-      <c r="L91"/>
+      <c r="K91"/>
       <c r="M91"/>
-    </row>
-    <row r="92" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="116"/>
-      <c r="C92" s="233"/>
-      <c r="D92" s="456"/>
-      <c r="H92"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C92" s="116"/>
+      <c r="D92" s="233"/>
+      <c r="E92" s="456"/>
       <c r="I92"/>
       <c r="J92"/>
-      <c r="L92"/>
+      <c r="K92"/>
       <c r="M92"/>
-    </row>
-    <row r="93" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="116"/>
-      <c r="C93" s="233"/>
-      <c r="D93" s="456"/>
-      <c r="H93"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C93" s="116"/>
+      <c r="D93" s="233"/>
+      <c r="E93" s="456"/>
       <c r="I93"/>
       <c r="J93"/>
-      <c r="L93"/>
+      <c r="K93"/>
       <c r="M93"/>
-    </row>
-    <row r="94" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="116"/>
-      <c r="C94" s="233"/>
-      <c r="D94" s="456"/>
-      <c r="H94"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C94" s="116"/>
+      <c r="D94" s="233"/>
+      <c r="E94" s="456"/>
       <c r="I94"/>
       <c r="J94"/>
-      <c r="L94"/>
+      <c r="K94"/>
       <c r="M94"/>
-    </row>
-    <row r="95" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="116"/>
-      <c r="C95" s="233"/>
-      <c r="D95" s="456"/>
-      <c r="H95"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C95" s="116"/>
+      <c r="D95" s="233"/>
+      <c r="E95" s="456"/>
       <c r="I95"/>
       <c r="J95"/>
-      <c r="L95"/>
+      <c r="K95"/>
       <c r="M95"/>
-    </row>
-    <row r="96" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="116"/>
-      <c r="C96" s="233"/>
-      <c r="D96" s="456"/>
-      <c r="H96"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C96" s="116"/>
+      <c r="D96" s="233"/>
+      <c r="E96" s="456"/>
       <c r="I96"/>
       <c r="J96"/>
-      <c r="L96"/>
+      <c r="K96"/>
       <c r="M96"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="116"/>
-      <c r="C97" s="129"/>
-      <c r="D97" s="456"/>
-      <c r="H97"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C97" s="116"/>
+      <c r="D97" s="129"/>
+      <c r="E97" s="456"/>
       <c r="I97"/>
       <c r="J97"/>
-      <c r="L97"/>
+      <c r="K97"/>
       <c r="M97"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="116"/>
-      <c r="C98" s="129"/>
-      <c r="D98" s="456"/>
-      <c r="H98"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" s